--- a/roth_conversion_analysis.xlsx
+++ b/roth_conversion_analysis.xlsx
@@ -587,13 +587,13 @@
         <v>100000</v>
       </c>
       <c r="P2" t="n">
-        <v>2354000</v>
+        <v>2361000</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>2354000</v>
+        <v>2361000</v>
       </c>
       <c r="S2" t="n">
         <v>100000</v>
@@ -618,7 +618,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2354000</v>
+        <v>2361000</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -651,13 +651,13 @@
         <v>103000</v>
       </c>
       <c r="P3" t="n">
-        <v>2408570</v>
+        <v>2423270</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>2408570</v>
+        <v>2423270</v>
       </c>
       <c r="S3" t="n">
         <v>103000</v>
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2408570</v>
+        <v>2423270</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -715,13 +715,13 @@
         <v>106090</v>
       </c>
       <c r="P4" t="n">
-        <v>2463653.6</v>
+        <v>2486808.9</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>2463653.6</v>
+        <v>2486808.9</v>
       </c>
       <c r="S4" t="n">
         <v>106090</v>
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2463653.6</v>
+        <v>2486808.9</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -779,13 +779,13 @@
         <v>109272.7</v>
       </c>
       <c r="P5" t="n">
-        <v>2519187.563</v>
+        <v>2551612.823</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>2519187.563</v>
+        <v>2551612.823</v>
       </c>
       <c r="S5" t="n">
         <v>109272.7</v>
@@ -810,7 +810,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2519187.563</v>
+        <v>2551612.823</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -843,13 +843,13 @@
         <v>112550.881</v>
       </c>
       <c r="P6" t="n">
-        <v>2575101.24974</v>
+        <v>2617674.839610001</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>2575101.24974</v>
+        <v>2617674.839610001</v>
       </c>
       <c r="S6" t="n">
         <v>112550.881</v>
@@ -874,7 +874,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2575101.24974</v>
+        <v>2617674.839610001</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -907,13 +907,13 @@
         <v>91927.40743000001</v>
       </c>
       <c r="P7" t="n">
-        <v>2656996.0112717</v>
+        <v>2708984.670952701</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>2656996.0112717</v>
+        <v>2708984.670952701</v>
       </c>
       <c r="S7" t="n">
         <v>115927.40743</v>
@@ -938,7 +938,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2656996.0112717</v>
+        <v>2708984.670952701</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>95405.22965290002</v>
       </c>
       <c r="P8" t="n">
-        <v>2740902.136332116</v>
+        <v>2803208.368266489</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>2740902.136332116</v>
+        <v>2803208.368266489</v>
       </c>
       <c r="S8" t="n">
         <v>119405.2296529</v>
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2740902.136332116</v>
+        <v>2803208.368266489</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1035,13 +1035,13 @@
         <v>56987.38654248702</v>
       </c>
       <c r="P9" t="n">
-        <v>2871788.782274903</v>
+        <v>2942445.567502657</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>2871788.782274903</v>
+        <v>2942445.567502657</v>
       </c>
       <c r="S9" t="n">
         <v>122987.386542487</v>
@@ -1066,7 +1066,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2871788.782274903</v>
+        <v>2942445.567502657</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>60677.00813876164</v>
       </c>
       <c r="P10" t="n">
-        <v>3007889.598325672</v>
+        <v>3087739.749089081</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>3007889.598325672</v>
+        <v>3087739.749089081</v>
       </c>
       <c r="S10" t="n">
         <v>126677.0081387616</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3007889.598325672</v>
+        <v>3087739.749089081</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1163,13 +1163,13 @@
         <v>64477.3183829245</v>
       </c>
       <c r="P11" t="n">
-        <v>3149451.13953874</v>
+        <v>3239404.213142393</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>3149451.13953874</v>
+        <v>3239404.213142393</v>
       </c>
       <c r="S11" t="n">
         <v>130477.3183829245</v>
@@ -1194,7 +1194,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>3149451.13953874</v>
+        <v>3239404.213142393</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1227,13 +1227,13 @@
         <v>68391.63793441223</v>
       </c>
       <c r="P12" t="n">
-        <v>3296733.666716631</v>
+        <v>3397770.870127948</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>3296733.666716631</v>
+        <v>3397770.870127948</v>
       </c>
       <c r="S12" t="n">
         <v>134391.6379344122</v>
@@ -1258,7 +1258,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>3296733.666716631</v>
+        <v>3397770.870127948</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1267,7 +1267,7 @@
         <v>66000</v>
       </c>
       <c r="H13" t="n">
-        <v>124405.0440270427</v>
+        <v>128217.7686840735</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1276,10 +1276,10 @@
         <v>56100</v>
       </c>
       <c r="K13" t="n">
-        <v>148205.0440270427</v>
+        <v>152017.7686840735</v>
       </c>
       <c r="L13" t="n">
-        <v>22711.10968594938</v>
+        <v>23549.90911049618</v>
       </c>
       <c r="M13" t="n">
         <v>138423.3870724446</v>
@@ -1288,22 +1288,22 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>124405.0440270427</v>
+        <v>128217.7686840735</v>
       </c>
       <c r="P13" t="n">
-        <v>3394391.626277859</v>
+        <v>3507397.062352831</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>3394391.626277859</v>
+        <v>3507397.062352831</v>
       </c>
       <c r="S13" t="n">
-        <v>167693.9343410933</v>
+        <v>170667.8595735774</v>
       </c>
       <c r="T13" t="n">
-        <v>29270.54726864869</v>
+        <v>32244.47250113275</v>
       </c>
     </row>
     <row r="14">
@@ -1322,7 +1322,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>3394391.626277859</v>
+        <v>3507397.062352831</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1331,7 +1331,7 @@
         <v>66000</v>
       </c>
       <c r="H14" t="n">
-        <v>133113.3971089357</v>
+        <v>137544.9828373659</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1340,10 +1340,10 @@
         <v>56100</v>
       </c>
       <c r="K14" t="n">
-        <v>156913.3971089357</v>
+        <v>161344.9828373659</v>
       </c>
       <c r="L14" t="n">
-        <v>24626.94736396585</v>
+        <v>25601.8962242205</v>
       </c>
       <c r="M14" t="n">
         <v>142576.0886846179</v>
@@ -1352,22 +1352,22 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>133113.3971089357</v>
+        <v>137544.9828373659</v>
       </c>
       <c r="P14" t="n">
-        <v>3489567.705210749</v>
+        <v>3615369.873880163</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>3489567.705210749</v>
+        <v>3615369.873880163</v>
       </c>
       <c r="S14" t="n">
-        <v>174486.4497449698</v>
+        <v>177943.0866131454</v>
       </c>
       <c r="T14" t="n">
-        <v>31910.36106035189</v>
+        <v>35366.9979285275</v>
       </c>
     </row>
     <row r="15">
@@ -1386,7 +1386,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>3489567.705210749</v>
+        <v>3615369.873880163</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1395,7 +1395,7 @@
         <v>66000</v>
       </c>
       <c r="H15" t="n">
-        <v>141852.3457402743</v>
+        <v>146966.255035779</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1404,10 +1404,10 @@
         <v>56100</v>
       </c>
       <c r="K15" t="n">
-        <v>165652.3457402743</v>
+        <v>170766.255035779</v>
       </c>
       <c r="L15" t="n">
-        <v>26549.51606286035</v>
+        <v>27674.57610787137</v>
       </c>
       <c r="M15" t="n">
         <v>146853.3713451565</v>
@@ -1416,22 +1416,22 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>141852.3457402743</v>
+        <v>146966.255035779</v>
       </c>
       <c r="P15" t="n">
-        <v>3582055.434633407</v>
+        <v>3721479.510015996</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>3582055.434633407</v>
+        <v>3721479.510015996</v>
       </c>
       <c r="S15" t="n">
-        <v>181302.829677414</v>
+        <v>185291.6789279076</v>
       </c>
       <c r="T15" t="n">
-        <v>34449.45833225749</v>
+        <v>38438.30758275112</v>
       </c>
     </row>
     <row r="16">
@@ -1450,7 +1450,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>3582055.434633407</v>
+        <v>3721479.510015996</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1459,7 +1459,7 @@
         <v>66000</v>
       </c>
       <c r="H16" t="n">
-        <v>151141.5795203969</v>
+        <v>157024.4518994091</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1468,10 +1468,10 @@
         <v>56100</v>
       </c>
       <c r="K16" t="n">
-        <v>174941.5795203969</v>
+        <v>180824.4518994091</v>
       </c>
       <c r="L16" t="n">
-        <v>28593.14749448733</v>
+        <v>29887.37941787001</v>
       </c>
       <c r="M16" t="n">
         <v>151258.9724855112</v>
@@ -1480,22 +1480,22 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>151141.5795203969</v>
+        <v>157024.4518994091</v>
       </c>
       <c r="P16" t="n">
-        <v>3671077.824970922</v>
+        <v>3824958.623817707</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>3671077.824970922</v>
+        <v>3824958.623817707</v>
       </c>
       <c r="S16" t="n">
-        <v>188548.4320259096</v>
+        <v>193137.0724815391</v>
       </c>
       <c r="T16" t="n">
-        <v>37289.45954039844</v>
+        <v>41878.09999602792</v>
       </c>
     </row>
     <row r="17">
@@ -1514,7 +1514,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>3671077.824970922</v>
+        <v>3824958.623817707</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1523,7 +1523,7 @@
         <v>66000</v>
       </c>
       <c r="H17" t="n">
-        <v>160309.0753262411</v>
+        <v>167028.7608654021</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1532,10 +1532,10 @@
         <v>56100</v>
       </c>
       <c r="K17" t="n">
-        <v>184109.0753262411</v>
+        <v>190828.7608654021</v>
       </c>
       <c r="L17" t="n">
-        <v>30609.99657177304</v>
+        <v>32088.32739038845</v>
       </c>
       <c r="M17" t="n">
         <v>155796.7416600765</v>
@@ -1544,22 +1544,22 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>160309.0753262411</v>
+        <v>167028.7608654021</v>
       </c>
       <c r="P17" t="n">
-        <v>3756522.562119808</v>
+        <v>3925676.966619545</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>3756522.562119808</v>
+        <v>3925676.966619545</v>
       </c>
       <c r="S17" t="n">
-        <v>195699.0787544681</v>
+        <v>200940.4334750136</v>
       </c>
       <c r="T17" t="n">
-        <v>39902.33709439155</v>
+        <v>45143.69181493708</v>
       </c>
     </row>
     <row r="18">
@@ -1578,7 +1578,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>3756522.562119808</v>
+        <v>3925676.966619545</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1587,7 +1587,7 @@
         <v>66000</v>
       </c>
       <c r="H18" t="n">
-        <v>170751.0255509004</v>
+        <v>178439.8621190702</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1596,10 +1596,10 @@
         <v>56100</v>
       </c>
       <c r="K18" t="n">
-        <v>194551.0255509004</v>
+        <v>202239.8621190702</v>
       </c>
       <c r="L18" t="n">
-        <v>32907.22562119809</v>
+        <v>34622.56690857685</v>
       </c>
       <c r="M18" t="n">
         <v>160470.6439098788</v>
@@ -1608,22 +1608,22 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>170751.0255509004</v>
+        <v>178439.8621190702</v>
       </c>
       <c r="P18" t="n">
-        <v>3836775.544128731</v>
+        <v>4022034.492163843</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>3836775.544128731</v>
+        <v>4022034.492163843</v>
       </c>
       <c r="S18" t="n">
-        <v>203843.7999297023</v>
+        <v>209817.2952104934</v>
       </c>
       <c r="T18" t="n">
-        <v>43373.15601982348</v>
+        <v>49346.65130061455</v>
       </c>
     </row>
     <row r="19">
@@ -1642,7 +1642,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>3836775.544128731</v>
+        <v>4022034.492163843</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -1651,7 +1651,7 @@
         <v>66000</v>
       </c>
       <c r="H19" t="n">
-        <v>181837.70351321</v>
+        <v>190617.748443784</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1660,10 +1660,10 @@
         <v>56100</v>
       </c>
       <c r="K19" t="n">
-        <v>205637.70351321</v>
+        <v>214417.748443784</v>
       </c>
       <c r="L19" t="n">
-        <v>35438.0488431704</v>
+        <v>37545.25962650816</v>
       </c>
       <c r="M19" t="n">
         <v>165284.7632271752</v>
@@ -1672,22 +1672,22 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>181837.70351321</v>
+        <v>190617.748443784</v>
       </c>
       <c r="P19" t="n">
-        <v>3910783.489458608</v>
+        <v>4112959.158171528</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>3910783.489458608</v>
+        <v>4112959.158171528</v>
       </c>
       <c r="S19" t="n">
-        <v>212399.6546700396</v>
+        <v>219072.4888172758</v>
       </c>
       <c r="T19" t="n">
-        <v>47114.89144286441</v>
+        <v>53787.72559010063</v>
       </c>
     </row>
     <row r="20">
@@ -1706,7 +1706,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>3910783.489458608</v>
+        <v>4112959.158171528</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>66000</v>
       </c>
       <c r="H20" t="n">
-        <v>193603.1430425053</v>
+        <v>203611.839513442</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1724,10 +1724,10 @@
         <v>56100</v>
       </c>
       <c r="K20" t="n">
-        <v>217403.1430425053</v>
+        <v>227411.839513442</v>
       </c>
       <c r="L20" t="n">
-        <v>38261.75433020128</v>
+        <v>40663.84148322608</v>
       </c>
       <c r="M20" t="n">
         <v>170243.3061239904</v>
@@ -1736,22 +1736,22 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>193603.1430425053</v>
+        <v>203611.839513442</v>
       </c>
       <c r="P20" t="n">
-        <v>3977382.97066523</v>
+        <v>4197254.459730093</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>3977382.97066523</v>
+        <v>4197254.459730093</v>
       </c>
       <c r="S20" t="n">
-        <v>221341.3887123041</v>
+        <v>228947.9980302159</v>
       </c>
       <c r="T20" t="n">
-        <v>51098.08258831361</v>
+        <v>58704.69190622549</v>
       </c>
     </row>
     <row r="21">
@@ -1770,7 +1770,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>3977382.97066523</v>
+        <v>4197254.459730093</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>66000</v>
       </c>
       <c r="H21" t="n">
-        <v>205019.7407559397</v>
+        <v>216353.3226664997</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1788,10 +1788,10 @@
         <v>56100</v>
       </c>
       <c r="K21" t="n">
-        <v>228819.7407559397</v>
+        <v>240153.3226664996</v>
       </c>
       <c r="L21" t="n">
-        <v>41001.73778142553</v>
+        <v>43721.79743995992</v>
       </c>
       <c r="M21" t="n">
         <v>175350.6053077102</v>
@@ -1800,22 +1800,22 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>205019.7407559397</v>
+        <v>216353.3226664997</v>
       </c>
       <c r="P21" t="n">
-        <v>4036428.656002941</v>
+        <v>4274708.9492447</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>4036428.656002941</v>
+        <v>4274708.9492447</v>
       </c>
       <c r="S21" t="n">
-        <v>230018.0029745142</v>
+        <v>238631.5252265397</v>
       </c>
       <c r="T21" t="n">
-        <v>54667.39766680406</v>
+        <v>63280.91991882958</v>
       </c>
     </row>
     <row r="22">
@@ -1834,7 +1834,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>4036428.656002941</v>
+        <v>4274708.9492447</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         <v>66000</v>
       </c>
       <c r="H22" t="n">
-        <v>218185.3327569157</v>
+        <v>231065.3486078217</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -1852,10 +1852,10 @@
         <v>56100</v>
       </c>
       <c r="K22" t="n">
-        <v>241985.3327569157</v>
+        <v>254865.3486078216</v>
       </c>
       <c r="L22" t="n">
-        <v>44161.47986165977</v>
+        <v>47252.68366587719</v>
       </c>
       <c r="M22" t="n">
         <v>180611.1234669415</v>
@@ -1864,22 +1864,22 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>218185.3327569157</v>
+        <v>231065.3486078217</v>
       </c>
       <c r="P22" t="n">
-        <v>4085520.355873247</v>
+        <v>4342873.227084008</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>4085520.355873247</v>
+        <v>4342873.227084008</v>
       </c>
       <c r="S22" t="n">
-        <v>240023.852895256</v>
+        <v>249812.6649419444</v>
       </c>
       <c r="T22" t="n">
-        <v>59412.72942831449</v>
+        <v>69201.54147500297</v>
       </c>
     </row>
     <row r="23">
@@ -1898,7 +1898,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>4085520.355873247</v>
+        <v>4342873.227084008</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -1907,7 +1907,7 @@
         <v>66000</v>
       </c>
       <c r="H23" t="n">
-        <v>230820.359088884</v>
+        <v>245360.0693267801</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -1916,10 +1916,10 @@
         <v>56100</v>
       </c>
       <c r="K23" t="n">
-        <v>254620.359088884</v>
+        <v>269160.0693267802</v>
       </c>
       <c r="L23" t="n">
-        <v>47193.88618133216</v>
+        <v>50683.41663842724</v>
       </c>
       <c r="M23" t="n">
         <v>186029.4571709497</v>
@@ -1928,22 +1928,22 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>230820.359088884</v>
+        <v>245360.0693267801</v>
       </c>
       <c r="P23" t="n">
-        <v>4124528.996559269</v>
+        <v>4401514.283653109</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>4124528.996559269</v>
+        <v>4401514.283653109</v>
       </c>
       <c r="S23" t="n">
-        <v>249626.4729075519</v>
+        <v>260676.6526883529</v>
       </c>
       <c r="T23" t="n">
-        <v>63597.01573660213</v>
+        <v>74647.19551740319</v>
       </c>
     </row>
     <row r="24">
@@ -1962,7 +1962,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>4124528.996559269</v>
+        <v>4401514.283653109</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>66000</v>
       </c>
       <c r="H24" t="n">
-        <v>245507.6783666231</v>
+        <v>261994.8978364946</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -1980,10 +1980,10 @@
         <v>56100</v>
       </c>
       <c r="K24" t="n">
-        <v>269307.6783666231</v>
+        <v>285794.8978364946</v>
       </c>
       <c r="L24" t="n">
-        <v>50718.84280798955</v>
+        <v>54675.7754807587</v>
       </c>
       <c r="M24" t="n">
         <v>191610.3408860782</v>
@@ -1992,22 +1992,22 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>245507.6783666231</v>
+        <v>261994.8978364946</v>
       </c>
       <c r="P24" t="n">
-        <v>4150552.810466131</v>
+        <v>4447625.385672333</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>4150552.810466131</v>
+        <v>4447625.385672333</v>
       </c>
       <c r="S24" t="n">
-        <v>260788.8355586336</v>
+        <v>273319.1223557359</v>
       </c>
       <c r="T24" t="n">
-        <v>69178.49467255536</v>
+        <v>81708.7814696577</v>
       </c>
     </row>
     <row r="25">
@@ -2026,7 +2026,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>4150552.810466131</v>
+        <v>4447625.385672333</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2035,7 +2035,7 @@
         <v>66000</v>
       </c>
       <c r="H25" t="n">
-        <v>259409.5506541332</v>
+        <v>277976.5866045208</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2044,10 +2044,10 @@
         <v>56100</v>
       </c>
       <c r="K25" t="n">
-        <v>283209.5506541332</v>
+        <v>301776.5866045208</v>
       </c>
       <c r="L25" t="n">
-        <v>54055.29215699197</v>
+        <v>58511.38078508499</v>
       </c>
       <c r="M25" t="n">
         <v>197358.6511126606</v>
@@ -2056,22 +2056,22 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>259409.5506541332</v>
+        <v>277976.5866045208</v>
       </c>
       <c r="P25" t="n">
-        <v>4163523.287998838</v>
+        <v>4480982.576064875</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>4163523.287998838</v>
+        <v>4480982.576064875</v>
       </c>
       <c r="S25" t="n">
-        <v>271354.2584971412</v>
+        <v>285465.2058194358</v>
       </c>
       <c r="T25" t="n">
-        <v>73995.60738448065</v>
+        <v>88106.55470677523</v>
       </c>
     </row>
     <row r="26">
@@ -2090,7 +2090,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>4163523.287998838</v>
+        <v>4480982.576064875</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         <v>42000</v>
       </c>
       <c r="H26" t="n">
-        <v>247828.767142788</v>
+        <v>266725.1533371949</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2108,10 +2108,10 @@
         <v>35700</v>
       </c>
       <c r="K26" t="n">
-        <v>260918.7671427879</v>
+        <v>279815.1533371949</v>
       </c>
       <c r="L26" t="n">
-        <v>48705.5041142691</v>
+        <v>53240.63680092678</v>
       </c>
       <c r="M26" t="n">
         <v>203279.4106460404</v>
@@ -2120,22 +2120,22 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>247828.767142788</v>
+        <v>266725.1533371949</v>
       </c>
       <c r="P26" t="n">
-        <v>4189793.137315974</v>
+        <v>4527926.203052223</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>4189793.137315974</v>
+        <v>4527926.203052223</v>
       </c>
       <c r="S26" t="n">
-        <v>241123.2630285188</v>
+        <v>255484.5165362681</v>
       </c>
       <c r="T26" t="n">
-        <v>37843.85238247842</v>
+        <v>52205.10589022774</v>
       </c>
     </row>
     <row r="27">
@@ -2154,7 +2154,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>4189793.137315974</v>
+        <v>4527926.203052223</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2163,7 +2163,7 @@
         <v>42000</v>
       </c>
       <c r="H27" t="n">
-        <v>261862.0710822484</v>
+        <v>282995.3876907639</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2172,10 +2172,10 @@
         <v>35700</v>
       </c>
       <c r="K27" t="n">
-        <v>274952.0710822484</v>
+        <v>296085.3876907639</v>
       </c>
       <c r="L27" t="n">
-        <v>52073.4970597396</v>
+        <v>57145.49304578334</v>
       </c>
       <c r="M27" t="n">
         <v>209377.7929654216</v>
@@ -2184,22 +2184,22 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>261862.0710822484</v>
+        <v>282995.3876907639</v>
       </c>
       <c r="P27" t="n">
-        <v>4202886.240870086</v>
+        <v>4561885.649575114</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>4202886.240870086</v>
+        <v>4561885.649575114</v>
       </c>
       <c r="S27" t="n">
-        <v>251788.5740225088</v>
+        <v>267849.8946449806</v>
       </c>
       <c r="T27" t="n">
-        <v>42410.78105708715</v>
+        <v>58472.10167955895</v>
       </c>
     </row>
     <row r="28">
@@ -2218,7 +2218,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>4202886.240870086</v>
+        <v>4561885.649575114</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2227,7 +2227,7 @@
         <v>42000</v>
       </c>
       <c r="H28" t="n">
-        <v>276505.6737414531</v>
+        <v>300124.0558930996</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2236,10 +2236,10 @@
         <v>35700</v>
       </c>
       <c r="K28" t="n">
-        <v>289595.6737414531</v>
+        <v>313214.0558930996</v>
       </c>
       <c r="L28" t="n">
-        <v>55587.96169794875</v>
+        <v>61256.37341434391</v>
       </c>
       <c r="M28" t="n">
         <v>215659.1267543843</v>
@@ -2248,22 +2248,22 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>276505.6737414531</v>
+        <v>300124.0558930996</v>
       </c>
       <c r="P28" t="n">
-        <v>4201227.206827638</v>
+        <v>4581093.589152273</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>4201227.206827638</v>
+        <v>4581093.589152273</v>
       </c>
       <c r="S28" t="n">
-        <v>262917.7120435043</v>
+        <v>280867.6824787557</v>
       </c>
       <c r="T28" t="n">
-        <v>47258.58528912006</v>
+        <v>65208.55572437143</v>
       </c>
     </row>
     <row r="29">
@@ -2282,7 +2282,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>4201227.206827638</v>
+        <v>4581093.589152273</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2291,7 +2291,7 @@
         <v>42000</v>
       </c>
       <c r="H29" t="n">
-        <v>291751.8893630304</v>
+        <v>318131.4992466856</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2300,10 +2300,10 @@
         <v>35700</v>
       </c>
       <c r="K29" t="n">
-        <v>304841.8893630304</v>
+        <v>331221.4992466856</v>
       </c>
       <c r="L29" t="n">
-        <v>59247.05344712729</v>
+        <v>65578.15981920453</v>
       </c>
       <c r="M29" t="n">
         <v>222128.9005570158</v>
@@ -2312,22 +2312,22 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>291751.8893630304</v>
+        <v>318131.4992466856</v>
       </c>
       <c r="P29" t="n">
-        <v>4183138.58968713</v>
+        <v>4583638.641146246</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>4183138.58968713</v>
+        <v>4583638.641146246</v>
       </c>
       <c r="S29" t="n">
-        <v>274504.8359159031</v>
+        <v>294553.3394274811</v>
       </c>
       <c r="T29" t="n">
-        <v>52375.93535888728</v>
+        <v>72424.43887046524</v>
       </c>
     </row>
     <row r="30">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>4183138.58968713</v>
+        <v>4583638.641146246</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2355,7 +2355,7 @@
         <v>42000</v>
       </c>
       <c r="H30" t="n">
-        <v>305338.5831888416</v>
+        <v>334572.1635873173</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2364,10 +2364,10 @@
         <v>35700</v>
       </c>
       <c r="K30" t="n">
-        <v>318428.5831888416</v>
+        <v>347662.1635873173</v>
       </c>
       <c r="L30" t="n">
-        <v>62507.85996532199</v>
+        <v>69523.91926095614</v>
       </c>
       <c r="M30" t="n">
         <v>228792.7675737263</v>
@@ -2376,22 +2376,22 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>305338.5831888416</v>
+        <v>334572.1635873173</v>
       </c>
       <c r="P30" t="n">
-        <v>4149246.006953169</v>
+        <v>4569921.182439167</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>4149246.006953169</v>
+        <v>4569921.182439167</v>
       </c>
       <c r="S30" t="n">
-        <v>284830.7232235196</v>
+        <v>307048.2443263611</v>
       </c>
       <c r="T30" t="n">
-        <v>56037.95564979335</v>
+        <v>78255.47675263483</v>
       </c>
     </row>
     <row r="31">
@@ -2410,7 +2410,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>4149246.006953169</v>
+        <v>4569921.182439167</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2419,7 +2419,7 @@
         <v>42000</v>
       </c>
       <c r="H31" t="n">
-        <v>321646.9772831913</v>
+        <v>354257.4560030362</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2428,10 +2428,10 @@
         <v>35700</v>
       </c>
       <c r="K31" t="n">
-        <v>334736.9772831913</v>
+        <v>367347.4560030362</v>
       </c>
       <c r="L31" t="n">
-        <v>66421.87454796593</v>
+        <v>74248.38944072867</v>
       </c>
       <c r="M31" t="n">
         <v>235656.5506009381</v>
@@ -2440,22 +2440,22 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>321646.9772831913</v>
+        <v>354257.4560030362</v>
       </c>
       <c r="P31" t="n">
-        <v>4095530.961746876</v>
+        <v>4535558.209206873</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>4095530.961746876</v>
+        <v>4535558.209206873</v>
       </c>
       <c r="S31" t="n">
-        <v>297225.1027352254</v>
+        <v>322009.0665623075</v>
       </c>
       <c r="T31" t="n">
-        <v>61568.55213428731</v>
+        <v>86352.51596136944</v>
       </c>
     </row>
     <row r="32">
@@ -2474,7 +2474,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>4095530.961746876</v>
+        <v>4535558.209206873</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -2483,7 +2483,7 @@
         <v>42000</v>
       </c>
       <c r="H32" t="n">
-        <v>335699.25915958</v>
+        <v>371767.0663284322</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2492,10 +2492,10 @@
         <v>35700</v>
       </c>
       <c r="K32" t="n">
-        <v>348789.25915958</v>
+        <v>384857.0663284322</v>
       </c>
       <c r="L32" t="n">
-        <v>69794.4221982992</v>
+        <v>78527.26122509829</v>
       </c>
       <c r="M32" t="n">
         <v>242726.2471189662</v>
@@ -2504,22 +2504,22 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>335699.25915958</v>
+        <v>371767.0663284322</v>
       </c>
       <c r="P32" t="n">
-        <v>4023019.921768407</v>
+        <v>4481280.217522922</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>4023019.921768407</v>
+        <v>4481280.217522922</v>
       </c>
       <c r="S32" t="n">
-        <v>307904.8369612808</v>
+        <v>335239.8051033339</v>
       </c>
       <c r="T32" t="n">
-        <v>65178.58984231463</v>
+        <v>92513.55798436768</v>
       </c>
     </row>
     <row r="33">
@@ -2538,7 +2538,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>4023019.921768407</v>
+        <v>4481280.217522922</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -2547,7 +2547,7 @@
         <v>42000</v>
       </c>
       <c r="H33" t="n">
-        <v>349827.8192842093</v>
+        <v>389676.5406541671</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2556,10 +2556,10 @@
         <v>35700</v>
       </c>
       <c r="K33" t="n">
-        <v>362917.8192842093</v>
+        <v>402766.5406541671</v>
       </c>
       <c r="L33" t="n">
-        <v>73185.27662821024</v>
+        <v>84258.29300933349</v>
       </c>
       <c r="M33" t="n">
         <v>250008.0345325352</v>
@@ -2568,22 +2568,22 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>349827.8192842093</v>
+        <v>389676.5406541671</v>
       </c>
       <c r="P33" t="n">
-        <v>3930315.549658092</v>
+        <v>4405293.292095359</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>3930315.549658092</v>
+        <v>4405293.292095359</v>
       </c>
       <c r="S33" t="n">
-        <v>318642.5426559991</v>
+        <v>347418.2476448336</v>
       </c>
       <c r="T33" t="n">
-        <v>68634.50812346389</v>
+        <v>97410.21311229846</v>
       </c>
     </row>
     <row r="34">
@@ -2602,7 +2602,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>3930315.549658092</v>
+        <v>4405293.292095359</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>42000</v>
       </c>
       <c r="H34" t="n">
-        <v>363918.1064498233</v>
+        <v>407897.5270458666</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2620,10 +2620,10 @@
         <v>35700</v>
       </c>
       <c r="K34" t="n">
-        <v>377008.1064498233</v>
+        <v>420987.5270458666</v>
       </c>
       <c r="L34" t="n">
-        <v>76566.94554795758</v>
+        <v>90089.00865467731</v>
       </c>
       <c r="M34" t="n">
         <v>257508.2755685113</v>
@@ -2632,22 +2632,22 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>363918.1064498233</v>
+        <v>407897.5270458666</v>
       </c>
       <c r="P34" t="n">
-        <v>3816045.264232847</v>
+        <v>4305766.295496169</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>3816045.264232847</v>
+        <v>4305766.295496169</v>
       </c>
       <c r="S34" t="n">
-        <v>329351.1609018657</v>
+        <v>359808.5183911893</v>
       </c>
       <c r="T34" t="n">
-        <v>71842.88533335441</v>
+        <v>102300.242822678</v>
       </c>
     </row>
     <row r="35">
@@ -2666,7 +2666,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>3816045.264232847</v>
+        <v>4305766.295496169</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -2675,7 +2675,7 @@
         <v>42000</v>
       </c>
       <c r="H35" t="n">
-        <v>377826.2637854305</v>
+        <v>426313.4946035811</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -2684,10 +2684,10 @@
         <v>35700</v>
       </c>
       <c r="K35" t="n">
-        <v>390916.2637854305</v>
+        <v>439403.4946035811</v>
       </c>
       <c r="L35" t="n">
-        <v>80466.20441133775</v>
+        <v>95982.11827314596</v>
       </c>
       <c r="M35" t="n">
         <v>265233.5238355666</v>
@@ -2696,22 +2696,22 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>377826.2637854305</v>
+        <v>426313.4946035811</v>
       </c>
       <c r="P35" t="n">
-        <v>3678894.330478736</v>
+        <v>4180856.44157732</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>3678894.330478736</v>
+        <v>4180856.44157732</v>
       </c>
       <c r="S35" t="n">
-        <v>339360.0593740927</v>
+        <v>372331.3763304352</v>
       </c>
       <c r="T35" t="n">
-        <v>74126.53553852614</v>
+        <v>107097.8524948686</v>
       </c>
     </row>
     <row r="36">
@@ -2730,7 +2730,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>3678894.330478736</v>
+        <v>4180856.44157732</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -2739,7 +2739,7 @@
         <v>42000</v>
       </c>
       <c r="H36" t="n">
-        <v>387252.0347872354</v>
+        <v>440090.151744981</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -2748,10 +2748,10 @@
         <v>35700</v>
       </c>
       <c r="K36" t="n">
-        <v>400342.0347872354</v>
+        <v>453180.151744981</v>
       </c>
       <c r="L36" t="n">
-        <v>83482.45113191532</v>
+        <v>100390.6485583939</v>
       </c>
       <c r="M36" t="n">
         <v>273190.5295506336</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>387252.0347872354</v>
+        <v>440090.151744981</v>
       </c>
       <c r="P36" t="n">
-        <v>3522057.256389906</v>
+        <v>4033426.240742751</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>3522057.256389906</v>
+        <v>4033426.240742751</v>
       </c>
       <c r="S36" t="n">
-        <v>345769.58365532</v>
+        <v>381699.5031865871</v>
       </c>
       <c r="T36" t="n">
-        <v>72579.05410468642</v>
+        <v>108508.9736359534</v>
       </c>
     </row>
     <row r="37">
@@ -2794,7 +2794,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>3522057.256389906</v>
+        <v>4033426.240742751</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -2803,7 +2803,7 @@
         <v>42000</v>
       </c>
       <c r="H37" t="n">
-        <v>395736.7703808883</v>
+        <v>453193.959634017</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -2812,10 +2812,10 @@
         <v>35700</v>
       </c>
       <c r="K37" t="n">
-        <v>408826.7703808883</v>
+        <v>466283.959634017</v>
       </c>
       <c r="L37" t="n">
-        <v>86197.56652188426</v>
+        <v>104583.8670828854</v>
       </c>
       <c r="M37" t="n">
         <v>281386.2454371526</v>
@@ -2824,22 +2824,22 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>395736.7703808883</v>
+        <v>453193.959634017</v>
       </c>
       <c r="P37" t="n">
-        <v>3345162.92002965</v>
+        <v>3862572.117960727</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>3345162.92002965</v>
+        <v>3862572.117960727</v>
       </c>
       <c r="S37" t="n">
-        <v>351539.2038590041</v>
+        <v>390610.0925511315</v>
       </c>
       <c r="T37" t="n">
-        <v>70152.95842185145</v>
+        <v>109223.8471139789</v>
       </c>
     </row>
   </sheetData>
@@ -3006,25 +3006,25 @@
         <v>100000</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>176733</v>
       </c>
       <c r="O2" t="n">
+        <v>586733</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1874267</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>424107.2977443326</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2298374.297744333</v>
+      </c>
+      <c r="S2" t="n">
+        <v>510000</v>
+      </c>
+      <c r="T2" t="n">
         <v>410000</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2022300</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>438700</v>
-      </c>
-      <c r="R2" t="n">
-        <v>2461000</v>
-      </c>
-      <c r="S2" t="n">
-        <v>333267</v>
-      </c>
-      <c r="T2" t="n">
-        <v>233267</v>
       </c>
     </row>
     <row r="3">
@@ -3043,10 +3043,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2022300</v>
+        <v>1874267</v>
       </c>
       <c r="F3" t="n">
-        <v>438700</v>
+        <v>424107.2977443326</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -3070,25 +3070,25 @@
         <v>103000</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>179733</v>
       </c>
       <c r="O3" t="n">
+        <v>589733</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1415732.69</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>877902.1063307687</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2293634.796330769</v>
+      </c>
+      <c r="S3" t="n">
+        <v>513000</v>
+      </c>
+      <c r="T3" t="n">
         <v>410000</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1725161</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>908109</v>
-      </c>
-      <c r="R3" t="n">
-        <v>2633270</v>
-      </c>
-      <c r="S3" t="n">
-        <v>333267</v>
-      </c>
-      <c r="T3" t="n">
-        <v>230267</v>
       </c>
     </row>
     <row r="4">
@@ -3107,10 +3107,10 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1725161</v>
+        <v>1415732.69</v>
       </c>
       <c r="F4" t="n">
-        <v>908109</v>
+        <v>877902.1063307687</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -3134,25 +3134,25 @@
         <v>106090</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>182823</v>
       </c>
       <c r="O4" t="n">
+        <v>592823</v>
+      </c>
+      <c r="P4" t="n">
+        <v>922010.9783000003</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1363462.551518255</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2285473.529818255</v>
+      </c>
+      <c r="S4" t="n">
+        <v>516090</v>
+      </c>
+      <c r="T4" t="n">
         <v>410000</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1407222.27</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1410376.63</v>
-      </c>
-      <c r="R4" t="n">
-        <v>2817598.9</v>
-      </c>
-      <c r="S4" t="n">
-        <v>333267</v>
-      </c>
-      <c r="T4" t="n">
-        <v>227177</v>
       </c>
     </row>
     <row r="5">
@@ -3171,10 +3171,10 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1407222.27</v>
+        <v>922010.9783000003</v>
       </c>
       <c r="F5" t="n">
-        <v>1410376.63</v>
+        <v>1363462.551518255</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -3198,25 +3198,25 @@
         <v>109272.7</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>186005.7</v>
       </c>
       <c r="O5" t="n">
-        <v>410000</v>
+        <v>596005.7</v>
       </c>
       <c r="P5" t="n">
-        <v>1067027.828900001</v>
+        <v>390546.0467810004</v>
       </c>
       <c r="Q5" t="n">
-        <v>1947802.9941</v>
+        <v>1883012.227868866</v>
       </c>
       <c r="R5" t="n">
-        <v>3014830.823000001</v>
+        <v>2273558.274649866</v>
       </c>
       <c r="S5" t="n">
-        <v>333267</v>
+        <v>519272.7</v>
       </c>
       <c r="T5" t="n">
-        <v>223994.3</v>
+        <v>409999.9999999999</v>
       </c>
     </row>
     <row r="6">
@@ -3235,10 +3235,10 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1067027.828900001</v>
+        <v>390546.0467810004</v>
       </c>
       <c r="F6" t="n">
-        <v>1947802.9941</v>
+        <v>1883012.227868866</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -3247,40 +3247,40 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>410000</v>
+        <v>390546.0467810004</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>377700</v>
+        <v>358246.0467810004</v>
       </c>
       <c r="L6" t="n">
-        <v>76733</v>
+        <v>72064.0512274401</v>
       </c>
       <c r="M6" t="n">
         <v>112550.881</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>184614.9322274401</v>
       </c>
       <c r="O6" t="n">
-        <v>410000</v>
+        <v>575160.9790084406</v>
       </c>
       <c r="P6" t="n">
-        <v>703019.7769230006</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>2522849.203687001</v>
+        <v>2418807.055880715</v>
       </c>
       <c r="R6" t="n">
-        <v>3225868.980610001</v>
+        <v>2418807.055880715</v>
       </c>
       <c r="S6" t="n">
-        <v>333267</v>
+        <v>503096.9277810005</v>
       </c>
       <c r="T6" t="n">
-        <v>220716.119</v>
+        <v>390546.0467810005</v>
       </c>
     </row>
     <row r="7">
@@ -3299,10 +3299,10 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>703019.7769230006</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>2522849.203687001</v>
+        <v>2418807.055880715</v>
       </c>
       <c r="G7" t="n">
         <v>24000</v>
@@ -3311,40 +3311,40 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>390000</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>20400</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>378100</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>76829</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>115927.40743</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>91927.40743000001</v>
       </c>
       <c r="O7" t="n">
-        <v>390000</v>
+        <v>91927.40743000001</v>
       </c>
       <c r="P7" t="n">
-        <v>334931.1613076106</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>3116748.647945091</v>
+        <v>2588123.549792365</v>
       </c>
       <c r="R7" t="n">
-        <v>3451679.809252701</v>
+        <v>2588123.549792365</v>
       </c>
       <c r="S7" t="n">
-        <v>337171</v>
+        <v>115927.40743</v>
       </c>
       <c r="T7" t="n">
-        <v>221243.59257</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -3363,10 +3363,10 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>334931.1613076106</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>3116748.647945091</v>
+        <v>2588123.549792365</v>
       </c>
       <c r="G8" t="n">
         <v>24000</v>
@@ -3375,40 +3375,40 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>334931.1613076106</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>20400</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>323031.1613076106</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>63612.47871382655</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>119405.2296529</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>95405.22965290002</v>
       </c>
       <c r="O8" t="n">
-        <v>334931.1613076106</v>
+        <v>95405.22965290002</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>3693297.395900391</v>
+        <v>2769292.198277831</v>
       </c>
       <c r="R8" t="n">
-        <v>3693297.395900391</v>
+        <v>2769292.198277831</v>
       </c>
       <c r="S8" t="n">
-        <v>295318.6825937841</v>
+        <v>119405.2296529</v>
       </c>
       <c r="T8" t="n">
-        <v>175913.452940884</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -3430,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>3693297.395900391</v>
+        <v>2769292.198277831</v>
       </c>
       <c r="G9" t="n">
         <v>66000</v>
@@ -3463,10 +3463,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>3951828.213613418</v>
+        <v>2963142.652157279</v>
       </c>
       <c r="R9" t="n">
-        <v>3951828.213613418</v>
+        <v>2963142.652157279</v>
       </c>
       <c r="S9" t="n">
         <v>122987.386542487</v>
@@ -3494,7 +3494,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>3951828.213613418</v>
+        <v>2963142.652157279</v>
       </c>
       <c r="G10" t="n">
         <v>66000</v>
@@ -3527,10 +3527,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>4228456.188566358</v>
+        <v>3170562.637808289</v>
       </c>
       <c r="R10" t="n">
-        <v>4228456.188566358</v>
+        <v>3170562.637808289</v>
       </c>
       <c r="S10" t="n">
         <v>126677.0081387616</v>
@@ -3558,7 +3558,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>4228456.188566358</v>
+        <v>3170562.637808289</v>
       </c>
       <c r="G11" t="n">
         <v>66000</v>
@@ -3591,10 +3591,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>4524448.121766003</v>
+        <v>3392502.022454869</v>
       </c>
       <c r="R11" t="n">
-        <v>4524448.121766003</v>
+        <v>3392502.022454869</v>
       </c>
       <c r="S11" t="n">
         <v>130477.3183829245</v>
@@ -3622,7 +3622,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>4524448.121766003</v>
+        <v>3392502.022454869</v>
       </c>
       <c r="G12" t="n">
         <v>66000</v>
@@ -3655,10 +3655,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>4841159.490289623</v>
+        <v>3629977.164026711</v>
       </c>
       <c r="R12" t="n">
-        <v>4841159.490289623</v>
+        <v>3629977.164026711</v>
       </c>
       <c r="S12" t="n">
         <v>134391.6379344122</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>4841159.490289623</v>
+        <v>3629977.164026711</v>
       </c>
       <c r="G13" t="n">
         <v>66000</v>
@@ -3719,10 +3719,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>5180040.654609897</v>
+        <v>3884075.565508581</v>
       </c>
       <c r="R13" t="n">
-        <v>5180040.654609897</v>
+        <v>3884075.565508581</v>
       </c>
       <c r="S13" t="n">
         <v>138423.3870724446</v>
@@ -3750,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>5180040.654609897</v>
+        <v>3884075.565508581</v>
       </c>
       <c r="G14" t="n">
         <v>66000</v>
@@ -3783,10 +3783,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>5542643.50043259</v>
+        <v>4155960.855094182</v>
       </c>
       <c r="R14" t="n">
-        <v>5542643.50043259</v>
+        <v>4155960.855094182</v>
       </c>
       <c r="S14" t="n">
         <v>142576.0886846179</v>
@@ -3814,7 +3814,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>5542643.50043259</v>
+        <v>4155960.855094182</v>
       </c>
       <c r="G15" t="n">
         <v>66000</v>
@@ -3847,10 +3847,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>5930628.545462872</v>
+        <v>4446878.114950775</v>
       </c>
       <c r="R15" t="n">
-        <v>5930628.545462872</v>
+        <v>4446878.114950775</v>
       </c>
       <c r="S15" t="n">
         <v>146853.3713451565</v>
@@ -3878,7 +3878,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>5930628.545462872</v>
+        <v>4446878.114950775</v>
       </c>
       <c r="G16" t="n">
         <v>66000</v>
@@ -3911,10 +3911,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>6345772.543645273</v>
+        <v>4758159.58299733</v>
       </c>
       <c r="R16" t="n">
-        <v>6345772.543645273</v>
+        <v>4758159.58299733</v>
       </c>
       <c r="S16" t="n">
         <v>151258.9724855112</v>
@@ -3942,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>6345772.543645273</v>
+        <v>4758159.58299733</v>
       </c>
       <c r="G17" t="n">
         <v>66000</v>
@@ -3975,10 +3975,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>6789976.621700442</v>
+        <v>5091230.753807143</v>
       </c>
       <c r="R17" t="n">
-        <v>6789976.621700442</v>
+        <v>5091230.753807143</v>
       </c>
       <c r="S17" t="n">
         <v>155796.7416600765</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>6789976.621700442</v>
+        <v>5091230.753807143</v>
       </c>
       <c r="G18" t="n">
         <v>66000</v>
@@ -4039,10 +4039,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>7265274.985219474</v>
+        <v>5447616.906573644</v>
       </c>
       <c r="R18" t="n">
-        <v>7265274.985219474</v>
+        <v>5447616.906573644</v>
       </c>
       <c r="S18" t="n">
         <v>160470.6439098788</v>
@@ -4070,7 +4070,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>7265274.985219474</v>
+        <v>5447616.906573644</v>
       </c>
       <c r="G19" t="n">
         <v>66000</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>7773844.234184838</v>
+        <v>5828950.090033799</v>
       </c>
       <c r="R19" t="n">
-        <v>7773844.234184838</v>
+        <v>5828950.090033799</v>
       </c>
       <c r="S19" t="n">
         <v>165284.7632271752</v>
@@ -4134,7 +4134,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>7773844.234184838</v>
+        <v>5828950.090033799</v>
       </c>
       <c r="G20" t="n">
         <v>66000</v>
@@ -4167,10 +4167,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>8318013.330577777</v>
+        <v>6236976.596336165</v>
       </c>
       <c r="R20" t="n">
-        <v>8318013.330577777</v>
+        <v>6236976.596336165</v>
       </c>
       <c r="S20" t="n">
         <v>170243.3061239904</v>
@@ -4198,7 +4198,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>8318013.330577777</v>
+        <v>6236976.596336165</v>
       </c>
       <c r="G21" t="n">
         <v>66000</v>
@@ -4231,10 +4231,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>8900274.263718221</v>
+        <v>6673564.958079698</v>
       </c>
       <c r="R21" t="n">
-        <v>8900274.263718221</v>
+        <v>6673564.958079698</v>
       </c>
       <c r="S21" t="n">
         <v>175350.6053077102</v>
@@ -4262,7 +4262,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>8900274.263718221</v>
+        <v>6673564.958079698</v>
       </c>
       <c r="G22" t="n">
         <v>66000</v>
@@ -4295,10 +4295,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>9523293.462178497</v>
+        <v>7140714.505145277</v>
       </c>
       <c r="R22" t="n">
-        <v>9523293.462178497</v>
+        <v>7140714.505145277</v>
       </c>
       <c r="S22" t="n">
         <v>180611.1234669415</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>9523293.462178497</v>
+        <v>7140714.505145277</v>
       </c>
       <c r="G23" t="n">
         <v>66000</v>
@@ -4359,10 +4359,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>10189924.00453099</v>
+        <v>7640564.520505447</v>
       </c>
       <c r="R23" t="n">
-        <v>10189924.00453099</v>
+        <v>7640564.520505447</v>
       </c>
       <c r="S23" t="n">
         <v>186029.4571709497</v>
@@ -4390,7 +4390,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>10189924.00453099</v>
+        <v>7640564.520505447</v>
       </c>
       <c r="G24" t="n">
         <v>66000</v>
@@ -4423,10 +4423,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>10903218.68484816</v>
+        <v>8175404.036940829</v>
       </c>
       <c r="R24" t="n">
-        <v>10903218.68484816</v>
+        <v>8175404.036940829</v>
       </c>
       <c r="S24" t="n">
         <v>191610.3408860782</v>
@@ -4454,7 +4454,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>10903218.68484816</v>
+        <v>8175404.036940829</v>
       </c>
       <c r="G25" t="n">
         <v>66000</v>
@@ -4487,10 +4487,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>11666443.99278754</v>
+        <v>8747682.319526687</v>
       </c>
       <c r="R25" t="n">
-        <v>11666443.99278754</v>
+        <v>8747682.319526687</v>
       </c>
       <c r="S25" t="n">
         <v>197358.6511126606</v>
@@ -4518,7 +4518,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>11666443.99278754</v>
+        <v>8747682.319526687</v>
       </c>
       <c r="G26" t="n">
         <v>42000</v>
@@ -4551,10 +4551,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>12483095.07228266</v>
+        <v>9360020.081893556</v>
       </c>
       <c r="R26" t="n">
-        <v>12483095.07228266</v>
+        <v>9360020.081893556</v>
       </c>
       <c r="S26" t="n">
         <v>203279.4106460404</v>
@@ -4582,7 +4582,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>12483095.07228266</v>
+        <v>9360020.081893556</v>
       </c>
       <c r="G27" t="n">
         <v>42000</v>
@@ -4615,10 +4615,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>13356911.72734245</v>
+        <v>10015221.48762611</v>
       </c>
       <c r="R27" t="n">
-        <v>13356911.72734245</v>
+        <v>10015221.48762611</v>
       </c>
       <c r="S27" t="n">
         <v>209377.7929654216</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>13356911.72734245</v>
+        <v>10015221.48762611</v>
       </c>
       <c r="G28" t="n">
         <v>42000</v>
@@ -4679,10 +4679,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>14291895.54825642</v>
+        <v>10716286.99175993</v>
       </c>
       <c r="R28" t="n">
-        <v>14291895.54825642</v>
+        <v>10716286.99175993</v>
       </c>
       <c r="S28" t="n">
         <v>215659.1267543843</v>
@@ -4710,7 +4710,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>14291895.54825642</v>
+        <v>10716286.99175993</v>
       </c>
       <c r="G29" t="n">
         <v>42000</v>
@@ -4743,10 +4743,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>15292328.23663437</v>
+        <v>11466427.08118313</v>
       </c>
       <c r="R29" t="n">
-        <v>15292328.23663437</v>
+        <v>11466427.08118313</v>
       </c>
       <c r="S29" t="n">
         <v>222128.9005570158</v>
@@ -4774,7 +4774,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>15292328.23663437</v>
+        <v>11466427.08118313</v>
       </c>
       <c r="G30" t="n">
         <v>42000</v>
@@ -4807,10 +4807,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>16362791.21319878</v>
+        <v>12269076.97686595</v>
       </c>
       <c r="R30" t="n">
-        <v>16362791.21319878</v>
+        <v>12269076.97686595</v>
       </c>
       <c r="S30" t="n">
         <v>228792.7675737263</v>
@@ -4838,7 +4838,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>16362791.21319878</v>
+        <v>12269076.97686595</v>
       </c>
       <c r="G31" t="n">
         <v>42000</v>
@@ -4871,10 +4871,10 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>17508186.5981227</v>
+        <v>13127912.36524657</v>
       </c>
       <c r="R31" t="n">
-        <v>17508186.5981227</v>
+        <v>13127912.36524657</v>
       </c>
       <c r="S31" t="n">
         <v>235656.5506009381</v>
@@ -4902,7 +4902,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>17508186.5981227</v>
+        <v>13127912.36524657</v>
       </c>
       <c r="G32" t="n">
         <v>42000</v>
@@ -4935,10 +4935,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>18733759.65999129</v>
+        <v>14046866.23081383</v>
       </c>
       <c r="R32" t="n">
-        <v>18733759.65999129</v>
+        <v>14046866.23081383</v>
       </c>
       <c r="S32" t="n">
         <v>242726.2471189662</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>18733759.65999129</v>
+        <v>14046866.23081383</v>
       </c>
       <c r="G33" t="n">
         <v>42000</v>
@@ -4999,10 +4999,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>20045122.83619068</v>
+        <v>15030146.8669708</v>
       </c>
       <c r="R33" t="n">
-        <v>20045122.83619068</v>
+        <v>15030146.8669708</v>
       </c>
       <c r="S33" t="n">
         <v>250008.0345325352</v>
@@ -5030,7 +5030,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>20045122.83619068</v>
+        <v>15030146.8669708</v>
       </c>
       <c r="G34" t="n">
         <v>42000</v>
@@ -5063,10 +5063,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>21448281.43472403</v>
+        <v>16082257.14765875</v>
       </c>
       <c r="R34" t="n">
-        <v>21448281.43472403</v>
+        <v>16082257.14765875</v>
       </c>
       <c r="S34" t="n">
         <v>257508.2755685113</v>
@@ -5094,7 +5094,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>21448281.43472403</v>
+        <v>16082257.14765875</v>
       </c>
       <c r="G35" t="n">
         <v>42000</v>
@@ -5127,10 +5127,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>22949661.13515471</v>
+        <v>17208015.14799486</v>
       </c>
       <c r="R35" t="n">
-        <v>22949661.13515471</v>
+        <v>17208015.14799486</v>
       </c>
       <c r="S35" t="n">
         <v>265233.5238355666</v>
@@ -5158,7 +5158,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>22949661.13515471</v>
+        <v>17208015.14799486</v>
       </c>
       <c r="G36" t="n">
         <v>42000</v>
@@ -5191,10 +5191,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>24556137.41461554</v>
+        <v>18412576.20835451</v>
       </c>
       <c r="R36" t="n">
-        <v>24556137.41461554</v>
+        <v>18412576.20835451</v>
       </c>
       <c r="S36" t="n">
         <v>273190.5295506336</v>
@@ -5222,7 +5222,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>24556137.41461554</v>
+        <v>18412576.20835451</v>
       </c>
       <c r="G37" t="n">
         <v>42000</v>
@@ -5255,10 +5255,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>26275067.03363863</v>
+        <v>19701456.54293932</v>
       </c>
       <c r="R37" t="n">
-        <v>26275067.03363863</v>
+        <v>19701456.54293932</v>
       </c>
       <c r="S37" t="n">
         <v>281386.2454371526</v>
@@ -5330,22 +5330,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1291065.602034982</v>
+        <v>1441302.978864743</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>3345162.92002965</v>
+        <v>3862572.117960727</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3345162.92002965</v>
+        <v>3862572.117960727</v>
       </c>
       <c r="G2" t="n">
-        <v>37646.38142976824</v>
+        <v>48939.68093752107</v>
       </c>
     </row>
     <row r="3">
@@ -5355,22 +5355,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>524106.4787138266</v>
+        <v>378996.0512274401</v>
       </c>
       <c r="C3" t="n">
-        <v>2774931.161307611</v>
+        <v>2030546.046781</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>26275067.03363863</v>
+        <v>19701456.54293932</v>
       </c>
       <c r="F3" t="n">
-        <v>26275067.03363863</v>
+        <v>19701456.54293932</v>
       </c>
       <c r="G3" t="n">
-        <v>42571.62401419123</v>
+        <v>56404.05685502779</v>
       </c>
     </row>
   </sheetData>
@@ -5384,7 +5384,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T8"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5537,25 +5537,25 @@
         <v>100000</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>176733</v>
       </c>
       <c r="O2" t="n">
+        <v>586733</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1874267</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>424107.2977443326</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2298374.297744333</v>
+      </c>
+      <c r="S2" t="n">
+        <v>510000</v>
+      </c>
+      <c r="T2" t="n">
         <v>410000</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2022300</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>438700</v>
-      </c>
-      <c r="R2" t="n">
-        <v>2461000</v>
-      </c>
-      <c r="S2" t="n">
-        <v>333267</v>
-      </c>
-      <c r="T2" t="n">
-        <v>233267</v>
       </c>
     </row>
     <row r="3">
@@ -5574,10 +5574,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2022300</v>
+        <v>1874267</v>
       </c>
       <c r="F3" t="n">
-        <v>438700</v>
+        <v>424107.2977443326</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -5601,25 +5601,25 @@
         <v>103000</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>179733</v>
       </c>
       <c r="O3" t="n">
+        <v>589733</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1415732.69</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>877902.1063307687</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2293634.796330769</v>
+      </c>
+      <c r="S3" t="n">
+        <v>513000</v>
+      </c>
+      <c r="T3" t="n">
         <v>410000</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1725161</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>908109</v>
-      </c>
-      <c r="R3" t="n">
-        <v>2633270</v>
-      </c>
-      <c r="S3" t="n">
-        <v>333267</v>
-      </c>
-      <c r="T3" t="n">
-        <v>230267</v>
       </c>
     </row>
     <row r="4">
@@ -5638,10 +5638,10 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1725161</v>
+        <v>1415732.69</v>
       </c>
       <c r="F4" t="n">
-        <v>908109</v>
+        <v>877902.1063307687</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -5665,25 +5665,25 @@
         <v>106090</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>182823</v>
       </c>
       <c r="O4" t="n">
+        <v>592823</v>
+      </c>
+      <c r="P4" t="n">
+        <v>922010.9783000003</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1363462.551518255</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2285473.529818255</v>
+      </c>
+      <c r="S4" t="n">
+        <v>516090</v>
+      </c>
+      <c r="T4" t="n">
         <v>410000</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1407222.27</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1410376.63</v>
-      </c>
-      <c r="R4" t="n">
-        <v>2817598.9</v>
-      </c>
-      <c r="S4" t="n">
-        <v>333267</v>
-      </c>
-      <c r="T4" t="n">
-        <v>227177</v>
       </c>
     </row>
     <row r="5">
@@ -5702,10 +5702,10 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1407222.27</v>
+        <v>922010.9783000003</v>
       </c>
       <c r="F5" t="n">
-        <v>1410376.63</v>
+        <v>1363462.551518255</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -5729,25 +5729,25 @@
         <v>109272.7</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>186005.7</v>
       </c>
       <c r="O5" t="n">
-        <v>410000</v>
+        <v>596005.7</v>
       </c>
       <c r="P5" t="n">
-        <v>1067027.828900001</v>
+        <v>390546.0467810004</v>
       </c>
       <c r="Q5" t="n">
-        <v>1947802.9941</v>
+        <v>1883012.227868866</v>
       </c>
       <c r="R5" t="n">
-        <v>3014830.823000001</v>
+        <v>2273558.274649866</v>
       </c>
       <c r="S5" t="n">
-        <v>333267</v>
+        <v>519272.7</v>
       </c>
       <c r="T5" t="n">
-        <v>223994.3</v>
+        <v>409999.9999999999</v>
       </c>
     </row>
     <row r="6">
@@ -5766,10 +5766,10 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1067027.828900001</v>
+        <v>390546.0467810004</v>
       </c>
       <c r="F6" t="n">
-        <v>1947802.9941</v>
+        <v>1883012.227868866</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -5778,168 +5778,40 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>410000</v>
+        <v>390546.0467810004</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>377700</v>
+        <v>358246.0467810004</v>
       </c>
       <c r="L6" t="n">
-        <v>76733</v>
+        <v>72064.0512274401</v>
       </c>
       <c r="M6" t="n">
         <v>112550.881</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>184614.9322274401</v>
       </c>
       <c r="O6" t="n">
-        <v>410000</v>
+        <v>575160.9790084406</v>
       </c>
       <c r="P6" t="n">
-        <v>703019.7769230006</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>2522849.203687001</v>
+        <v>2418807.055880715</v>
       </c>
       <c r="R6" t="n">
-        <v>3225868.980610001</v>
+        <v>2418807.055880715</v>
       </c>
       <c r="S6" t="n">
-        <v>333267</v>
+        <v>503096.9277810005</v>
       </c>
       <c r="T6" t="n">
-        <v>220716.119</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>2031</v>
-      </c>
-      <c r="B7" t="n">
-        <v>65</v>
-      </c>
-      <c r="C7" t="n">
-        <v>67</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>With_Conversions</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>703019.7769230006</v>
-      </c>
-      <c r="F7" t="n">
-        <v>2522849.203687001</v>
-      </c>
-      <c r="G7" t="n">
-        <v>24000</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>390000</v>
-      </c>
-      <c r="J7" t="n">
-        <v>20400</v>
-      </c>
-      <c r="K7" t="n">
-        <v>378100</v>
-      </c>
-      <c r="L7" t="n">
-        <v>76829</v>
-      </c>
-      <c r="M7" t="n">
-        <v>115927.40743</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>390000</v>
-      </c>
-      <c r="P7" t="n">
-        <v>334931.1613076106</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>3116748.647945091</v>
-      </c>
-      <c r="R7" t="n">
-        <v>3451679.809252701</v>
-      </c>
-      <c r="S7" t="n">
-        <v>337171</v>
-      </c>
-      <c r="T7" t="n">
-        <v>221243.59257</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>2032</v>
-      </c>
-      <c r="B8" t="n">
-        <v>66</v>
-      </c>
-      <c r="C8" t="n">
-        <v>68</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>With_Conversions</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>334931.1613076106</v>
-      </c>
-      <c r="F8" t="n">
-        <v>3116748.647945091</v>
-      </c>
-      <c r="G8" t="n">
-        <v>24000</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>334931.1613076106</v>
-      </c>
-      <c r="J8" t="n">
-        <v>20400</v>
-      </c>
-      <c r="K8" t="n">
-        <v>323031.1613076106</v>
-      </c>
-      <c r="L8" t="n">
-        <v>63612.47871382655</v>
-      </c>
-      <c r="M8" t="n">
-        <v>119405.2296529</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>334931.1613076106</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>3693297.395900391</v>
-      </c>
-      <c r="R8" t="n">
-        <v>3693297.395900391</v>
-      </c>
-      <c r="S8" t="n">
-        <v>295318.6825937841</v>
-      </c>
-      <c r="T8" t="n">
-        <v>175913.452940884</v>
+        <v>390546.0467810005</v>
       </c>
     </row>
   </sheetData>

--- a/roth_conversion_analysis.xlsx
+++ b/roth_conversion_analysis.xlsx
@@ -3015,10 +3015,10 @@
         <v>1874267</v>
       </c>
       <c r="Q2" t="n">
-        <v>424107.2977443326</v>
+        <v>438700</v>
       </c>
       <c r="R2" t="n">
-        <v>2298374.297744333</v>
+        <v>2312967</v>
       </c>
       <c r="S2" t="n">
         <v>510000</v>
@@ -3046,7 +3046,7 @@
         <v>1874267</v>
       </c>
       <c r="F3" t="n">
-        <v>424107.2977443326</v>
+        <v>438700</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>1415732.69</v>
       </c>
       <c r="Q3" t="n">
-        <v>877902.1063307687</v>
+        <v>908109</v>
       </c>
       <c r="R3" t="n">
-        <v>2293634.796330769</v>
+        <v>2323841.69</v>
       </c>
       <c r="S3" t="n">
         <v>513000</v>
@@ -3110,7 +3110,7 @@
         <v>1415732.69</v>
       </c>
       <c r="F4" t="n">
-        <v>877902.1063307687</v>
+        <v>908109</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -3143,10 +3143,10 @@
         <v>922010.9783000003</v>
       </c>
       <c r="Q4" t="n">
-        <v>1363462.551518255</v>
+        <v>1410376.63</v>
       </c>
       <c r="R4" t="n">
-        <v>2285473.529818255</v>
+        <v>2332387.6083</v>
       </c>
       <c r="S4" t="n">
         <v>516090</v>
@@ -3174,7 +3174,7 @@
         <v>922010.9783000003</v>
       </c>
       <c r="F5" t="n">
-        <v>1363462.551518255</v>
+        <v>1410376.63</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -3207,10 +3207,10 @@
         <v>390546.0467810004</v>
       </c>
       <c r="Q5" t="n">
-        <v>1883012.227868866</v>
+        <v>1947802.9941</v>
       </c>
       <c r="R5" t="n">
-        <v>2273558.274649866</v>
+        <v>2338349.040881</v>
       </c>
       <c r="S5" t="n">
         <v>519272.7</v>
@@ -3238,7 +3238,7 @@
         <v>390546.0467810004</v>
       </c>
       <c r="F6" t="n">
-        <v>1883012.227868866</v>
+        <v>1947802.9941</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -3271,10 +3271,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>2418807.055880715</v>
+        <v>2502033.473742671</v>
       </c>
       <c r="R6" t="n">
-        <v>2418807.055880715</v>
+        <v>2502033.473742671</v>
       </c>
       <c r="S6" t="n">
         <v>503096.9277810005</v>
@@ -3302,7 +3302,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>2418807.055880715</v>
+        <v>2502033.473742671</v>
       </c>
       <c r="G7" t="n">
         <v>24000</v>
@@ -3335,10 +3335,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>2588123.549792365</v>
+        <v>2677175.816904658</v>
       </c>
       <c r="R7" t="n">
-        <v>2588123.549792365</v>
+        <v>2677175.816904658</v>
       </c>
       <c r="S7" t="n">
         <v>115927.40743</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>2588123.549792365</v>
+        <v>2677175.816904658</v>
       </c>
       <c r="G8" t="n">
         <v>24000</v>
@@ -3399,10 +3399,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>2769292.198277831</v>
+        <v>2864578.124087984</v>
       </c>
       <c r="R8" t="n">
-        <v>2769292.198277831</v>
+        <v>2864578.124087984</v>
       </c>
       <c r="S8" t="n">
         <v>119405.2296529</v>
@@ -3430,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>2769292.198277831</v>
+        <v>2864578.124087984</v>
       </c>
       <c r="G9" t="n">
         <v>66000</v>
@@ -3463,10 +3463,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>2963142.652157279</v>
+        <v>3065098.592774143</v>
       </c>
       <c r="R9" t="n">
-        <v>2963142.652157279</v>
+        <v>3065098.592774143</v>
       </c>
       <c r="S9" t="n">
         <v>122987.386542487</v>
@@ -3494,7 +3494,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>2963142.652157279</v>
+        <v>3065098.592774143</v>
       </c>
       <c r="G10" t="n">
         <v>66000</v>
@@ -3527,10 +3527,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>3170562.637808289</v>
+        <v>3279655.494268334</v>
       </c>
       <c r="R10" t="n">
-        <v>3170562.637808289</v>
+        <v>3279655.494268334</v>
       </c>
       <c r="S10" t="n">
         <v>126677.0081387616</v>
@@ -3558,7 +3558,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>3170562.637808289</v>
+        <v>3279655.494268334</v>
       </c>
       <c r="G11" t="n">
         <v>66000</v>
@@ -3591,10 +3591,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>3392502.022454869</v>
+        <v>3509231.378867117</v>
       </c>
       <c r="R11" t="n">
-        <v>3392502.022454869</v>
+        <v>3509231.378867117</v>
       </c>
       <c r="S11" t="n">
         <v>130477.3183829245</v>
@@ -3622,7 +3622,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>3392502.022454869</v>
+        <v>3509231.378867117</v>
       </c>
       <c r="G12" t="n">
         <v>66000</v>
@@ -3655,10 +3655,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>3629977.164026711</v>
+        <v>3754877.575387815</v>
       </c>
       <c r="R12" t="n">
-        <v>3629977.164026711</v>
+        <v>3754877.575387815</v>
       </c>
       <c r="S12" t="n">
         <v>134391.6379344122</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>3629977.164026711</v>
+        <v>3754877.575387815</v>
       </c>
       <c r="G13" t="n">
         <v>66000</v>
@@ -3719,10 +3719,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>3884075.565508581</v>
+        <v>4017719.005664963</v>
       </c>
       <c r="R13" t="n">
-        <v>3884075.565508581</v>
+        <v>4017719.005664963</v>
       </c>
       <c r="S13" t="n">
         <v>138423.3870724446</v>
@@ -3750,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>3884075.565508581</v>
+        <v>4017719.005664963</v>
       </c>
       <c r="G14" t="n">
         <v>66000</v>
@@ -3783,10 +3783,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>4155960.855094182</v>
+        <v>4298959.33606151</v>
       </c>
       <c r="R14" t="n">
-        <v>4155960.855094182</v>
+        <v>4298959.33606151</v>
       </c>
       <c r="S14" t="n">
         <v>142576.0886846179</v>
@@ -3814,7 +3814,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>4155960.855094182</v>
+        <v>4298959.33606151</v>
       </c>
       <c r="G15" t="n">
         <v>66000</v>
@@ -3847,10 +3847,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>4446878.114950775</v>
+        <v>4599886.489585816</v>
       </c>
       <c r="R15" t="n">
-        <v>4446878.114950775</v>
+        <v>4599886.489585816</v>
       </c>
       <c r="S15" t="n">
         <v>146853.3713451565</v>
@@ -3878,7 +3878,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>4446878.114950775</v>
+        <v>4599886.489585816</v>
       </c>
       <c r="G16" t="n">
         <v>66000</v>
@@ -3911,10 +3911,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>4758159.58299733</v>
+        <v>4921878.543856823</v>
       </c>
       <c r="R16" t="n">
-        <v>4758159.58299733</v>
+        <v>4921878.543856823</v>
       </c>
       <c r="S16" t="n">
         <v>151258.9724855112</v>
@@ -3942,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>4758159.58299733</v>
+        <v>4921878.543856823</v>
       </c>
       <c r="G17" t="n">
         <v>66000</v>
@@ -3975,10 +3975,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>5091230.753807143</v>
+        <v>5266410.041926801</v>
       </c>
       <c r="R17" t="n">
-        <v>5091230.753807143</v>
+        <v>5266410.041926801</v>
       </c>
       <c r="S17" t="n">
         <v>155796.7416600765</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>5091230.753807143</v>
+        <v>5266410.041926801</v>
       </c>
       <c r="G18" t="n">
         <v>66000</v>
@@ -4039,10 +4039,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>5447616.906573644</v>
+        <v>5635058.744861677</v>
       </c>
       <c r="R18" t="n">
-        <v>5447616.906573644</v>
+        <v>5635058.744861677</v>
       </c>
       <c r="S18" t="n">
         <v>160470.6439098788</v>
@@ -4070,7 +4070,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>5447616.906573644</v>
+        <v>5635058.744861677</v>
       </c>
       <c r="G19" t="n">
         <v>66000</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>5828950.090033799</v>
+        <v>6029512.857001995</v>
       </c>
       <c r="R19" t="n">
-        <v>5828950.090033799</v>
+        <v>6029512.857001995</v>
       </c>
       <c r="S19" t="n">
         <v>165284.7632271752</v>
@@ -4134,7 +4134,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>5828950.090033799</v>
+        <v>6029512.857001995</v>
       </c>
       <c r="G20" t="n">
         <v>66000</v>
@@ -4167,10 +4167,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>6236976.596336165</v>
+        <v>6451578.756992135</v>
       </c>
       <c r="R20" t="n">
-        <v>6236976.596336165</v>
+        <v>6451578.756992135</v>
       </c>
       <c r="S20" t="n">
         <v>170243.3061239904</v>
@@ -4198,7 +4198,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>6236976.596336165</v>
+        <v>6451578.756992135</v>
       </c>
       <c r="G21" t="n">
         <v>66000</v>
@@ -4231,10 +4231,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6673564.958079698</v>
+        <v>6903189.269981585</v>
       </c>
       <c r="R21" t="n">
-        <v>6673564.958079698</v>
+        <v>6903189.269981585</v>
       </c>
       <c r="S21" t="n">
         <v>175350.6053077102</v>
@@ -4262,7 +4262,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>6673564.958079698</v>
+        <v>6903189.269981585</v>
       </c>
       <c r="G22" t="n">
         <v>66000</v>
@@ -4295,10 +4295,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>7140714.505145277</v>
+        <v>7386412.518880296</v>
       </c>
       <c r="R22" t="n">
-        <v>7140714.505145277</v>
+        <v>7386412.518880296</v>
       </c>
       <c r="S22" t="n">
         <v>180611.1234669415</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>7140714.505145277</v>
+        <v>7386412.518880296</v>
       </c>
       <c r="G23" t="n">
         <v>66000</v>
@@ -4359,10 +4359,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>7640564.520505447</v>
+        <v>7903461.395201918</v>
       </c>
       <c r="R23" t="n">
-        <v>7640564.520505447</v>
+        <v>7903461.395201918</v>
       </c>
       <c r="S23" t="n">
         <v>186029.4571709497</v>
@@ -4390,7 +4390,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>7640564.520505447</v>
+        <v>7903461.395201918</v>
       </c>
       <c r="G24" t="n">
         <v>66000</v>
@@ -4423,10 +4423,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>8175404.036940829</v>
+        <v>8456703.692866052</v>
       </c>
       <c r="R24" t="n">
-        <v>8175404.036940829</v>
+        <v>8456703.692866052</v>
       </c>
       <c r="S24" t="n">
         <v>191610.3408860782</v>
@@ -4454,7 +4454,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>8175404.036940829</v>
+        <v>8456703.692866052</v>
       </c>
       <c r="G25" t="n">
         <v>66000</v>
@@ -4487,10 +4487,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>8747682.319526687</v>
+        <v>9048672.951366676</v>
       </c>
       <c r="R25" t="n">
-        <v>8747682.319526687</v>
+        <v>9048672.951366676</v>
       </c>
       <c r="S25" t="n">
         <v>197358.6511126606</v>
@@ -4518,7 +4518,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>8747682.319526687</v>
+        <v>9048672.951366676</v>
       </c>
       <c r="G26" t="n">
         <v>42000</v>
@@ -4551,10 +4551,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9360020.081893556</v>
+        <v>9682080.057962343</v>
       </c>
       <c r="R26" t="n">
-        <v>9360020.081893556</v>
+        <v>9682080.057962343</v>
       </c>
       <c r="S26" t="n">
         <v>203279.4106460404</v>
@@ -4582,7 +4582,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>9360020.081893556</v>
+        <v>9682080.057962343</v>
       </c>
       <c r="G27" t="n">
         <v>42000</v>
@@ -4615,10 +4615,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>10015221.48762611</v>
+        <v>10359825.66201971</v>
       </c>
       <c r="R27" t="n">
-        <v>10015221.48762611</v>
+        <v>10359825.66201971</v>
       </c>
       <c r="S27" t="n">
         <v>209377.7929654216</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>10015221.48762611</v>
+        <v>10359825.66201971</v>
       </c>
       <c r="G28" t="n">
         <v>42000</v>
@@ -4679,10 +4679,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>10716286.99175993</v>
+        <v>11085013.45836109</v>
       </c>
       <c r="R28" t="n">
-        <v>10716286.99175993</v>
+        <v>11085013.45836109</v>
       </c>
       <c r="S28" t="n">
         <v>215659.1267543843</v>
@@ -4710,7 +4710,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>10716286.99175993</v>
+        <v>11085013.45836109</v>
       </c>
       <c r="G29" t="n">
         <v>42000</v>
@@ -4743,10 +4743,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>11466427.08118313</v>
+        <v>11860964.40044636</v>
       </c>
       <c r="R29" t="n">
-        <v>11466427.08118313</v>
+        <v>11860964.40044636</v>
       </c>
       <c r="S29" t="n">
         <v>222128.9005570158</v>
@@ -4774,7 +4774,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>11466427.08118313</v>
+        <v>11860964.40044636</v>
       </c>
       <c r="G30" t="n">
         <v>42000</v>
@@ -4807,10 +4807,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>12269076.97686595</v>
+        <v>12691231.90847761</v>
       </c>
       <c r="R30" t="n">
-        <v>12269076.97686595</v>
+        <v>12691231.90847761</v>
       </c>
       <c r="S30" t="n">
         <v>228792.7675737263</v>
@@ -4838,7 +4838,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>12269076.97686595</v>
+        <v>12691231.90847761</v>
       </c>
       <c r="G31" t="n">
         <v>42000</v>
@@ -4871,10 +4871,10 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>13127912.36524657</v>
+        <v>13579618.14207105</v>
       </c>
       <c r="R31" t="n">
-        <v>13127912.36524657</v>
+        <v>13579618.14207105</v>
       </c>
       <c r="S31" t="n">
         <v>235656.5506009381</v>
@@ -4902,7 +4902,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>13127912.36524657</v>
+        <v>13579618.14207105</v>
       </c>
       <c r="G32" t="n">
         <v>42000</v>
@@ -4935,10 +4935,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>14046866.23081383</v>
+        <v>14530191.41201602</v>
       </c>
       <c r="R32" t="n">
-        <v>14046866.23081383</v>
+        <v>14530191.41201602</v>
       </c>
       <c r="S32" t="n">
         <v>242726.2471189662</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>14046866.23081383</v>
+        <v>14530191.41201602</v>
       </c>
       <c r="G33" t="n">
         <v>42000</v>
@@ -4999,10 +4999,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>15030146.8669708</v>
+        <v>15547304.81085714</v>
       </c>
       <c r="R33" t="n">
-        <v>15030146.8669708</v>
+        <v>15547304.81085714</v>
       </c>
       <c r="S33" t="n">
         <v>250008.0345325352</v>
@@ -5030,7 +5030,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>15030146.8669708</v>
+        <v>15547304.81085714</v>
       </c>
       <c r="G34" t="n">
         <v>42000</v>
@@ -5063,10 +5063,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>16082257.14765875</v>
+        <v>16635616.14761714</v>
       </c>
       <c r="R34" t="n">
-        <v>16082257.14765875</v>
+        <v>16635616.14761714</v>
       </c>
       <c r="S34" t="n">
         <v>257508.2755685113</v>
@@ -5094,7 +5094,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>16082257.14765875</v>
+        <v>16635616.14761714</v>
       </c>
       <c r="G35" t="n">
         <v>42000</v>
@@ -5127,10 +5127,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>17208015.14799486</v>
+        <v>17800109.27795034</v>
       </c>
       <c r="R35" t="n">
-        <v>17208015.14799486</v>
+        <v>17800109.27795034</v>
       </c>
       <c r="S35" t="n">
         <v>265233.5238355666</v>
@@ -5158,7 +5158,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>17208015.14799486</v>
+        <v>17800109.27795034</v>
       </c>
       <c r="G36" t="n">
         <v>42000</v>
@@ -5191,10 +5191,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>18412576.20835451</v>
+        <v>19046116.92740687</v>
       </c>
       <c r="R36" t="n">
-        <v>18412576.20835451</v>
+        <v>19046116.92740687</v>
       </c>
       <c r="S36" t="n">
         <v>273190.5295506336</v>
@@ -5222,7 +5222,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>18412576.20835451</v>
+        <v>19046116.92740687</v>
       </c>
       <c r="G37" t="n">
         <v>42000</v>
@@ -5255,10 +5255,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>19701456.54293932</v>
+        <v>20379345.11232535</v>
       </c>
       <c r="R37" t="n">
-        <v>19701456.54293932</v>
+        <v>20379345.11232535</v>
       </c>
       <c r="S37" t="n">
         <v>281386.2454371526</v>
@@ -5364,10 +5364,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>19701456.54293932</v>
+        <v>20379345.11232535</v>
       </c>
       <c r="F3" t="n">
-        <v>19701456.54293932</v>
+        <v>20379345.11232535</v>
       </c>
       <c r="G3" t="n">
         <v>56404.05685502779</v>
@@ -5546,10 +5546,10 @@
         <v>1874267</v>
       </c>
       <c r="Q2" t="n">
-        <v>424107.2977443326</v>
+        <v>438700</v>
       </c>
       <c r="R2" t="n">
-        <v>2298374.297744333</v>
+        <v>2312967</v>
       </c>
       <c r="S2" t="n">
         <v>510000</v>
@@ -5577,7 +5577,7 @@
         <v>1874267</v>
       </c>
       <c r="F3" t="n">
-        <v>424107.2977443326</v>
+        <v>438700</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -5610,10 +5610,10 @@
         <v>1415732.69</v>
       </c>
       <c r="Q3" t="n">
-        <v>877902.1063307687</v>
+        <v>908109</v>
       </c>
       <c r="R3" t="n">
-        <v>2293634.796330769</v>
+        <v>2323841.69</v>
       </c>
       <c r="S3" t="n">
         <v>513000</v>
@@ -5641,7 +5641,7 @@
         <v>1415732.69</v>
       </c>
       <c r="F4" t="n">
-        <v>877902.1063307687</v>
+        <v>908109</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -5674,10 +5674,10 @@
         <v>922010.9783000003</v>
       </c>
       <c r="Q4" t="n">
-        <v>1363462.551518255</v>
+        <v>1410376.63</v>
       </c>
       <c r="R4" t="n">
-        <v>2285473.529818255</v>
+        <v>2332387.6083</v>
       </c>
       <c r="S4" t="n">
         <v>516090</v>
@@ -5705,7 +5705,7 @@
         <v>922010.9783000003</v>
       </c>
       <c r="F5" t="n">
-        <v>1363462.551518255</v>
+        <v>1410376.63</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -5738,10 +5738,10 @@
         <v>390546.0467810004</v>
       </c>
       <c r="Q5" t="n">
-        <v>1883012.227868866</v>
+        <v>1947802.9941</v>
       </c>
       <c r="R5" t="n">
-        <v>2273558.274649866</v>
+        <v>2338349.040881</v>
       </c>
       <c r="S5" t="n">
         <v>519272.7</v>
@@ -5769,7 +5769,7 @@
         <v>390546.0467810004</v>
       </c>
       <c r="F6" t="n">
-        <v>1883012.227868866</v>
+        <v>1947802.9941</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -5802,10 +5802,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>2418807.055880715</v>
+        <v>2502033.473742671</v>
       </c>
       <c r="R6" t="n">
-        <v>2418807.055880715</v>
+        <v>2502033.473742671</v>
       </c>
       <c r="S6" t="n">
         <v>503096.9277810005</v>

--- a/roth_conversion_analysis.xlsx
+++ b/roth_conversion_analysis.xlsx
@@ -479,32 +479,32 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>Spending_Need</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>Roth_Conversion</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Additional_Withdrawal</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Taxable_SS</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Taxable_Income</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Federal_Tax</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Spending_Need</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Additional_Withdrawal</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -566,34 +566,34 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>108704.519462912</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>100000</v>
+        <v>76404.3288576</v>
       </c>
       <c r="N2" t="n">
-        <v>100000</v>
+        <v>8704.519462912001</v>
       </c>
       <c r="O2" t="n">
-        <v>100000</v>
+        <v>108704.519462912</v>
       </c>
       <c r="P2" t="n">
-        <v>2361000</v>
+        <v>2352295.480537088</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>2361000</v>
+        <v>2352295.480537088</v>
       </c>
       <c r="S2" t="n">
         <v>100000</v>
@@ -618,7 +618,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2361000</v>
+        <v>2352295.480537088</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -630,34 +630,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>103000</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>112113.609150464</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>103000</v>
+        <v>79813.4095872</v>
       </c>
       <c r="N3" t="n">
-        <v>103000</v>
+        <v>9113.609150463999</v>
       </c>
       <c r="O3" t="n">
-        <v>103000</v>
+        <v>112113.609150464</v>
       </c>
       <c r="P3" t="n">
-        <v>2423270</v>
+        <v>2404842.55502422</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>2423270</v>
+        <v>2404842.55502422</v>
       </c>
       <c r="S3" t="n">
         <v>103000</v>
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2423270</v>
+        <v>2404842.55502422</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -694,34 +694,34 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>106090</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>115624.9715286426</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>106090</v>
+        <v>83324.762738688</v>
       </c>
       <c r="N4" t="n">
-        <v>106090</v>
+        <v>9534.97152864256</v>
       </c>
       <c r="O4" t="n">
-        <v>106090</v>
+        <v>115624.9715286426</v>
       </c>
       <c r="P4" t="n">
-        <v>2486808.9</v>
+        <v>2457556.562347273</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>2486808.9</v>
+        <v>2457556.562347273</v>
       </c>
       <c r="S4" t="n">
         <v>106090</v>
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2486808.9</v>
+        <v>2457556.562347273</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -758,34 +758,34 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>109272.7</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>119241.6747781665</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>109272.7</v>
+        <v>86941.45648472063</v>
       </c>
       <c r="N5" t="n">
-        <v>109272.7</v>
+        <v>9968.974778166476</v>
       </c>
       <c r="O5" t="n">
-        <v>109272.7</v>
+        <v>119241.6747781665</v>
       </c>
       <c r="P5" t="n">
-        <v>2551612.823</v>
+        <v>2510343.846933416</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>2551612.823</v>
+        <v>2510343.846933416</v>
       </c>
       <c r="S5" t="n">
         <v>109272.7</v>
@@ -810,7 +810,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2551612.823</v>
+        <v>2510343.846933416</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -822,40 +822,40 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>112550.881</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>122966.8791251761</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>112550.881</v>
+        <v>90666.65104313428</v>
       </c>
       <c r="N6" t="n">
-        <v>112550.881</v>
+        <v>10415.99812517611</v>
       </c>
       <c r="O6" t="n">
-        <v>112550.881</v>
+        <v>122966.8791251761</v>
       </c>
       <c r="P6" t="n">
-        <v>2617674.839610001</v>
+        <v>2563101.037093579</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>2617674.839610001</v>
+        <v>2563101.037093579</v>
       </c>
       <c r="S6" t="n">
         <v>112550.881</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>-1.455191522836685e-11</v>
       </c>
     </row>
     <row r="7">
@@ -874,7 +874,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2617674.839610001</v>
+        <v>2563101.037093579</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -886,34 +886,34 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115927.40743</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>102312.9319775336</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>20400</v>
       </c>
       <c r="M7" t="n">
-        <v>115927.40743</v>
+        <v>90412.7045627803</v>
       </c>
       <c r="N7" t="n">
-        <v>91927.40743000001</v>
+        <v>10385.52454753364</v>
       </c>
       <c r="O7" t="n">
-        <v>91927.40743000001</v>
+        <v>102312.9319775336</v>
       </c>
       <c r="P7" t="n">
-        <v>2708984.670952701</v>
+        <v>2640205.177712596</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>2708984.670952701</v>
+        <v>2640205.177712596</v>
       </c>
       <c r="S7" t="n">
         <v>115927.40743</v>
@@ -938,7 +938,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2708984.670952701</v>
+        <v>2640205.177712596</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -950,34 +950,34 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>119405.2296529</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>106273.3078585433</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>20400</v>
       </c>
       <c r="M8" t="n">
-        <v>119405.2296529</v>
+        <v>94373.08275292418</v>
       </c>
       <c r="N8" t="n">
-        <v>95405.22965290002</v>
+        <v>10868.07820564332</v>
       </c>
       <c r="O8" t="n">
-        <v>95405.22965290002</v>
+        <v>106273.3078585433</v>
       </c>
       <c r="P8" t="n">
-        <v>2803208.368266489</v>
+        <v>2718746.232293935</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>2803208.368266489</v>
+        <v>2718746.232293935</v>
       </c>
       <c r="S8" t="n">
         <v>119405.2296529</v>
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2803208.368266489</v>
+        <v>2718746.232293935</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1014,40 +1014,40 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>122987.386542487</v>
       </c>
       <c r="J9" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>67153.18297774901</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>53729.40076564271</v>
       </c>
       <c r="M9" t="n">
-        <v>122987.386542487</v>
+        <v>88581.63696051649</v>
       </c>
       <c r="N9" t="n">
-        <v>56987.38654248702</v>
+        <v>10165.79643526198</v>
       </c>
       <c r="O9" t="n">
-        <v>56987.38654248702</v>
+        <v>67153.18297774901</v>
       </c>
       <c r="P9" t="n">
-        <v>2942445.567502657</v>
+        <v>2841905.285576762</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>2942445.567502657</v>
+        <v>2841905.285576762</v>
       </c>
       <c r="S9" t="n">
         <v>122987.386542487</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>1.455191522836685e-11</v>
       </c>
     </row>
     <row r="10">
@@ -1066,7 +1066,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2942445.567502657</v>
+        <v>2841905.285576762</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1078,40 +1078,40 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>126677.0081387616</v>
       </c>
       <c r="J10" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>71818.99575893627</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>56100</v>
       </c>
       <c r="M10" t="n">
-        <v>126677.0081387616</v>
+        <v>95618.12554624831</v>
       </c>
       <c r="N10" t="n">
-        <v>60677.00813876164</v>
+        <v>11141.98762017463</v>
       </c>
       <c r="O10" t="n">
-        <v>60677.00813876164</v>
+        <v>71818.99575893627</v>
       </c>
       <c r="P10" t="n">
-        <v>3087739.749089081</v>
+        <v>2969019.659808199</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>3087739.749089081</v>
+        <v>2969019.659808199</v>
       </c>
       <c r="S10" t="n">
-        <v>126677.0081387616</v>
+        <v>126677.0081387617</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>1.455191522836685e-11</v>
       </c>
     </row>
     <row r="11">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3087739.749089081</v>
+        <v>2969019.659808199</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1142,40 +1142,40 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>130477.3183829245</v>
       </c>
       <c r="J11" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>76691.36791956626</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>56100</v>
       </c>
       <c r="M11" t="n">
-        <v>130477.3183829245</v>
+        <v>100491.1342574626</v>
       </c>
       <c r="N11" t="n">
-        <v>64477.3183829245</v>
+        <v>12214.04953664177</v>
       </c>
       <c r="O11" t="n">
-        <v>64477.3183829245</v>
+        <v>76691.36791956626</v>
       </c>
       <c r="P11" t="n">
-        <v>3239404.213142393</v>
+        <v>3100159.668075207</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>3239404.213142393</v>
+        <v>3100159.668075207</v>
       </c>
       <c r="S11" t="n">
         <v>130477.3183829245</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-1.455191522836685e-11</v>
       </c>
     </row>
     <row r="12">
@@ -1194,7 +1194,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>3239404.213142393</v>
+        <v>3100159.668075207</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1206,34 +1206,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>134391.6379344122</v>
       </c>
       <c r="J12" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>81709.72045567416</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>56100</v>
       </c>
       <c r="M12" t="n">
-        <v>134391.6379344122</v>
+        <v>105509.4660057361</v>
       </c>
       <c r="N12" t="n">
-        <v>68391.63793441223</v>
+        <v>13318.08252126195</v>
       </c>
       <c r="O12" t="n">
-        <v>68391.63793441223</v>
+        <v>81709.72045567416</v>
       </c>
       <c r="P12" t="n">
-        <v>3397770.870127948</v>
+        <v>3235461.124384797</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>3397770.870127948</v>
+        <v>3235461.124384797</v>
       </c>
       <c r="S12" t="n">
         <v>134391.6379344122</v>
@@ -1258,7 +1258,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>3397770.870127948</v>
+        <v>3235461.124384797</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>66000</v>
       </c>
       <c r="H13" t="n">
-        <v>128217.7686840735</v>
+        <v>122092.8726182942</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>138423.3870724446</v>
       </c>
       <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
         <v>56100</v>
       </c>
-      <c r="K13" t="n">
-        <v>152017.7686840735</v>
-      </c>
-      <c r="L13" t="n">
-        <v>23549.90911049618</v>
-      </c>
       <c r="M13" t="n">
-        <v>138423.3870724446</v>
+        <v>145892.8726182942</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>22202.43197602473</v>
       </c>
       <c r="O13" t="n">
-        <v>128217.7686840735</v>
+        <v>122092.8726182942</v>
       </c>
       <c r="P13" t="n">
-        <v>3507397.062352831</v>
+        <v>3339850.530473439</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>3507397.062352831</v>
+        <v>3339850.530473439</v>
       </c>
       <c r="S13" t="n">
-        <v>170667.8595735774</v>
+        <v>165890.4406422695</v>
       </c>
       <c r="T13" t="n">
-        <v>32244.47250113275</v>
+        <v>27467.0535698249</v>
       </c>
     </row>
     <row r="14">
@@ -1322,7 +1322,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>3507397.062352831</v>
+        <v>3339850.530473439</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1331,43 +1331,43 @@
         <v>66000</v>
       </c>
       <c r="H14" t="n">
-        <v>137544.9828373659</v>
+        <v>130974.5306068015</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>142576.0886846179</v>
       </c>
       <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
         <v>56100</v>
       </c>
-      <c r="K14" t="n">
-        <v>161344.9828373659</v>
-      </c>
-      <c r="L14" t="n">
-        <v>25601.8962242205</v>
-      </c>
       <c r="M14" t="n">
-        <v>142576.0886846179</v>
+        <v>154774.5306068015</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>24156.39673349634</v>
       </c>
       <c r="O14" t="n">
-        <v>137544.9828373659</v>
+        <v>130974.5306068015</v>
       </c>
       <c r="P14" t="n">
-        <v>3615369.873880163</v>
+        <v>3442665.536999778</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>3615369.873880163</v>
+        <v>3442665.536999778</v>
       </c>
       <c r="S14" t="n">
-        <v>177943.0866131454</v>
+        <v>172818.1338733052</v>
       </c>
       <c r="T14" t="n">
-        <v>35366.9979285275</v>
+        <v>30242.04518868728</v>
       </c>
     </row>
     <row r="15">
@@ -1386,7 +1386,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>3615369.873880163</v>
+        <v>3442665.536999778</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1395,43 +1395,43 @@
         <v>66000</v>
       </c>
       <c r="H15" t="n">
-        <v>146966.255035779</v>
+        <v>139945.7535365763</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>146853.3713451565</v>
       </c>
       <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
         <v>56100</v>
       </c>
-      <c r="K15" t="n">
-        <v>170766.255035779</v>
-      </c>
-      <c r="L15" t="n">
-        <v>27674.57610787137</v>
-      </c>
       <c r="M15" t="n">
-        <v>146853.3713451565</v>
+        <v>163745.7535365763</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>26130.0657780468</v>
       </c>
       <c r="O15" t="n">
-        <v>146966.255035779</v>
+        <v>139945.7535365763</v>
       </c>
       <c r="P15" t="n">
-        <v>3721479.510015996</v>
+        <v>3543706.371053187</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>3721479.510015996</v>
+        <v>3543706.371053187</v>
       </c>
       <c r="S15" t="n">
-        <v>185291.6789279076</v>
+        <v>179815.6877585296</v>
       </c>
       <c r="T15" t="n">
-        <v>38438.30758275112</v>
+        <v>32962.31641337308</v>
       </c>
     </row>
     <row r="16">
@@ -1450,7 +1450,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>3721479.510015996</v>
+        <v>3543706.371053187</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1459,43 +1459,43 @@
         <v>66000</v>
       </c>
       <c r="H16" t="n">
-        <v>157024.4518994091</v>
+        <v>149523.4755718644</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>151258.9724855112</v>
       </c>
       <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
         <v>56100</v>
       </c>
-      <c r="K16" t="n">
-        <v>180824.4518994091</v>
-      </c>
-      <c r="L16" t="n">
-        <v>29887.37941787001</v>
-      </c>
       <c r="M16" t="n">
-        <v>151258.9724855112</v>
+        <v>173323.4755718644</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>28237.16462581018</v>
       </c>
       <c r="O16" t="n">
-        <v>157024.4518994091</v>
+        <v>149523.4755718644</v>
       </c>
       <c r="P16" t="n">
-        <v>3824958.623817707</v>
+        <v>3642242.341455046</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>3824958.623817707</v>
+        <v>3642242.341455046</v>
       </c>
       <c r="S16" t="n">
-        <v>193137.0724815391</v>
+        <v>187286.3109460543</v>
       </c>
       <c r="T16" t="n">
-        <v>41878.09999602792</v>
+        <v>36027.33846054308</v>
       </c>
     </row>
     <row r="17">
@@ -1514,7 +1514,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>3824958.623817707</v>
+        <v>3642242.341455046</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1523,43 +1523,43 @@
         <v>66000</v>
       </c>
       <c r="H17" t="n">
-        <v>167028.7608654021</v>
+        <v>159049.8839063339</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>155796.7416600765</v>
       </c>
       <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
         <v>56100</v>
       </c>
-      <c r="K17" t="n">
-        <v>190828.7608654021</v>
-      </c>
-      <c r="L17" t="n">
-        <v>32088.32739038845</v>
-      </c>
       <c r="M17" t="n">
-        <v>155796.7416600765</v>
+        <v>182849.8839063339</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>30332.97445939346</v>
       </c>
       <c r="O17" t="n">
-        <v>167028.7608654021</v>
+        <v>159049.8839063339</v>
       </c>
       <c r="P17" t="n">
-        <v>3925676.966619545</v>
+        <v>3738149.421450565</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>3925676.966619545</v>
+        <v>3738149.421450565</v>
       </c>
       <c r="S17" t="n">
-        <v>200940.4334750136</v>
+        <v>194716.9094469404</v>
       </c>
       <c r="T17" t="n">
-        <v>45143.69181493708</v>
+        <v>38920.16778686392</v>
       </c>
     </row>
     <row r="18">
@@ -1578,7 +1578,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>3925676.966619545</v>
+        <v>3738149.421450565</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1587,43 +1587,43 @@
         <v>66000</v>
       </c>
       <c r="H18" t="n">
-        <v>178439.8621190702</v>
+        <v>169915.8827932075</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>160470.6439098788</v>
       </c>
       <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
         <v>56100</v>
       </c>
-      <c r="K18" t="n">
-        <v>202239.8621190702</v>
-      </c>
-      <c r="L18" t="n">
-        <v>34622.56690857685</v>
-      </c>
       <c r="M18" t="n">
-        <v>160470.6439098788</v>
+        <v>193715.8827932075</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>32723.49421450565</v>
       </c>
       <c r="O18" t="n">
-        <v>178439.8621190702</v>
+        <v>169915.8827932075</v>
       </c>
       <c r="P18" t="n">
-        <v>4022034.492163843</v>
+        <v>3829903.998158897</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>4022034.492163843</v>
+        <v>3829903.998158897</v>
       </c>
       <c r="S18" t="n">
-        <v>209817.2952104934</v>
+        <v>203192.3885787019</v>
       </c>
       <c r="T18" t="n">
-        <v>49346.65130061455</v>
+        <v>42721.74466882303</v>
       </c>
     </row>
     <row r="19">
@@ -1642,7 +1642,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4022034.492163843</v>
+        <v>3829903.998158897</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -1651,43 +1651,43 @@
         <v>66000</v>
       </c>
       <c r="H19" t="n">
-        <v>190617.748443784</v>
+        <v>181512.0378274359</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>165284.7632271752</v>
       </c>
       <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
         <v>56100</v>
       </c>
-      <c r="K19" t="n">
-        <v>214417.748443784</v>
-      </c>
-      <c r="L19" t="n">
-        <v>37545.25962650816</v>
-      </c>
       <c r="M19" t="n">
-        <v>165284.7632271752</v>
+        <v>205312.0378274359</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>35359.88907858461</v>
       </c>
       <c r="O19" t="n">
-        <v>190617.748443784</v>
+        <v>181512.0378274359</v>
       </c>
       <c r="P19" t="n">
-        <v>4112959.158171528</v>
+        <v>3916485.240202584</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>4112959.158171528</v>
+        <v>3916485.240202584</v>
       </c>
       <c r="S19" t="n">
-        <v>219072.4888172758</v>
+        <v>212152.1487488513</v>
       </c>
       <c r="T19" t="n">
-        <v>53787.72559010063</v>
+        <v>46867.38552167607</v>
       </c>
     </row>
     <row r="20">
@@ -1706,7 +1706,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>4112959.158171528</v>
+        <v>3916485.240202584</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -1715,43 +1715,43 @@
         <v>66000</v>
       </c>
       <c r="H20" t="n">
-        <v>203611.839513442</v>
+        <v>193885.407930821</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>170243.3061239904</v>
       </c>
       <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
         <v>56100</v>
       </c>
-      <c r="K20" t="n">
-        <v>227411.839513442</v>
-      </c>
-      <c r="L20" t="n">
-        <v>40663.84148322608</v>
-      </c>
       <c r="M20" t="n">
-        <v>170243.3061239904</v>
+        <v>217685.407930821</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>38329.49790339704</v>
       </c>
       <c r="O20" t="n">
-        <v>203611.839513442</v>
+        <v>193885.407930821</v>
       </c>
       <c r="P20" t="n">
-        <v>4197254.459730093</v>
+        <v>3996753.799085944</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>4197254.459730093</v>
+        <v>3996753.799085944</v>
       </c>
       <c r="S20" t="n">
-        <v>228947.9980302159</v>
+        <v>221555.910027424</v>
       </c>
       <c r="T20" t="n">
-        <v>58704.69190622549</v>
+        <v>51312.60390343351</v>
       </c>
     </row>
     <row r="21">
@@ -1770,7 +1770,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>4197254.459730093</v>
+        <v>3996753.799085944</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -1779,43 +1779,43 @@
         <v>66000</v>
       </c>
       <c r="H21" t="n">
-        <v>216353.3226664997</v>
+        <v>206018.2370662858</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>175350.6053077102</v>
       </c>
       <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
         <v>56100</v>
       </c>
-      <c r="K21" t="n">
-        <v>240153.3226664996</v>
-      </c>
-      <c r="L21" t="n">
-        <v>43721.79743995992</v>
-      </c>
       <c r="M21" t="n">
-        <v>175350.6053077102</v>
+        <v>229818.2370662858</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>41241.37689590859</v>
       </c>
       <c r="O21" t="n">
-        <v>216353.3226664997</v>
+        <v>206018.2370662858</v>
       </c>
       <c r="P21" t="n">
-        <v>4274708.9492447</v>
+        <v>4070508.327955675</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>4274708.9492447</v>
+        <v>4070508.327955675</v>
       </c>
       <c r="S21" t="n">
-        <v>238631.5252265397</v>
+        <v>230776.8601703772</v>
       </c>
       <c r="T21" t="n">
-        <v>63280.91991882958</v>
+        <v>55426.25486266706</v>
       </c>
     </row>
     <row r="22">
@@ -1834,7 +1834,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>4274708.9492447</v>
+        <v>4070508.327955675</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -1843,43 +1843,43 @@
         <v>66000</v>
       </c>
       <c r="H22" t="n">
-        <v>231065.3486078217</v>
+        <v>220027.4771867933</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>180611.1234669415</v>
       </c>
       <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
         <v>56100</v>
       </c>
-      <c r="K22" t="n">
-        <v>254865.3486078216</v>
-      </c>
-      <c r="L22" t="n">
-        <v>47252.68366587719</v>
-      </c>
       <c r="M22" t="n">
-        <v>180611.1234669415</v>
+        <v>243827.4771867932</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>44603.59452483038</v>
       </c>
       <c r="O22" t="n">
-        <v>231065.3486078217</v>
+        <v>220027.4771867933</v>
       </c>
       <c r="P22" t="n">
-        <v>4342873.227084008</v>
+        <v>4135416.433725779</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>4342873.227084008</v>
+        <v>4135416.433725779</v>
       </c>
       <c r="S22" t="n">
-        <v>249812.6649419444</v>
+        <v>241423.8826619629</v>
       </c>
       <c r="T22" t="n">
-        <v>69201.54147500297</v>
+        <v>60812.75919502138</v>
       </c>
     </row>
     <row r="23">
@@ -1898,7 +1898,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>4342873.227084008</v>
+        <v>4135416.433725779</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -1907,43 +1907,43 @@
         <v>66000</v>
       </c>
       <c r="H23" t="n">
-        <v>245360.0693267801</v>
+        <v>233639.3465381796</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>186029.4571709497</v>
       </c>
       <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
         <v>56100</v>
       </c>
-      <c r="K23" t="n">
-        <v>269160.0693267802</v>
-      </c>
-      <c r="L23" t="n">
-        <v>50683.41663842724</v>
-      </c>
       <c r="M23" t="n">
-        <v>186029.4571709497</v>
+        <v>257439.3465381796</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>47870.4431691631</v>
       </c>
       <c r="O23" t="n">
-        <v>245360.0693267801</v>
+        <v>233639.3465381796</v>
       </c>
       <c r="P23" t="n">
-        <v>4401514.283653109</v>
+        <v>4191256.237548404</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>4401514.283653109</v>
+        <v>4191256.237548404</v>
       </c>
       <c r="S23" t="n">
-        <v>260676.6526883529</v>
+        <v>251768.9033690165</v>
       </c>
       <c r="T23" t="n">
-        <v>74647.19551740319</v>
+        <v>65739.44619806678</v>
       </c>
     </row>
     <row r="24">
@@ -1962,7 +1962,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>4401514.283653109</v>
+        <v>4191256.237548404</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -1971,43 +1971,43 @@
         <v>66000</v>
       </c>
       <c r="H24" t="n">
-        <v>261994.8978364946</v>
+        <v>249479.5379493098</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>191610.3408860782</v>
       </c>
       <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
         <v>56100</v>
       </c>
-      <c r="K24" t="n">
-        <v>285794.8978364946</v>
-      </c>
-      <c r="L24" t="n">
-        <v>54675.7754807587</v>
-      </c>
       <c r="M24" t="n">
-        <v>191610.3408860782</v>
+        <v>273279.5379493098</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>51672.08910783436</v>
       </c>
       <c r="O24" t="n">
-        <v>261994.8978364946</v>
+        <v>249479.5379493098</v>
       </c>
       <c r="P24" t="n">
-        <v>4447625.385672333</v>
+        <v>4235164.636227483</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>4447625.385672333</v>
+        <v>4235164.636227483</v>
       </c>
       <c r="S24" t="n">
-        <v>273319.1223557359</v>
+        <v>263807.4488414754</v>
       </c>
       <c r="T24" t="n">
-        <v>81708.7814696577</v>
+        <v>72197.10795539719</v>
       </c>
     </row>
     <row r="25">
@@ -2026,7 +2026,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>4447625.385672333</v>
+        <v>4235164.636227483</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2035,43 +2035,43 @@
         <v>66000</v>
       </c>
       <c r="H25" t="n">
-        <v>277976.5866045208</v>
+        <v>264697.7897642177</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>197358.6511126606</v>
       </c>
       <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
         <v>56100</v>
       </c>
-      <c r="K25" t="n">
-        <v>301776.5866045208</v>
-      </c>
-      <c r="L25" t="n">
-        <v>58511.38078508499</v>
-      </c>
       <c r="M25" t="n">
-        <v>197358.6511126606</v>
+        <v>288497.7897642177</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>55324.46954341224</v>
       </c>
       <c r="O25" t="n">
-        <v>277976.5866045208</v>
+        <v>264697.7897642177</v>
       </c>
       <c r="P25" t="n">
-        <v>4480982.576064875</v>
+        <v>4266928.370999189</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>4480982.576064875</v>
+        <v>4266928.370999189</v>
       </c>
       <c r="S25" t="n">
-        <v>285465.2058194358</v>
+        <v>275373.3202208055</v>
       </c>
       <c r="T25" t="n">
-        <v>88106.55470677523</v>
+        <v>78014.66910814488</v>
       </c>
     </row>
     <row r="26">
@@ -2090,7 +2090,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>4480982.576064875</v>
+        <v>4266928.370999189</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2099,43 +2099,43 @@
         <v>42000</v>
       </c>
       <c r="H26" t="n">
-        <v>266725.1533371949</v>
+        <v>253983.8316070946</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>203279.4106460404</v>
       </c>
       <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
         <v>35700</v>
       </c>
-      <c r="K26" t="n">
-        <v>279815.1533371949</v>
-      </c>
-      <c r="L26" t="n">
-        <v>53240.63680092678</v>
-      </c>
       <c r="M26" t="n">
-        <v>203279.4106460404</v>
+        <v>267073.8316070946</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>50182.71958570271</v>
       </c>
       <c r="O26" t="n">
-        <v>266725.1533371949</v>
+        <v>253983.8316070946</v>
       </c>
       <c r="P26" t="n">
-        <v>4527926.203052223</v>
+        <v>4311629.525362038</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>4527926.203052223</v>
+        <v>4311629.525362038</v>
       </c>
       <c r="S26" t="n">
-        <v>255484.5165362681</v>
+        <v>245801.1120213919</v>
       </c>
       <c r="T26" t="n">
-        <v>52205.10589022774</v>
+        <v>42521.70137535152</v>
       </c>
     </row>
     <row r="27">
@@ -2154,7 +2154,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>4527926.203052223</v>
+        <v>4311629.525362038</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2163,43 +2163,43 @@
         <v>42000</v>
       </c>
       <c r="H27" t="n">
-        <v>282995.3876907639</v>
+        <v>269476.8453351274</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>209377.7929654216</v>
       </c>
       <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
         <v>35700</v>
       </c>
-      <c r="K27" t="n">
-        <v>296085.3876907639</v>
-      </c>
-      <c r="L27" t="n">
-        <v>57145.49304578334</v>
-      </c>
       <c r="M27" t="n">
-        <v>209377.7929654216</v>
+        <v>282566.8453351274</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>53901.04288043057</v>
       </c>
       <c r="O27" t="n">
-        <v>282995.3876907639</v>
+        <v>269476.8453351274</v>
       </c>
       <c r="P27" t="n">
-        <v>4561885.649575114</v>
+        <v>4343966.746802254</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>4561885.649575114</v>
+        <v>4343966.746802254</v>
       </c>
       <c r="S27" t="n">
-        <v>267849.8946449806</v>
+        <v>257575.8024546968</v>
       </c>
       <c r="T27" t="n">
-        <v>58472.10167955895</v>
+        <v>48198.00948927519</v>
       </c>
     </row>
     <row r="28">
@@ -2218,7 +2218,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>4561885.649575114</v>
+        <v>4343966.746802254</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2227,43 +2227,43 @@
         <v>42000</v>
       </c>
       <c r="H28" t="n">
-        <v>300124.0558930996</v>
+        <v>285787.2859738325</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>215659.1267543843</v>
       </c>
       <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
         <v>35700</v>
       </c>
-      <c r="K28" t="n">
-        <v>313214.0558930996</v>
-      </c>
-      <c r="L28" t="n">
-        <v>61256.37341434391</v>
-      </c>
       <c r="M28" t="n">
-        <v>215659.1267543843</v>
+        <v>298877.2859738325</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>57815.54863371979</v>
       </c>
       <c r="O28" t="n">
-        <v>300124.0558930996</v>
+        <v>285787.2859738325</v>
       </c>
       <c r="P28" t="n">
-        <v>4581093.589152273</v>
+        <v>4362257.13310458</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>4581093.589152273</v>
+        <v>4362257.13310458</v>
       </c>
       <c r="S28" t="n">
-        <v>280867.6824787557</v>
+        <v>269971.7373401127</v>
       </c>
       <c r="T28" t="n">
-        <v>65208.55572437143</v>
+        <v>54312.6105857284</v>
       </c>
     </row>
     <row r="29">
@@ -2282,7 +2282,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>4581093.589152273</v>
+        <v>4362257.13310458</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2291,43 +2291,43 @@
         <v>42000</v>
       </c>
       <c r="H29" t="n">
-        <v>318131.4992466856</v>
+        <v>302934.5231322625</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>222128.9005570158</v>
       </c>
       <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
         <v>35700</v>
       </c>
-      <c r="K29" t="n">
-        <v>331221.4992466856</v>
-      </c>
-      <c r="L29" t="n">
-        <v>65578.15981920453</v>
-      </c>
       <c r="M29" t="n">
-        <v>222128.9005570158</v>
+        <v>316024.5231322625</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>61930.88555174299</v>
       </c>
       <c r="O29" t="n">
-        <v>318131.4992466856</v>
+        <v>302934.5231322625</v>
       </c>
       <c r="P29" t="n">
-        <v>4583638.641146246</v>
+        <v>4364680.609289638</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>4583638.641146246</v>
+        <v>4364680.609289638</v>
       </c>
       <c r="S29" t="n">
-        <v>294553.3394274811</v>
+        <v>283003.6375805195</v>
       </c>
       <c r="T29" t="n">
-        <v>72424.43887046524</v>
+        <v>60874.73702350367</v>
       </c>
     </row>
     <row r="30">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>4583638.641146246</v>
+        <v>4364680.609289638</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2355,43 +2355,43 @@
         <v>42000</v>
       </c>
       <c r="H30" t="n">
-        <v>334572.1635873173</v>
+        <v>318589.825495594</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>228792.7675737263</v>
       </c>
       <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
         <v>35700</v>
       </c>
-      <c r="K30" t="n">
-        <v>347662.1635873173</v>
-      </c>
-      <c r="L30" t="n">
-        <v>69523.91926095614</v>
-      </c>
       <c r="M30" t="n">
-        <v>228792.7675737263</v>
+        <v>331679.825495594</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>65688.15811894256</v>
       </c>
       <c r="O30" t="n">
-        <v>334572.1635873173</v>
+        <v>318589.825495594</v>
       </c>
       <c r="P30" t="n">
-        <v>4569921.182439167</v>
+        <v>4351618.426444318</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>4569921.182439167</v>
+        <v>4351618.426444318</v>
       </c>
       <c r="S30" t="n">
-        <v>307048.2443263611</v>
+        <v>294901.6673766514</v>
       </c>
       <c r="T30" t="n">
-        <v>78255.47675263483</v>
+        <v>66108.89980292515</v>
       </c>
     </row>
     <row r="31">
@@ -2410,7 +2410,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>4569921.182439167</v>
+        <v>4351618.426444318</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2419,43 +2419,43 @@
         <v>42000</v>
       </c>
       <c r="H31" t="n">
-        <v>354257.4560030362</v>
+        <v>337334.7617398696</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>235656.5506009381</v>
       </c>
       <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
         <v>35700</v>
       </c>
-      <c r="K31" t="n">
-        <v>367347.4560030362</v>
-      </c>
-      <c r="L31" t="n">
-        <v>74248.38944072867</v>
-      </c>
       <c r="M31" t="n">
-        <v>235656.5506009381</v>
+        <v>350424.7617398696</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>70186.94281756871</v>
       </c>
       <c r="O31" t="n">
-        <v>354257.4560030362</v>
+        <v>337334.7617398696</v>
       </c>
       <c r="P31" t="n">
-        <v>4535558.209206873</v>
+        <v>4318896.954555552</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>4535558.209206873</v>
+        <v>4318896.954555552</v>
       </c>
       <c r="S31" t="n">
-        <v>322009.0665623075</v>
+        <v>309147.8189223009</v>
       </c>
       <c r="T31" t="n">
-        <v>86352.51596136944</v>
+        <v>73491.26832136279</v>
       </c>
     </row>
     <row r="32">
@@ -2474,7 +2474,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>4535558.209206873</v>
+        <v>4318896.954555552</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -2483,43 +2483,43 @@
         <v>42000</v>
       </c>
       <c r="H32" t="n">
-        <v>371767.0663284322</v>
+        <v>354007.9470947174</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>242726.2471189662</v>
       </c>
       <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
         <v>35700</v>
       </c>
-      <c r="K32" t="n">
-        <v>384857.0663284322</v>
-      </c>
-      <c r="L32" t="n">
-        <v>78527.26122509829</v>
-      </c>
       <c r="M32" t="n">
-        <v>242726.2471189662</v>
+        <v>367097.9470947174</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>74188.50730273216</v>
       </c>
       <c r="O32" t="n">
-        <v>371767.0663284322</v>
+        <v>354007.9470947174</v>
       </c>
       <c r="P32" t="n">
-        <v>4481280.217522922</v>
+        <v>4267211.794279723</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>4481280.217522922</v>
+        <v>4267211.794279723</v>
       </c>
       <c r="S32" t="n">
-        <v>335239.8051033339</v>
+        <v>321819.4397919852</v>
       </c>
       <c r="T32" t="n">
-        <v>92513.55798436768</v>
+        <v>79093.19267301899</v>
       </c>
     </row>
     <row r="33">
@@ -2538,7 +2538,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>4481280.217522922</v>
+        <v>4267211.794279723</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -2547,43 +2547,43 @@
         <v>42000</v>
       </c>
       <c r="H33" t="n">
-        <v>389676.5406541671</v>
+        <v>371061.8951547585</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>250008.0345325352</v>
       </c>
       <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
         <v>35700</v>
       </c>
-      <c r="K33" t="n">
-        <v>402766.5406541671</v>
-      </c>
-      <c r="L33" t="n">
-        <v>84258.29300933349</v>
-      </c>
       <c r="M33" t="n">
-        <v>250008.0345325352</v>
+        <v>384151.8951547585</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>78301.60644952273</v>
       </c>
       <c r="O33" t="n">
-        <v>389676.5406541671</v>
+        <v>371061.8951547585</v>
       </c>
       <c r="P33" t="n">
-        <v>4405293.292095359</v>
+        <v>4194854.724724546</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>4405293.292095359</v>
+        <v>4194854.724724546</v>
       </c>
       <c r="S33" t="n">
-        <v>347418.2476448336</v>
+        <v>334760.2887052358</v>
       </c>
       <c r="T33" t="n">
-        <v>97410.21311229846</v>
+        <v>84752.25417270063</v>
       </c>
     </row>
     <row r="34">
@@ -2602,7 +2602,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>4405293.292095359</v>
+        <v>4194854.724724546</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -2611,43 +2611,43 @@
         <v>42000</v>
       </c>
       <c r="H34" t="n">
-        <v>407897.5270458666</v>
+        <v>388412.474511532</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>257508.2755685113</v>
       </c>
       <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
         <v>35700</v>
       </c>
-      <c r="K34" t="n">
-        <v>420987.5270458666</v>
-      </c>
-      <c r="L34" t="n">
-        <v>90089.00865467731</v>
-      </c>
       <c r="M34" t="n">
-        <v>257508.2755685113</v>
+        <v>401502.474511532</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>83853.79184369024</v>
       </c>
       <c r="O34" t="n">
-        <v>407897.5270458666</v>
+        <v>388412.474511532</v>
       </c>
       <c r="P34" t="n">
-        <v>4305766.295496169</v>
+        <v>4100082.080943733</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>4305766.295496169</v>
+        <v>4100082.080943733</v>
       </c>
       <c r="S34" t="n">
-        <v>359808.5183911893</v>
+        <v>346558.6826678418</v>
       </c>
       <c r="T34" t="n">
-        <v>102300.242822678</v>
+        <v>89050.40709933051</v>
       </c>
     </row>
     <row r="35">
@@ -2666,7 +2666,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>4305766.295496169</v>
+        <v>4100082.080943733</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -2675,43 +2675,43 @@
         <v>42000</v>
       </c>
       <c r="H35" t="n">
-        <v>426313.4946035811</v>
+        <v>405948.7208855181</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>265233.5238355666</v>
       </c>
       <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
         <v>35700</v>
       </c>
-      <c r="K35" t="n">
-        <v>439403.4946035811</v>
-      </c>
-      <c r="L35" t="n">
-        <v>95982.11827314596</v>
-      </c>
       <c r="M35" t="n">
-        <v>265233.5238355666</v>
+        <v>419038.7208855181</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>89465.39068336578</v>
       </c>
       <c r="O35" t="n">
-        <v>426313.4946035811</v>
+        <v>405948.7208855181</v>
       </c>
       <c r="P35" t="n">
-        <v>4180856.44157732</v>
+        <v>3981139.105724276</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>4180856.44157732</v>
+        <v>3981139.105724276</v>
       </c>
       <c r="S35" t="n">
-        <v>372331.3763304352</v>
+        <v>358483.3302021523</v>
       </c>
       <c r="T35" t="n">
-        <v>107097.8524948686</v>
+        <v>93249.80636658566</v>
       </c>
     </row>
     <row r="36">
@@ -2730,7 +2730,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>4180856.44157732</v>
+        <v>3981139.105724276</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -2739,43 +2739,43 @@
         <v>42000</v>
       </c>
       <c r="H36" t="n">
-        <v>440090.151744981</v>
+        <v>419067.2742867659</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>273190.5295506336</v>
       </c>
       <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
         <v>35700</v>
       </c>
-      <c r="K36" t="n">
-        <v>453180.151744981</v>
-      </c>
-      <c r="L36" t="n">
-        <v>100390.6485583939</v>
-      </c>
       <c r="M36" t="n">
-        <v>273190.5295506336</v>
+        <v>432157.2742867659</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>93663.32777176509</v>
       </c>
       <c r="O36" t="n">
-        <v>440090.151744981</v>
+        <v>419067.2742867659</v>
       </c>
       <c r="P36" t="n">
-        <v>4033426.240742751</v>
+        <v>3840751.568838209</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>4033426.240742751</v>
+        <v>3840751.568838209</v>
       </c>
       <c r="S36" t="n">
-        <v>381699.5031865871</v>
+        <v>367403.9465150008</v>
       </c>
       <c r="T36" t="n">
-        <v>108508.9736359534</v>
+        <v>94213.41696436715</v>
       </c>
     </row>
     <row r="37">
@@ -2794,7 +2794,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>4033426.240742751</v>
+        <v>3840751.568838209</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -2803,43 +2803,43 @@
         <v>42000</v>
       </c>
       <c r="H37" t="n">
-        <v>453193.959634017</v>
+        <v>431545.1200941808</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>281386.2454371526</v>
       </c>
       <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
         <v>35700</v>
       </c>
-      <c r="K37" t="n">
-        <v>466283.959634017</v>
-      </c>
-      <c r="L37" t="n">
-        <v>104583.8670828854</v>
-      </c>
       <c r="M37" t="n">
-        <v>281386.2454371526</v>
+        <v>444635.1200941808</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>97656.23843013786</v>
       </c>
       <c r="O37" t="n">
-        <v>453193.959634017</v>
+        <v>431545.1200941808</v>
       </c>
       <c r="P37" t="n">
-        <v>3862572.117960727</v>
+        <v>3678059.058562703</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>3862572.117960727</v>
+        <v>3678059.058562703</v>
       </c>
       <c r="S37" t="n">
-        <v>390610.0925511315</v>
+        <v>375888.8816640429</v>
       </c>
       <c r="T37" t="n">
-        <v>109223.8471139789</v>
+        <v>94502.63622689032</v>
       </c>
     </row>
   </sheetData>
@@ -2904,32 +2904,32 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>Spending_Need</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>Roth_Conversion</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Additional_Withdrawal</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Taxable_SS</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Taxable_Income</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Federal_Tax</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Spending_Need</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Additional_Withdrawal</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -2991,40 +2991,40 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>410000</v>
+        <v>100000</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>237979</v>
       </c>
       <c r="K2" t="n">
-        <v>377700</v>
+        <v>178220.8870018604</v>
       </c>
       <c r="L2" t="n">
-        <v>76733</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>100000</v>
+        <v>383899.5291744184</v>
       </c>
       <c r="N2" t="n">
-        <v>176733</v>
+        <v>78220.88700186041</v>
       </c>
       <c r="O2" t="n">
-        <v>586733</v>
+        <v>416199.8870018604</v>
       </c>
       <c r="P2" t="n">
-        <v>1874267</v>
+        <v>2044800.11299814</v>
       </c>
       <c r="Q2" t="n">
-        <v>438700</v>
+        <v>254637.53</v>
       </c>
       <c r="R2" t="n">
-        <v>2312967</v>
+        <v>2299437.642998139</v>
       </c>
       <c r="S2" t="n">
-        <v>510000</v>
+        <v>337979</v>
       </c>
       <c r="T2" t="n">
-        <v>410000</v>
+        <v>237979</v>
       </c>
     </row>
     <row r="3">
@@ -3043,10 +3043,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1874267</v>
+        <v>2044800.11299814</v>
       </c>
       <c r="F3" t="n">
-        <v>438700</v>
+        <v>254637.53</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -3055,40 +3055,40 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>410000</v>
+        <v>103000</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>234979</v>
       </c>
       <c r="K3" t="n">
-        <v>377700</v>
+        <v>181220.885099759</v>
       </c>
       <c r="L3" t="n">
-        <v>76733</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>103000</v>
+        <v>383899.5212489957</v>
       </c>
       <c r="N3" t="n">
-        <v>179733</v>
+        <v>78220.88509975898</v>
       </c>
       <c r="O3" t="n">
-        <v>589733</v>
+        <v>416199.885099759</v>
       </c>
       <c r="P3" t="n">
-        <v>1415732.69</v>
+        <v>1771736.23580825</v>
       </c>
       <c r="Q3" t="n">
-        <v>908109</v>
+        <v>523889.6871</v>
       </c>
       <c r="R3" t="n">
-        <v>2323841.69</v>
+        <v>2295625.922908251</v>
       </c>
       <c r="S3" t="n">
-        <v>513000</v>
+        <v>337979</v>
       </c>
       <c r="T3" t="n">
-        <v>410000</v>
+        <v>234979</v>
       </c>
     </row>
     <row r="4">
@@ -3107,10 +3107,10 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1415732.69</v>
+        <v>1771736.23580825</v>
       </c>
       <c r="F4" t="n">
-        <v>908109</v>
+        <v>523889.6871</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -3119,40 +3119,40 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>410000</v>
+        <v>106090</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>231889</v>
       </c>
       <c r="K4" t="n">
-        <v>377700</v>
+        <v>184310.8832177881</v>
       </c>
       <c r="L4" t="n">
-        <v>76733</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>106090</v>
+        <v>383899.5134074505</v>
       </c>
       <c r="N4" t="n">
-        <v>182823</v>
+        <v>78220.88321778813</v>
       </c>
       <c r="O4" t="n">
-        <v>592823</v>
+        <v>416199.8832177881</v>
       </c>
       <c r="P4" t="n">
-        <v>922010.9783000003</v>
+        <v>1479557.88909704</v>
       </c>
       <c r="Q4" t="n">
-        <v>1410376.63</v>
+        <v>808683.1951970001</v>
       </c>
       <c r="R4" t="n">
-        <v>2332387.6083</v>
+        <v>2288241.08429404</v>
       </c>
       <c r="S4" t="n">
-        <v>516090</v>
+        <v>337979</v>
       </c>
       <c r="T4" t="n">
-        <v>410000</v>
+        <v>231889</v>
       </c>
     </row>
     <row r="5">
@@ -3171,10 +3171,10 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>922010.9783000003</v>
+        <v>1479557.88909704</v>
       </c>
       <c r="F5" t="n">
-        <v>1410376.63</v>
+        <v>808683.1951970001</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -3183,40 +3183,40 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>410000</v>
+        <v>109272.7</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>228706.3</v>
       </c>
       <c r="K5" t="n">
-        <v>377700</v>
+        <v>187493.5813680103</v>
       </c>
       <c r="L5" t="n">
-        <v>76733</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>109272.7</v>
+        <v>383899.5057000431</v>
       </c>
       <c r="N5" t="n">
-        <v>186005.7</v>
+        <v>78220.88136801033</v>
       </c>
       <c r="O5" t="n">
-        <v>596005.7</v>
+        <v>416199.8813680103</v>
       </c>
       <c r="P5" t="n">
-        <v>390546.0467810004</v>
+        <v>1166927.059965823</v>
       </c>
       <c r="Q5" t="n">
-        <v>1947802.9941</v>
+        <v>1110006.75986079</v>
       </c>
       <c r="R5" t="n">
-        <v>2338349.040881</v>
+        <v>2276933.819826613</v>
       </c>
       <c r="S5" t="n">
-        <v>519272.7</v>
+        <v>337979</v>
       </c>
       <c r="T5" t="n">
-        <v>409999.9999999999</v>
+        <v>228706.3</v>
       </c>
     </row>
     <row r="6">
@@ -3235,10 +3235,10 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>390546.0467810004</v>
+        <v>1166927.059965823</v>
       </c>
       <c r="F6" t="n">
-        <v>1947802.9941</v>
+        <v>1110006.75986079</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -3247,40 +3247,40 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>390546.0467810004</v>
+        <v>112550.881</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>225428.119</v>
       </c>
       <c r="K6" t="n">
-        <v>358246.0467810004</v>
+        <v>190771.7604627392</v>
       </c>
       <c r="L6" t="n">
-        <v>72064.0512274401</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>112550.881</v>
+        <v>383899.4977614134</v>
       </c>
       <c r="N6" t="n">
-        <v>184614.9322274401</v>
+        <v>78220.87946273922</v>
       </c>
       <c r="O6" t="n">
-        <v>575160.9790084406</v>
+        <v>416199.8794627392</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>832412.074700691</v>
       </c>
       <c r="Q6" t="n">
-        <v>2502033.473742671</v>
+        <v>1428915.320381045</v>
       </c>
       <c r="R6" t="n">
-        <v>2502033.473742671</v>
+        <v>2261327.395081736</v>
       </c>
       <c r="S6" t="n">
-        <v>503096.9277810005</v>
+        <v>337979</v>
       </c>
       <c r="T6" t="n">
-        <v>390546.0467810005</v>
+        <v>225428.119</v>
       </c>
     </row>
     <row r="7">
@@ -3299,10 +3299,10 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>832412.074700691</v>
       </c>
       <c r="F7" t="n">
-        <v>2502033.473742671</v>
+        <v>1428915.320381045</v>
       </c>
       <c r="G7" t="n">
         <v>24000</v>
@@ -3311,40 +3311,40 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115927.40743</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>239523.59257</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>176675.0659993084</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>20400</v>
       </c>
       <c r="M7" t="n">
-        <v>115927.40743</v>
+        <v>404295.8080290888</v>
       </c>
       <c r="N7" t="n">
-        <v>91927.40743000001</v>
+        <v>84747.65856930841</v>
       </c>
       <c r="O7" t="n">
-        <v>91927.40743000001</v>
+        <v>416198.6585693084</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>474482.261360431</v>
       </c>
       <c r="Q7" t="n">
-        <v>2677175.816904658</v>
+        <v>1785229.636857619</v>
       </c>
       <c r="R7" t="n">
-        <v>2677175.816904658</v>
+        <v>2259711.89821805</v>
       </c>
       <c r="S7" t="n">
-        <v>115927.40743</v>
+        <v>355451</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>239523.59257</v>
       </c>
     </row>
     <row r="8">
@@ -3363,10 +3363,10 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>474482.261360431</v>
       </c>
       <c r="F8" t="n">
-        <v>2677175.816904658</v>
+        <v>1785229.636857619</v>
       </c>
       <c r="G8" t="n">
         <v>24000</v>
@@ -3375,40 +3375,40 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>119405.2296529</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>236045.7703471</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>180152.86619651</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>20400</v>
       </c>
       <c r="M8" t="n">
-        <v>119405.2296529</v>
+        <v>404295.7391987813</v>
       </c>
       <c r="N8" t="n">
-        <v>95405.22965290002</v>
+        <v>84747.63654361</v>
       </c>
       <c r="O8" t="n">
-        <v>95405.22965290002</v>
+        <v>416198.63654361</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>91497.38311205123</v>
       </c>
       <c r="Q8" t="n">
-        <v>2864578.124087984</v>
+        <v>2162764.685709049</v>
       </c>
       <c r="R8" t="n">
-        <v>2864578.124087984</v>
+        <v>2254262.0688211</v>
       </c>
       <c r="S8" t="n">
-        <v>119405.2296529</v>
+        <v>355451</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>236045.7703471</v>
       </c>
     </row>
     <row r="9">
@@ -3427,10 +3427,10 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>91497.38311205123</v>
       </c>
       <c r="F9" t="n">
-        <v>2864578.124087984</v>
+        <v>2162764.685709049</v>
       </c>
       <c r="G9" t="n">
         <v>66000</v>
@@ -3439,40 +3439,40 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>122987.386542487</v>
       </c>
       <c r="J9" t="n">
-        <v>500</v>
+        <v>91497.38311205123</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>93083.67791227839</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>56100</v>
       </c>
       <c r="M9" t="n">
-        <v>122987.386542487</v>
+        <v>208380.380707464</v>
       </c>
       <c r="N9" t="n">
-        <v>56987.38654248702</v>
+        <v>36096.29136979136</v>
       </c>
       <c r="O9" t="n">
-        <v>56987.38654248702</v>
+        <v>184581.0610243296</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>3065098.592774143</v>
+        <v>2412060.413638577</v>
       </c>
       <c r="R9" t="n">
-        <v>3065098.592774143</v>
+        <v>2412060.413638577</v>
       </c>
       <c r="S9" t="n">
-        <v>122987.386542487</v>
+        <v>214484.7696545382</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>91497.38311205123</v>
       </c>
     </row>
     <row r="10">
@@ -3494,7 +3494,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>3065098.592774143</v>
+        <v>2412060.413638577</v>
       </c>
       <c r="G10" t="n">
         <v>66000</v>
@@ -3503,40 +3503,40 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>126677.0081387616</v>
       </c>
       <c r="J10" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>71818.99575893627</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>56100</v>
       </c>
       <c r="M10" t="n">
-        <v>126677.0081387616</v>
+        <v>95618.12554624831</v>
       </c>
       <c r="N10" t="n">
-        <v>60677.00813876164</v>
+        <v>11141.98762017463</v>
       </c>
       <c r="O10" t="n">
-        <v>60677.00813876164</v>
+        <v>71818.99575893627</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>3279655.494268334</v>
+        <v>2580904.642593278</v>
       </c>
       <c r="R10" t="n">
-        <v>3279655.494268334</v>
+        <v>2580904.642593278</v>
       </c>
       <c r="S10" t="n">
-        <v>126677.0081387616</v>
+        <v>126677.0081387617</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>1.455191522836685e-11</v>
       </c>
     </row>
     <row r="11">
@@ -3558,7 +3558,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>3279655.494268334</v>
+        <v>2580904.642593278</v>
       </c>
       <c r="G11" t="n">
         <v>66000</v>
@@ -3567,40 +3567,40 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>130477.3183829245</v>
       </c>
       <c r="J11" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>76691.36791956626</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>56100</v>
       </c>
       <c r="M11" t="n">
-        <v>130477.3183829245</v>
+        <v>100491.1342574626</v>
       </c>
       <c r="N11" t="n">
-        <v>64477.3183829245</v>
+        <v>12214.04953664177</v>
       </c>
       <c r="O11" t="n">
-        <v>64477.3183829245</v>
+        <v>76691.36791956626</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>3509231.378867117</v>
+        <v>2761567.967574808</v>
       </c>
       <c r="R11" t="n">
-        <v>3509231.378867117</v>
+        <v>2761567.967574808</v>
       </c>
       <c r="S11" t="n">
         <v>130477.3183829245</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-1.455191522836685e-11</v>
       </c>
     </row>
     <row r="12">
@@ -3622,7 +3622,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>3509231.378867117</v>
+        <v>2761567.967574808</v>
       </c>
       <c r="G12" t="n">
         <v>66000</v>
@@ -3631,34 +3631,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>134391.6379344122</v>
       </c>
       <c r="J12" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>81709.72045567416</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>56100</v>
       </c>
       <c r="M12" t="n">
-        <v>134391.6379344122</v>
+        <v>105509.4660057361</v>
       </c>
       <c r="N12" t="n">
-        <v>68391.63793441223</v>
+        <v>13318.08252126195</v>
       </c>
       <c r="O12" t="n">
-        <v>68391.63793441223</v>
+        <v>81709.72045567416</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>3754877.575387815</v>
+        <v>2954877.725305045</v>
       </c>
       <c r="R12" t="n">
-        <v>3754877.575387815</v>
+        <v>2954877.725305045</v>
       </c>
       <c r="S12" t="n">
         <v>134391.6379344122</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>3754877.575387815</v>
+        <v>2954877.725305045</v>
       </c>
       <c r="G13" t="n">
         <v>66000</v>
@@ -3695,34 +3695,34 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>138423.3870724446</v>
       </c>
       <c r="J13" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>86878.62205012902</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>56100</v>
       </c>
       <c r="M13" t="n">
-        <v>138423.3870724446</v>
+        <v>110678.3408076564</v>
       </c>
       <c r="N13" t="n">
-        <v>72423.3870724446</v>
+        <v>14455.23497768442</v>
       </c>
       <c r="O13" t="n">
-        <v>72423.3870724446</v>
+        <v>86878.62205012902</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>4017719.005664963</v>
+        <v>3161719.166076398</v>
       </c>
       <c r="R13" t="n">
-        <v>4017719.005664963</v>
+        <v>3161719.166076398</v>
       </c>
       <c r="S13" t="n">
         <v>138423.3870724446</v>
@@ -3750,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>4017719.005664963</v>
+        <v>3161719.166076398</v>
       </c>
       <c r="G14" t="n">
         <v>66000</v>
@@ -3759,34 +3759,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>142576.0886846179</v>
       </c>
       <c r="J14" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>92202.59204851938</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>56100</v>
       </c>
       <c r="M14" t="n">
-        <v>142576.0886846179</v>
+        <v>116002.288017734</v>
       </c>
       <c r="N14" t="n">
-        <v>76576.08868461792</v>
+        <v>15626.50336390147</v>
       </c>
       <c r="O14" t="n">
-        <v>76576.08868461792</v>
+        <v>92202.59204851938</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>4298959.33606151</v>
+        <v>3383039.507701746</v>
       </c>
       <c r="R14" t="n">
-        <v>4298959.33606151</v>
+        <v>3383039.507701746</v>
       </c>
       <c r="S14" t="n">
         <v>142576.0886846179</v>
@@ -3814,7 +3814,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>4298959.33606151</v>
+        <v>3383039.507701746</v>
       </c>
       <c r="G15" t="n">
         <v>66000</v>
@@ -3823,34 +3823,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>146853.3713451565</v>
       </c>
       <c r="J15" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>97686.28114686153</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>56100</v>
       </c>
       <c r="M15" t="n">
-        <v>146853.3713451565</v>
+        <v>121485.9536441139</v>
       </c>
       <c r="N15" t="n">
-        <v>80853.37134515648</v>
+        <v>16832.90980170505</v>
       </c>
       <c r="O15" t="n">
-        <v>80853.37134515648</v>
+        <v>97686.28114686153</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>4599886.489585816</v>
+        <v>3619852.273240868</v>
       </c>
       <c r="R15" t="n">
-        <v>4599886.489585816</v>
+        <v>3619852.273240868</v>
       </c>
       <c r="S15" t="n">
         <v>146853.3713451565</v>
@@ -3878,7 +3878,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>4599886.489585816</v>
+        <v>3619852.273240868</v>
       </c>
       <c r="G16" t="n">
         <v>66000</v>
@@ -3887,34 +3887,34 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>151258.9724855112</v>
       </c>
       <c r="J16" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>103334.4809181539</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>56100</v>
       </c>
       <c r="M16" t="n">
-        <v>151258.9724855112</v>
+        <v>127134.1292392851</v>
       </c>
       <c r="N16" t="n">
-        <v>85258.97248551119</v>
+        <v>18075.50843264273</v>
       </c>
       <c r="O16" t="n">
-        <v>85258.97248551119</v>
+        <v>103334.4809181539</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>4921878.543856823</v>
+        <v>3873241.932367729</v>
       </c>
       <c r="R16" t="n">
-        <v>4921878.543856823</v>
+        <v>3873241.932367729</v>
       </c>
       <c r="S16" t="n">
         <v>151258.9724855112</v>
@@ -3942,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>4921878.543856823</v>
+        <v>3873241.932367729</v>
       </c>
       <c r="G17" t="n">
         <v>66000</v>
@@ -3951,34 +3951,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>155796.7416600765</v>
       </c>
       <c r="J17" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>109152.126682585</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>56100</v>
       </c>
       <c r="M17" t="n">
-        <v>155796.7416600765</v>
+        <v>132951.7501023115</v>
       </c>
       <c r="N17" t="n">
-        <v>89796.74166007651</v>
+        <v>19355.38502250854</v>
       </c>
       <c r="O17" t="n">
-        <v>89796.74166007651</v>
+        <v>109152.126682585</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>5266410.041926801</v>
+        <v>4144368.867633471</v>
       </c>
       <c r="R17" t="n">
-        <v>5266410.041926801</v>
+        <v>4144368.867633471</v>
       </c>
       <c r="S17" t="n">
         <v>155796.7416600765</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>5266410.041926801</v>
+        <v>4144368.867633471</v>
       </c>
       <c r="G18" t="n">
         <v>66000</v>
@@ -4015,34 +4015,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>160470.6439098788</v>
       </c>
       <c r="J18" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>115144.3018199491</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>56100</v>
       </c>
       <c r="M18" t="n">
-        <v>160470.6439098788</v>
+        <v>138943.8995912288</v>
       </c>
       <c r="N18" t="n">
-        <v>94470.64390987883</v>
+        <v>20673.65791007033</v>
       </c>
       <c r="O18" t="n">
-        <v>94470.64390987883</v>
+        <v>115144.3018199491</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>5635058.744861677</v>
+        <v>4434474.688367814</v>
       </c>
       <c r="R18" t="n">
-        <v>5635058.744861677</v>
+        <v>4434474.688367814</v>
       </c>
       <c r="S18" t="n">
         <v>160470.6439098788</v>
@@ -4070,7 +4070,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>5635058.744861677</v>
+        <v>4434474.688367814</v>
       </c>
       <c r="G19" t="n">
         <v>66000</v>
@@ -4079,40 +4079,40 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>165284.7632271752</v>
       </c>
       <c r="J19" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>121316.2422114342</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>56100</v>
       </c>
       <c r="M19" t="n">
-        <v>165284.7632271752</v>
+        <v>145115.8135648135</v>
       </c>
       <c r="N19" t="n">
-        <v>99284.76322717519</v>
+        <v>22031.47898425897</v>
       </c>
       <c r="O19" t="n">
-        <v>99284.76322717519</v>
+        <v>121316.2422114342</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>6029512.857001995</v>
+        <v>4744887.916553561</v>
       </c>
       <c r="R19" t="n">
-        <v>6029512.857001995</v>
+        <v>4744887.916553561</v>
       </c>
       <c r="S19" t="n">
         <v>165284.7632271752</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>2.91038304567337e-11</v>
       </c>
     </row>
     <row r="20">
@@ -4134,7 +4134,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>6029512.857001995</v>
+        <v>4744887.916553561</v>
       </c>
       <c r="G20" t="n">
         <v>66000</v>
@@ -4143,34 +4143,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>170243.3061239904</v>
       </c>
       <c r="J20" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>127673.3408146637</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>56100</v>
       </c>
       <c r="M20" t="n">
-        <v>170243.3061239904</v>
+        <v>151472.8849576057</v>
       </c>
       <c r="N20" t="n">
-        <v>104243.3061239904</v>
+        <v>23430.03469067326</v>
       </c>
       <c r="O20" t="n">
-        <v>104243.3061239904</v>
+        <v>127673.3408146637</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>6451578.756992135</v>
+        <v>5077030.07071231</v>
       </c>
       <c r="R20" t="n">
-        <v>6451578.756992135</v>
+        <v>5077030.07071231</v>
       </c>
       <c r="S20" t="n">
         <v>170243.3061239904</v>
@@ -4198,7 +4198,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>6451578.756992135</v>
+        <v>5077030.07071231</v>
       </c>
       <c r="G21" t="n">
         <v>66000</v>
@@ -4207,34 +4207,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>175350.6053077102</v>
       </c>
       <c r="J21" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>134221.1523759901</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>56100</v>
       </c>
       <c r="M21" t="n">
-        <v>175350.6053077102</v>
+        <v>158020.6684921818</v>
       </c>
       <c r="N21" t="n">
-        <v>109350.6053077102</v>
+        <v>24870.54706827999</v>
       </c>
       <c r="O21" t="n">
-        <v>109350.6053077102</v>
+        <v>134221.1523759901</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6903189.269981585</v>
+        <v>5432422.175662172</v>
       </c>
       <c r="R21" t="n">
-        <v>6903189.269981585</v>
+        <v>5432422.175662172</v>
       </c>
       <c r="S21" t="n">
         <v>175350.6053077102</v>
@@ -4262,7 +4262,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>6903189.269981585</v>
+        <v>5432422.175662172</v>
       </c>
       <c r="G22" t="n">
         <v>66000</v>
@@ -4271,34 +4271,34 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>180611.1234669415</v>
       </c>
       <c r="J22" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>140965.3982841564</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>56100</v>
       </c>
       <c r="M22" t="n">
-        <v>180611.1234669415</v>
+        <v>164764.8855327951</v>
       </c>
       <c r="N22" t="n">
-        <v>114611.1234669415</v>
+        <v>26354.27481721492</v>
       </c>
       <c r="O22" t="n">
-        <v>114611.1234669415</v>
+        <v>140965.3982841564</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>7386412.518880296</v>
+        <v>5812691.727958525</v>
       </c>
       <c r="R22" t="n">
-        <v>7386412.518880296</v>
+        <v>5812691.727958525</v>
       </c>
       <c r="S22" t="n">
         <v>180611.1234669415</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>7386412.518880296</v>
+        <v>5812691.727958525</v>
       </c>
       <c r="G23" t="n">
         <v>66000</v>
@@ -4335,34 +4335,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>186029.4571709497</v>
       </c>
       <c r="J23" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>147911.9715695676</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>56100</v>
       </c>
       <c r="M23" t="n">
-        <v>186029.4571709497</v>
+        <v>171711.4290846268</v>
       </c>
       <c r="N23" t="n">
-        <v>120029.4571709497</v>
+        <v>27882.5143986179</v>
       </c>
       <c r="O23" t="n">
-        <v>120029.4571709497</v>
+        <v>147911.9715695676</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>7903461.395201918</v>
+        <v>6219580.148915621</v>
       </c>
       <c r="R23" t="n">
-        <v>7903461.395201918</v>
+        <v>6219580.148915621</v>
       </c>
       <c r="S23" t="n">
         <v>186029.4571709497</v>
@@ -4390,7 +4390,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>7903461.395201918</v>
+        <v>6219580.148915621</v>
       </c>
       <c r="G24" t="n">
         <v>66000</v>
@@ -4399,34 +4399,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>191610.3408860782</v>
       </c>
       <c r="J24" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>155066.9420535412</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>56100</v>
       </c>
       <c r="M24" t="n">
-        <v>191610.3408860782</v>
+        <v>178866.3689430135</v>
       </c>
       <c r="N24" t="n">
-        <v>125610.3408860782</v>
+        <v>29456.60116746297</v>
       </c>
       <c r="O24" t="n">
-        <v>125610.3408860782</v>
+        <v>155066.9420535412</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>8456703.692866052</v>
+        <v>6654950.759339715</v>
       </c>
       <c r="R24" t="n">
-        <v>8456703.692866052</v>
+        <v>6654950.759339715</v>
       </c>
       <c r="S24" t="n">
         <v>191610.3408860782</v>
@@ -4454,7 +4454,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>8456703.692866052</v>
+        <v>6654950.759339715</v>
       </c>
       <c r="G25" t="n">
         <v>66000</v>
@@ -4463,34 +4463,34 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>197358.6511126606</v>
       </c>
       <c r="J25" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>162436.561652034</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>56100</v>
       </c>
       <c r="M25" t="n">
-        <v>197358.6511126606</v>
+        <v>186235.9569971518</v>
       </c>
       <c r="N25" t="n">
-        <v>131358.6511126606</v>
+        <v>31077.91053937339</v>
       </c>
       <c r="O25" t="n">
-        <v>131358.6511126606</v>
+        <v>162436.561652034</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>9048672.951366676</v>
+        <v>7120797.312493496</v>
       </c>
       <c r="R25" t="n">
-        <v>9048672.951366676</v>
+        <v>7120797.312493496</v>
       </c>
       <c r="S25" t="n">
         <v>197358.6511126606</v>
@@ -4518,7 +4518,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>9048672.951366676</v>
+        <v>7120797.312493496</v>
       </c>
       <c r="G26" t="n">
         <v>42000</v>
@@ -4527,34 +4527,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>203279.4106460404</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>198034.1333088677</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>35700</v>
       </c>
       <c r="M26" t="n">
-        <v>203279.4106460404</v>
+        <v>211123.8444284472</v>
       </c>
       <c r="N26" t="n">
-        <v>161279.4106460404</v>
+        <v>36754.72266282733</v>
       </c>
       <c r="O26" t="n">
-        <v>161279.4106460404</v>
+        <v>198034.1333088677</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9682080.057962343</v>
+        <v>7619253.124368041</v>
       </c>
       <c r="R26" t="n">
-        <v>9682080.057962343</v>
+        <v>7619253.124368041</v>
       </c>
       <c r="S26" t="n">
         <v>203279.4106460404</v>
@@ -4582,7 +4582,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>9682080.057962343</v>
+        <v>7619253.124368041</v>
       </c>
       <c r="G27" t="n">
         <v>42000</v>
@@ -4591,40 +4591,40 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>209377.7929654216</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>206058.3141410427</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>35700</v>
       </c>
       <c r="M27" t="n">
-        <v>209377.7929654216</v>
+        <v>219148.0048984212</v>
       </c>
       <c r="N27" t="n">
-        <v>167377.7929654216</v>
+        <v>38680.52117562109</v>
       </c>
       <c r="O27" t="n">
-        <v>167377.7929654216</v>
+        <v>206058.3141410427</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>10359825.66201971</v>
+        <v>8152600.843073804</v>
       </c>
       <c r="R27" t="n">
-        <v>10359825.66201971</v>
+        <v>8152600.843073804</v>
       </c>
       <c r="S27" t="n">
         <v>209377.7929654216</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>2.91038304567337e-11</v>
       </c>
     </row>
     <row r="28">
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>10359825.66201971</v>
+        <v>8152600.843073804</v>
       </c>
       <c r="G28" t="n">
         <v>42000</v>
@@ -4655,34 +4655,34 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>215659.1267543843</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>214323.220398183</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>35700</v>
       </c>
       <c r="M28" t="n">
-        <v>215659.1267543843</v>
+        <v>227412.8901824945</v>
       </c>
       <c r="N28" t="n">
-        <v>173659.1267543843</v>
+        <v>40664.09364379869</v>
       </c>
       <c r="O28" t="n">
-        <v>173659.1267543843</v>
+        <v>214323.220398183</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>11085013.45836109</v>
+        <v>8723282.90208897</v>
       </c>
       <c r="R28" t="n">
-        <v>11085013.45836109</v>
+        <v>8723282.90208897</v>
       </c>
       <c r="S28" t="n">
         <v>215659.1267543843</v>
@@ -4710,7 +4710,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>11085013.45836109</v>
+        <v>8723282.90208897</v>
       </c>
       <c r="G29" t="n">
         <v>42000</v>
@@ -4719,34 +4719,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>222128.9005570158</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>222836.0738430374</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>35700</v>
       </c>
       <c r="M29" t="n">
-        <v>222128.9005570158</v>
+        <v>235925.72202509</v>
       </c>
       <c r="N29" t="n">
-        <v>180128.9005570158</v>
+        <v>42707.1732860216</v>
       </c>
       <c r="O29" t="n">
-        <v>180128.9005570158</v>
+        <v>222836.0738430374</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>11860964.40044636</v>
+        <v>9333912.705235198</v>
       </c>
       <c r="R29" t="n">
-        <v>11860964.40044636</v>
+        <v>9333912.705235198</v>
       </c>
       <c r="S29" t="n">
         <v>222128.9005570158</v>
@@ -4774,7 +4774,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>11860964.40044636</v>
+        <v>9333912.705235198</v>
       </c>
       <c r="G30" t="n">
         <v>42000</v>
@@ -4783,40 +4783,40 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>228792.7675737263</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>231604.3128912374</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>35700</v>
       </c>
       <c r="M30" t="n">
-        <v>228792.7675737263</v>
+        <v>244693.9388229633</v>
       </c>
       <c r="N30" t="n">
-        <v>186792.7675737263</v>
+        <v>44811.54531751118</v>
       </c>
       <c r="O30" t="n">
-        <v>186792.7675737263</v>
+        <v>231604.3128912374</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>12691231.90847761</v>
+        <v>9987286.594601663</v>
       </c>
       <c r="R30" t="n">
-        <v>12691231.90847761</v>
+        <v>9987286.594601663</v>
       </c>
       <c r="S30" t="n">
-        <v>228792.7675737263</v>
+        <v>228792.7675737262</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>-2.91038304567337e-11</v>
       </c>
     </row>
     <row r="31">
@@ -4838,7 +4838,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>12691231.90847761</v>
+        <v>9987286.594601663</v>
       </c>
       <c r="G31" t="n">
         <v>42000</v>
@@ -4847,34 +4847,34 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>235656.5506009381</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>240635.6003649828</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>35700</v>
       </c>
       <c r="M31" t="n">
-        <v>235656.5506009381</v>
+        <v>253725.2073501862</v>
       </c>
       <c r="N31" t="n">
-        <v>193656.5506009381</v>
+        <v>46979.04976404468</v>
       </c>
       <c r="O31" t="n">
-        <v>193656.5506009381</v>
+        <v>240635.6003649828</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>13579618.14207105</v>
+        <v>10686396.65622378</v>
       </c>
       <c r="R31" t="n">
-        <v>13579618.14207105</v>
+        <v>10686396.65622378</v>
       </c>
       <c r="S31" t="n">
         <v>235656.5506009381</v>
@@ -4902,7 +4902,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>13579618.14207105</v>
+        <v>10686396.65622378</v>
       </c>
       <c r="G32" t="n">
         <v>42000</v>
@@ -4911,40 +4911,40 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>242726.2471189662</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>249937.8267276164</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>35700</v>
       </c>
       <c r="M32" t="n">
-        <v>242726.2471189662</v>
+        <v>263027.4150360422</v>
       </c>
       <c r="N32" t="n">
-        <v>200726.2471189662</v>
+        <v>49211.57960865012</v>
       </c>
       <c r="O32" t="n">
-        <v>200726.2471189662</v>
+        <v>249937.8267276164</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>14530191.41201602</v>
+        <v>11434444.42215944</v>
       </c>
       <c r="R32" t="n">
-        <v>14530191.41201602</v>
+        <v>11434444.42215944</v>
       </c>
       <c r="S32" t="n">
         <v>242726.2471189662</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>2.91038304567337e-11</v>
       </c>
     </row>
     <row r="33">
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>14530191.41201602</v>
+        <v>11434444.42215944</v>
       </c>
       <c r="G33" t="n">
         <v>42000</v>
@@ -4975,34 +4975,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>250008.0345325352</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>259519.1198811289</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>35700</v>
       </c>
       <c r="M33" t="n">
-        <v>250008.0345325352</v>
+        <v>272608.6889524738</v>
       </c>
       <c r="N33" t="n">
-        <v>208008.0345325352</v>
+        <v>51511.08534859371</v>
       </c>
       <c r="O33" t="n">
-        <v>208008.0345325352</v>
+        <v>259519.1198811289</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>15547304.81085714</v>
+        <v>12234855.53171061</v>
       </c>
       <c r="R33" t="n">
-        <v>15547304.81085714</v>
+        <v>12234855.53171061</v>
       </c>
       <c r="S33" t="n">
         <v>250008.0345325352</v>
@@ -5030,7 +5030,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>15547304.81085714</v>
+        <v>12234855.53171061</v>
       </c>
       <c r="G34" t="n">
         <v>42000</v>
@@ -5039,34 +5039,34 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>257508.2755685113</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>269387.8518292469</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>35700</v>
       </c>
       <c r="M34" t="n">
-        <v>257508.2755685113</v>
+        <v>282477.4010863985</v>
       </c>
       <c r="N34" t="n">
-        <v>215508.2755685113</v>
+        <v>53879.57626073564</v>
       </c>
       <c r="O34" t="n">
-        <v>215508.2755685113</v>
+        <v>269387.8518292469</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>16635616.14761714</v>
+        <v>13091295.41893035</v>
       </c>
       <c r="R34" t="n">
-        <v>16635616.14761714</v>
+        <v>13091295.41893035</v>
       </c>
       <c r="S34" t="n">
         <v>257508.2755685113</v>
@@ -5094,7 +5094,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>16635616.14761714</v>
+        <v>13091295.41893035</v>
       </c>
       <c r="G35" t="n">
         <v>42000</v>
@@ -5103,34 +5103,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>265233.5238355666</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>279552.6457358084</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>35700</v>
       </c>
       <c r="M35" t="n">
-        <v>265233.5238355666</v>
+        <v>292642.1745843409</v>
       </c>
       <c r="N35" t="n">
-        <v>223233.5238355666</v>
+        <v>56319.12190024181</v>
       </c>
       <c r="O35" t="n">
-        <v>223233.5238355666</v>
+        <v>279552.6457358084</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>17800109.27795034</v>
+        <v>14007686.09825548</v>
       </c>
       <c r="R35" t="n">
-        <v>17800109.27795034</v>
+        <v>14007686.09825548</v>
       </c>
       <c r="S35" t="n">
         <v>265233.5238355666</v>
@@ -5158,7 +5158,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>17800109.27795034</v>
+        <v>14007686.09825548</v>
       </c>
       <c r="G36" t="n">
         <v>42000</v>
@@ -5167,34 +5167,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>273190.5295506336</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>290022.3834595668</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>35700</v>
       </c>
       <c r="M36" t="n">
-        <v>273190.5295506336</v>
+        <v>303111.8912872216</v>
       </c>
       <c r="N36" t="n">
-        <v>231190.5295506336</v>
+        <v>58831.85390893318</v>
       </c>
       <c r="O36" t="n">
-        <v>231190.5295506336</v>
+        <v>290022.3834595668</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>19046116.92740687</v>
+        <v>14988224.12513336</v>
       </c>
       <c r="R36" t="n">
-        <v>19046116.92740687</v>
+        <v>14988224.12513336</v>
       </c>
       <c r="S36" t="n">
         <v>273190.5295506336</v>
@@ -5222,7 +5222,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>19046116.92740687</v>
+        <v>14988224.12513336</v>
       </c>
       <c r="G37" t="n">
         <v>42000</v>
@@ -5231,34 +5231,34 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>281386.2454371526</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>300806.2133150379</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>35700</v>
       </c>
       <c r="M37" t="n">
-        <v>281386.2454371526</v>
+        <v>313895.6994911886</v>
       </c>
       <c r="N37" t="n">
-        <v>239386.2454371526</v>
+        <v>61419.96787788527</v>
       </c>
       <c r="O37" t="n">
-        <v>239386.2454371526</v>
+        <v>300806.2133150379</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>20379345.11232535</v>
+        <v>16037399.8138927</v>
       </c>
       <c r="R37" t="n">
-        <v>20379345.11232535</v>
+        <v>16037399.8138927</v>
       </c>
       <c r="S37" t="n">
         <v>281386.2454371526</v>
@@ -5330,22 +5330,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1441302.978864743</v>
+        <v>1470849.639991607</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>3862572.117960727</v>
+        <v>3678059.058562703</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3862572.117960727</v>
+        <v>3678059.058562703</v>
       </c>
       <c r="G2" t="n">
-        <v>48939.68093752107</v>
+        <v>42196.66202593228</v>
       </c>
     </row>
     <row r="3">
@@ -5355,22 +5355,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>378996.0512274401</v>
+        <v>1505262.974240204</v>
       </c>
       <c r="C3" t="n">
-        <v>2030546.046781</v>
+        <v>1726048.165029151</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>20379345.11232535</v>
+        <v>16037399.8138927</v>
       </c>
       <c r="F3" t="n">
-        <v>20379345.11232535</v>
+        <v>16037399.8138927</v>
       </c>
       <c r="G3" t="n">
-        <v>56404.05685502779</v>
+        <v>47945.78236192087</v>
       </c>
     </row>
   </sheetData>
@@ -5384,7 +5384,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5435,32 +5435,32 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>Spending_Need</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>Roth_Conversion</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Additional_Withdrawal</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Taxable_SS</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Taxable_Income</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Federal_Tax</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Spending_Need</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Additional_Withdrawal</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -5522,40 +5522,40 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>410000</v>
+        <v>100000</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>237979</v>
       </c>
       <c r="K2" t="n">
-        <v>377700</v>
+        <v>178220.8870018604</v>
       </c>
       <c r="L2" t="n">
-        <v>76733</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>100000</v>
+        <v>383899.5291744184</v>
       </c>
       <c r="N2" t="n">
-        <v>176733</v>
+        <v>78220.88700186041</v>
       </c>
       <c r="O2" t="n">
-        <v>586733</v>
+        <v>416199.8870018604</v>
       </c>
       <c r="P2" t="n">
-        <v>1874267</v>
+        <v>2044800.11299814</v>
       </c>
       <c r="Q2" t="n">
-        <v>438700</v>
+        <v>254637.53</v>
       </c>
       <c r="R2" t="n">
-        <v>2312967</v>
+        <v>2299437.642998139</v>
       </c>
       <c r="S2" t="n">
-        <v>510000</v>
+        <v>337979</v>
       </c>
       <c r="T2" t="n">
-        <v>410000</v>
+        <v>237979</v>
       </c>
     </row>
     <row r="3">
@@ -5574,10 +5574,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1874267</v>
+        <v>2044800.11299814</v>
       </c>
       <c r="F3" t="n">
-        <v>438700</v>
+        <v>254637.53</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -5586,40 +5586,40 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>410000</v>
+        <v>103000</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>234979</v>
       </c>
       <c r="K3" t="n">
-        <v>377700</v>
+        <v>181220.885099759</v>
       </c>
       <c r="L3" t="n">
-        <v>76733</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>103000</v>
+        <v>383899.5212489957</v>
       </c>
       <c r="N3" t="n">
-        <v>179733</v>
+        <v>78220.88509975898</v>
       </c>
       <c r="O3" t="n">
-        <v>589733</v>
+        <v>416199.885099759</v>
       </c>
       <c r="P3" t="n">
-        <v>1415732.69</v>
+        <v>1771736.23580825</v>
       </c>
       <c r="Q3" t="n">
-        <v>908109</v>
+        <v>523889.6871</v>
       </c>
       <c r="R3" t="n">
-        <v>2323841.69</v>
+        <v>2295625.922908251</v>
       </c>
       <c r="S3" t="n">
-        <v>513000</v>
+        <v>337979</v>
       </c>
       <c r="T3" t="n">
-        <v>410000</v>
+        <v>234979</v>
       </c>
     </row>
     <row r="4">
@@ -5638,10 +5638,10 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1415732.69</v>
+        <v>1771736.23580825</v>
       </c>
       <c r="F4" t="n">
-        <v>908109</v>
+        <v>523889.6871</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -5650,40 +5650,40 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>410000</v>
+        <v>106090</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>231889</v>
       </c>
       <c r="K4" t="n">
-        <v>377700</v>
+        <v>184310.8832177881</v>
       </c>
       <c r="L4" t="n">
-        <v>76733</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>106090</v>
+        <v>383899.5134074505</v>
       </c>
       <c r="N4" t="n">
-        <v>182823</v>
+        <v>78220.88321778813</v>
       </c>
       <c r="O4" t="n">
-        <v>592823</v>
+        <v>416199.8832177881</v>
       </c>
       <c r="P4" t="n">
-        <v>922010.9783000003</v>
+        <v>1479557.88909704</v>
       </c>
       <c r="Q4" t="n">
-        <v>1410376.63</v>
+        <v>808683.1951970001</v>
       </c>
       <c r="R4" t="n">
-        <v>2332387.6083</v>
+        <v>2288241.08429404</v>
       </c>
       <c r="S4" t="n">
-        <v>516090</v>
+        <v>337979</v>
       </c>
       <c r="T4" t="n">
-        <v>410000</v>
+        <v>231889</v>
       </c>
     </row>
     <row r="5">
@@ -5702,10 +5702,10 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>922010.9783000003</v>
+        <v>1479557.88909704</v>
       </c>
       <c r="F5" t="n">
-        <v>1410376.63</v>
+        <v>808683.1951970001</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -5714,40 +5714,40 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>410000</v>
+        <v>109272.7</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>228706.3</v>
       </c>
       <c r="K5" t="n">
-        <v>377700</v>
+        <v>187493.5813680103</v>
       </c>
       <c r="L5" t="n">
-        <v>76733</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>109272.7</v>
+        <v>383899.5057000431</v>
       </c>
       <c r="N5" t="n">
-        <v>186005.7</v>
+        <v>78220.88136801033</v>
       </c>
       <c r="O5" t="n">
-        <v>596005.7</v>
+        <v>416199.8813680103</v>
       </c>
       <c r="P5" t="n">
-        <v>390546.0467810004</v>
+        <v>1166927.059965823</v>
       </c>
       <c r="Q5" t="n">
-        <v>1947802.9941</v>
+        <v>1110006.75986079</v>
       </c>
       <c r="R5" t="n">
-        <v>2338349.040881</v>
+        <v>2276933.819826613</v>
       </c>
       <c r="S5" t="n">
-        <v>519272.7</v>
+        <v>337979</v>
       </c>
       <c r="T5" t="n">
-        <v>409999.9999999999</v>
+        <v>228706.3</v>
       </c>
     </row>
     <row r="6">
@@ -5766,10 +5766,10 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>390546.0467810004</v>
+        <v>1166927.059965823</v>
       </c>
       <c r="F6" t="n">
-        <v>1947802.9941</v>
+        <v>1110006.75986079</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -5778,40 +5778,232 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>390546.0467810004</v>
+        <v>112550.881</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>225428.119</v>
       </c>
       <c r="K6" t="n">
-        <v>358246.0467810004</v>
+        <v>190771.7604627392</v>
       </c>
       <c r="L6" t="n">
-        <v>72064.0512274401</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>112550.881</v>
+        <v>383899.4977614134</v>
       </c>
       <c r="N6" t="n">
-        <v>184614.9322274401</v>
+        <v>78220.87946273922</v>
       </c>
       <c r="O6" t="n">
-        <v>575160.9790084406</v>
+        <v>416199.8794627392</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>832412.074700691</v>
       </c>
       <c r="Q6" t="n">
-        <v>2502033.473742671</v>
+        <v>1428915.320381045</v>
       </c>
       <c r="R6" t="n">
-        <v>2502033.473742671</v>
+        <v>2261327.395081736</v>
       </c>
       <c r="S6" t="n">
-        <v>503096.9277810005</v>
+        <v>337979</v>
       </c>
       <c r="T6" t="n">
-        <v>390546.0467810005</v>
+        <v>225428.119</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2031</v>
+      </c>
+      <c r="B7" t="n">
+        <v>65</v>
+      </c>
+      <c r="C7" t="n">
+        <v>67</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>With_Conversions</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>832412.074700691</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1428915.320381045</v>
+      </c>
+      <c r="G7" t="n">
+        <v>24000</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>115927.40743</v>
+      </c>
+      <c r="J7" t="n">
+        <v>239523.59257</v>
+      </c>
+      <c r="K7" t="n">
+        <v>176675.0659993084</v>
+      </c>
+      <c r="L7" t="n">
+        <v>20400</v>
+      </c>
+      <c r="M7" t="n">
+        <v>404295.8080290888</v>
+      </c>
+      <c r="N7" t="n">
+        <v>84747.65856930841</v>
+      </c>
+      <c r="O7" t="n">
+        <v>416198.6585693084</v>
+      </c>
+      <c r="P7" t="n">
+        <v>474482.261360431</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1785229.636857619</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2259711.89821805</v>
+      </c>
+      <c r="S7" t="n">
+        <v>355451</v>
+      </c>
+      <c r="T7" t="n">
+        <v>239523.59257</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2032</v>
+      </c>
+      <c r="B8" t="n">
+        <v>66</v>
+      </c>
+      <c r="C8" t="n">
+        <v>68</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>With_Conversions</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>474482.261360431</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1785229.636857619</v>
+      </c>
+      <c r="G8" t="n">
+        <v>24000</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>119405.2296529</v>
+      </c>
+      <c r="J8" t="n">
+        <v>236045.7703471</v>
+      </c>
+      <c r="K8" t="n">
+        <v>180152.86619651</v>
+      </c>
+      <c r="L8" t="n">
+        <v>20400</v>
+      </c>
+      <c r="M8" t="n">
+        <v>404295.7391987813</v>
+      </c>
+      <c r="N8" t="n">
+        <v>84747.63654361</v>
+      </c>
+      <c r="O8" t="n">
+        <v>416198.63654361</v>
+      </c>
+      <c r="P8" t="n">
+        <v>91497.38311205123</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2162764.685709049</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2254262.0688211</v>
+      </c>
+      <c r="S8" t="n">
+        <v>355451</v>
+      </c>
+      <c r="T8" t="n">
+        <v>236045.7703471</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2033</v>
+      </c>
+      <c r="B9" t="n">
+        <v>67</v>
+      </c>
+      <c r="C9" t="n">
+        <v>69</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>With_Conversions</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>91497.38311205123</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2162764.685709049</v>
+      </c>
+      <c r="G9" t="n">
+        <v>66000</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>122987.386542487</v>
+      </c>
+      <c r="J9" t="n">
+        <v>91497.38311205123</v>
+      </c>
+      <c r="K9" t="n">
+        <v>93083.67791227839</v>
+      </c>
+      <c r="L9" t="n">
+        <v>56100</v>
+      </c>
+      <c r="M9" t="n">
+        <v>208380.380707464</v>
+      </c>
+      <c r="N9" t="n">
+        <v>36096.29136979136</v>
+      </c>
+      <c r="O9" t="n">
+        <v>184581.0610243296</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2412060.413638577</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2412060.413638577</v>
+      </c>
+      <c r="S9" t="n">
+        <v>214484.7696545382</v>
+      </c>
+      <c r="T9" t="n">
+        <v>91497.38311205123</v>
       </c>
     </row>
   </sheetData>

--- a/roth_conversion_analysis.xlsx
+++ b/roth_conversion_analysis.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:V37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,25 +514,35 @@
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
+          <t>Trad_IRA_Growth</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
           <t>Trad_IRA_End</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Roth_IRA_Growth</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Roth_IRA_End</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Total_Assets_End</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Net_Available</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Surplus_Deficit</t>
         </is>
@@ -587,18 +597,24 @@
         <v>108704.519462912</v>
       </c>
       <c r="P2" t="n">
+        <v>161000</v>
+      </c>
+      <c r="Q2" t="n">
         <v>2352295.480537088</v>
       </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
       <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
         <v>2352295.480537088</v>
       </c>
-      <c r="S2" t="n">
+      <c r="U2" t="n">
         <v>100000</v>
       </c>
-      <c r="T2" t="n">
+      <c r="V2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -651,18 +667,24 @@
         <v>112113.609150464</v>
       </c>
       <c r="P3" t="n">
+        <v>164660.6836375962</v>
+      </c>
+      <c r="Q3" t="n">
         <v>2404842.55502422</v>
       </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
       <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
         <v>2404842.55502422</v>
       </c>
-      <c r="S3" t="n">
+      <c r="U3" t="n">
         <v>103000</v>
       </c>
-      <c r="T3" t="n">
+      <c r="V3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -715,18 +737,24 @@
         <v>115624.9715286426</v>
       </c>
       <c r="P4" t="n">
+        <v>168338.9788516954</v>
+      </c>
+      <c r="Q4" t="n">
         <v>2457556.562347273</v>
       </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
       <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
         <v>2457556.562347273</v>
       </c>
-      <c r="S4" t="n">
+      <c r="U4" t="n">
         <v>106090</v>
       </c>
-      <c r="T4" t="n">
+      <c r="V4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -779,18 +807,24 @@
         <v>119241.6747781665</v>
       </c>
       <c r="P5" t="n">
+        <v>172028.9593643092</v>
+      </c>
+      <c r="Q5" t="n">
         <v>2510343.846933416</v>
       </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
       <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
         <v>2510343.846933416</v>
       </c>
-      <c r="S5" t="n">
+      <c r="U5" t="n">
         <v>109272.7</v>
       </c>
-      <c r="T5" t="n">
+      <c r="V5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -843,18 +877,24 @@
         <v>122966.8791251761</v>
       </c>
       <c r="P6" t="n">
+        <v>175724.0692853392</v>
+      </c>
+      <c r="Q6" t="n">
         <v>2563101.037093579</v>
       </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
       <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
         <v>2563101.037093579</v>
       </c>
-      <c r="S6" t="n">
+      <c r="U6" t="n">
         <v>112550.881</v>
       </c>
-      <c r="T6" t="n">
+      <c r="V6" t="n">
         <v>-1.455191522836685e-11</v>
       </c>
     </row>
@@ -907,18 +947,24 @@
         <v>102312.9319775336</v>
       </c>
       <c r="P7" t="n">
+        <v>179417.0725965506</v>
+      </c>
+      <c r="Q7" t="n">
         <v>2640205.177712596</v>
       </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
       <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
         <v>2640205.177712596</v>
       </c>
-      <c r="S7" t="n">
+      <c r="U7" t="n">
         <v>115927.40743</v>
       </c>
-      <c r="T7" t="n">
+      <c r="V7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -971,18 +1017,24 @@
         <v>106273.3078585433</v>
       </c>
       <c r="P8" t="n">
+        <v>184814.3624398818</v>
+      </c>
+      <c r="Q8" t="n">
         <v>2718746.232293935</v>
       </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
       <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
         <v>2718746.232293935</v>
       </c>
-      <c r="S8" t="n">
+      <c r="U8" t="n">
         <v>119405.2296529</v>
       </c>
-      <c r="T8" t="n">
+      <c r="V8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1035,18 +1087,24 @@
         <v>67153.18297774901</v>
       </c>
       <c r="P9" t="n">
+        <v>190312.2362605755</v>
+      </c>
+      <c r="Q9" t="n">
         <v>2841905.285576762</v>
       </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
       <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
         <v>2841905.285576762</v>
       </c>
-      <c r="S9" t="n">
+      <c r="U9" t="n">
         <v>122987.386542487</v>
       </c>
-      <c r="T9" t="n">
+      <c r="V9" t="n">
         <v>1.455191522836685e-11</v>
       </c>
     </row>
@@ -1099,18 +1157,24 @@
         <v>71818.99575893627</v>
       </c>
       <c r="P10" t="n">
+        <v>198933.3699903734</v>
+      </c>
+      <c r="Q10" t="n">
         <v>2969019.659808199</v>
       </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
       <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
         <v>2969019.659808199</v>
       </c>
-      <c r="S10" t="n">
+      <c r="U10" t="n">
         <v>126677.0081387617</v>
       </c>
-      <c r="T10" t="n">
+      <c r="V10" t="n">
         <v>1.455191522836685e-11</v>
       </c>
     </row>
@@ -1163,18 +1227,24 @@
         <v>76691.36791956626</v>
       </c>
       <c r="P11" t="n">
+        <v>207831.3761865739</v>
+      </c>
+      <c r="Q11" t="n">
         <v>3100159.668075207</v>
       </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
       <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
         <v>3100159.668075207</v>
       </c>
-      <c r="S11" t="n">
+      <c r="U11" t="n">
         <v>130477.3183829245</v>
       </c>
-      <c r="T11" t="n">
+      <c r="V11" t="n">
         <v>-1.455191522836685e-11</v>
       </c>
     </row>
@@ -1227,18 +1297,24 @@
         <v>81709.72045567416</v>
       </c>
       <c r="P12" t="n">
+        <v>217011.1767652645</v>
+      </c>
+      <c r="Q12" t="n">
         <v>3235461.124384797</v>
       </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
       <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
         <v>3235461.124384797</v>
       </c>
-      <c r="S12" t="n">
+      <c r="U12" t="n">
         <v>134391.6379344122</v>
       </c>
-      <c r="T12" t="n">
+      <c r="V12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1291,18 +1367,24 @@
         <v>122092.8726182942</v>
       </c>
       <c r="P13" t="n">
+        <v>226482.2787069358</v>
+      </c>
+      <c r="Q13" t="n">
         <v>3339850.530473439</v>
       </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
       <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
         <v>3339850.530473439</v>
       </c>
-      <c r="S13" t="n">
+      <c r="U13" t="n">
         <v>165890.4406422695</v>
       </c>
-      <c r="T13" t="n">
+      <c r="V13" t="n">
         <v>27467.0535698249</v>
       </c>
     </row>
@@ -1355,18 +1437,24 @@
         <v>130974.5306068015</v>
       </c>
       <c r="P14" t="n">
+        <v>233789.5371331408</v>
+      </c>
+      <c r="Q14" t="n">
         <v>3442665.536999778</v>
       </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
       <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
         <v>3442665.536999778</v>
       </c>
-      <c r="S14" t="n">
+      <c r="U14" t="n">
         <v>172818.1338733052</v>
       </c>
-      <c r="T14" t="n">
+      <c r="V14" t="n">
         <v>30242.04518868728</v>
       </c>
     </row>
@@ -1419,18 +1507,24 @@
         <v>139945.7535365763</v>
       </c>
       <c r="P15" t="n">
+        <v>240986.5875899845</v>
+      </c>
+      <c r="Q15" t="n">
         <v>3543706.371053187</v>
       </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
       <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
         <v>3543706.371053187</v>
       </c>
-      <c r="S15" t="n">
+      <c r="U15" t="n">
         <v>179815.6877585296</v>
       </c>
-      <c r="T15" t="n">
+      <c r="V15" t="n">
         <v>32962.31641337308</v>
       </c>
     </row>
@@ -1483,18 +1577,24 @@
         <v>149523.4755718644</v>
       </c>
       <c r="P16" t="n">
+        <v>248059.4459737231</v>
+      </c>
+      <c r="Q16" t="n">
         <v>3642242.341455046</v>
       </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
       <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
         <v>3642242.341455046</v>
       </c>
-      <c r="S16" t="n">
+      <c r="U16" t="n">
         <v>187286.3109460543</v>
       </c>
-      <c r="T16" t="n">
+      <c r="V16" t="n">
         <v>36027.33846054308</v>
       </c>
     </row>
@@ -1547,18 +1647,24 @@
         <v>159049.8839063339</v>
       </c>
       <c r="P17" t="n">
+        <v>254956.9639018532</v>
+      </c>
+      <c r="Q17" t="n">
         <v>3738149.421450565</v>
       </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
       <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
         <v>3738149.421450565</v>
       </c>
-      <c r="S17" t="n">
+      <c r="U17" t="n">
         <v>194716.9094469404</v>
       </c>
-      <c r="T17" t="n">
+      <c r="V17" t="n">
         <v>38920.16778686392</v>
       </c>
     </row>
@@ -1611,18 +1717,24 @@
         <v>169915.8827932075</v>
       </c>
       <c r="P18" t="n">
+        <v>261670.4595015396</v>
+      </c>
+      <c r="Q18" t="n">
         <v>3829903.998158897</v>
       </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
       <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
         <v>3829903.998158897</v>
       </c>
-      <c r="S18" t="n">
+      <c r="U18" t="n">
         <v>203192.3885787019</v>
       </c>
-      <c r="T18" t="n">
+      <c r="V18" t="n">
         <v>42721.74466882303</v>
       </c>
     </row>
@@ -1675,18 +1787,24 @@
         <v>181512.0378274359</v>
       </c>
       <c r="P19" t="n">
+        <v>268093.2798711229</v>
+      </c>
+      <c r="Q19" t="n">
         <v>3916485.240202584</v>
       </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
       <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
         <v>3916485.240202584</v>
       </c>
-      <c r="S19" t="n">
+      <c r="U19" t="n">
         <v>212152.1487488513</v>
       </c>
-      <c r="T19" t="n">
+      <c r="V19" t="n">
         <v>46867.38552167607</v>
       </c>
     </row>
@@ -1739,18 +1857,24 @@
         <v>193885.407930821</v>
       </c>
       <c r="P20" t="n">
+        <v>274153.966814181</v>
+      </c>
+      <c r="Q20" t="n">
         <v>3996753.799085944</v>
       </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
       <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
         <v>3996753.799085944</v>
       </c>
-      <c r="S20" t="n">
+      <c r="U20" t="n">
         <v>221555.910027424</v>
       </c>
-      <c r="T20" t="n">
+      <c r="V20" t="n">
         <v>51312.60390343351</v>
       </c>
     </row>
@@ -1803,18 +1927,24 @@
         <v>206018.2370662858</v>
       </c>
       <c r="P21" t="n">
+        <v>279772.7659360162</v>
+      </c>
+      <c r="Q21" t="n">
         <v>4070508.327955675</v>
       </c>
-      <c r="Q21" t="n">
-        <v>0</v>
-      </c>
       <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
         <v>4070508.327955675</v>
       </c>
-      <c r="S21" t="n">
+      <c r="U21" t="n">
         <v>230776.8601703772</v>
       </c>
-      <c r="T21" t="n">
+      <c r="V21" t="n">
         <v>55426.25486266706</v>
       </c>
     </row>
@@ -1867,18 +1997,24 @@
         <v>220027.4771867933</v>
       </c>
       <c r="P22" t="n">
+        <v>284935.5829568973</v>
+      </c>
+      <c r="Q22" t="n">
         <v>4135416.433725779</v>
       </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
       <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
         <v>4135416.433725779</v>
       </c>
-      <c r="S22" t="n">
+      <c r="U22" t="n">
         <v>241423.8826619629</v>
       </c>
-      <c r="T22" t="n">
+      <c r="V22" t="n">
         <v>60812.75919502138</v>
       </c>
     </row>
@@ -1931,18 +2067,24 @@
         <v>233639.3465381796</v>
       </c>
       <c r="P23" t="n">
+        <v>289479.1503608046</v>
+      </c>
+      <c r="Q23" t="n">
         <v>4191256.237548404</v>
       </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
       <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
         <v>4191256.237548404</v>
       </c>
-      <c r="S23" t="n">
+      <c r="U23" t="n">
         <v>251768.9033690165</v>
       </c>
-      <c r="T23" t="n">
+      <c r="V23" t="n">
         <v>65739.44619806678</v>
       </c>
     </row>
@@ -1995,18 +2137,24 @@
         <v>249479.5379493098</v>
       </c>
       <c r="P24" t="n">
+        <v>293387.9366283884</v>
+      </c>
+      <c r="Q24" t="n">
         <v>4235164.636227483</v>
       </c>
-      <c r="Q24" t="n">
-        <v>0</v>
-      </c>
       <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
         <v>4235164.636227483</v>
       </c>
-      <c r="S24" t="n">
+      <c r="U24" t="n">
         <v>263807.4488414754</v>
       </c>
-      <c r="T24" t="n">
+      <c r="V24" t="n">
         <v>72197.10795539719</v>
       </c>
     </row>
@@ -2059,18 +2207,24 @@
         <v>264697.7897642177</v>
       </c>
       <c r="P25" t="n">
+        <v>296461.5245359238</v>
+      </c>
+      <c r="Q25" t="n">
         <v>4266928.370999189</v>
       </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
       <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
         <v>4266928.370999189</v>
       </c>
-      <c r="S25" t="n">
+      <c r="U25" t="n">
         <v>275373.3202208055</v>
       </c>
-      <c r="T25" t="n">
+      <c r="V25" t="n">
         <v>78014.66910814488</v>
       </c>
     </row>
@@ -2123,18 +2277,24 @@
         <v>253983.8316070946</v>
       </c>
       <c r="P26" t="n">
+        <v>298684.9859699433</v>
+      </c>
+      <c r="Q26" t="n">
         <v>4311629.525362038</v>
       </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
       <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
         <v>4311629.525362038</v>
       </c>
-      <c r="S26" t="n">
+      <c r="U26" t="n">
         <v>245801.1120213919</v>
       </c>
-      <c r="T26" t="n">
+      <c r="V26" t="n">
         <v>42521.70137535152</v>
       </c>
     </row>
@@ -2187,18 +2347,24 @@
         <v>269476.8453351274</v>
       </c>
       <c r="P27" t="n">
+        <v>301814.0667753427</v>
+      </c>
+      <c r="Q27" t="n">
         <v>4343966.746802254</v>
       </c>
-      <c r="Q27" t="n">
-        <v>0</v>
-      </c>
       <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
         <v>4343966.746802254</v>
       </c>
-      <c r="S27" t="n">
+      <c r="U27" t="n">
         <v>257575.8024546968</v>
       </c>
-      <c r="T27" t="n">
+      <c r="V27" t="n">
         <v>48198.00948927519</v>
       </c>
     </row>
@@ -2251,18 +2417,24 @@
         <v>285787.2859738325</v>
       </c>
       <c r="P28" t="n">
+        <v>304077.6722761578</v>
+      </c>
+      <c r="Q28" t="n">
         <v>4362257.13310458</v>
       </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
       <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
         <v>4362257.13310458</v>
       </c>
-      <c r="S28" t="n">
+      <c r="U28" t="n">
         <v>269971.7373401127</v>
       </c>
-      <c r="T28" t="n">
+      <c r="V28" t="n">
         <v>54312.6105857284</v>
       </c>
     </row>
@@ -2315,18 +2487,24 @@
         <v>302934.5231322625</v>
       </c>
       <c r="P29" t="n">
+        <v>305357.9993173206</v>
+      </c>
+      <c r="Q29" t="n">
         <v>4364680.609289638</v>
       </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
       <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
         <v>4364680.609289638</v>
       </c>
-      <c r="S29" t="n">
+      <c r="U29" t="n">
         <v>283003.6375805195</v>
       </c>
-      <c r="T29" t="n">
+      <c r="V29" t="n">
         <v>60874.73702350367</v>
       </c>
     </row>
@@ -2379,18 +2557,24 @@
         <v>318589.825495594</v>
       </c>
       <c r="P30" t="n">
+        <v>305527.6426502747</v>
+      </c>
+      <c r="Q30" t="n">
         <v>4351618.426444318</v>
       </c>
-      <c r="Q30" t="n">
-        <v>0</v>
-      </c>
       <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
         <v>4351618.426444318</v>
       </c>
-      <c r="S30" t="n">
+      <c r="U30" t="n">
         <v>294901.6673766514</v>
       </c>
-      <c r="T30" t="n">
+      <c r="V30" t="n">
         <v>66108.89980292515</v>
       </c>
     </row>
@@ -2443,18 +2627,24 @@
         <v>337334.7617398696</v>
       </c>
       <c r="P31" t="n">
+        <v>304613.2898511023</v>
+      </c>
+      <c r="Q31" t="n">
         <v>4318896.954555552</v>
       </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
       <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
         <v>4318896.954555552</v>
       </c>
-      <c r="S31" t="n">
+      <c r="U31" t="n">
         <v>309147.8189223009</v>
       </c>
-      <c r="T31" t="n">
+      <c r="V31" t="n">
         <v>73491.26832136279</v>
       </c>
     </row>
@@ -2507,18 +2697,24 @@
         <v>354007.9470947174</v>
       </c>
       <c r="P32" t="n">
+        <v>302322.7868188886</v>
+      </c>
+      <c r="Q32" t="n">
         <v>4267211.794279723</v>
       </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
       <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
         <v>4267211.794279723</v>
       </c>
-      <c r="S32" t="n">
+      <c r="U32" t="n">
         <v>321819.4397919852</v>
       </c>
-      <c r="T32" t="n">
+      <c r="V32" t="n">
         <v>79093.19267301899</v>
       </c>
     </row>
@@ -2571,18 +2767,24 @@
         <v>371061.8951547585</v>
       </c>
       <c r="P33" t="n">
+        <v>298704.8255995807</v>
+      </c>
+      <c r="Q33" t="n">
         <v>4194854.724724546</v>
       </c>
-      <c r="Q33" t="n">
-        <v>0</v>
-      </c>
       <c r="R33" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" t="n">
         <v>4194854.724724546</v>
       </c>
-      <c r="S33" t="n">
+      <c r="U33" t="n">
         <v>334760.2887052358</v>
       </c>
-      <c r="T33" t="n">
+      <c r="V33" t="n">
         <v>84752.25417270063</v>
       </c>
     </row>
@@ -2635,18 +2837,24 @@
         <v>388412.474511532</v>
       </c>
       <c r="P34" t="n">
+        <v>293639.8307307183</v>
+      </c>
+      <c r="Q34" t="n">
         <v>4100082.080943733</v>
       </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
       <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
         <v>4100082.080943733</v>
       </c>
-      <c r="S34" t="n">
+      <c r="U34" t="n">
         <v>346558.6826678418</v>
       </c>
-      <c r="T34" t="n">
+      <c r="V34" t="n">
         <v>89050.40709933051</v>
       </c>
     </row>
@@ -2699,18 +2907,24 @@
         <v>405948.7208855181</v>
       </c>
       <c r="P35" t="n">
+        <v>287005.7456660613</v>
+      </c>
+      <c r="Q35" t="n">
         <v>3981139.105724276</v>
       </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
       <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
         <v>3981139.105724276</v>
       </c>
-      <c r="S35" t="n">
+      <c r="U35" t="n">
         <v>358483.3302021523</v>
       </c>
-      <c r="T35" t="n">
+      <c r="V35" t="n">
         <v>93249.80636658566</v>
       </c>
     </row>
@@ -2763,18 +2977,24 @@
         <v>419067.2742867659</v>
       </c>
       <c r="P36" t="n">
+        <v>278679.7374006993</v>
+      </c>
+      <c r="Q36" t="n">
         <v>3840751.568838209</v>
       </c>
-      <c r="Q36" t="n">
-        <v>0</v>
-      </c>
       <c r="R36" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" t="n">
         <v>3840751.568838209</v>
       </c>
-      <c r="S36" t="n">
+      <c r="U36" t="n">
         <v>367403.9465150008</v>
       </c>
-      <c r="T36" t="n">
+      <c r="V36" t="n">
         <v>94213.41696436715</v>
       </c>
     </row>
@@ -2827,18 +3047,24 @@
         <v>431545.1200941808</v>
       </c>
       <c r="P37" t="n">
+        <v>268852.6098186747</v>
+      </c>
+      <c r="Q37" t="n">
         <v>3678059.058562703</v>
       </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
       <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
         <v>3678059.058562703</v>
       </c>
-      <c r="S37" t="n">
+      <c r="U37" t="n">
         <v>375888.8816640429</v>
       </c>
-      <c r="T37" t="n">
+      <c r="V37" t="n">
         <v>94502.63622689032</v>
       </c>
     </row>
@@ -2853,7 +3079,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:V37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2939,25 +3165,35 @@
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
+          <t>Trad_IRA_Growth</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
           <t>Trad_IRA_End</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Roth_IRA_Growth</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Roth_IRA_End</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Total_Assets_End</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Net_Available</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Surplus_Deficit</t>
         </is>
@@ -3012,18 +3248,24 @@
         <v>416199.8870018604</v>
       </c>
       <c r="P2" t="n">
+        <v>161000</v>
+      </c>
+      <c r="Q2" t="n">
         <v>2044800.11299814</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
+        <v>16658.53</v>
+      </c>
+      <c r="S2" t="n">
         <v>254637.53</v>
       </c>
-      <c r="R2" t="n">
+      <c r="T2" t="n">
         <v>2299437.642998139</v>
       </c>
-      <c r="S2" t="n">
+      <c r="U2" t="n">
         <v>337979</v>
       </c>
-      <c r="T2" t="n">
+      <c r="V2" t="n">
         <v>237979</v>
       </c>
     </row>
@@ -3076,18 +3318,24 @@
         <v>416199.885099759</v>
       </c>
       <c r="P3" t="n">
+        <v>143136.0079098698</v>
+      </c>
+      <c r="Q3" t="n">
         <v>1771736.23580825</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="R3" t="n">
+        <v>34273.1571</v>
+      </c>
+      <c r="S3" t="n">
         <v>523889.6871</v>
       </c>
-      <c r="R3" t="n">
+      <c r="T3" t="n">
         <v>2295625.922908251</v>
       </c>
-      <c r="S3" t="n">
+      <c r="U3" t="n">
         <v>337979</v>
       </c>
-      <c r="T3" t="n">
+      <c r="V3" t="n">
         <v>234979</v>
       </c>
     </row>
@@ -3140,18 +3388,24 @@
         <v>416199.8832177881</v>
       </c>
       <c r="P4" t="n">
+        <v>124021.5365065775</v>
+      </c>
+      <c r="Q4" t="n">
         <v>1479557.88909704</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="R4" t="n">
+        <v>52904.50809700001</v>
+      </c>
+      <c r="S4" t="n">
         <v>808683.1951970001</v>
       </c>
-      <c r="R4" t="n">
+      <c r="T4" t="n">
         <v>2288241.08429404</v>
       </c>
-      <c r="S4" t="n">
+      <c r="U4" t="n">
         <v>337979</v>
       </c>
-      <c r="T4" t="n">
+      <c r="V4" t="n">
         <v>231889</v>
       </c>
     </row>
@@ -3204,18 +3458,24 @@
         <v>416199.8813680103</v>
       </c>
       <c r="P5" t="n">
+        <v>103569.0522367928</v>
+      </c>
+      <c r="Q5" t="n">
         <v>1166927.059965823</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="R5" t="n">
+        <v>72617.26466379</v>
+      </c>
+      <c r="S5" t="n">
         <v>1110006.75986079</v>
       </c>
-      <c r="R5" t="n">
+      <c r="T5" t="n">
         <v>2276933.819826613</v>
       </c>
-      <c r="S5" t="n">
+      <c r="U5" t="n">
         <v>337979</v>
       </c>
-      <c r="T5" t="n">
+      <c r="V5" t="n">
         <v>228706.3</v>
       </c>
     </row>
@@ -3268,18 +3528,24 @@
         <v>416199.8794627392</v>
       </c>
       <c r="P6" t="n">
+        <v>81684.89419760759</v>
+      </c>
+      <c r="Q6" t="n">
         <v>832412.074700691</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="R6" t="n">
+        <v>93480.44152025531</v>
+      </c>
+      <c r="S6" t="n">
         <v>1428915.320381045</v>
       </c>
-      <c r="R6" t="n">
+      <c r="T6" t="n">
         <v>2261327.395081736</v>
       </c>
-      <c r="S6" t="n">
+      <c r="U6" t="n">
         <v>337979</v>
       </c>
-      <c r="T6" t="n">
+      <c r="V6" t="n">
         <v>225428.119</v>
       </c>
     </row>
@@ -3332,18 +3598,24 @@
         <v>416198.6585693084</v>
       </c>
       <c r="P7" t="n">
+        <v>58268.84522904838</v>
+      </c>
+      <c r="Q7" t="n">
         <v>474482.261360431</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="R7" t="n">
+        <v>116790.7239065732</v>
+      </c>
+      <c r="S7" t="n">
         <v>1785229.636857619</v>
       </c>
-      <c r="R7" t="n">
+      <c r="T7" t="n">
         <v>2259711.89821805</v>
       </c>
-      <c r="S7" t="n">
+      <c r="U7" t="n">
         <v>355451</v>
       </c>
-      <c r="T7" t="n">
+      <c r="V7" t="n">
         <v>239523.59257</v>
       </c>
     </row>
@@ -3396,18 +3668,24 @@
         <v>416198.63654361</v>
       </c>
       <c r="P8" t="n">
+        <v>33213.75829523017</v>
+      </c>
+      <c r="Q8" t="n">
         <v>91497.38311205123</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="R8" t="n">
+        <v>141489.2785043303</v>
+      </c>
+      <c r="S8" t="n">
         <v>2162764.685709049</v>
       </c>
-      <c r="R8" t="n">
+      <c r="T8" t="n">
         <v>2254262.0688211</v>
       </c>
-      <c r="S8" t="n">
+      <c r="U8" t="n">
         <v>355451</v>
       </c>
-      <c r="T8" t="n">
+      <c r="V8" t="n">
         <v>236045.7703471</v>
       </c>
     </row>
@@ -3460,18 +3738,24 @@
         <v>184581.0610243296</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>6404.816817843587</v>
       </c>
       <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>157798.344817477</v>
+      </c>
+      <c r="S9" t="n">
         <v>2412060.413638577</v>
       </c>
-      <c r="R9" t="n">
+      <c r="T9" t="n">
         <v>2412060.413638577</v>
       </c>
-      <c r="S9" t="n">
+      <c r="U9" t="n">
         <v>214484.7696545382</v>
       </c>
-      <c r="T9" t="n">
+      <c r="V9" t="n">
         <v>91497.38311205123</v>
       </c>
     </row>
@@ -3527,15 +3811,21 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>168844.2289547004</v>
+      </c>
+      <c r="S10" t="n">
         <v>2580904.642593278</v>
       </c>
-      <c r="R10" t="n">
+      <c r="T10" t="n">
         <v>2580904.642593278</v>
       </c>
-      <c r="S10" t="n">
+      <c r="U10" t="n">
         <v>126677.0081387617</v>
       </c>
-      <c r="T10" t="n">
+      <c r="V10" t="n">
         <v>1.455191522836685e-11</v>
       </c>
     </row>
@@ -3591,15 +3881,21 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>180663.3249815295</v>
+      </c>
+      <c r="S11" t="n">
         <v>2761567.967574808</v>
       </c>
-      <c r="R11" t="n">
+      <c r="T11" t="n">
         <v>2761567.967574808</v>
       </c>
-      <c r="S11" t="n">
+      <c r="U11" t="n">
         <v>130477.3183829245</v>
       </c>
-      <c r="T11" t="n">
+      <c r="V11" t="n">
         <v>-1.455191522836685e-11</v>
       </c>
     </row>
@@ -3655,15 +3951,21 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>193309.7577302366</v>
+      </c>
+      <c r="S12" t="n">
         <v>2954877.725305045</v>
       </c>
-      <c r="R12" t="n">
+      <c r="T12" t="n">
         <v>2954877.725305045</v>
       </c>
-      <c r="S12" t="n">
+      <c r="U12" t="n">
         <v>134391.6379344122</v>
       </c>
-      <c r="T12" t="n">
+      <c r="V12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3719,15 +4021,21 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>206841.4407713531</v>
+      </c>
+      <c r="S13" t="n">
         <v>3161719.166076398</v>
       </c>
-      <c r="R13" t="n">
+      <c r="T13" t="n">
         <v>3161719.166076398</v>
       </c>
-      <c r="S13" t="n">
+      <c r="U13" t="n">
         <v>138423.3870724446</v>
       </c>
-      <c r="T13" t="n">
+      <c r="V13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3783,15 +4091,21 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>221320.3416253479</v>
+      </c>
+      <c r="S14" t="n">
         <v>3383039.507701746</v>
       </c>
-      <c r="R14" t="n">
+      <c r="T14" t="n">
         <v>3383039.507701746</v>
       </c>
-      <c r="S14" t="n">
+      <c r="U14" t="n">
         <v>142576.0886846179</v>
       </c>
-      <c r="T14" t="n">
+      <c r="V14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3847,15 +4161,21 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>236812.7655391223</v>
+      </c>
+      <c r="S15" t="n">
         <v>3619852.273240868</v>
       </c>
-      <c r="R15" t="n">
+      <c r="T15" t="n">
         <v>3619852.273240868</v>
       </c>
-      <c r="S15" t="n">
+      <c r="U15" t="n">
         <v>146853.3713451565</v>
       </c>
-      <c r="T15" t="n">
+      <c r="V15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3911,15 +4231,21 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>253389.6591268608</v>
+      </c>
+      <c r="S16" t="n">
         <v>3873241.932367729</v>
       </c>
-      <c r="R16" t="n">
+      <c r="T16" t="n">
         <v>3873241.932367729</v>
       </c>
-      <c r="S16" t="n">
+      <c r="U16" t="n">
         <v>151258.9724855112</v>
       </c>
-      <c r="T16" t="n">
+      <c r="V16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3975,15 +4301,21 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>271126.9352657411</v>
+      </c>
+      <c r="S17" t="n">
         <v>4144368.867633471</v>
       </c>
-      <c r="R17" t="n">
+      <c r="T17" t="n">
         <v>4144368.867633471</v>
       </c>
-      <c r="S17" t="n">
+      <c r="U17" t="n">
         <v>155796.7416600765</v>
       </c>
-      <c r="T17" t="n">
+      <c r="V17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4039,15 +4371,21 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>290105.820734343</v>
+      </c>
+      <c r="S18" t="n">
         <v>4434474.688367814</v>
       </c>
-      <c r="R18" t="n">
+      <c r="T18" t="n">
         <v>4434474.688367814</v>
       </c>
-      <c r="S18" t="n">
+      <c r="U18" t="n">
         <v>160470.6439098788</v>
       </c>
-      <c r="T18" t="n">
+      <c r="V18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4103,15 +4441,21 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>310413.228185747</v>
+      </c>
+      <c r="S19" t="n">
         <v>4744887.916553561</v>
       </c>
-      <c r="R19" t="n">
+      <c r="T19" t="n">
         <v>4744887.916553561</v>
       </c>
-      <c r="S19" t="n">
+      <c r="U19" t="n">
         <v>165284.7632271752</v>
       </c>
-      <c r="T19" t="n">
+      <c r="V19" t="n">
         <v>2.91038304567337e-11</v>
       </c>
     </row>
@@ -4167,15 +4511,21 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>332142.1541587493</v>
+      </c>
+      <c r="S20" t="n">
         <v>5077030.07071231</v>
       </c>
-      <c r="R20" t="n">
+      <c r="T20" t="n">
         <v>5077030.07071231</v>
       </c>
-      <c r="S20" t="n">
+      <c r="U20" t="n">
         <v>170243.3061239904</v>
       </c>
-      <c r="T20" t="n">
+      <c r="V20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4231,15 +4581,21 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>355392.1049498618</v>
+      </c>
+      <c r="S21" t="n">
         <v>5432422.175662172</v>
       </c>
-      <c r="R21" t="n">
+      <c r="T21" t="n">
         <v>5432422.175662172</v>
       </c>
-      <c r="S21" t="n">
+      <c r="U21" t="n">
         <v>175350.6053077102</v>
       </c>
-      <c r="T21" t="n">
+      <c r="V21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4295,15 +4651,21 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>380269.5522963521</v>
+      </c>
+      <c r="S22" t="n">
         <v>5812691.727958525</v>
       </c>
-      <c r="R22" t="n">
+      <c r="T22" t="n">
         <v>5812691.727958525</v>
       </c>
-      <c r="S22" t="n">
+      <c r="U22" t="n">
         <v>180611.1234669415</v>
       </c>
-      <c r="T22" t="n">
+      <c r="V22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4359,15 +4721,21 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>406888.4209570967</v>
+      </c>
+      <c r="S23" t="n">
         <v>6219580.148915621</v>
       </c>
-      <c r="R23" t="n">
+      <c r="T23" t="n">
         <v>6219580.148915621</v>
       </c>
-      <c r="S23" t="n">
+      <c r="U23" t="n">
         <v>186029.4571709497</v>
       </c>
-      <c r="T23" t="n">
+      <c r="V23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4423,15 +4791,21 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>435370.6104240936</v>
+      </c>
+      <c r="S24" t="n">
         <v>6654950.759339715</v>
       </c>
-      <c r="R24" t="n">
+      <c r="T24" t="n">
         <v>6654950.759339715</v>
       </c>
-      <c r="S24" t="n">
+      <c r="U24" t="n">
         <v>191610.3408860782</v>
       </c>
-      <c r="T24" t="n">
+      <c r="V24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4487,15 +4861,21 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>465846.5531537801</v>
+      </c>
+      <c r="S25" t="n">
         <v>7120797.312493496</v>
       </c>
-      <c r="R25" t="n">
+      <c r="T25" t="n">
         <v>7120797.312493496</v>
       </c>
-      <c r="S25" t="n">
+      <c r="U25" t="n">
         <v>197358.6511126606</v>
       </c>
-      <c r="T25" t="n">
+      <c r="V25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4551,15 +4931,21 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>498455.8118745447</v>
+      </c>
+      <c r="S26" t="n">
         <v>7619253.124368041</v>
       </c>
-      <c r="R26" t="n">
+      <c r="T26" t="n">
         <v>7619253.124368041</v>
       </c>
-      <c r="S26" t="n">
+      <c r="U26" t="n">
         <v>203279.4106460404</v>
       </c>
-      <c r="T26" t="n">
+      <c r="V26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4615,15 +5001,21 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>533347.7187057629</v>
+      </c>
+      <c r="S27" t="n">
         <v>8152600.843073804</v>
       </c>
-      <c r="R27" t="n">
+      <c r="T27" t="n">
         <v>8152600.843073804</v>
       </c>
-      <c r="S27" t="n">
+      <c r="U27" t="n">
         <v>209377.7929654216</v>
       </c>
-      <c r="T27" t="n">
+      <c r="V27" t="n">
         <v>2.91038304567337e-11</v>
       </c>
     </row>
@@ -4679,15 +5071,21 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>570682.0590151664</v>
+      </c>
+      <c r="S28" t="n">
         <v>8723282.90208897</v>
       </c>
-      <c r="R28" t="n">
+      <c r="T28" t="n">
         <v>8723282.90208897</v>
       </c>
-      <c r="S28" t="n">
+      <c r="U28" t="n">
         <v>215659.1267543843</v>
       </c>
-      <c r="T28" t="n">
+      <c r="V28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4743,15 +5141,21 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>610629.803146228</v>
+      </c>
+      <c r="S29" t="n">
         <v>9333912.705235198</v>
       </c>
-      <c r="R29" t="n">
+      <c r="T29" t="n">
         <v>9333912.705235198</v>
       </c>
-      <c r="S29" t="n">
+      <c r="U29" t="n">
         <v>222128.9005570158</v>
       </c>
-      <c r="T29" t="n">
+      <c r="V29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4807,15 +5211,21 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="n">
+        <v>653373.8893664639</v>
+      </c>
+      <c r="S30" t="n">
         <v>9987286.594601663</v>
       </c>
-      <c r="R30" t="n">
+      <c r="T30" t="n">
         <v>9987286.594601663</v>
       </c>
-      <c r="S30" t="n">
+      <c r="U30" t="n">
         <v>228792.7675737262</v>
       </c>
-      <c r="T30" t="n">
+      <c r="V30" t="n">
         <v>-2.91038304567337e-11</v>
       </c>
     </row>
@@ -4871,15 +5281,21 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>699110.0616221165</v>
+      </c>
+      <c r="S31" t="n">
         <v>10686396.65622378</v>
       </c>
-      <c r="R31" t="n">
+      <c r="T31" t="n">
         <v>10686396.65622378</v>
       </c>
-      <c r="S31" t="n">
+      <c r="U31" t="n">
         <v>235656.5506009381</v>
       </c>
-      <c r="T31" t="n">
+      <c r="V31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4935,15 +5351,21 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>748047.7659356646</v>
+      </c>
+      <c r="S32" t="n">
         <v>11434444.42215944</v>
       </c>
-      <c r="R32" t="n">
+      <c r="T32" t="n">
         <v>11434444.42215944</v>
       </c>
-      <c r="S32" t="n">
+      <c r="U32" t="n">
         <v>242726.2471189662</v>
       </c>
-      <c r="T32" t="n">
+      <c r="V32" t="n">
         <v>2.91038304567337e-11</v>
       </c>
     </row>
@@ -4999,15 +5421,21 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>800411.1095511612</v>
+      </c>
+      <c r="S33" t="n">
         <v>12234855.53171061</v>
       </c>
-      <c r="R33" t="n">
+      <c r="T33" t="n">
         <v>12234855.53171061</v>
       </c>
-      <c r="S33" t="n">
+      <c r="U33" t="n">
         <v>250008.0345325352</v>
       </c>
-      <c r="T33" t="n">
+      <c r="V33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5063,15 +5491,21 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>856439.8872197425</v>
+      </c>
+      <c r="S34" t="n">
         <v>13091295.41893035</v>
       </c>
-      <c r="R34" t="n">
+      <c r="T34" t="n">
         <v>13091295.41893035</v>
       </c>
-      <c r="S34" t="n">
+      <c r="U34" t="n">
         <v>257508.2755685113</v>
       </c>
-      <c r="T34" t="n">
+      <c r="V34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5127,15 +5561,21 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>916390.6793251246</v>
+      </c>
+      <c r="S35" t="n">
         <v>14007686.09825548</v>
       </c>
-      <c r="R35" t="n">
+      <c r="T35" t="n">
         <v>14007686.09825548</v>
       </c>
-      <c r="S35" t="n">
+      <c r="U35" t="n">
         <v>265233.5238355666</v>
       </c>
-      <c r="T35" t="n">
+      <c r="V35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5191,15 +5631,21 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="n">
+        <v>980538.0268778834</v>
+      </c>
+      <c r="S36" t="n">
         <v>14988224.12513336</v>
       </c>
-      <c r="R36" t="n">
+      <c r="T36" t="n">
         <v>14988224.12513336</v>
       </c>
-      <c r="S36" t="n">
+      <c r="U36" t="n">
         <v>273190.5295506336</v>
       </c>
-      <c r="T36" t="n">
+      <c r="V36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5255,15 +5701,21 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1049175.688759335</v>
+      </c>
+      <c r="S37" t="n">
         <v>16037399.8138927</v>
       </c>
-      <c r="R37" t="n">
+      <c r="T37" t="n">
         <v>16037399.8138927</v>
       </c>
-      <c r="S37" t="n">
+      <c r="U37" t="n">
         <v>281386.2454371526</v>
       </c>
-      <c r="T37" t="n">
+      <c r="V37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5384,7 +5836,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:V9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5470,25 +5922,35 @@
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
+          <t>Trad_IRA_Growth</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
           <t>Trad_IRA_End</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Roth_IRA_Growth</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Roth_IRA_End</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Total_Assets_End</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Net_Available</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Surplus_Deficit</t>
         </is>
@@ -5543,18 +6005,24 @@
         <v>416199.8870018604</v>
       </c>
       <c r="P2" t="n">
+        <v>161000</v>
+      </c>
+      <c r="Q2" t="n">
         <v>2044800.11299814</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
+        <v>16658.53</v>
+      </c>
+      <c r="S2" t="n">
         <v>254637.53</v>
       </c>
-      <c r="R2" t="n">
+      <c r="T2" t="n">
         <v>2299437.642998139</v>
       </c>
-      <c r="S2" t="n">
+      <c r="U2" t="n">
         <v>337979</v>
       </c>
-      <c r="T2" t="n">
+      <c r="V2" t="n">
         <v>237979</v>
       </c>
     </row>
@@ -5607,18 +6075,24 @@
         <v>416199.885099759</v>
       </c>
       <c r="P3" t="n">
+        <v>143136.0079098698</v>
+      </c>
+      <c r="Q3" t="n">
         <v>1771736.23580825</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="R3" t="n">
+        <v>34273.1571</v>
+      </c>
+      <c r="S3" t="n">
         <v>523889.6871</v>
       </c>
-      <c r="R3" t="n">
+      <c r="T3" t="n">
         <v>2295625.922908251</v>
       </c>
-      <c r="S3" t="n">
+      <c r="U3" t="n">
         <v>337979</v>
       </c>
-      <c r="T3" t="n">
+      <c r="V3" t="n">
         <v>234979</v>
       </c>
     </row>
@@ -5671,18 +6145,24 @@
         <v>416199.8832177881</v>
       </c>
       <c r="P4" t="n">
+        <v>124021.5365065775</v>
+      </c>
+      <c r="Q4" t="n">
         <v>1479557.88909704</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="R4" t="n">
+        <v>52904.50809700001</v>
+      </c>
+      <c r="S4" t="n">
         <v>808683.1951970001</v>
       </c>
-      <c r="R4" t="n">
+      <c r="T4" t="n">
         <v>2288241.08429404</v>
       </c>
-      <c r="S4" t="n">
+      <c r="U4" t="n">
         <v>337979</v>
       </c>
-      <c r="T4" t="n">
+      <c r="V4" t="n">
         <v>231889</v>
       </c>
     </row>
@@ -5735,18 +6215,24 @@
         <v>416199.8813680103</v>
       </c>
       <c r="P5" t="n">
+        <v>103569.0522367928</v>
+      </c>
+      <c r="Q5" t="n">
         <v>1166927.059965823</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="R5" t="n">
+        <v>72617.26466379</v>
+      </c>
+      <c r="S5" t="n">
         <v>1110006.75986079</v>
       </c>
-      <c r="R5" t="n">
+      <c r="T5" t="n">
         <v>2276933.819826613</v>
       </c>
-      <c r="S5" t="n">
+      <c r="U5" t="n">
         <v>337979</v>
       </c>
-      <c r="T5" t="n">
+      <c r="V5" t="n">
         <v>228706.3</v>
       </c>
     </row>
@@ -5799,18 +6285,24 @@
         <v>416199.8794627392</v>
       </c>
       <c r="P6" t="n">
+        <v>81684.89419760759</v>
+      </c>
+      <c r="Q6" t="n">
         <v>832412.074700691</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="R6" t="n">
+        <v>93480.44152025531</v>
+      </c>
+      <c r="S6" t="n">
         <v>1428915.320381045</v>
       </c>
-      <c r="R6" t="n">
+      <c r="T6" t="n">
         <v>2261327.395081736</v>
       </c>
-      <c r="S6" t="n">
+      <c r="U6" t="n">
         <v>337979</v>
       </c>
-      <c r="T6" t="n">
+      <c r="V6" t="n">
         <v>225428.119</v>
       </c>
     </row>
@@ -5863,18 +6355,24 @@
         <v>416198.6585693084</v>
       </c>
       <c r="P7" t="n">
+        <v>58268.84522904838</v>
+      </c>
+      <c r="Q7" t="n">
         <v>474482.261360431</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="R7" t="n">
+        <v>116790.7239065732</v>
+      </c>
+      <c r="S7" t="n">
         <v>1785229.636857619</v>
       </c>
-      <c r="R7" t="n">
+      <c r="T7" t="n">
         <v>2259711.89821805</v>
       </c>
-      <c r="S7" t="n">
+      <c r="U7" t="n">
         <v>355451</v>
       </c>
-      <c r="T7" t="n">
+      <c r="V7" t="n">
         <v>239523.59257</v>
       </c>
     </row>
@@ -5927,18 +6425,24 @@
         <v>416198.63654361</v>
       </c>
       <c r="P8" t="n">
+        <v>33213.75829523017</v>
+      </c>
+      <c r="Q8" t="n">
         <v>91497.38311205123</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="R8" t="n">
+        <v>141489.2785043303</v>
+      </c>
+      <c r="S8" t="n">
         <v>2162764.685709049</v>
       </c>
-      <c r="R8" t="n">
+      <c r="T8" t="n">
         <v>2254262.0688211</v>
       </c>
-      <c r="S8" t="n">
+      <c r="U8" t="n">
         <v>355451</v>
       </c>
-      <c r="T8" t="n">
+      <c r="V8" t="n">
         <v>236045.7703471</v>
       </c>
     </row>
@@ -5991,18 +6495,24 @@
         <v>184581.0610243296</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>6404.816817843587</v>
       </c>
       <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>157798.344817477</v>
+      </c>
+      <c r="S9" t="n">
         <v>2412060.413638577</v>
       </c>
-      <c r="R9" t="n">
+      <c r="T9" t="n">
         <v>2412060.413638577</v>
       </c>
-      <c r="S9" t="n">
+      <c r="U9" t="n">
         <v>214484.7696545382</v>
       </c>
-      <c r="T9" t="n">
+      <c r="V9" t="n">
         <v>91497.38311205123</v>
       </c>
     </row>

--- a/roth_conversion_analysis.xlsx
+++ b/roth_conversion_analysis.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V37"/>
+  <dimension ref="A1:W37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,25 +524,30 @@
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
+          <t>Roth_Distribution</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
           <t>Roth_IRA_Growth</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Roth_IRA_End</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Total_Assets_End</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Net_Available</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Surplus_Deficit</t>
         </is>
@@ -609,12 +614,15 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
         <v>2352295.480537088</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>100000</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -679,12 +687,15 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
         <v>2404842.55502422</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>103000</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -749,12 +760,15 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
         <v>2457556.562347273</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>106090</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -819,12 +833,15 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
         <v>2510343.846933416</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>109272.7</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -889,12 +906,15 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
         <v>2563101.037093579</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>112550.881</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>-1.455191522836685e-11</v>
       </c>
     </row>
@@ -959,12 +979,15 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
         <v>2640205.177712596</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>115927.40743</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1029,12 +1052,15 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
         <v>2718746.232293935</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>119405.2296529</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1099,12 +1125,15 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
         <v>2841905.285576762</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>122987.386542487</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>1.455191522836685e-11</v>
       </c>
     </row>
@@ -1169,12 +1198,15 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
         <v>2969019.659808199</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>126677.0081387617</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>1.455191522836685e-11</v>
       </c>
     </row>
@@ -1239,12 +1271,15 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
         <v>3100159.668075207</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>130477.3183829245</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>-1.455191522836685e-11</v>
       </c>
     </row>
@@ -1309,12 +1344,15 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
         <v>3235461.124384797</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>134391.6379344122</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1379,12 +1417,15 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
         <v>3339850.530473439</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>165890.4406422695</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>27467.0535698249</v>
       </c>
     </row>
@@ -1449,12 +1490,15 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
         <v>3442665.536999778</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>172818.1338733052</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>30242.04518868728</v>
       </c>
     </row>
@@ -1519,12 +1563,15 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
         <v>3543706.371053187</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>179815.6877585296</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>32962.31641337308</v>
       </c>
     </row>
@@ -1589,12 +1636,15 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
         <v>3642242.341455046</v>
       </c>
-      <c r="U16" t="n">
+      <c r="V16" t="n">
         <v>187286.3109460543</v>
       </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
         <v>36027.33846054308</v>
       </c>
     </row>
@@ -1659,12 +1709,15 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
         <v>3738149.421450565</v>
       </c>
-      <c r="U17" t="n">
+      <c r="V17" t="n">
         <v>194716.9094469404</v>
       </c>
-      <c r="V17" t="n">
+      <c r="W17" t="n">
         <v>38920.16778686392</v>
       </c>
     </row>
@@ -1729,12 +1782,15 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
         <v>3829903.998158897</v>
       </c>
-      <c r="U18" t="n">
+      <c r="V18" t="n">
         <v>203192.3885787019</v>
       </c>
-      <c r="V18" t="n">
+      <c r="W18" t="n">
         <v>42721.74466882303</v>
       </c>
     </row>
@@ -1799,12 +1855,15 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
         <v>3916485.240202584</v>
       </c>
-      <c r="U19" t="n">
+      <c r="V19" t="n">
         <v>212152.1487488513</v>
       </c>
-      <c r="V19" t="n">
+      <c r="W19" t="n">
         <v>46867.38552167607</v>
       </c>
     </row>
@@ -1869,12 +1928,15 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
         <v>3996753.799085944</v>
       </c>
-      <c r="U20" t="n">
+      <c r="V20" t="n">
         <v>221555.910027424</v>
       </c>
-      <c r="V20" t="n">
+      <c r="W20" t="n">
         <v>51312.60390343351</v>
       </c>
     </row>
@@ -1939,12 +2001,15 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
         <v>4070508.327955675</v>
       </c>
-      <c r="U21" t="n">
+      <c r="V21" t="n">
         <v>230776.8601703772</v>
       </c>
-      <c r="V21" t="n">
+      <c r="W21" t="n">
         <v>55426.25486266706</v>
       </c>
     </row>
@@ -2009,12 +2074,15 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
         <v>4135416.433725779</v>
       </c>
-      <c r="U22" t="n">
+      <c r="V22" t="n">
         <v>241423.8826619629</v>
       </c>
-      <c r="V22" t="n">
+      <c r="W22" t="n">
         <v>60812.75919502138</v>
       </c>
     </row>
@@ -2079,12 +2147,15 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
         <v>4191256.237548404</v>
       </c>
-      <c r="U23" t="n">
+      <c r="V23" t="n">
         <v>251768.9033690165</v>
       </c>
-      <c r="V23" t="n">
+      <c r="W23" t="n">
         <v>65739.44619806678</v>
       </c>
     </row>
@@ -2149,12 +2220,15 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
         <v>4235164.636227483</v>
       </c>
-      <c r="U24" t="n">
+      <c r="V24" t="n">
         <v>263807.4488414754</v>
       </c>
-      <c r="V24" t="n">
+      <c r="W24" t="n">
         <v>72197.10795539719</v>
       </c>
     </row>
@@ -2219,12 +2293,15 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
         <v>4266928.370999189</v>
       </c>
-      <c r="U25" t="n">
+      <c r="V25" t="n">
         <v>275373.3202208055</v>
       </c>
-      <c r="V25" t="n">
+      <c r="W25" t="n">
         <v>78014.66910814488</v>
       </c>
     </row>
@@ -2289,12 +2366,15 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
         <v>4311629.525362038</v>
       </c>
-      <c r="U26" t="n">
+      <c r="V26" t="n">
         <v>245801.1120213919</v>
       </c>
-      <c r="V26" t="n">
+      <c r="W26" t="n">
         <v>42521.70137535152</v>
       </c>
     </row>
@@ -2359,12 +2439,15 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
         <v>4343966.746802254</v>
       </c>
-      <c r="U27" t="n">
+      <c r="V27" t="n">
         <v>257575.8024546968</v>
       </c>
-      <c r="V27" t="n">
+      <c r="W27" t="n">
         <v>48198.00948927519</v>
       </c>
     </row>
@@ -2429,12 +2512,15 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
         <v>4362257.13310458</v>
       </c>
-      <c r="U28" t="n">
+      <c r="V28" t="n">
         <v>269971.7373401127</v>
       </c>
-      <c r="V28" t="n">
+      <c r="W28" t="n">
         <v>54312.6105857284</v>
       </c>
     </row>
@@ -2499,12 +2585,15 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
         <v>4364680.609289638</v>
       </c>
-      <c r="U29" t="n">
+      <c r="V29" t="n">
         <v>283003.6375805195</v>
       </c>
-      <c r="V29" t="n">
+      <c r="W29" t="n">
         <v>60874.73702350367</v>
       </c>
     </row>
@@ -2569,12 +2658,15 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
         <v>4351618.426444318</v>
       </c>
-      <c r="U30" t="n">
+      <c r="V30" t="n">
         <v>294901.6673766514</v>
       </c>
-      <c r="V30" t="n">
+      <c r="W30" t="n">
         <v>66108.89980292515</v>
       </c>
     </row>
@@ -2639,12 +2731,15 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
         <v>4318896.954555552</v>
       </c>
-      <c r="U31" t="n">
+      <c r="V31" t="n">
         <v>309147.8189223009</v>
       </c>
-      <c r="V31" t="n">
+      <c r="W31" t="n">
         <v>73491.26832136279</v>
       </c>
     </row>
@@ -2709,12 +2804,15 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
         <v>4267211.794279723</v>
       </c>
-      <c r="U32" t="n">
+      <c r="V32" t="n">
         <v>321819.4397919852</v>
       </c>
-      <c r="V32" t="n">
+      <c r="W32" t="n">
         <v>79093.19267301899</v>
       </c>
     </row>
@@ -2779,12 +2877,15 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" t="n">
         <v>4194854.724724546</v>
       </c>
-      <c r="U33" t="n">
+      <c r="V33" t="n">
         <v>334760.2887052358</v>
       </c>
-      <c r="V33" t="n">
+      <c r="W33" t="n">
         <v>84752.25417270063</v>
       </c>
     </row>
@@ -2849,12 +2950,15 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
         <v>4100082.080943733</v>
       </c>
-      <c r="U34" t="n">
+      <c r="V34" t="n">
         <v>346558.6826678418</v>
       </c>
-      <c r="V34" t="n">
+      <c r="W34" t="n">
         <v>89050.40709933051</v>
       </c>
     </row>
@@ -2919,12 +3023,15 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
         <v>3981139.105724276</v>
       </c>
-      <c r="U35" t="n">
+      <c r="V35" t="n">
         <v>358483.3302021523</v>
       </c>
-      <c r="V35" t="n">
+      <c r="W35" t="n">
         <v>93249.80636658566</v>
       </c>
     </row>
@@ -2989,12 +3096,15 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
+        <v>0</v>
+      </c>
+      <c r="U36" t="n">
         <v>3840751.568838209</v>
       </c>
-      <c r="U36" t="n">
+      <c r="V36" t="n">
         <v>367403.9465150008</v>
       </c>
-      <c r="V36" t="n">
+      <c r="W36" t="n">
         <v>94213.41696436715</v>
       </c>
     </row>
@@ -3059,12 +3169,15 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
         <v>3678059.058562703</v>
       </c>
-      <c r="U37" t="n">
+      <c r="V37" t="n">
         <v>375888.8816640429</v>
       </c>
-      <c r="V37" t="n">
+      <c r="W37" t="n">
         <v>94502.63622689032</v>
       </c>
     </row>
@@ -3079,7 +3192,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V37"/>
+  <dimension ref="A1:W37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3175,25 +3288,30 @@
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
+          <t>Roth_Distribution</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
           <t>Roth_IRA_Growth</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Roth_IRA_End</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Total_Assets_End</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Net_Available</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Surplus_Deficit</t>
         </is>
@@ -3254,18 +3372,21 @@
         <v>2044800.11299814</v>
       </c>
       <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
         <v>16658.53</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>254637.53</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>2299437.642998139</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>337979</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>237979</v>
       </c>
     </row>
@@ -3324,18 +3445,21 @@
         <v>1771736.23580825</v>
       </c>
       <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
         <v>34273.1571</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>523889.6871</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>2295625.922908251</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>337979</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>234979</v>
       </c>
     </row>
@@ -3394,18 +3518,21 @@
         <v>1479557.88909704</v>
       </c>
       <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
         <v>52904.50809700001</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>808683.1951970001</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>2288241.08429404</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>337979</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>231889</v>
       </c>
     </row>
@@ -3464,18 +3591,21 @@
         <v>1166927.059965823</v>
       </c>
       <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
         <v>72617.26466379</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>1110006.75986079</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>2276933.819826613</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>337979</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>228706.3</v>
       </c>
     </row>
@@ -3534,18 +3664,21 @@
         <v>832412.074700691</v>
       </c>
       <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
         <v>93480.44152025531</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>1428915.320381045</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>2261327.395081736</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>337979</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>225428.119</v>
       </c>
     </row>
@@ -3604,18 +3737,21 @@
         <v>474482.261360431</v>
       </c>
       <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
         <v>116790.7239065732</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>1785229.636857619</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>2259711.89821805</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>355451</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>239523.59257</v>
       </c>
     </row>
@@ -3674,18 +3810,21 @@
         <v>91497.38311205123</v>
       </c>
       <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
         <v>141489.2785043303</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>2162764.685709049</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>2254262.0688211</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>355451</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>236045.7703471</v>
       </c>
     </row>
@@ -3744,18 +3883,21 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
+        <v>86678.8610944348</v>
+      </c>
+      <c r="S9" t="n">
         <v>157798.344817477</v>
       </c>
-      <c r="S9" t="n">
-        <v>2412060.413638577</v>
-      </c>
       <c r="T9" t="n">
-        <v>2412060.413638577</v>
+        <v>2325381.552544143</v>
       </c>
       <c r="U9" t="n">
+        <v>2325381.552544143</v>
+      </c>
+      <c r="V9" t="n">
         <v>214484.7696545382</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>91497.38311205123</v>
       </c>
     </row>
@@ -3778,7 +3920,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>2412060.413638577</v>
+        <v>2325381.552544143</v>
       </c>
       <c r="G10" t="n">
         <v>66000</v>
@@ -3814,18 +3956,21 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>168844.2289547004</v>
+        <v>71818.99575893627</v>
       </c>
       <c r="S10" t="n">
-        <v>2580904.642593278</v>
+        <v>162776.70867809</v>
       </c>
       <c r="T10" t="n">
-        <v>2580904.642593278</v>
+        <v>2416339.265463296</v>
       </c>
       <c r="U10" t="n">
+        <v>2416339.265463296</v>
+      </c>
+      <c r="V10" t="n">
         <v>126677.0081387617</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>1.455191522836685e-11</v>
       </c>
     </row>
@@ -3848,7 +3993,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>2580904.642593278</v>
+        <v>2416339.265463296</v>
       </c>
       <c r="G11" t="n">
         <v>66000</v>
@@ -3884,18 +4029,21 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>180663.3249815295</v>
+        <v>76691.36791956626</v>
       </c>
       <c r="S11" t="n">
-        <v>2761567.967574808</v>
+        <v>169143.7485824308</v>
       </c>
       <c r="T11" t="n">
-        <v>2761567.967574808</v>
+        <v>2508791.646126161</v>
       </c>
       <c r="U11" t="n">
+        <v>2508791.646126161</v>
+      </c>
+      <c r="V11" t="n">
         <v>130477.3183829245</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>-1.455191522836685e-11</v>
       </c>
     </row>
@@ -3918,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>2761567.967574808</v>
+        <v>2508791.646126161</v>
       </c>
       <c r="G12" t="n">
         <v>66000</v>
@@ -3954,18 +4102,21 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>193309.7577302366</v>
+        <v>81709.72045567416</v>
       </c>
       <c r="S12" t="n">
-        <v>2954877.725305045</v>
+        <v>175615.4152288313</v>
       </c>
       <c r="T12" t="n">
-        <v>2954877.725305045</v>
+        <v>2602697.340899319</v>
       </c>
       <c r="U12" t="n">
+        <v>2602697.340899319</v>
+      </c>
+      <c r="V12" t="n">
         <v>134391.6379344122</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3988,7 +4139,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>2954877.725305045</v>
+        <v>2602697.340899319</v>
       </c>
       <c r="G13" t="n">
         <v>66000</v>
@@ -4024,18 +4175,21 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>206841.4407713531</v>
+        <v>86878.62205012902</v>
       </c>
       <c r="S13" t="n">
-        <v>3161719.166076398</v>
+        <v>182188.8138629523</v>
       </c>
       <c r="T13" t="n">
-        <v>3161719.166076398</v>
+        <v>2698007.532712142</v>
       </c>
       <c r="U13" t="n">
+        <v>2698007.532712142</v>
+      </c>
+      <c r="V13" t="n">
         <v>138423.3870724446</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4058,7 +4212,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>3161719.166076398</v>
+        <v>2698007.532712142</v>
       </c>
       <c r="G14" t="n">
         <v>66000</v>
@@ -4094,18 +4248,21 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>221320.3416253479</v>
+        <v>92202.59204851938</v>
       </c>
       <c r="S14" t="n">
-        <v>3383039.507701746</v>
+        <v>188860.52728985</v>
       </c>
       <c r="T14" t="n">
-        <v>3383039.507701746</v>
+        <v>2794665.467953473</v>
       </c>
       <c r="U14" t="n">
+        <v>2794665.467953473</v>
+      </c>
+      <c r="V14" t="n">
         <v>142576.0886846179</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4128,7 +4285,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>3383039.507701746</v>
+        <v>2794665.467953473</v>
       </c>
       <c r="G15" t="n">
         <v>66000</v>
@@ -4164,18 +4321,21 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>236812.7655391223</v>
+        <v>97686.28114686153</v>
       </c>
       <c r="S15" t="n">
-        <v>3619852.273240868</v>
+        <v>195626.5827567432</v>
       </c>
       <c r="T15" t="n">
-        <v>3619852.273240868</v>
+        <v>2892605.769563355</v>
       </c>
       <c r="U15" t="n">
+        <v>2892605.769563355</v>
+      </c>
+      <c r="V15" t="n">
         <v>146853.3713451565</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4198,7 +4358,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>3619852.273240868</v>
+        <v>2892605.769563355</v>
       </c>
       <c r="G16" t="n">
         <v>66000</v>
@@ -4234,18 +4394,21 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>253389.6591268608</v>
+        <v>103334.4809181539</v>
       </c>
       <c r="S16" t="n">
-        <v>3873241.932367729</v>
+        <v>202482.4038694349</v>
       </c>
       <c r="T16" t="n">
-        <v>3873241.932367729</v>
+        <v>2991753.692514636</v>
       </c>
       <c r="U16" t="n">
+        <v>2991753.692514636</v>
+      </c>
+      <c r="V16" t="n">
         <v>151258.9724855112</v>
       </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4268,7 +4431,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>3873241.932367729</v>
+        <v>2991753.692514636</v>
       </c>
       <c r="G17" t="n">
         <v>66000</v>
@@ -4304,18 +4467,21 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>271126.9352657411</v>
+        <v>109152.126682585</v>
       </c>
       <c r="S17" t="n">
-        <v>4144368.867633471</v>
+        <v>209422.7584760246</v>
       </c>
       <c r="T17" t="n">
-        <v>4144368.867633471</v>
+        <v>3092024.324308075</v>
       </c>
       <c r="U17" t="n">
+        <v>3092024.324308075</v>
+      </c>
+      <c r="V17" t="n">
         <v>155796.7416600765</v>
       </c>
-      <c r="V17" t="n">
+      <c r="W17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4338,7 +4504,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>4144368.867633471</v>
+        <v>3092024.324308075</v>
       </c>
       <c r="G18" t="n">
         <v>66000</v>
@@ -4374,18 +4540,21 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>290105.820734343</v>
+        <v>115144.3018199491</v>
       </c>
       <c r="S18" t="n">
-        <v>4434474.688367814</v>
+        <v>216441.7027015653</v>
       </c>
       <c r="T18" t="n">
-        <v>4434474.688367814</v>
+        <v>3193321.725189692</v>
       </c>
       <c r="U18" t="n">
+        <v>3193321.725189692</v>
+      </c>
+      <c r="V18" t="n">
         <v>160470.6439098788</v>
       </c>
-      <c r="V18" t="n">
+      <c r="W18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4408,7 +4577,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>4434474.688367814</v>
+        <v>3193321.725189692</v>
       </c>
       <c r="G19" t="n">
         <v>66000</v>
@@ -4444,18 +4613,21 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>310413.228185747</v>
+        <v>121316.2422114342</v>
       </c>
       <c r="S19" t="n">
-        <v>4744887.916553561</v>
+        <v>223532.5207632784</v>
       </c>
       <c r="T19" t="n">
-        <v>4744887.916553561</v>
+        <v>3295538.003741536</v>
       </c>
       <c r="U19" t="n">
+        <v>3295538.003741536</v>
+      </c>
+      <c r="V19" t="n">
         <v>165284.7632271752</v>
       </c>
-      <c r="V19" t="n">
+      <c r="W19" t="n">
         <v>2.91038304567337e-11</v>
       </c>
     </row>
@@ -4478,7 +4650,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>4744887.916553561</v>
+        <v>3295538.003741536</v>
       </c>
       <c r="G20" t="n">
         <v>66000</v>
@@ -4514,18 +4686,21 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>332142.1541587493</v>
+        <v>127673.3408146637</v>
       </c>
       <c r="S20" t="n">
-        <v>5077030.07071231</v>
+        <v>230687.6602619076</v>
       </c>
       <c r="T20" t="n">
-        <v>5077030.07071231</v>
+        <v>3398552.32318878</v>
       </c>
       <c r="U20" t="n">
+        <v>3398552.32318878</v>
+      </c>
+      <c r="V20" t="n">
         <v>170243.3061239904</v>
       </c>
-      <c r="V20" t="n">
+      <c r="W20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4548,7 +4723,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>5077030.07071231</v>
+        <v>3398552.32318878</v>
       </c>
       <c r="G21" t="n">
         <v>66000</v>
@@ -4584,18 +4759,21 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>355392.1049498618</v>
+        <v>134221.1523759901</v>
       </c>
       <c r="S21" t="n">
-        <v>5432422.175662172</v>
+        <v>237898.6626232147</v>
       </c>
       <c r="T21" t="n">
-        <v>5432422.175662172</v>
+        <v>3502229.833436005</v>
       </c>
       <c r="U21" t="n">
+        <v>3502229.833436005</v>
+      </c>
+      <c r="V21" t="n">
         <v>175350.6053077102</v>
       </c>
-      <c r="V21" t="n">
+      <c r="W21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4618,7 +4796,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>5432422.175662172</v>
+        <v>3502229.833436005</v>
       </c>
       <c r="G22" t="n">
         <v>66000</v>
@@ -4654,18 +4832,21 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>380269.5522963521</v>
+        <v>140965.3982841564</v>
       </c>
       <c r="S22" t="n">
-        <v>5812691.727958525</v>
+        <v>245156.0883405204</v>
       </c>
       <c r="T22" t="n">
-        <v>5812691.727958525</v>
+        <v>3606420.523492369</v>
       </c>
       <c r="U22" t="n">
+        <v>3606420.523492369</v>
+      </c>
+      <c r="V22" t="n">
         <v>180611.1234669415</v>
       </c>
-      <c r="V22" t="n">
+      <c r="W22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4688,7 +4869,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>5812691.727958525</v>
+        <v>3606420.523492369</v>
       </c>
       <c r="G23" t="n">
         <v>66000</v>
@@ -4724,18 +4905,21 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>406888.4209570967</v>
+        <v>147911.9715695676</v>
       </c>
       <c r="S23" t="n">
-        <v>6219580.148915621</v>
+        <v>252449.4366444659</v>
       </c>
       <c r="T23" t="n">
-        <v>6219580.148915621</v>
+        <v>3710957.988567268</v>
       </c>
       <c r="U23" t="n">
+        <v>3710957.988567268</v>
+      </c>
+      <c r="V23" t="n">
         <v>186029.4571709497</v>
       </c>
-      <c r="V23" t="n">
+      <c r="W23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4758,7 +4942,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>6219580.148915621</v>
+        <v>3710957.988567268</v>
       </c>
       <c r="G24" t="n">
         <v>66000</v>
@@ -4794,18 +4978,21 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>435370.6104240936</v>
+        <v>155066.9420535412</v>
       </c>
       <c r="S24" t="n">
-        <v>6654950.759339715</v>
+        <v>259767.0591997088</v>
       </c>
       <c r="T24" t="n">
-        <v>6654950.759339715</v>
+        <v>3815658.105713436</v>
       </c>
       <c r="U24" t="n">
+        <v>3815658.105713436</v>
+      </c>
+      <c r="V24" t="n">
         <v>191610.3408860782</v>
       </c>
-      <c r="V24" t="n">
+      <c r="W24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4828,7 +5015,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>6654950.759339715</v>
+        <v>3815658.105713436</v>
       </c>
       <c r="G25" t="n">
         <v>66000</v>
@@ -4864,18 +5051,21 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>465846.5531537801</v>
+        <v>162436.561652034</v>
       </c>
       <c r="S25" t="n">
-        <v>7120797.312493496</v>
+        <v>267096.0673999405</v>
       </c>
       <c r="T25" t="n">
-        <v>7120797.312493496</v>
+        <v>3920317.611461343</v>
       </c>
       <c r="U25" t="n">
+        <v>3920317.611461343</v>
+      </c>
+      <c r="V25" t="n">
         <v>197358.6511126606</v>
       </c>
-      <c r="V25" t="n">
+      <c r="W25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4898,7 +5088,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>7120797.312493496</v>
+        <v>3920317.611461343</v>
       </c>
       <c r="G26" t="n">
         <v>42000</v>
@@ -4934,18 +5124,21 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>498455.8118745447</v>
+        <v>198034.1333088677</v>
       </c>
       <c r="S26" t="n">
-        <v>7619253.124368041</v>
+        <v>274422.232802294</v>
       </c>
       <c r="T26" t="n">
-        <v>7619253.124368041</v>
+        <v>3996705.71095477</v>
       </c>
       <c r="U26" t="n">
+        <v>3996705.71095477</v>
+      </c>
+      <c r="V26" t="n">
         <v>203279.4106460404</v>
       </c>
-      <c r="V26" t="n">
+      <c r="W26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4968,7 +5161,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>7619253.124368041</v>
+        <v>3996705.71095477</v>
       </c>
       <c r="G27" t="n">
         <v>42000</v>
@@ -5004,18 +5197,21 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>533347.7187057629</v>
+        <v>206058.3141410427</v>
       </c>
       <c r="S27" t="n">
-        <v>8152600.843073804</v>
+        <v>279769.3997668339</v>
       </c>
       <c r="T27" t="n">
-        <v>8152600.843073804</v>
+        <v>4070416.796580561</v>
       </c>
       <c r="U27" t="n">
+        <v>4070416.796580561</v>
+      </c>
+      <c r="V27" t="n">
         <v>209377.7929654216</v>
       </c>
-      <c r="V27" t="n">
+      <c r="W27" t="n">
         <v>2.91038304567337e-11</v>
       </c>
     </row>
@@ -5038,7 +5234,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>8152600.843073804</v>
+        <v>4070416.796580561</v>
       </c>
       <c r="G28" t="n">
         <v>42000</v>
@@ -5074,18 +5270,21 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>570682.0590151664</v>
+        <v>214323.220398183</v>
       </c>
       <c r="S28" t="n">
-        <v>8723282.90208897</v>
+        <v>284929.1757606393</v>
       </c>
       <c r="T28" t="n">
-        <v>8723282.90208897</v>
+        <v>4141022.751943018</v>
       </c>
       <c r="U28" t="n">
+        <v>4141022.751943018</v>
+      </c>
+      <c r="V28" t="n">
         <v>215659.1267543843</v>
       </c>
-      <c r="V28" t="n">
+      <c r="W28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5108,7 +5307,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>8723282.90208897</v>
+        <v>4141022.751943018</v>
       </c>
       <c r="G29" t="n">
         <v>42000</v>
@@ -5144,18 +5343,21 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>610629.803146228</v>
+        <v>222836.0738430374</v>
       </c>
       <c r="S29" t="n">
-        <v>9333912.705235198</v>
+        <v>289871.5926360113</v>
       </c>
       <c r="T29" t="n">
-        <v>9333912.705235198</v>
+        <v>4208058.270735992</v>
       </c>
       <c r="U29" t="n">
+        <v>4208058.270735992</v>
+      </c>
+      <c r="V29" t="n">
         <v>222128.9005570158</v>
       </c>
-      <c r="V29" t="n">
+      <c r="W29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5178,7 +5380,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>9333912.705235198</v>
+        <v>4208058.270735992</v>
       </c>
       <c r="G30" t="n">
         <v>42000</v>
@@ -5214,18 +5416,21 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>653373.8893664639</v>
+        <v>231604.3128912374</v>
       </c>
       <c r="S30" t="n">
-        <v>9987286.594601663</v>
+        <v>294564.0789515194</v>
       </c>
       <c r="T30" t="n">
-        <v>9987286.594601663</v>
+        <v>4271018.036796275</v>
       </c>
       <c r="U30" t="n">
+        <v>4271018.036796275</v>
+      </c>
+      <c r="V30" t="n">
         <v>228792.7675737262</v>
       </c>
-      <c r="V30" t="n">
+      <c r="W30" t="n">
         <v>-2.91038304567337e-11</v>
       </c>
     </row>
@@ -5248,7 +5453,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>9987286.594601663</v>
+        <v>4271018.036796275</v>
       </c>
       <c r="G31" t="n">
         <v>42000</v>
@@ -5284,18 +5489,21 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>699110.0616221165</v>
+        <v>240635.6003649828</v>
       </c>
       <c r="S31" t="n">
-        <v>10686396.65622378</v>
+        <v>298971.2625757392</v>
       </c>
       <c r="T31" t="n">
-        <v>10686396.65622378</v>
+        <v>4329353.699007031</v>
       </c>
       <c r="U31" t="n">
+        <v>4329353.699007031</v>
+      </c>
+      <c r="V31" t="n">
         <v>235656.5506009381</v>
       </c>
-      <c r="V31" t="n">
+      <c r="W31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5318,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>10686396.65622378</v>
+        <v>4329353.699007031</v>
       </c>
       <c r="G32" t="n">
         <v>42000</v>
@@ -5354,18 +5562,21 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>748047.7659356646</v>
+        <v>249937.8267276164</v>
       </c>
       <c r="S32" t="n">
-        <v>11434444.42215944</v>
+        <v>303054.7589304922</v>
       </c>
       <c r="T32" t="n">
-        <v>11434444.42215944</v>
+        <v>4382470.631209906</v>
       </c>
       <c r="U32" t="n">
+        <v>4382470.631209906</v>
+      </c>
+      <c r="V32" t="n">
         <v>242726.2471189662</v>
       </c>
-      <c r="V32" t="n">
+      <c r="W32" t="n">
         <v>2.91038304567337e-11</v>
       </c>
     </row>
@@ -5388,7 +5599,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>11434444.42215944</v>
+        <v>4382470.631209906</v>
       </c>
       <c r="G33" t="n">
         <v>42000</v>
@@ -5424,18 +5635,21 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>800411.1095511612</v>
+        <v>259519.1198811289</v>
       </c>
       <c r="S33" t="n">
-        <v>12234855.53171061</v>
+        <v>306772.9441846934</v>
       </c>
       <c r="T33" t="n">
-        <v>12234855.53171061</v>
+        <v>4429724.455513471</v>
       </c>
       <c r="U33" t="n">
+        <v>4429724.455513471</v>
+      </c>
+      <c r="V33" t="n">
         <v>250008.0345325352</v>
       </c>
-      <c r="V33" t="n">
+      <c r="W33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5458,7 +5672,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>12234855.53171061</v>
+        <v>4429724.455513471</v>
       </c>
       <c r="G34" t="n">
         <v>42000</v>
@@ -5494,18 +5708,21 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>856439.8872197425</v>
+        <v>269387.8518292469</v>
       </c>
       <c r="S34" t="n">
-        <v>13091295.41893035</v>
+        <v>310080.711885943</v>
       </c>
       <c r="T34" t="n">
-        <v>13091295.41893035</v>
+        <v>4470417.315570167</v>
       </c>
       <c r="U34" t="n">
+        <v>4470417.315570167</v>
+      </c>
+      <c r="V34" t="n">
         <v>257508.2755685113</v>
       </c>
-      <c r="V34" t="n">
+      <c r="W34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5528,7 +5745,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>13091295.41893035</v>
+        <v>4470417.315570167</v>
       </c>
       <c r="G35" t="n">
         <v>42000</v>
@@ -5564,18 +5781,21 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>916390.6793251246</v>
+        <v>279552.6457358084</v>
       </c>
       <c r="S35" t="n">
-        <v>14007686.09825548</v>
+        <v>312929.2120899117</v>
       </c>
       <c r="T35" t="n">
-        <v>14007686.09825548</v>
+        <v>4503793.881924271</v>
       </c>
       <c r="U35" t="n">
+        <v>4503793.881924271</v>
+      </c>
+      <c r="V35" t="n">
         <v>265233.5238355666</v>
       </c>
-      <c r="V35" t="n">
+      <c r="W35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5598,7 +5818,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>14007686.09825548</v>
+        <v>4503793.881924271</v>
       </c>
       <c r="G36" t="n">
         <v>42000</v>
@@ -5634,18 +5854,21 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>980538.0268778834</v>
+        <v>290022.3834595668</v>
       </c>
       <c r="S36" t="n">
-        <v>14988224.12513336</v>
+        <v>315265.571734699</v>
       </c>
       <c r="T36" t="n">
-        <v>14988224.12513336</v>
+        <v>4529037.070199403</v>
       </c>
       <c r="U36" t="n">
+        <v>4529037.070199403</v>
+      </c>
+      <c r="V36" t="n">
         <v>273190.5295506336</v>
       </c>
-      <c r="V36" t="n">
+      <c r="W36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5668,7 +5891,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>14988224.12513336</v>
+        <v>4529037.070199403</v>
       </c>
       <c r="G37" t="n">
         <v>42000</v>
@@ -5704,18 +5927,21 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>1049175.688759335</v>
+        <v>300806.2133150379</v>
       </c>
       <c r="S37" t="n">
-        <v>16037399.8138927</v>
+        <v>317032.5949139582</v>
       </c>
       <c r="T37" t="n">
-        <v>16037399.8138927</v>
+        <v>4545263.451798324</v>
       </c>
       <c r="U37" t="n">
+        <v>4545263.451798324</v>
+      </c>
+      <c r="V37" t="n">
         <v>281386.2454371526</v>
       </c>
-      <c r="V37" t="n">
+      <c r="W37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5816,10 +6042,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>16037399.8138927</v>
+        <v>4545263.451798324</v>
       </c>
       <c r="F3" t="n">
-        <v>16037399.8138927</v>
+        <v>4545263.451798324</v>
       </c>
       <c r="G3" t="n">
         <v>47945.78236192087</v>
@@ -5836,7 +6062,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V9"/>
+  <dimension ref="A1:W9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5932,25 +6158,30 @@
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
+          <t>Roth_Distribution</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
           <t>Roth_IRA_Growth</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Roth_IRA_End</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Total_Assets_End</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Net_Available</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Surplus_Deficit</t>
         </is>
@@ -6011,18 +6242,21 @@
         <v>2044800.11299814</v>
       </c>
       <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
         <v>16658.53</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>254637.53</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>2299437.642998139</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>337979</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>237979</v>
       </c>
     </row>
@@ -6081,18 +6315,21 @@
         <v>1771736.23580825</v>
       </c>
       <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
         <v>34273.1571</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>523889.6871</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>2295625.922908251</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>337979</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>234979</v>
       </c>
     </row>
@@ -6151,18 +6388,21 @@
         <v>1479557.88909704</v>
       </c>
       <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
         <v>52904.50809700001</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>808683.1951970001</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>2288241.08429404</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>337979</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>231889</v>
       </c>
     </row>
@@ -6221,18 +6461,21 @@
         <v>1166927.059965823</v>
       </c>
       <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
         <v>72617.26466379</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>1110006.75986079</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>2276933.819826613</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>337979</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>228706.3</v>
       </c>
     </row>
@@ -6291,18 +6534,21 @@
         <v>832412.074700691</v>
       </c>
       <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
         <v>93480.44152025531</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>1428915.320381045</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>2261327.395081736</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>337979</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>225428.119</v>
       </c>
     </row>
@@ -6361,18 +6607,21 @@
         <v>474482.261360431</v>
       </c>
       <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
         <v>116790.7239065732</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>1785229.636857619</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>2259711.89821805</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>355451</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>239523.59257</v>
       </c>
     </row>
@@ -6431,18 +6680,21 @@
         <v>91497.38311205123</v>
       </c>
       <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
         <v>141489.2785043303</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>2162764.685709049</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>2254262.0688211</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>355451</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>236045.7703471</v>
       </c>
     </row>
@@ -6501,18 +6753,21 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
+        <v>86678.8610944348</v>
+      </c>
+      <c r="S9" t="n">
         <v>157798.344817477</v>
       </c>
-      <c r="S9" t="n">
-        <v>2412060.413638577</v>
-      </c>
       <c r="T9" t="n">
-        <v>2412060.413638577</v>
+        <v>2325381.552544143</v>
       </c>
       <c r="U9" t="n">
+        <v>2325381.552544143</v>
+      </c>
+      <c r="V9" t="n">
         <v>214484.7696545382</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>91497.38311205123</v>
       </c>
     </row>

--- a/roth_conversion_analysis.xlsx
+++ b/roth_conversion_analysis.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W37"/>
+  <dimension ref="A1:AB37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,87 +469,112 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Taxable_Begin</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>Social_Security</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>RMD</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Spending_Need</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Roth_Conversion</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Additional_Withdrawal</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Taxable_SS</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Taxable_Income</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Federal_Tax</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Total_IRA_Distribution</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Trad_IRA_Growth</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Trad_IRA_End</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Roth_Distribution</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Roth_IRA_Growth</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Roth_IRA_End</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Net_Available</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Surplus_Deficit</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Taxable_Growth</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Taxable_Contribution</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Taxable_Withdrawal</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Taxable_End</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Total_Assets_End</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>Net_Available</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>Surplus_Deficit</t>
         </is>
       </c>
     </row>
@@ -581,35 +606,35 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
         <v>100000</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>108704.519462912</v>
       </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>76404.3288576</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>8704.519462912001</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>108704.519462912</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>161000</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
         <v>2352295.480537088</v>
       </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
@@ -617,13 +642,28 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>108704.519462912</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="n">
         <v>2352295.480537088</v>
-      </c>
-      <c r="V2" t="n">
-        <v>100000</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -654,35 +694,35 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
         <v>103000</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>112113.609150464</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>79813.4095872</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>9113.609150463999</v>
       </c>
-      <c r="O3" t="n">
+      <c r="P3" t="n">
         <v>112113.609150464</v>
       </c>
-      <c r="P3" t="n">
+      <c r="Q3" t="n">
         <v>164660.6836375962</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="R3" t="n">
         <v>2404842.55502422</v>
       </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
@@ -690,13 +730,28 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>112113.609150464</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
         <v>2404842.55502422</v>
-      </c>
-      <c r="V3" t="n">
-        <v>103000</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -727,35 +782,35 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>106090</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
       <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
         <v>115624.9715286426</v>
       </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
       <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
         <v>83324.762738688</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>9534.97152864256</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>115624.9715286426</v>
       </c>
-      <c r="P4" t="n">
+      <c r="Q4" t="n">
         <v>168338.9788516954</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="R4" t="n">
         <v>2457556.562347273</v>
       </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
@@ -763,13 +818,28 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>115624.9715286426</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB4" t="n">
         <v>2457556.562347273</v>
-      </c>
-      <c r="V4" t="n">
-        <v>106090</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -800,35 +870,35 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
         <v>109272.7</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
         <v>119241.6747781665</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
       <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
         <v>86941.45648472063</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>9968.974778166476</v>
       </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>119241.6747781665</v>
       </c>
-      <c r="P5" t="n">
+      <c r="Q5" t="n">
         <v>172028.9593643092</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="R5" t="n">
         <v>2510343.846933416</v>
       </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
@@ -836,13 +906,28 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>119241.6747781665</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" t="n">
         <v>2510343.846933416</v>
-      </c>
-      <c r="V5" t="n">
-        <v>109272.7</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -873,35 +958,35 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
         <v>112550.881</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
         <v>122966.8791251761</v>
       </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
         <v>90666.65104313428</v>
       </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>10415.99812517611</v>
       </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>122966.8791251761</v>
       </c>
-      <c r="P6" t="n">
+      <c r="Q6" t="n">
         <v>175724.0692853392</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="R6" t="n">
         <v>2563101.037093579</v>
       </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
@@ -909,13 +994,28 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>122966.8791251761</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" t="n">
         <v>2563101.037093579</v>
-      </c>
-      <c r="V6" t="n">
-        <v>112550.881</v>
-      </c>
-      <c r="W6" t="n">
-        <v>-1.455191522836685e-11</v>
       </c>
     </row>
     <row r="7">
@@ -940,41 +1040,41 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
         <v>24000</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
         <v>115927.40743</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
       <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
         <v>102312.9319775336</v>
       </c>
-      <c r="L7" t="n">
+      <c r="M7" t="n">
         <v>20400</v>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
         <v>90412.7045627803</v>
       </c>
-      <c r="N7" t="n">
+      <c r="O7" t="n">
         <v>10385.52454753364</v>
       </c>
-      <c r="O7" t="n">
+      <c r="P7" t="n">
         <v>102312.9319775336</v>
       </c>
-      <c r="P7" t="n">
+      <c r="Q7" t="n">
         <v>179417.0725965506</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="R7" t="n">
         <v>2640205.177712596</v>
       </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
@@ -982,13 +1082,28 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>126312.9319775336</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" t="n">
         <v>2640205.177712596</v>
-      </c>
-      <c r="V7" t="n">
-        <v>115927.40743</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1013,41 +1128,41 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
         <v>24000</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
         <v>119405.2296529</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
         <v>106273.3078585433</v>
       </c>
-      <c r="L8" t="n">
+      <c r="M8" t="n">
         <v>20400</v>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
         <v>94373.08275292418</v>
       </c>
-      <c r="N8" t="n">
+      <c r="O8" t="n">
         <v>10868.07820564332</v>
       </c>
-      <c r="O8" t="n">
+      <c r="P8" t="n">
         <v>106273.3078585433</v>
       </c>
-      <c r="P8" t="n">
+      <c r="Q8" t="n">
         <v>184814.3624398818</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="R8" t="n">
         <v>2718746.232293935</v>
       </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
@@ -1055,13 +1170,28 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>130273.3078585433</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB8" t="n">
         <v>2718746.232293935</v>
-      </c>
-      <c r="V8" t="n">
-        <v>119405.2296529</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1086,41 +1216,41 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
         <v>66000</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
         <v>122987.386542487</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
         <v>67153.18297774901</v>
       </c>
-      <c r="L9" t="n">
+      <c r="M9" t="n">
         <v>53729.40076564271</v>
       </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
         <v>88581.63696051649</v>
       </c>
-      <c r="N9" t="n">
+      <c r="O9" t="n">
         <v>10165.79643526198</v>
       </c>
-      <c r="O9" t="n">
+      <c r="P9" t="n">
         <v>67153.18297774901</v>
       </c>
-      <c r="P9" t="n">
+      <c r="Q9" t="n">
         <v>190312.2362605755</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="R9" t="n">
         <v>2841905.285576762</v>
       </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
@@ -1128,13 +1258,28 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>133153.182977749</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" t="n">
         <v>2841905.285576762</v>
-      </c>
-      <c r="V9" t="n">
-        <v>122987.386542487</v>
-      </c>
-      <c r="W9" t="n">
-        <v>1.455191522836685e-11</v>
       </c>
     </row>
     <row r="10">
@@ -1159,41 +1304,41 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
         <v>66000</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
         <v>126677.0081387616</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
       <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
         <v>71818.99575893627</v>
       </c>
-      <c r="L10" t="n">
+      <c r="M10" t="n">
         <v>56100</v>
       </c>
-      <c r="M10" t="n">
+      <c r="N10" t="n">
         <v>95618.12554624831</v>
       </c>
-      <c r="N10" t="n">
+      <c r="O10" t="n">
         <v>11141.98762017463</v>
       </c>
-      <c r="O10" t="n">
+      <c r="P10" t="n">
         <v>71818.99575893627</v>
       </c>
-      <c r="P10" t="n">
+      <c r="Q10" t="n">
         <v>198933.3699903734</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="R10" t="n">
         <v>2969019.659808199</v>
       </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
@@ -1201,13 +1346,28 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>137818.9957589363</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="n">
         <v>2969019.659808199</v>
-      </c>
-      <c r="V10" t="n">
-        <v>126677.0081387617</v>
-      </c>
-      <c r="W10" t="n">
-        <v>1.455191522836685e-11</v>
       </c>
     </row>
     <row r="11">
@@ -1232,41 +1392,41 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
         <v>66000</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
         <v>130477.3183829245</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
       <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
         <v>76691.36791956626</v>
       </c>
-      <c r="L11" t="n">
+      <c r="M11" t="n">
         <v>56100</v>
       </c>
-      <c r="M11" t="n">
+      <c r="N11" t="n">
         <v>100491.1342574626</v>
       </c>
-      <c r="N11" t="n">
+      <c r="O11" t="n">
         <v>12214.04953664177</v>
       </c>
-      <c r="O11" t="n">
+      <c r="P11" t="n">
         <v>76691.36791956626</v>
       </c>
-      <c r="P11" t="n">
+      <c r="Q11" t="n">
         <v>207831.3761865739</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="R11" t="n">
         <v>3100159.668075207</v>
       </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
@@ -1274,13 +1434,28 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>142691.3679195663</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB11" t="n">
         <v>3100159.668075207</v>
-      </c>
-      <c r="V11" t="n">
-        <v>130477.3183829245</v>
-      </c>
-      <c r="W11" t="n">
-        <v>-1.455191522836685e-11</v>
       </c>
     </row>
     <row r="12">
@@ -1305,41 +1480,41 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
         <v>66000</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
         <v>134391.6379344122</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
         <v>81709.72045567416</v>
       </c>
-      <c r="L12" t="n">
+      <c r="M12" t="n">
         <v>56100</v>
       </c>
-      <c r="M12" t="n">
+      <c r="N12" t="n">
         <v>105509.4660057361</v>
       </c>
-      <c r="N12" t="n">
+      <c r="O12" t="n">
         <v>13318.08252126195</v>
       </c>
-      <c r="O12" t="n">
+      <c r="P12" t="n">
         <v>81709.72045567416</v>
       </c>
-      <c r="P12" t="n">
+      <c r="Q12" t="n">
         <v>217011.1767652645</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="R12" t="n">
         <v>3235461.124384797</v>
       </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
@@ -1347,13 +1522,28 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>147709.7204556742</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB12" t="n">
         <v>3235461.124384797</v>
-      </c>
-      <c r="V12" t="n">
-        <v>134391.6379344122</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1378,41 +1568,41 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
         <v>66000</v>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>122092.8726182942</v>
       </c>
-      <c r="I13" t="n">
+      <c r="J13" t="n">
         <v>138423.3870724446</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
         <v>56100</v>
       </c>
-      <c r="M13" t="n">
+      <c r="N13" t="n">
         <v>145892.8726182942</v>
       </c>
-      <c r="N13" t="n">
+      <c r="O13" t="n">
         <v>22202.43197602473</v>
       </c>
-      <c r="O13" t="n">
+      <c r="P13" t="n">
         <v>122092.8726182942</v>
       </c>
-      <c r="P13" t="n">
+      <c r="Q13" t="n">
         <v>226482.2787069358</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="R13" t="n">
         <v>3339850.530473439</v>
       </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
@@ -1420,13 +1610,28 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>3339850.530473439</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>165890.4406422695</v>
+        <v>188092.8726182942</v>
       </c>
       <c r="W13" t="n">
         <v>27467.0535698249</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>27467.0535698249</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>27467.0535698249</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>3367317.584043264</v>
       </c>
     </row>
     <row r="14">
@@ -1451,41 +1656,41 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
+        <v>27467.0535698249</v>
+      </c>
+      <c r="H14" t="n">
         <v>66000</v>
       </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
         <v>130974.5306068015</v>
       </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
         <v>142576.0886846179</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
         <v>56100</v>
       </c>
-      <c r="M14" t="n">
+      <c r="N14" t="n">
         <v>154774.5306068015</v>
       </c>
-      <c r="N14" t="n">
+      <c r="O14" t="n">
         <v>24156.39673349634</v>
       </c>
-      <c r="O14" t="n">
+      <c r="P14" t="n">
         <v>130974.5306068015</v>
       </c>
-      <c r="P14" t="n">
+      <c r="Q14" t="n">
         <v>233789.5371331408</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="R14" t="n">
         <v>3442665.536999778</v>
       </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
@@ -1493,13 +1698,28 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>3442665.536999778</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>172818.1338733052</v>
+        <v>196974.5306068015</v>
       </c>
       <c r="W14" t="n">
         <v>30242.04518868728</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1922.693749887743</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>30242.04518868728</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>59631.79250839992</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>3502297.329508178</v>
       </c>
     </row>
     <row r="15">
@@ -1524,41 +1744,41 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
+        <v>59631.79250839992</v>
+      </c>
+      <c r="H15" t="n">
         <v>66000</v>
       </c>
-      <c r="H15" t="n">
+      <c r="I15" t="n">
         <v>139945.7535365763</v>
       </c>
-      <c r="I15" t="n">
+      <c r="J15" t="n">
         <v>146853.3713451565</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
         <v>56100</v>
       </c>
-      <c r="M15" t="n">
+      <c r="N15" t="n">
         <v>163745.7535365763</v>
       </c>
-      <c r="N15" t="n">
+      <c r="O15" t="n">
         <v>26130.0657780468</v>
       </c>
-      <c r="O15" t="n">
+      <c r="P15" t="n">
         <v>139945.7535365763</v>
       </c>
-      <c r="P15" t="n">
+      <c r="Q15" t="n">
         <v>240986.5875899845</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="R15" t="n">
         <v>3543706.371053187</v>
       </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
@@ -1566,13 +1786,28 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>3543706.371053187</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>179815.6877585296</v>
+        <v>205945.7535365763</v>
       </c>
       <c r="W15" t="n">
         <v>32962.31641337308</v>
+      </c>
+      <c r="X15" t="n">
+        <v>4174.225475587995</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>32962.31641337308</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>96768.334397361</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>3640474.705450548</v>
       </c>
     </row>
     <row r="16">
@@ -1597,41 +1832,41 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
+        <v>96768.334397361</v>
+      </c>
+      <c r="H16" t="n">
         <v>66000</v>
       </c>
-      <c r="H16" t="n">
+      <c r="I16" t="n">
         <v>149523.4755718644</v>
       </c>
-      <c r="I16" t="n">
+      <c r="J16" t="n">
         <v>151258.9724855112</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
         <v>56100</v>
       </c>
-      <c r="M16" t="n">
+      <c r="N16" t="n">
         <v>173323.4755718644</v>
       </c>
-      <c r="N16" t="n">
+      <c r="O16" t="n">
         <v>28237.16462581018</v>
       </c>
-      <c r="O16" t="n">
+      <c r="P16" t="n">
         <v>149523.4755718644</v>
       </c>
-      <c r="P16" t="n">
+      <c r="Q16" t="n">
         <v>248059.4459737231</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="R16" t="n">
         <v>3642242.341455046</v>
       </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
@@ -1639,13 +1874,28 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>3642242.341455046</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>187286.3109460543</v>
+        <v>215523.4755718644</v>
       </c>
       <c r="W16" t="n">
         <v>36027.33846054308</v>
+      </c>
+      <c r="X16" t="n">
+        <v>6773.783407815271</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>36027.33846054308</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>139569.4562657194</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>3781811.797720765</v>
       </c>
     </row>
     <row r="17">
@@ -1670,41 +1920,41 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
+        <v>139569.4562657194</v>
+      </c>
+      <c r="H17" t="n">
         <v>66000</v>
       </c>
-      <c r="H17" t="n">
+      <c r="I17" t="n">
         <v>159049.8839063339</v>
       </c>
-      <c r="I17" t="n">
+      <c r="J17" t="n">
         <v>155796.7416600765</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
         <v>56100</v>
       </c>
-      <c r="M17" t="n">
+      <c r="N17" t="n">
         <v>182849.8839063339</v>
       </c>
-      <c r="N17" t="n">
+      <c r="O17" t="n">
         <v>30332.97445939346</v>
       </c>
-      <c r="O17" t="n">
+      <c r="P17" t="n">
         <v>159049.8839063339</v>
       </c>
-      <c r="P17" t="n">
+      <c r="Q17" t="n">
         <v>254956.9639018532</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="R17" t="n">
         <v>3738149.421450565</v>
       </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
@@ -1712,13 +1962,28 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>3738149.421450565</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>194716.9094469404</v>
+        <v>225049.8839063339</v>
       </c>
       <c r="W17" t="n">
         <v>38920.16778686392</v>
+      </c>
+      <c r="X17" t="n">
+        <v>9769.861938600357</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>38920.16778686392</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>188259.4859911837</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>3926408.907441749</v>
       </c>
     </row>
     <row r="18">
@@ -1743,41 +2008,41 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
+        <v>188259.4859911837</v>
+      </c>
+      <c r="H18" t="n">
         <v>66000</v>
       </c>
-      <c r="H18" t="n">
+      <c r="I18" t="n">
         <v>169915.8827932075</v>
       </c>
-      <c r="I18" t="n">
+      <c r="J18" t="n">
         <v>160470.6439098788</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
         <v>56100</v>
       </c>
-      <c r="M18" t="n">
+      <c r="N18" t="n">
         <v>193715.8827932075</v>
       </c>
-      <c r="N18" t="n">
+      <c r="O18" t="n">
         <v>32723.49421450565</v>
       </c>
-      <c r="O18" t="n">
+      <c r="P18" t="n">
         <v>169915.8827932075</v>
       </c>
-      <c r="P18" t="n">
+      <c r="Q18" t="n">
         <v>261670.4595015396</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="R18" t="n">
         <v>3829903.998158897</v>
       </c>
-      <c r="R18" t="n">
-        <v>0</v>
-      </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
@@ -1785,13 +2050,28 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>3829903.998158897</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>203192.3885787019</v>
+        <v>235915.8827932075</v>
       </c>
       <c r="W18" t="n">
         <v>42721.74466882303</v>
+      </c>
+      <c r="X18" t="n">
+        <v>13178.16401938286</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>42721.74466882303</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>244159.3946793896</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>4074063.392838287</v>
       </c>
     </row>
     <row r="19">
@@ -1816,41 +2096,41 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
+        <v>244159.3946793896</v>
+      </c>
+      <c r="H19" t="n">
         <v>66000</v>
       </c>
-      <c r="H19" t="n">
+      <c r="I19" t="n">
         <v>181512.0378274359</v>
       </c>
-      <c r="I19" t="n">
+      <c r="J19" t="n">
         <v>165284.7632271752</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
         <v>56100</v>
       </c>
-      <c r="M19" t="n">
+      <c r="N19" t="n">
         <v>205312.0378274359</v>
       </c>
-      <c r="N19" t="n">
+      <c r="O19" t="n">
         <v>35359.88907858461</v>
       </c>
-      <c r="O19" t="n">
+      <c r="P19" t="n">
         <v>181512.0378274359</v>
       </c>
-      <c r="P19" t="n">
+      <c r="Q19" t="n">
         <v>268093.2798711229</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="R19" t="n">
         <v>3916485.240202584</v>
       </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
@@ -1858,13 +2138,28 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>3916485.240202584</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>212152.1487488513</v>
+        <v>247512.0378274359</v>
       </c>
       <c r="W19" t="n">
         <v>46867.38552167607</v>
+      </c>
+      <c r="X19" t="n">
+        <v>17091.15762755727</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>46867.38552167607</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>308117.9378286229</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>4224603.178031207</v>
       </c>
     </row>
     <row r="20">
@@ -1889,41 +2184,41 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
+        <v>308117.9378286229</v>
+      </c>
+      <c r="H20" t="n">
         <v>66000</v>
       </c>
-      <c r="H20" t="n">
+      <c r="I20" t="n">
         <v>193885.407930821</v>
       </c>
-      <c r="I20" t="n">
+      <c r="J20" t="n">
         <v>170243.3061239904</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
         <v>56100</v>
       </c>
-      <c r="M20" t="n">
+      <c r="N20" t="n">
         <v>217685.407930821</v>
       </c>
-      <c r="N20" t="n">
+      <c r="O20" t="n">
         <v>38329.49790339704</v>
       </c>
-      <c r="O20" t="n">
+      <c r="P20" t="n">
         <v>193885.407930821</v>
       </c>
-      <c r="P20" t="n">
+      <c r="Q20" t="n">
         <v>274153.966814181</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="R20" t="n">
         <v>3996753.799085944</v>
       </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
@@ -1931,13 +2226,28 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>3996753.799085944</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>221555.910027424</v>
+        <v>259885.407930821</v>
       </c>
       <c r="W20" t="n">
         <v>51312.60390343351</v>
+      </c>
+      <c r="X20" t="n">
+        <v>21568.25564800361</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>51312.60390343351</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>380998.7973800601</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>4377752.596466005</v>
       </c>
     </row>
     <row r="21">
@@ -1962,41 +2272,41 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
+        <v>380998.7973800601</v>
+      </c>
+      <c r="H21" t="n">
         <v>66000</v>
       </c>
-      <c r="H21" t="n">
+      <c r="I21" t="n">
         <v>206018.2370662858</v>
       </c>
-      <c r="I21" t="n">
+      <c r="J21" t="n">
         <v>175350.6053077102</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
         <v>56100</v>
       </c>
-      <c r="M21" t="n">
+      <c r="N21" t="n">
         <v>229818.2370662858</v>
       </c>
-      <c r="N21" t="n">
+      <c r="O21" t="n">
         <v>41241.37689590859</v>
       </c>
-      <c r="O21" t="n">
+      <c r="P21" t="n">
         <v>206018.2370662858</v>
       </c>
-      <c r="P21" t="n">
+      <c r="Q21" t="n">
         <v>279772.7659360162</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="R21" t="n">
         <v>4070508.327955675</v>
       </c>
-      <c r="R21" t="n">
-        <v>0</v>
-      </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
@@ -2004,13 +2314,28 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>4070508.327955675</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>230776.8601703772</v>
+        <v>272018.2370662858</v>
       </c>
       <c r="W21" t="n">
         <v>55426.25486266706</v>
+      </c>
+      <c r="X21" t="n">
+        <v>26669.91581660421</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>55426.25486266706</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>463094.9680593314</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>4533603.296015006</v>
       </c>
     </row>
     <row r="22">
@@ -2035,41 +2360,41 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
+        <v>463094.9680593314</v>
+      </c>
+      <c r="H22" t="n">
         <v>66000</v>
       </c>
-      <c r="H22" t="n">
+      <c r="I22" t="n">
         <v>220027.4771867933</v>
       </c>
-      <c r="I22" t="n">
+      <c r="J22" t="n">
         <v>180611.1234669415</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
         <v>56100</v>
       </c>
-      <c r="M22" t="n">
+      <c r="N22" t="n">
         <v>243827.4771867932</v>
       </c>
-      <c r="N22" t="n">
+      <c r="O22" t="n">
         <v>44603.59452483038</v>
       </c>
-      <c r="O22" t="n">
+      <c r="P22" t="n">
         <v>220027.4771867933</v>
       </c>
-      <c r="P22" t="n">
+      <c r="Q22" t="n">
         <v>284935.5829568973</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="R22" t="n">
         <v>4135416.433725779</v>
       </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
@@ -2077,13 +2402,28 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>4135416.433725779</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>241423.8826619629</v>
+        <v>286027.4771867932</v>
       </c>
       <c r="W22" t="n">
         <v>60812.75919502138</v>
+      </c>
+      <c r="X22" t="n">
+        <v>32416.6477641532</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>60812.75919502138</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>556324.375018506</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>4691740.808744285</v>
       </c>
     </row>
     <row r="23">
@@ -2108,41 +2448,41 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
+        <v>556324.375018506</v>
+      </c>
+      <c r="H23" t="n">
         <v>66000</v>
       </c>
-      <c r="H23" t="n">
+      <c r="I23" t="n">
         <v>233639.3465381796</v>
       </c>
-      <c r="I23" t="n">
+      <c r="J23" t="n">
         <v>186029.4571709497</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
         <v>56100</v>
       </c>
-      <c r="M23" t="n">
+      <c r="N23" t="n">
         <v>257439.3465381796</v>
       </c>
-      <c r="N23" t="n">
+      <c r="O23" t="n">
         <v>47870.4431691631</v>
       </c>
-      <c r="O23" t="n">
+      <c r="P23" t="n">
         <v>233639.3465381796</v>
       </c>
-      <c r="P23" t="n">
+      <c r="Q23" t="n">
         <v>289479.1503608046</v>
       </c>
-      <c r="Q23" t="n">
+      <c r="R23" t="n">
         <v>4191256.237548404</v>
       </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
@@ -2150,13 +2490,28 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>4191256.237548404</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>251768.9033690165</v>
+        <v>299639.3465381796</v>
       </c>
       <c r="W23" t="n">
         <v>65739.44619806678</v>
+      </c>
+      <c r="X23" t="n">
+        <v>38942.70625129542</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>65739.44619806678</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>661006.5274678682</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>4852262.765016273</v>
       </c>
     </row>
     <row r="24">
@@ -2181,41 +2536,41 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
+        <v>661006.5274678682</v>
+      </c>
+      <c r="H24" t="n">
         <v>66000</v>
       </c>
-      <c r="H24" t="n">
+      <c r="I24" t="n">
         <v>249479.5379493098</v>
       </c>
-      <c r="I24" t="n">
+      <c r="J24" t="n">
         <v>191610.3408860782</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
         <v>56100</v>
       </c>
-      <c r="M24" t="n">
+      <c r="N24" t="n">
         <v>273279.5379493098</v>
       </c>
-      <c r="N24" t="n">
+      <c r="O24" t="n">
         <v>51672.08910783436</v>
       </c>
-      <c r="O24" t="n">
+      <c r="P24" t="n">
         <v>249479.5379493098</v>
       </c>
-      <c r="P24" t="n">
+      <c r="Q24" t="n">
         <v>293387.9366283884</v>
       </c>
-      <c r="Q24" t="n">
+      <c r="R24" t="n">
         <v>4235164.636227483</v>
       </c>
-      <c r="R24" t="n">
-        <v>0</v>
-      </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
@@ -2223,13 +2578,28 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>4235164.636227483</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>263807.4488414754</v>
+        <v>315479.5379493098</v>
       </c>
       <c r="W24" t="n">
-        <v>72197.10795539719</v>
+        <v>72197.10795539722</v>
+      </c>
+      <c r="X24" t="n">
+        <v>46270.45692275077</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>72197.10795539722</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>779474.0923460162</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>5014638.728573499</v>
       </c>
     </row>
     <row r="25">
@@ -2254,41 +2624,41 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
+        <v>779474.0923460162</v>
+      </c>
+      <c r="H25" t="n">
         <v>66000</v>
       </c>
-      <c r="H25" t="n">
+      <c r="I25" t="n">
         <v>264697.7897642177</v>
       </c>
-      <c r="I25" t="n">
+      <c r="J25" t="n">
         <v>197358.6511126606</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
         <v>56100</v>
       </c>
-      <c r="M25" t="n">
+      <c r="N25" t="n">
         <v>288497.7897642177</v>
       </c>
-      <c r="N25" t="n">
+      <c r="O25" t="n">
         <v>55324.46954341224</v>
       </c>
-      <c r="O25" t="n">
+      <c r="P25" t="n">
         <v>264697.7897642177</v>
       </c>
-      <c r="P25" t="n">
+      <c r="Q25" t="n">
         <v>296461.5245359238</v>
       </c>
-      <c r="Q25" t="n">
+      <c r="R25" t="n">
         <v>4266928.370999189</v>
       </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
@@ -2296,13 +2666,28 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>4266928.370999189</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>275373.3202208055</v>
+        <v>330697.7897642177</v>
       </c>
       <c r="W25" t="n">
-        <v>78014.66910814488</v>
+        <v>78014.66910814485</v>
+      </c>
+      <c r="X25" t="n">
+        <v>54563.18646422114</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>78014.66910814485</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>912051.9479183822</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>5178980.318917572</v>
       </c>
     </row>
     <row r="26">
@@ -2327,41 +2712,41 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
+        <v>912051.9479183822</v>
+      </c>
+      <c r="H26" t="n">
         <v>42000</v>
       </c>
-      <c r="H26" t="n">
+      <c r="I26" t="n">
         <v>253983.8316070946</v>
       </c>
-      <c r="I26" t="n">
+      <c r="J26" t="n">
         <v>203279.4106460404</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
         <v>35700</v>
       </c>
-      <c r="M26" t="n">
+      <c r="N26" t="n">
         <v>267073.8316070946</v>
       </c>
-      <c r="N26" t="n">
+      <c r="O26" t="n">
         <v>50182.71958570271</v>
       </c>
-      <c r="O26" t="n">
+      <c r="P26" t="n">
         <v>253983.8316070946</v>
       </c>
-      <c r="P26" t="n">
+      <c r="Q26" t="n">
         <v>298684.9859699433</v>
       </c>
-      <c r="Q26" t="n">
+      <c r="R26" t="n">
         <v>4311629.525362038</v>
       </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
@@ -2369,13 +2754,28 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>4311629.525362038</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>245801.1120213919</v>
+        <v>295983.8316070946</v>
       </c>
       <c r="W26" t="n">
         <v>42521.70137535152</v>
+      </c>
+      <c r="X26" t="n">
+        <v>63843.63635428676</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>42521.70137535152</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>1018417.285648021</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>5330046.811010059</v>
       </c>
     </row>
     <row r="27">
@@ -2400,41 +2800,41 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
+        <v>1018417.285648021</v>
+      </c>
+      <c r="H27" t="n">
         <v>42000</v>
       </c>
-      <c r="H27" t="n">
+      <c r="I27" t="n">
         <v>269476.8453351274</v>
       </c>
-      <c r="I27" t="n">
+      <c r="J27" t="n">
         <v>209377.7929654216</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
         <v>35700</v>
       </c>
-      <c r="M27" t="n">
+      <c r="N27" t="n">
         <v>282566.8453351274</v>
       </c>
-      <c r="N27" t="n">
+      <c r="O27" t="n">
         <v>53901.04288043057</v>
       </c>
-      <c r="O27" t="n">
+      <c r="P27" t="n">
         <v>269476.8453351274</v>
       </c>
-      <c r="P27" t="n">
+      <c r="Q27" t="n">
         <v>301814.0667753427</v>
       </c>
-      <c r="Q27" t="n">
+      <c r="R27" t="n">
         <v>4343966.746802254</v>
       </c>
-      <c r="R27" t="n">
-        <v>0</v>
-      </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
@@ -2442,13 +2842,28 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>4343966.746802254</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>257575.8024546968</v>
+        <v>311476.8453351274</v>
       </c>
       <c r="W27" t="n">
-        <v>48198.00948927519</v>
+        <v>48198.00948927522</v>
+      </c>
+      <c r="X27" t="n">
+        <v>71289.20999536145</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>48198.00948927522</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>1137904.505132657</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>5481871.251934911</v>
       </c>
     </row>
     <row r="28">
@@ -2473,41 +2888,41 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
+        <v>1137904.505132657</v>
+      </c>
+      <c r="H28" t="n">
         <v>42000</v>
       </c>
-      <c r="H28" t="n">
+      <c r="I28" t="n">
         <v>285787.2859738325</v>
       </c>
-      <c r="I28" t="n">
+      <c r="J28" t="n">
         <v>215659.1267543843</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
         <v>35700</v>
       </c>
-      <c r="M28" t="n">
+      <c r="N28" t="n">
         <v>298877.2859738325</v>
       </c>
-      <c r="N28" t="n">
+      <c r="O28" t="n">
         <v>57815.54863371979</v>
       </c>
-      <c r="O28" t="n">
+      <c r="P28" t="n">
         <v>285787.2859738325</v>
       </c>
-      <c r="P28" t="n">
+      <c r="Q28" t="n">
         <v>304077.6722761578</v>
       </c>
-      <c r="Q28" t="n">
+      <c r="R28" t="n">
         <v>4362257.13310458</v>
       </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
@@ -2515,13 +2930,28 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>4362257.13310458</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>269971.7373401127</v>
+        <v>327787.2859738325</v>
       </c>
       <c r="W28" t="n">
-        <v>54312.6105857284</v>
+        <v>54312.61058572843</v>
+      </c>
+      <c r="X28" t="n">
+        <v>79653.31535928602</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>54312.61058572843</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>1271870.431077672</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>5634127.564182252</v>
       </c>
     </row>
     <row r="29">
@@ -2546,41 +2976,41 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
+        <v>1271870.431077672</v>
+      </c>
+      <c r="H29" t="n">
         <v>42000</v>
       </c>
-      <c r="H29" t="n">
+      <c r="I29" t="n">
         <v>302934.5231322625</v>
       </c>
-      <c r="I29" t="n">
+      <c r="J29" t="n">
         <v>222128.9005570158</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
         <v>35700</v>
       </c>
-      <c r="M29" t="n">
+      <c r="N29" t="n">
         <v>316024.5231322625</v>
       </c>
-      <c r="N29" t="n">
+      <c r="O29" t="n">
         <v>61930.88555174299</v>
       </c>
-      <c r="O29" t="n">
+      <c r="P29" t="n">
         <v>302934.5231322625</v>
       </c>
-      <c r="P29" t="n">
+      <c r="Q29" t="n">
         <v>305357.9993173206</v>
       </c>
-      <c r="Q29" t="n">
+      <c r="R29" t="n">
         <v>4364680.609289638</v>
       </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
@@ -2588,13 +3018,28 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>4364680.609289638</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>283003.6375805195</v>
+        <v>344934.5231322625</v>
       </c>
       <c r="W29" t="n">
-        <v>60874.73702350367</v>
+        <v>60874.73702350364</v>
+      </c>
+      <c r="X29" t="n">
+        <v>89030.93017543702</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>60874.73702350364</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>1421776.098276612</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>5786456.70756625</v>
       </c>
     </row>
     <row r="30">
@@ -2619,41 +3064,41 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
+        <v>1421776.098276612</v>
+      </c>
+      <c r="H30" t="n">
         <v>42000</v>
       </c>
-      <c r="H30" t="n">
+      <c r="I30" t="n">
         <v>318589.825495594</v>
       </c>
-      <c r="I30" t="n">
+      <c r="J30" t="n">
         <v>228792.7675737263</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
         <v>35700</v>
       </c>
-      <c r="M30" t="n">
+      <c r="N30" t="n">
         <v>331679.825495594</v>
       </c>
-      <c r="N30" t="n">
+      <c r="O30" t="n">
         <v>65688.15811894256</v>
       </c>
-      <c r="O30" t="n">
+      <c r="P30" t="n">
         <v>318589.825495594</v>
       </c>
-      <c r="P30" t="n">
+      <c r="Q30" t="n">
         <v>305527.6426502747</v>
       </c>
-      <c r="Q30" t="n">
+      <c r="R30" t="n">
         <v>4351618.426444318</v>
       </c>
-      <c r="R30" t="n">
-        <v>0</v>
-      </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
@@ -2661,13 +3106,28 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>4351618.426444318</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>294901.6673766514</v>
+        <v>360589.825495594</v>
       </c>
       <c r="W30" t="n">
-        <v>66108.89980292515</v>
+        <v>66108.89980292518</v>
+      </c>
+      <c r="X30" t="n">
+        <v>99524.32687936287</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>66108.89980292518</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>1587409.3249589</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>5939027.751403218</v>
       </c>
     </row>
     <row r="31">
@@ -2692,41 +3152,41 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
+        <v>1587409.3249589</v>
+      </c>
+      <c r="H31" t="n">
         <v>42000</v>
       </c>
-      <c r="H31" t="n">
+      <c r="I31" t="n">
         <v>337334.7617398696</v>
       </c>
-      <c r="I31" t="n">
+      <c r="J31" t="n">
         <v>235656.5506009381</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
         <v>35700</v>
       </c>
-      <c r="M31" t="n">
+      <c r="N31" t="n">
         <v>350424.7617398696</v>
       </c>
-      <c r="N31" t="n">
+      <c r="O31" t="n">
         <v>70186.94281756871</v>
       </c>
-      <c r="O31" t="n">
+      <c r="P31" t="n">
         <v>337334.7617398696</v>
       </c>
-      <c r="P31" t="n">
+      <c r="Q31" t="n">
         <v>304613.2898511023</v>
       </c>
-      <c r="Q31" t="n">
+      <c r="R31" t="n">
         <v>4318896.954555552</v>
       </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
@@ -2734,13 +3194,28 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>4318896.954555552</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>309147.8189223009</v>
+        <v>379334.7617398696</v>
       </c>
       <c r="W31" t="n">
         <v>73491.26832136279</v>
+      </c>
+      <c r="X31" t="n">
+        <v>111118.652747123</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>73491.26832136279</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>1772019.246027386</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>6090916.200582938</v>
       </c>
     </row>
     <row r="32">
@@ -2765,41 +3240,41 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
+        <v>1772019.246027386</v>
+      </c>
+      <c r="H32" t="n">
         <v>42000</v>
       </c>
-      <c r="H32" t="n">
+      <c r="I32" t="n">
         <v>354007.9470947174</v>
       </c>
-      <c r="I32" t="n">
+      <c r="J32" t="n">
         <v>242726.2471189662</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
         <v>35700</v>
       </c>
-      <c r="M32" t="n">
+      <c r="N32" t="n">
         <v>367097.9470947174</v>
       </c>
-      <c r="N32" t="n">
+      <c r="O32" t="n">
         <v>74188.50730273216</v>
       </c>
-      <c r="O32" t="n">
+      <c r="P32" t="n">
         <v>354007.9470947174</v>
       </c>
-      <c r="P32" t="n">
+      <c r="Q32" t="n">
         <v>302322.7868188886</v>
       </c>
-      <c r="Q32" t="n">
+      <c r="R32" t="n">
         <v>4267211.794279723</v>
       </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
@@ -2807,13 +3282,28 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>4267211.794279723</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>321819.4397919852</v>
+        <v>396007.9470947174</v>
       </c>
       <c r="W32" t="n">
-        <v>79093.19267301899</v>
+        <v>79093.19267301896</v>
+      </c>
+      <c r="X32" t="n">
+        <v>124041.3472219171</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>79093.19267301896</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>1975153.785922322</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>6242365.580202046</v>
       </c>
     </row>
     <row r="33">
@@ -2838,41 +3328,41 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
+        <v>1975153.785922322</v>
+      </c>
+      <c r="H33" t="n">
         <v>42000</v>
       </c>
-      <c r="H33" t="n">
+      <c r="I33" t="n">
         <v>371061.8951547585</v>
       </c>
-      <c r="I33" t="n">
+      <c r="J33" t="n">
         <v>250008.0345325352</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
         <v>35700</v>
       </c>
-      <c r="M33" t="n">
+      <c r="N33" t="n">
         <v>384151.8951547585</v>
       </c>
-      <c r="N33" t="n">
+      <c r="O33" t="n">
         <v>78301.60644952273</v>
       </c>
-      <c r="O33" t="n">
+      <c r="P33" t="n">
         <v>371061.8951547585</v>
       </c>
-      <c r="P33" t="n">
+      <c r="Q33" t="n">
         <v>298704.8255995807</v>
       </c>
-      <c r="Q33" t="n">
+      <c r="R33" t="n">
         <v>4194854.724724546</v>
       </c>
-      <c r="R33" t="n">
-        <v>0</v>
-      </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
@@ -2880,13 +3370,28 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>4194854.724724546</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>334760.2887052358</v>
+        <v>413061.8951547585</v>
       </c>
       <c r="W33" t="n">
         <v>84752.25417270063</v>
+      </c>
+      <c r="X33" t="n">
+        <v>138260.7650145626</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>84752.25417270063</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>2198166.805109586</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>6393021.529834132</v>
       </c>
     </row>
     <row r="34">
@@ -2911,41 +3416,41 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
+        <v>2198166.805109586</v>
+      </c>
+      <c r="H34" t="n">
         <v>42000</v>
       </c>
-      <c r="H34" t="n">
+      <c r="I34" t="n">
         <v>388412.474511532</v>
       </c>
-      <c r="I34" t="n">
+      <c r="J34" t="n">
         <v>257508.2755685113</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
         <v>35700</v>
       </c>
-      <c r="M34" t="n">
+      <c r="N34" t="n">
         <v>401502.474511532</v>
       </c>
-      <c r="N34" t="n">
+      <c r="O34" t="n">
         <v>83853.79184369024</v>
       </c>
-      <c r="O34" t="n">
+      <c r="P34" t="n">
         <v>388412.474511532</v>
       </c>
-      <c r="P34" t="n">
+      <c r="Q34" t="n">
         <v>293639.8307307183</v>
       </c>
-      <c r="Q34" t="n">
+      <c r="R34" t="n">
         <v>4100082.080943733</v>
       </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
@@ -2953,13 +3458,28 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>4100082.080943733</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>346558.6826678418</v>
+        <v>430412.474511532</v>
       </c>
       <c r="W34" t="n">
-        <v>89050.40709933051</v>
+        <v>89050.40709933045</v>
+      </c>
+      <c r="X34" t="n">
+        <v>153871.676357671</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>89050.40709933045</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>2441088.888566587</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>6541170.96951032</v>
       </c>
     </row>
     <row r="35">
@@ -2984,41 +3504,41 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
+        <v>2441088.888566587</v>
+      </c>
+      <c r="H35" t="n">
         <v>42000</v>
       </c>
-      <c r="H35" t="n">
+      <c r="I35" t="n">
         <v>405948.7208855181</v>
       </c>
-      <c r="I35" t="n">
+      <c r="J35" t="n">
         <v>265233.5238355666</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
         <v>35700</v>
       </c>
-      <c r="M35" t="n">
+      <c r="N35" t="n">
         <v>419038.7208855181</v>
       </c>
-      <c r="N35" t="n">
+      <c r="O35" t="n">
         <v>89465.39068336578</v>
       </c>
-      <c r="O35" t="n">
+      <c r="P35" t="n">
         <v>405948.7208855181</v>
       </c>
-      <c r="P35" t="n">
+      <c r="Q35" t="n">
         <v>287005.7456660613</v>
       </c>
-      <c r="Q35" t="n">
+      <c r="R35" t="n">
         <v>3981139.105724276</v>
       </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
@@ -3026,13 +3546,28 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>3981139.105724276</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>358483.3302021523</v>
+        <v>447948.7208855181</v>
       </c>
       <c r="W35" t="n">
-        <v>93249.80636658566</v>
+        <v>93249.80636658572</v>
+      </c>
+      <c r="X35" t="n">
+        <v>170876.2221996611</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>93249.80636658572</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>2705214.917132834</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>6686354.02285711</v>
       </c>
     </row>
     <row r="36">
@@ -3057,41 +3592,41 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
+        <v>2705214.917132834</v>
+      </c>
+      <c r="H36" t="n">
         <v>42000</v>
       </c>
-      <c r="H36" t="n">
+      <c r="I36" t="n">
         <v>419067.2742867659</v>
       </c>
-      <c r="I36" t="n">
+      <c r="J36" t="n">
         <v>273190.5295506336</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
         <v>35700</v>
       </c>
-      <c r="M36" t="n">
+      <c r="N36" t="n">
         <v>432157.2742867659</v>
       </c>
-      <c r="N36" t="n">
+      <c r="O36" t="n">
         <v>93663.32777176509</v>
       </c>
-      <c r="O36" t="n">
+      <c r="P36" t="n">
         <v>419067.2742867659</v>
       </c>
-      <c r="P36" t="n">
+      <c r="Q36" t="n">
         <v>278679.7374006993</v>
       </c>
-      <c r="Q36" t="n">
+      <c r="R36" t="n">
         <v>3840751.568838209</v>
       </c>
-      <c r="R36" t="n">
-        <v>0</v>
-      </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
@@ -3099,13 +3634,28 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>3840751.568838209</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>367403.9465150008</v>
+        <v>461067.2742867659</v>
       </c>
       <c r="W36" t="n">
-        <v>94213.41696436715</v>
+        <v>94213.41696436721</v>
+      </c>
+      <c r="X36" t="n">
+        <v>189365.0441992984</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>94213.41696436721</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>2988793.3782965</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>6829544.947134709</v>
       </c>
     </row>
     <row r="37">
@@ -3130,41 +3680,41 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
+        <v>2988793.3782965</v>
+      </c>
+      <c r="H37" t="n">
         <v>42000</v>
       </c>
-      <c r="H37" t="n">
+      <c r="I37" t="n">
         <v>431545.1200941808</v>
       </c>
-      <c r="I37" t="n">
+      <c r="J37" t="n">
         <v>281386.2454371526</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
       <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
         <v>35700</v>
       </c>
-      <c r="M37" t="n">
+      <c r="N37" t="n">
         <v>444635.1200941808</v>
       </c>
-      <c r="N37" t="n">
+      <c r="O37" t="n">
         <v>97656.23843013786</v>
       </c>
-      <c r="O37" t="n">
+      <c r="P37" t="n">
         <v>431545.1200941808</v>
       </c>
-      <c r="P37" t="n">
+      <c r="Q37" t="n">
         <v>268852.6098186747</v>
       </c>
-      <c r="Q37" t="n">
+      <c r="R37" t="n">
         <v>3678059.058562703</v>
       </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
@@ -3172,13 +3722,28 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>3678059.058562703</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>375888.8816640429</v>
+        <v>473545.1200941808</v>
       </c>
       <c r="W37" t="n">
         <v>94502.63622689032</v>
+      </c>
+      <c r="X37" t="n">
+        <v>209215.536480755</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>94502.63622689032</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>3292511.551004145</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>6970570.609566849</v>
       </c>
     </row>
   </sheetData>
@@ -3192,7 +3757,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W37"/>
+  <dimension ref="A1:AB37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3233,87 +3798,112 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Taxable_Begin</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>Social_Security</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>RMD</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Spending_Need</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Roth_Conversion</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Additional_Withdrawal</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Taxable_SS</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Taxable_Income</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Federal_Tax</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Total_IRA_Distribution</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Trad_IRA_Growth</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Trad_IRA_End</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Roth_Distribution</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Roth_IRA_Growth</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Roth_IRA_End</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Net_Available</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Surplus_Deficit</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Taxable_Growth</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Taxable_Contribution</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Taxable_Withdrawal</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Taxable_End</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Total_Assets_End</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>Net_Available</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>Surplus_Deficit</t>
         </is>
       </c>
     </row>
@@ -3345,49 +3935,64 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
         <v>100000</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>237979</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>178220.8870018604</v>
       </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>383899.5291744184</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>78220.88700186041</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>416199.8870018604</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>161000</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
         <v>2044800.11299814</v>
       </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
       <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
         <v>16658.53</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>254637.53</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
+        <v>178220.8870018604</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="n">
         <v>2299437.642998139</v>
-      </c>
-      <c r="V2" t="n">
-        <v>337979</v>
-      </c>
-      <c r="W2" t="n">
-        <v>237979</v>
       </c>
     </row>
     <row r="3">
@@ -3418,49 +4023,64 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
         <v>103000</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>234979</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>181220.885099759</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>383899.5212489957</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>78220.88509975898</v>
       </c>
-      <c r="O3" t="n">
+      <c r="P3" t="n">
         <v>416199.885099759</v>
       </c>
-      <c r="P3" t="n">
+      <c r="Q3" t="n">
         <v>143136.0079098698</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="R3" t="n">
         <v>1771736.23580825</v>
       </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
       <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
         <v>34273.1571</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>523889.6871</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
+        <v>181220.885099759</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
         <v>2295625.922908251</v>
-      </c>
-      <c r="V3" t="n">
-        <v>337979</v>
-      </c>
-      <c r="W3" t="n">
-        <v>234979</v>
       </c>
     </row>
     <row r="4">
@@ -3491,49 +4111,64 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>106090</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>231889</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>184310.8832177881</v>
       </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
       <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
         <v>383899.5134074505</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>78220.88321778813</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>416199.8832177881</v>
       </c>
-      <c r="P4" t="n">
+      <c r="Q4" t="n">
         <v>124021.5365065775</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="R4" t="n">
         <v>1479557.88909704</v>
       </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
       <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
         <v>52904.50809700001</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>808683.1951970001</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
+        <v>184310.8832177881</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB4" t="n">
         <v>2288241.08429404</v>
-      </c>
-      <c r="V4" t="n">
-        <v>337979</v>
-      </c>
-      <c r="W4" t="n">
-        <v>231889</v>
       </c>
     </row>
     <row r="5">
@@ -3564,49 +4199,64 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
         <v>109272.7</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>228706.3</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>187493.5813680103</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
       <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
         <v>383899.5057000431</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>78220.88136801033</v>
       </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>416199.8813680103</v>
       </c>
-      <c r="P5" t="n">
+      <c r="Q5" t="n">
         <v>103569.0522367928</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="R5" t="n">
         <v>1166927.059965823</v>
       </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
       <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
         <v>72617.26466379</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>1110006.75986079</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
+        <v>187493.5813680103</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" t="n">
         <v>2276933.819826613</v>
-      </c>
-      <c r="V5" t="n">
-        <v>337979</v>
-      </c>
-      <c r="W5" t="n">
-        <v>228706.3</v>
       </c>
     </row>
     <row r="6">
@@ -3637,49 +4287,64 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
         <v>112550.881</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
         <v>225428.119</v>
       </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>190771.7604627392</v>
       </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
         <v>383899.4977614134</v>
       </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>78220.87946273922</v>
       </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>416199.8794627392</v>
       </c>
-      <c r="P6" t="n">
+      <c r="Q6" t="n">
         <v>81684.89419760759</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="R6" t="n">
         <v>832412.074700691</v>
       </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
       <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
         <v>93480.44152025531</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>1428915.320381045</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
+        <v>190771.7604627392</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" t="n">
         <v>2261327.395081736</v>
-      </c>
-      <c r="V6" t="n">
-        <v>337979</v>
-      </c>
-      <c r="W6" t="n">
-        <v>225428.119</v>
       </c>
     </row>
     <row r="7">
@@ -3704,55 +4369,70 @@
         <v>1428915.320381045</v>
       </c>
       <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
         <v>24000</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
         <v>115927.40743</v>
       </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
         <v>239523.59257</v>
       </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
         <v>176675.0659993084</v>
       </c>
-      <c r="L7" t="n">
+      <c r="M7" t="n">
         <v>20400</v>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
         <v>404295.8080290888</v>
       </c>
-      <c r="N7" t="n">
+      <c r="O7" t="n">
         <v>84747.65856930841</v>
       </c>
-      <c r="O7" t="n">
+      <c r="P7" t="n">
         <v>416198.6585693084</v>
       </c>
-      <c r="P7" t="n">
+      <c r="Q7" t="n">
         <v>58268.84522904838</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="R7" t="n">
         <v>474482.261360431</v>
       </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
       <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
         <v>116790.7239065732</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>1785229.636857619</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
+        <v>200675.0659993084</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" t="n">
         <v>2259711.89821805</v>
-      </c>
-      <c r="V7" t="n">
-        <v>355451</v>
-      </c>
-      <c r="W7" t="n">
-        <v>239523.59257</v>
       </c>
     </row>
     <row r="8">
@@ -3777,55 +4457,70 @@
         <v>1785229.636857619</v>
       </c>
       <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
         <v>24000</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
         <v>119405.2296529</v>
       </c>
-      <c r="J8" t="n">
+      <c r="K8" t="n">
         <v>236045.7703471</v>
       </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
         <v>180152.86619651</v>
       </c>
-      <c r="L8" t="n">
+      <c r="M8" t="n">
         <v>20400</v>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
         <v>404295.7391987813</v>
       </c>
-      <c r="N8" t="n">
+      <c r="O8" t="n">
         <v>84747.63654361</v>
       </c>
-      <c r="O8" t="n">
+      <c r="P8" t="n">
         <v>416198.63654361</v>
       </c>
-      <c r="P8" t="n">
+      <c r="Q8" t="n">
         <v>33213.75829523017</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="R8" t="n">
         <v>91497.38311205123</v>
       </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
       <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
         <v>141489.2785043303</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>2162764.685709049</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
+        <v>204152.86619651</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB8" t="n">
         <v>2254262.0688211</v>
-      </c>
-      <c r="V8" t="n">
-        <v>355451</v>
-      </c>
-      <c r="W8" t="n">
-        <v>236045.7703471</v>
       </c>
     </row>
     <row r="9">
@@ -3850,55 +4545,70 @@
         <v>2162764.685709049</v>
       </c>
       <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
         <v>66000</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
         <v>122987.386542487</v>
       </c>
-      <c r="J9" t="n">
+      <c r="K9" t="n">
         <v>91497.38311205123</v>
       </c>
-      <c r="K9" t="n">
+      <c r="L9" t="n">
         <v>93083.67791227839</v>
       </c>
-      <c r="L9" t="n">
+      <c r="M9" t="n">
         <v>56100</v>
       </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
         <v>208380.380707464</v>
       </c>
-      <c r="N9" t="n">
+      <c r="O9" t="n">
         <v>36096.29136979136</v>
       </c>
-      <c r="O9" t="n">
+      <c r="P9" t="n">
         <v>184581.0610243296</v>
       </c>
-      <c r="P9" t="n">
+      <c r="Q9" t="n">
         <v>6404.816817843587</v>
       </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
       <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
         <v>86678.8610944348</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>157798.344817477</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2325381.552544143</v>
       </c>
       <c r="U9" t="n">
         <v>2325381.552544143</v>
       </c>
       <c r="V9" t="n">
-        <v>214484.7696545382</v>
+        <v>159083.6779122784</v>
       </c>
       <c r="W9" t="n">
-        <v>91497.38311205123</v>
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>2325381.552544143</v>
       </c>
     </row>
     <row r="10">
@@ -3923,55 +4633,70 @@
         <v>2325381.552544143</v>
       </c>
       <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
         <v>66000</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
         <v>126677.0081387616</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
       <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
         <v>71818.99575893627</v>
       </c>
-      <c r="L10" t="n">
+      <c r="M10" t="n">
         <v>56100</v>
       </c>
-      <c r="M10" t="n">
+      <c r="N10" t="n">
         <v>95618.12554624831</v>
       </c>
-      <c r="N10" t="n">
+      <c r="O10" t="n">
         <v>11141.98762017463</v>
       </c>
-      <c r="O10" t="n">
+      <c r="P10" t="n">
         <v>71818.99575893627</v>
       </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
       <c r="Q10" t="n">
         <v>0</v>
       </c>
       <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
         <v>71818.99575893627</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>162776.70867809</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2416339.265463296</v>
       </c>
       <c r="U10" t="n">
         <v>2416339.265463296</v>
       </c>
       <c r="V10" t="n">
-        <v>126677.0081387617</v>
+        <v>137818.9957589363</v>
       </c>
       <c r="W10" t="n">
-        <v>1.455191522836685e-11</v>
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>2416339.265463296</v>
       </c>
     </row>
     <row r="11">
@@ -3996,55 +4721,70 @@
         <v>2416339.265463296</v>
       </c>
       <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
         <v>66000</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
         <v>130477.3183829245</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
       <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
         <v>76691.36791956626</v>
       </c>
-      <c r="L11" t="n">
+      <c r="M11" t="n">
         <v>56100</v>
       </c>
-      <c r="M11" t="n">
+      <c r="N11" t="n">
         <v>100491.1342574626</v>
       </c>
-      <c r="N11" t="n">
+      <c r="O11" t="n">
         <v>12214.04953664177</v>
       </c>
-      <c r="O11" t="n">
+      <c r="P11" t="n">
         <v>76691.36791956626</v>
       </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
         <v>76691.36791956626</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>169143.7485824308</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2508791.646126161</v>
       </c>
       <c r="U11" t="n">
         <v>2508791.646126161</v>
       </c>
       <c r="V11" t="n">
-        <v>130477.3183829245</v>
+        <v>142691.3679195663</v>
       </c>
       <c r="W11" t="n">
-        <v>-1.455191522836685e-11</v>
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>2508791.646126161</v>
       </c>
     </row>
     <row r="12">
@@ -4069,55 +4809,70 @@
         <v>2508791.646126161</v>
       </c>
       <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
         <v>66000</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
         <v>134391.6379344122</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
         <v>81709.72045567416</v>
       </c>
-      <c r="L12" t="n">
+      <c r="M12" t="n">
         <v>56100</v>
       </c>
-      <c r="M12" t="n">
+      <c r="N12" t="n">
         <v>105509.4660057361</v>
       </c>
-      <c r="N12" t="n">
+      <c r="O12" t="n">
         <v>13318.08252126195</v>
       </c>
-      <c r="O12" t="n">
+      <c r="P12" t="n">
         <v>81709.72045567416</v>
       </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
         <v>81709.72045567416</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>175615.4152288313</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2602697.340899319</v>
       </c>
       <c r="U12" t="n">
         <v>2602697.340899319</v>
       </c>
       <c r="V12" t="n">
-        <v>134391.6379344122</v>
+        <v>147709.7204556742</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>2602697.340899319</v>
       </c>
     </row>
     <row r="13">
@@ -4142,55 +4897,70 @@
         <v>2602697.340899319</v>
       </c>
       <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
         <v>66000</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
         <v>138423.3870724446</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
       <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
         <v>86878.62205012902</v>
       </c>
-      <c r="L13" t="n">
+      <c r="M13" t="n">
         <v>56100</v>
       </c>
-      <c r="M13" t="n">
+      <c r="N13" t="n">
         <v>110678.3408076564</v>
       </c>
-      <c r="N13" t="n">
+      <c r="O13" t="n">
         <v>14455.23497768442</v>
       </c>
-      <c r="O13" t="n">
+      <c r="P13" t="n">
         <v>86878.62205012902</v>
       </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
       <c r="Q13" t="n">
         <v>0</v>
       </c>
       <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
         <v>86878.62205012902</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>182188.8138629523</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2698007.532712142</v>
       </c>
       <c r="U13" t="n">
         <v>2698007.532712142</v>
       </c>
       <c r="V13" t="n">
-        <v>138423.3870724446</v>
+        <v>152878.622050129</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>2698007.532712142</v>
       </c>
     </row>
     <row r="14">
@@ -4215,55 +4985,70 @@
         <v>2698007.532712142</v>
       </c>
       <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
         <v>66000</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
         <v>142576.0886846179</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
       <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
         <v>92202.59204851938</v>
       </c>
-      <c r="L14" t="n">
+      <c r="M14" t="n">
         <v>56100</v>
       </c>
-      <c r="M14" t="n">
+      <c r="N14" t="n">
         <v>116002.288017734</v>
       </c>
-      <c r="N14" t="n">
+      <c r="O14" t="n">
         <v>15626.50336390147</v>
       </c>
-      <c r="O14" t="n">
+      <c r="P14" t="n">
         <v>92202.59204851938</v>
       </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
         <v>92202.59204851938</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>188860.52728985</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2794665.467953473</v>
       </c>
       <c r="U14" t="n">
         <v>2794665.467953473</v>
       </c>
       <c r="V14" t="n">
-        <v>142576.0886846179</v>
+        <v>158202.5920485194</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>2794665.467953473</v>
       </c>
     </row>
     <row r="15">
@@ -4288,55 +5073,70 @@
         <v>2794665.467953473</v>
       </c>
       <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
         <v>66000</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
         <v>146853.3713451565</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
         <v>97686.28114686153</v>
       </c>
-      <c r="L15" t="n">
+      <c r="M15" t="n">
         <v>56100</v>
       </c>
-      <c r="M15" t="n">
+      <c r="N15" t="n">
         <v>121485.9536441139</v>
       </c>
-      <c r="N15" t="n">
+      <c r="O15" t="n">
         <v>16832.90980170505</v>
       </c>
-      <c r="O15" t="n">
+      <c r="P15" t="n">
         <v>97686.28114686153</v>
       </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
         <v>97686.28114686153</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>195626.5827567432</v>
-      </c>
-      <c r="T15" t="n">
-        <v>2892605.769563355</v>
       </c>
       <c r="U15" t="n">
         <v>2892605.769563355</v>
       </c>
       <c r="V15" t="n">
-        <v>146853.3713451565</v>
+        <v>163686.2811468615</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>2892605.769563355</v>
       </c>
     </row>
     <row r="16">
@@ -4361,55 +5161,70 @@
         <v>2892605.769563355</v>
       </c>
       <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
         <v>66000</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
         <v>151258.9724855112</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
       <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
         <v>103334.4809181539</v>
       </c>
-      <c r="L16" t="n">
+      <c r="M16" t="n">
         <v>56100</v>
       </c>
-      <c r="M16" t="n">
+      <c r="N16" t="n">
         <v>127134.1292392851</v>
       </c>
-      <c r="N16" t="n">
+      <c r="O16" t="n">
         <v>18075.50843264273</v>
       </c>
-      <c r="O16" t="n">
+      <c r="P16" t="n">
         <v>103334.4809181539</v>
       </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
       <c r="Q16" t="n">
         <v>0</v>
       </c>
       <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
         <v>103334.4809181539</v>
       </c>
-      <c r="S16" t="n">
+      <c r="T16" t="n">
         <v>202482.4038694349</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2991753.692514636</v>
       </c>
       <c r="U16" t="n">
         <v>2991753.692514636</v>
       </c>
       <c r="V16" t="n">
-        <v>151258.9724855112</v>
+        <v>169334.4809181539</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>2991753.692514636</v>
       </c>
     </row>
     <row r="17">
@@ -4434,55 +5249,70 @@
         <v>2991753.692514636</v>
       </c>
       <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
         <v>66000</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
         <v>155796.7416600765</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
       <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
         <v>109152.126682585</v>
       </c>
-      <c r="L17" t="n">
+      <c r="M17" t="n">
         <v>56100</v>
       </c>
-      <c r="M17" t="n">
+      <c r="N17" t="n">
         <v>132951.7501023115</v>
       </c>
-      <c r="N17" t="n">
+      <c r="O17" t="n">
         <v>19355.38502250854</v>
       </c>
-      <c r="O17" t="n">
+      <c r="P17" t="n">
         <v>109152.126682585</v>
       </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
         <v>109152.126682585</v>
       </c>
-      <c r="S17" t="n">
+      <c r="T17" t="n">
         <v>209422.7584760246</v>
-      </c>
-      <c r="T17" t="n">
-        <v>3092024.324308075</v>
       </c>
       <c r="U17" t="n">
         <v>3092024.324308075</v>
       </c>
       <c r="V17" t="n">
-        <v>155796.7416600765</v>
+        <v>175152.126682585</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>3092024.324308075</v>
       </c>
     </row>
     <row r="18">
@@ -4507,55 +5337,70 @@
         <v>3092024.324308075</v>
       </c>
       <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
         <v>66000</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
         <v>160470.6439098788</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
       <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
         <v>115144.3018199491</v>
       </c>
-      <c r="L18" t="n">
+      <c r="M18" t="n">
         <v>56100</v>
       </c>
-      <c r="M18" t="n">
+      <c r="N18" t="n">
         <v>138943.8995912288</v>
       </c>
-      <c r="N18" t="n">
+      <c r="O18" t="n">
         <v>20673.65791007033</v>
       </c>
-      <c r="O18" t="n">
+      <c r="P18" t="n">
         <v>115144.3018199491</v>
       </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
         <v>115144.3018199491</v>
       </c>
-      <c r="S18" t="n">
+      <c r="T18" t="n">
         <v>216441.7027015653</v>
-      </c>
-      <c r="T18" t="n">
-        <v>3193321.725189692</v>
       </c>
       <c r="U18" t="n">
         <v>3193321.725189692</v>
       </c>
       <c r="V18" t="n">
-        <v>160470.6439098788</v>
+        <v>181144.3018199491</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>3193321.725189692</v>
       </c>
     </row>
     <row r="19">
@@ -4580,55 +5425,70 @@
         <v>3193321.725189692</v>
       </c>
       <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
         <v>66000</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
         <v>165284.7632271752</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
       <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
         <v>121316.2422114342</v>
       </c>
-      <c r="L19" t="n">
+      <c r="M19" t="n">
         <v>56100</v>
       </c>
-      <c r="M19" t="n">
+      <c r="N19" t="n">
         <v>145115.8135648135</v>
       </c>
-      <c r="N19" t="n">
+      <c r="O19" t="n">
         <v>22031.47898425897</v>
       </c>
-      <c r="O19" t="n">
+      <c r="P19" t="n">
         <v>121316.2422114342</v>
       </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
       <c r="Q19" t="n">
         <v>0</v>
       </c>
       <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
         <v>121316.2422114342</v>
       </c>
-      <c r="S19" t="n">
+      <c r="T19" t="n">
         <v>223532.5207632784</v>
-      </c>
-      <c r="T19" t="n">
-        <v>3295538.003741536</v>
       </c>
       <c r="U19" t="n">
         <v>3295538.003741536</v>
       </c>
       <c r="V19" t="n">
-        <v>165284.7632271752</v>
+        <v>187316.2422114342</v>
       </c>
       <c r="W19" t="n">
-        <v>2.91038304567337e-11</v>
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>3295538.003741536</v>
       </c>
     </row>
     <row r="20">
@@ -4653,55 +5513,70 @@
         <v>3295538.003741536</v>
       </c>
       <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
         <v>66000</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
         <v>170243.3061239904</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
       <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
         <v>127673.3408146637</v>
       </c>
-      <c r="L20" t="n">
+      <c r="M20" t="n">
         <v>56100</v>
       </c>
-      <c r="M20" t="n">
+      <c r="N20" t="n">
         <v>151472.8849576057</v>
       </c>
-      <c r="N20" t="n">
+      <c r="O20" t="n">
         <v>23430.03469067326</v>
       </c>
-      <c r="O20" t="n">
+      <c r="P20" t="n">
         <v>127673.3408146637</v>
       </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
         <v>127673.3408146637</v>
       </c>
-      <c r="S20" t="n">
+      <c r="T20" t="n">
         <v>230687.6602619076</v>
-      </c>
-      <c r="T20" t="n">
-        <v>3398552.32318878</v>
       </c>
       <c r="U20" t="n">
         <v>3398552.32318878</v>
       </c>
       <c r="V20" t="n">
-        <v>170243.3061239904</v>
+        <v>193673.3408146637</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>3398552.32318878</v>
       </c>
     </row>
     <row r="21">
@@ -4726,55 +5601,70 @@
         <v>3398552.32318878</v>
       </c>
       <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
         <v>66000</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
         <v>175350.6053077102</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
       <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
         <v>134221.1523759901</v>
       </c>
-      <c r="L21" t="n">
+      <c r="M21" t="n">
         <v>56100</v>
       </c>
-      <c r="M21" t="n">
+      <c r="N21" t="n">
         <v>158020.6684921818</v>
       </c>
-      <c r="N21" t="n">
+      <c r="O21" t="n">
         <v>24870.54706827999</v>
       </c>
-      <c r="O21" t="n">
+      <c r="P21" t="n">
         <v>134221.1523759901</v>
       </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
         <v>134221.1523759901</v>
       </c>
-      <c r="S21" t="n">
+      <c r="T21" t="n">
         <v>237898.6626232147</v>
-      </c>
-      <c r="T21" t="n">
-        <v>3502229.833436005</v>
       </c>
       <c r="U21" t="n">
         <v>3502229.833436005</v>
       </c>
       <c r="V21" t="n">
-        <v>175350.6053077102</v>
+        <v>200221.1523759901</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>3502229.833436005</v>
       </c>
     </row>
     <row r="22">
@@ -4799,55 +5689,70 @@
         <v>3502229.833436005</v>
       </c>
       <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
         <v>66000</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
         <v>180611.1234669415</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
       <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
         <v>140965.3982841564</v>
       </c>
-      <c r="L22" t="n">
+      <c r="M22" t="n">
         <v>56100</v>
       </c>
-      <c r="M22" t="n">
+      <c r="N22" t="n">
         <v>164764.8855327951</v>
       </c>
-      <c r="N22" t="n">
+      <c r="O22" t="n">
         <v>26354.27481721492</v>
       </c>
-      <c r="O22" t="n">
+      <c r="P22" t="n">
         <v>140965.3982841564</v>
       </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
       <c r="Q22" t="n">
         <v>0</v>
       </c>
       <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
         <v>140965.3982841564</v>
       </c>
-      <c r="S22" t="n">
+      <c r="T22" t="n">
         <v>245156.0883405204</v>
-      </c>
-      <c r="T22" t="n">
-        <v>3606420.523492369</v>
       </c>
       <c r="U22" t="n">
         <v>3606420.523492369</v>
       </c>
       <c r="V22" t="n">
-        <v>180611.1234669415</v>
+        <v>206965.3982841564</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>3606420.523492369</v>
       </c>
     </row>
     <row r="23">
@@ -4872,55 +5777,70 @@
         <v>3606420.523492369</v>
       </c>
       <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
         <v>66000</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
         <v>186029.4571709497</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
       <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
         <v>147911.9715695676</v>
       </c>
-      <c r="L23" t="n">
+      <c r="M23" t="n">
         <v>56100</v>
       </c>
-      <c r="M23" t="n">
+      <c r="N23" t="n">
         <v>171711.4290846268</v>
       </c>
-      <c r="N23" t="n">
+      <c r="O23" t="n">
         <v>27882.5143986179</v>
       </c>
-      <c r="O23" t="n">
+      <c r="P23" t="n">
         <v>147911.9715695676</v>
       </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
         <v>147911.9715695676</v>
       </c>
-      <c r="S23" t="n">
+      <c r="T23" t="n">
         <v>252449.4366444659</v>
-      </c>
-      <c r="T23" t="n">
-        <v>3710957.988567268</v>
       </c>
       <c r="U23" t="n">
         <v>3710957.988567268</v>
       </c>
       <c r="V23" t="n">
-        <v>186029.4571709497</v>
+        <v>213911.9715695676</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>3710957.988567268</v>
       </c>
     </row>
     <row r="24">
@@ -4945,55 +5865,70 @@
         <v>3710957.988567268</v>
       </c>
       <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
         <v>66000</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
         <v>191610.3408860782</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
       <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
         <v>155066.9420535412</v>
       </c>
-      <c r="L24" t="n">
+      <c r="M24" t="n">
         <v>56100</v>
       </c>
-      <c r="M24" t="n">
+      <c r="N24" t="n">
         <v>178866.3689430135</v>
       </c>
-      <c r="N24" t="n">
+      <c r="O24" t="n">
         <v>29456.60116746297</v>
       </c>
-      <c r="O24" t="n">
+      <c r="P24" t="n">
         <v>155066.9420535412</v>
       </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
         <v>155066.9420535412</v>
       </c>
-      <c r="S24" t="n">
+      <c r="T24" t="n">
         <v>259767.0591997088</v>
-      </c>
-      <c r="T24" t="n">
-        <v>3815658.105713436</v>
       </c>
       <c r="U24" t="n">
         <v>3815658.105713436</v>
       </c>
       <c r="V24" t="n">
-        <v>191610.3408860782</v>
+        <v>221066.9420535412</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>3815658.105713436</v>
       </c>
     </row>
     <row r="25">
@@ -5018,55 +5953,70 @@
         <v>3815658.105713436</v>
       </c>
       <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
         <v>66000</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
         <v>197358.6511126606</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
       <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
         <v>162436.561652034</v>
       </c>
-      <c r="L25" t="n">
+      <c r="M25" t="n">
         <v>56100</v>
       </c>
-      <c r="M25" t="n">
+      <c r="N25" t="n">
         <v>186235.9569971518</v>
       </c>
-      <c r="N25" t="n">
+      <c r="O25" t="n">
         <v>31077.91053937339</v>
       </c>
-      <c r="O25" t="n">
+      <c r="P25" t="n">
         <v>162436.561652034</v>
       </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
       <c r="Q25" t="n">
         <v>0</v>
       </c>
       <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
         <v>162436.561652034</v>
       </c>
-      <c r="S25" t="n">
+      <c r="T25" t="n">
         <v>267096.0673999405</v>
-      </c>
-      <c r="T25" t="n">
-        <v>3920317.611461343</v>
       </c>
       <c r="U25" t="n">
         <v>3920317.611461343</v>
       </c>
       <c r="V25" t="n">
-        <v>197358.6511126606</v>
+        <v>228436.561652034</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>3920317.611461343</v>
       </c>
     </row>
     <row r="26">
@@ -5091,55 +6041,70 @@
         <v>3920317.611461343</v>
       </c>
       <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
         <v>42000</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
         <v>203279.4106460404</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
       <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
         <v>198034.1333088677</v>
       </c>
-      <c r="L26" t="n">
+      <c r="M26" t="n">
         <v>35700</v>
       </c>
-      <c r="M26" t="n">
+      <c r="N26" t="n">
         <v>211123.8444284472</v>
       </c>
-      <c r="N26" t="n">
+      <c r="O26" t="n">
         <v>36754.72266282733</v>
       </c>
-      <c r="O26" t="n">
+      <c r="P26" t="n">
         <v>198034.1333088677</v>
       </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
         <v>198034.1333088677</v>
       </c>
-      <c r="S26" t="n">
+      <c r="T26" t="n">
         <v>274422.232802294</v>
-      </c>
-      <c r="T26" t="n">
-        <v>3996705.71095477</v>
       </c>
       <c r="U26" t="n">
         <v>3996705.71095477</v>
       </c>
       <c r="V26" t="n">
-        <v>203279.4106460404</v>
+        <v>240034.1333088677</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>3996705.71095477</v>
       </c>
     </row>
     <row r="27">
@@ -5164,55 +6129,70 @@
         <v>3996705.71095477</v>
       </c>
       <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
         <v>42000</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
         <v>209377.7929654216</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
         <v>206058.3141410427</v>
       </c>
-      <c r="L27" t="n">
+      <c r="M27" t="n">
         <v>35700</v>
       </c>
-      <c r="M27" t="n">
+      <c r="N27" t="n">
         <v>219148.0048984212</v>
       </c>
-      <c r="N27" t="n">
+      <c r="O27" t="n">
         <v>38680.52117562109</v>
       </c>
-      <c r="O27" t="n">
+      <c r="P27" t="n">
         <v>206058.3141410427</v>
       </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
         <v>206058.3141410427</v>
       </c>
-      <c r="S27" t="n">
+      <c r="T27" t="n">
         <v>279769.3997668339</v>
-      </c>
-      <c r="T27" t="n">
-        <v>4070416.796580561</v>
       </c>
       <c r="U27" t="n">
         <v>4070416.796580561</v>
       </c>
       <c r="V27" t="n">
-        <v>209377.7929654216</v>
+        <v>248058.3141410427</v>
       </c>
       <c r="W27" t="n">
-        <v>2.91038304567337e-11</v>
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>4070416.796580561</v>
       </c>
     </row>
     <row r="28">
@@ -5237,55 +6217,70 @@
         <v>4070416.796580561</v>
       </c>
       <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
         <v>42000</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
         <v>215659.1267543843</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
       <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
         <v>214323.220398183</v>
       </c>
-      <c r="L28" t="n">
+      <c r="M28" t="n">
         <v>35700</v>
       </c>
-      <c r="M28" t="n">
+      <c r="N28" t="n">
         <v>227412.8901824945</v>
       </c>
-      <c r="N28" t="n">
+      <c r="O28" t="n">
         <v>40664.09364379869</v>
       </c>
-      <c r="O28" t="n">
+      <c r="P28" t="n">
         <v>214323.220398183</v>
       </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
       <c r="Q28" t="n">
         <v>0</v>
       </c>
       <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
         <v>214323.220398183</v>
       </c>
-      <c r="S28" t="n">
+      <c r="T28" t="n">
         <v>284929.1757606393</v>
-      </c>
-      <c r="T28" t="n">
-        <v>4141022.751943018</v>
       </c>
       <c r="U28" t="n">
         <v>4141022.751943018</v>
       </c>
       <c r="V28" t="n">
-        <v>215659.1267543843</v>
+        <v>256323.220398183</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>4141022.751943018</v>
       </c>
     </row>
     <row r="29">
@@ -5310,55 +6305,70 @@
         <v>4141022.751943018</v>
       </c>
       <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
         <v>42000</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
         <v>222128.9005570158</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
       <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
         <v>222836.0738430374</v>
       </c>
-      <c r="L29" t="n">
+      <c r="M29" t="n">
         <v>35700</v>
       </c>
-      <c r="M29" t="n">
+      <c r="N29" t="n">
         <v>235925.72202509</v>
       </c>
-      <c r="N29" t="n">
+      <c r="O29" t="n">
         <v>42707.1732860216</v>
       </c>
-      <c r="O29" t="n">
+      <c r="P29" t="n">
         <v>222836.0738430374</v>
       </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
         <v>222836.0738430374</v>
       </c>
-      <c r="S29" t="n">
+      <c r="T29" t="n">
         <v>289871.5926360113</v>
-      </c>
-      <c r="T29" t="n">
-        <v>4208058.270735992</v>
       </c>
       <c r="U29" t="n">
         <v>4208058.270735992</v>
       </c>
       <c r="V29" t="n">
-        <v>222128.9005570158</v>
+        <v>264836.0738430374</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>4208058.270735992</v>
       </c>
     </row>
     <row r="30">
@@ -5383,55 +6393,70 @@
         <v>4208058.270735992</v>
       </c>
       <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
         <v>42000</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
         <v>228792.7675737263</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
       <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
         <v>231604.3128912374</v>
       </c>
-      <c r="L30" t="n">
+      <c r="M30" t="n">
         <v>35700</v>
       </c>
-      <c r="M30" t="n">
+      <c r="N30" t="n">
         <v>244693.9388229633</v>
       </c>
-      <c r="N30" t="n">
+      <c r="O30" t="n">
         <v>44811.54531751118</v>
       </c>
-      <c r="O30" t="n">
+      <c r="P30" t="n">
         <v>231604.3128912374</v>
       </c>
-      <c r="P30" t="n">
-        <v>0</v>
-      </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
         <v>231604.3128912374</v>
       </c>
-      <c r="S30" t="n">
+      <c r="T30" t="n">
         <v>294564.0789515194</v>
-      </c>
-      <c r="T30" t="n">
-        <v>4271018.036796275</v>
       </c>
       <c r="U30" t="n">
         <v>4271018.036796275</v>
       </c>
       <c r="V30" t="n">
-        <v>228792.7675737262</v>
+        <v>273604.3128912374</v>
       </c>
       <c r="W30" t="n">
-        <v>-2.91038304567337e-11</v>
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>4271018.036796275</v>
       </c>
     </row>
     <row r="31">
@@ -5456,55 +6481,70 @@
         <v>4271018.036796275</v>
       </c>
       <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
         <v>42000</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
         <v>235656.5506009381</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
       <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
         <v>240635.6003649828</v>
       </c>
-      <c r="L31" t="n">
+      <c r="M31" t="n">
         <v>35700</v>
       </c>
-      <c r="M31" t="n">
+      <c r="N31" t="n">
         <v>253725.2073501862</v>
       </c>
-      <c r="N31" t="n">
+      <c r="O31" t="n">
         <v>46979.04976404468</v>
       </c>
-      <c r="O31" t="n">
+      <c r="P31" t="n">
         <v>240635.6003649828</v>
       </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
       <c r="Q31" t="n">
         <v>0</v>
       </c>
       <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
         <v>240635.6003649828</v>
       </c>
-      <c r="S31" t="n">
+      <c r="T31" t="n">
         <v>298971.2625757392</v>
-      </c>
-      <c r="T31" t="n">
-        <v>4329353.699007031</v>
       </c>
       <c r="U31" t="n">
         <v>4329353.699007031</v>
       </c>
       <c r="V31" t="n">
-        <v>235656.5506009381</v>
+        <v>282635.6003649828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>4329353.699007031</v>
       </c>
     </row>
     <row r="32">
@@ -5529,55 +6569,70 @@
         <v>4329353.699007031</v>
       </c>
       <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
         <v>42000</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
         <v>242726.2471189662</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
       <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
         <v>249937.8267276164</v>
       </c>
-      <c r="L32" t="n">
+      <c r="M32" t="n">
         <v>35700</v>
       </c>
-      <c r="M32" t="n">
+      <c r="N32" t="n">
         <v>263027.4150360422</v>
       </c>
-      <c r="N32" t="n">
+      <c r="O32" t="n">
         <v>49211.57960865012</v>
       </c>
-      <c r="O32" t="n">
+      <c r="P32" t="n">
         <v>249937.8267276164</v>
       </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
         <v>249937.8267276164</v>
       </c>
-      <c r="S32" t="n">
+      <c r="T32" t="n">
         <v>303054.7589304922</v>
-      </c>
-      <c r="T32" t="n">
-        <v>4382470.631209906</v>
       </c>
       <c r="U32" t="n">
         <v>4382470.631209906</v>
       </c>
       <c r="V32" t="n">
-        <v>242726.2471189662</v>
+        <v>291937.8267276164</v>
       </c>
       <c r="W32" t="n">
-        <v>2.91038304567337e-11</v>
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>4382470.631209906</v>
       </c>
     </row>
     <row r="33">
@@ -5602,55 +6657,70 @@
         <v>4382470.631209906</v>
       </c>
       <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
         <v>42000</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
         <v>250008.0345325352</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
       <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
         <v>259519.1198811289</v>
       </c>
-      <c r="L33" t="n">
+      <c r="M33" t="n">
         <v>35700</v>
       </c>
-      <c r="M33" t="n">
+      <c r="N33" t="n">
         <v>272608.6889524738</v>
       </c>
-      <c r="N33" t="n">
+      <c r="O33" t="n">
         <v>51511.08534859371</v>
       </c>
-      <c r="O33" t="n">
+      <c r="P33" t="n">
         <v>259519.1198811289</v>
       </c>
-      <c r="P33" t="n">
-        <v>0</v>
-      </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" t="n">
         <v>259519.1198811289</v>
       </c>
-      <c r="S33" t="n">
+      <c r="T33" t="n">
         <v>306772.9441846934</v>
-      </c>
-      <c r="T33" t="n">
-        <v>4429724.455513471</v>
       </c>
       <c r="U33" t="n">
         <v>4429724.455513471</v>
       </c>
       <c r="V33" t="n">
-        <v>250008.0345325352</v>
+        <v>301519.1198811289</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>4429724.455513471</v>
       </c>
     </row>
     <row r="34">
@@ -5675,55 +6745,70 @@
         <v>4429724.455513471</v>
       </c>
       <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
         <v>42000</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
         <v>257508.2755685113</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
       <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
         <v>269387.8518292469</v>
       </c>
-      <c r="L34" t="n">
+      <c r="M34" t="n">
         <v>35700</v>
       </c>
-      <c r="M34" t="n">
+      <c r="N34" t="n">
         <v>282477.4010863985</v>
       </c>
-      <c r="N34" t="n">
+      <c r="O34" t="n">
         <v>53879.57626073564</v>
       </c>
-      <c r="O34" t="n">
+      <c r="P34" t="n">
         <v>269387.8518292469</v>
       </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
       <c r="Q34" t="n">
         <v>0</v>
       </c>
       <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
         <v>269387.8518292469</v>
       </c>
-      <c r="S34" t="n">
+      <c r="T34" t="n">
         <v>310080.711885943</v>
-      </c>
-      <c r="T34" t="n">
-        <v>4470417.315570167</v>
       </c>
       <c r="U34" t="n">
         <v>4470417.315570167</v>
       </c>
       <c r="V34" t="n">
-        <v>257508.2755685113</v>
+        <v>311387.8518292469</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>4470417.315570167</v>
       </c>
     </row>
     <row r="35">
@@ -5748,55 +6833,70 @@
         <v>4470417.315570167</v>
       </c>
       <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
         <v>42000</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
         <v>265233.5238355666</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
       <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
         <v>279552.6457358084</v>
       </c>
-      <c r="L35" t="n">
+      <c r="M35" t="n">
         <v>35700</v>
       </c>
-      <c r="M35" t="n">
+      <c r="N35" t="n">
         <v>292642.1745843409</v>
       </c>
-      <c r="N35" t="n">
+      <c r="O35" t="n">
         <v>56319.12190024181</v>
       </c>
-      <c r="O35" t="n">
+      <c r="P35" t="n">
         <v>279552.6457358084</v>
       </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
         <v>279552.6457358084</v>
       </c>
-      <c r="S35" t="n">
+      <c r="T35" t="n">
         <v>312929.2120899117</v>
-      </c>
-      <c r="T35" t="n">
-        <v>4503793.881924271</v>
       </c>
       <c r="U35" t="n">
         <v>4503793.881924271</v>
       </c>
       <c r="V35" t="n">
-        <v>265233.5238355666</v>
+        <v>321552.6457358084</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>4503793.881924271</v>
       </c>
     </row>
     <row r="36">
@@ -5821,55 +6921,70 @@
         <v>4503793.881924271</v>
       </c>
       <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
         <v>42000</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
         <v>273190.5295506336</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
       <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
         <v>290022.3834595668</v>
       </c>
-      <c r="L36" t="n">
+      <c r="M36" t="n">
         <v>35700</v>
       </c>
-      <c r="M36" t="n">
+      <c r="N36" t="n">
         <v>303111.8912872216</v>
       </c>
-      <c r="N36" t="n">
+      <c r="O36" t="n">
         <v>58831.85390893318</v>
       </c>
-      <c r="O36" t="n">
+      <c r="P36" t="n">
         <v>290022.3834595668</v>
       </c>
-      <c r="P36" t="n">
-        <v>0</v>
-      </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" t="n">
         <v>290022.3834595668</v>
       </c>
-      <c r="S36" t="n">
+      <c r="T36" t="n">
         <v>315265.571734699</v>
-      </c>
-      <c r="T36" t="n">
-        <v>4529037.070199403</v>
       </c>
       <c r="U36" t="n">
         <v>4529037.070199403</v>
       </c>
       <c r="V36" t="n">
-        <v>273190.5295506336</v>
+        <v>332022.3834595668</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>4529037.070199403</v>
       </c>
     </row>
     <row r="37">
@@ -5894,55 +7009,70 @@
         <v>4529037.070199403</v>
       </c>
       <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
         <v>42000</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
         <v>281386.2454371526</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
       <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
         <v>300806.2133150379</v>
       </c>
-      <c r="L37" t="n">
+      <c r="M37" t="n">
         <v>35700</v>
       </c>
-      <c r="M37" t="n">
+      <c r="N37" t="n">
         <v>313895.6994911886</v>
       </c>
-      <c r="N37" t="n">
+      <c r="O37" t="n">
         <v>61419.96787788527</v>
       </c>
-      <c r="O37" t="n">
+      <c r="P37" t="n">
         <v>300806.2133150379</v>
       </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
       <c r="Q37" t="n">
         <v>0</v>
       </c>
       <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
         <v>300806.2133150379</v>
       </c>
-      <c r="S37" t="n">
+      <c r="T37" t="n">
         <v>317032.5949139582</v>
-      </c>
-      <c r="T37" t="n">
-        <v>4545263.451798324</v>
       </c>
       <c r="U37" t="n">
         <v>4545263.451798324</v>
       </c>
       <c r="V37" t="n">
-        <v>281386.2454371526</v>
+        <v>342806.2133150379</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>4545263.451798324</v>
       </c>
     </row>
   </sheetData>
@@ -6023,7 +7153,7 @@
         <v>3678059.058562703</v>
       </c>
       <c r="G2" t="n">
-        <v>42196.66202593228</v>
+        <v>42196.66202593229</v>
       </c>
     </row>
     <row r="3">
@@ -6048,7 +7178,7 @@
         <v>4545263.451798324</v>
       </c>
       <c r="G3" t="n">
-        <v>47945.78236192087</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6062,7 +7192,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W9"/>
+  <dimension ref="A1:AB9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6103,87 +7233,112 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Taxable_Begin</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>Social_Security</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>RMD</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Spending_Need</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Roth_Conversion</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Additional_Withdrawal</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Taxable_SS</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Taxable_Income</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Federal_Tax</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Total_IRA_Distribution</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Trad_IRA_Growth</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Trad_IRA_End</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Roth_Distribution</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Roth_IRA_Growth</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Roth_IRA_End</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Net_Available</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Surplus_Deficit</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Taxable_Growth</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Taxable_Contribution</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Taxable_Withdrawal</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Taxable_End</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Total_Assets_End</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>Net_Available</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>Surplus_Deficit</t>
         </is>
       </c>
     </row>
@@ -6215,49 +7370,64 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
         <v>100000</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>237979</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>178220.8870018604</v>
       </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>383899.5291744184</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>78220.88700186041</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>416199.8870018604</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>161000</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
         <v>2044800.11299814</v>
       </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
       <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
         <v>16658.53</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>254637.53</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
+        <v>178220.8870018604</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="n">
         <v>2299437.642998139</v>
-      </c>
-      <c r="V2" t="n">
-        <v>337979</v>
-      </c>
-      <c r="W2" t="n">
-        <v>237979</v>
       </c>
     </row>
     <row r="3">
@@ -6288,49 +7458,64 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
         <v>103000</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>234979</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>181220.885099759</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>383899.5212489957</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>78220.88509975898</v>
       </c>
-      <c r="O3" t="n">
+      <c r="P3" t="n">
         <v>416199.885099759</v>
       </c>
-      <c r="P3" t="n">
+      <c r="Q3" t="n">
         <v>143136.0079098698</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="R3" t="n">
         <v>1771736.23580825</v>
       </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
       <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
         <v>34273.1571</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>523889.6871</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
+        <v>181220.885099759</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
         <v>2295625.922908251</v>
-      </c>
-      <c r="V3" t="n">
-        <v>337979</v>
-      </c>
-      <c r="W3" t="n">
-        <v>234979</v>
       </c>
     </row>
     <row r="4">
@@ -6361,49 +7546,64 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>106090</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>231889</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>184310.8832177881</v>
       </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
       <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
         <v>383899.5134074505</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>78220.88321778813</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>416199.8832177881</v>
       </c>
-      <c r="P4" t="n">
+      <c r="Q4" t="n">
         <v>124021.5365065775</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="R4" t="n">
         <v>1479557.88909704</v>
       </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
       <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
         <v>52904.50809700001</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>808683.1951970001</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
+        <v>184310.8832177881</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB4" t="n">
         <v>2288241.08429404</v>
-      </c>
-      <c r="V4" t="n">
-        <v>337979</v>
-      </c>
-      <c r="W4" t="n">
-        <v>231889</v>
       </c>
     </row>
     <row r="5">
@@ -6434,49 +7634,64 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
         <v>109272.7</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>228706.3</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>187493.5813680103</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
       <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
         <v>383899.5057000431</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>78220.88136801033</v>
       </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>416199.8813680103</v>
       </c>
-      <c r="P5" t="n">
+      <c r="Q5" t="n">
         <v>103569.0522367928</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="R5" t="n">
         <v>1166927.059965823</v>
       </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
       <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
         <v>72617.26466379</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>1110006.75986079</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
+        <v>187493.5813680103</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" t="n">
         <v>2276933.819826613</v>
-      </c>
-      <c r="V5" t="n">
-        <v>337979</v>
-      </c>
-      <c r="W5" t="n">
-        <v>228706.3</v>
       </c>
     </row>
     <row r="6">
@@ -6507,49 +7722,64 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
         <v>112550.881</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
         <v>225428.119</v>
       </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>190771.7604627392</v>
       </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
         <v>383899.4977614134</v>
       </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>78220.87946273922</v>
       </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>416199.8794627392</v>
       </c>
-      <c r="P6" t="n">
+      <c r="Q6" t="n">
         <v>81684.89419760759</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="R6" t="n">
         <v>832412.074700691</v>
       </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
       <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
         <v>93480.44152025531</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>1428915.320381045</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
+        <v>190771.7604627392</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" t="n">
         <v>2261327.395081736</v>
-      </c>
-      <c r="V6" t="n">
-        <v>337979</v>
-      </c>
-      <c r="W6" t="n">
-        <v>225428.119</v>
       </c>
     </row>
     <row r="7">
@@ -6574,55 +7804,70 @@
         <v>1428915.320381045</v>
       </c>
       <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
         <v>24000</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
         <v>115927.40743</v>
       </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
         <v>239523.59257</v>
       </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
         <v>176675.0659993084</v>
       </c>
-      <c r="L7" t="n">
+      <c r="M7" t="n">
         <v>20400</v>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
         <v>404295.8080290888</v>
       </c>
-      <c r="N7" t="n">
+      <c r="O7" t="n">
         <v>84747.65856930841</v>
       </c>
-      <c r="O7" t="n">
+      <c r="P7" t="n">
         <v>416198.6585693084</v>
       </c>
-      <c r="P7" t="n">
+      <c r="Q7" t="n">
         <v>58268.84522904838</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="R7" t="n">
         <v>474482.261360431</v>
       </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
       <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
         <v>116790.7239065732</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>1785229.636857619</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
+        <v>200675.0659993084</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" t="n">
         <v>2259711.89821805</v>
-      </c>
-      <c r="V7" t="n">
-        <v>355451</v>
-      </c>
-      <c r="W7" t="n">
-        <v>239523.59257</v>
       </c>
     </row>
     <row r="8">
@@ -6647,55 +7892,70 @@
         <v>1785229.636857619</v>
       </c>
       <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
         <v>24000</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
         <v>119405.2296529</v>
       </c>
-      <c r="J8" t="n">
+      <c r="K8" t="n">
         <v>236045.7703471</v>
       </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
         <v>180152.86619651</v>
       </c>
-      <c r="L8" t="n">
+      <c r="M8" t="n">
         <v>20400</v>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
         <v>404295.7391987813</v>
       </c>
-      <c r="N8" t="n">
+      <c r="O8" t="n">
         <v>84747.63654361</v>
       </c>
-      <c r="O8" t="n">
+      <c r="P8" t="n">
         <v>416198.63654361</v>
       </c>
-      <c r="P8" t="n">
+      <c r="Q8" t="n">
         <v>33213.75829523017</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="R8" t="n">
         <v>91497.38311205123</v>
       </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
       <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
         <v>141489.2785043303</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>2162764.685709049</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
+        <v>204152.86619651</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB8" t="n">
         <v>2254262.0688211</v>
-      </c>
-      <c r="V8" t="n">
-        <v>355451</v>
-      </c>
-      <c r="W8" t="n">
-        <v>236045.7703471</v>
       </c>
     </row>
     <row r="9">
@@ -6720,55 +7980,70 @@
         <v>2162764.685709049</v>
       </c>
       <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
         <v>66000</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
         <v>122987.386542487</v>
       </c>
-      <c r="J9" t="n">
+      <c r="K9" t="n">
         <v>91497.38311205123</v>
       </c>
-      <c r="K9" t="n">
+      <c r="L9" t="n">
         <v>93083.67791227839</v>
       </c>
-      <c r="L9" t="n">
+      <c r="M9" t="n">
         <v>56100</v>
       </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
         <v>208380.380707464</v>
       </c>
-      <c r="N9" t="n">
+      <c r="O9" t="n">
         <v>36096.29136979136</v>
       </c>
-      <c r="O9" t="n">
+      <c r="P9" t="n">
         <v>184581.0610243296</v>
       </c>
-      <c r="P9" t="n">
+      <c r="Q9" t="n">
         <v>6404.816817843587</v>
       </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
       <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
         <v>86678.8610944348</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>157798.344817477</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2325381.552544143</v>
       </c>
       <c r="U9" t="n">
         <v>2325381.552544143</v>
       </c>
       <c r="V9" t="n">
-        <v>214484.7696545382</v>
+        <v>159083.6779122784</v>
       </c>
       <c r="W9" t="n">
-        <v>91497.38311205123</v>
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>2325381.552544143</v>
       </c>
     </row>
   </sheetData>

--- a/roth_conversion_analysis.xlsx
+++ b/roth_conversion_analysis.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB37"/>
+  <dimension ref="A1:AC37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -559,20 +559,25 @@
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
+          <t>Taxable_Cap_Gains_Tax</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
           <t>Taxable_Contribution</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Taxable_Withdrawal</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Taxable_End</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Total_Assets_End</t>
         </is>
@@ -663,6 +668,9 @@
         <v>0</v>
       </c>
       <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="n">
         <v>2352295.480537088</v>
       </c>
     </row>
@@ -751,6 +759,9 @@
         <v>0</v>
       </c>
       <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
         <v>2404842.55502422</v>
       </c>
     </row>
@@ -839,6 +850,9 @@
         <v>0</v>
       </c>
       <c r="AB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="n">
         <v>2457556.562347273</v>
       </c>
     </row>
@@ -927,6 +941,9 @@
         <v>0</v>
       </c>
       <c r="AB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="n">
         <v>2510343.846933416</v>
       </c>
     </row>
@@ -1015,6 +1032,9 @@
         <v>0</v>
       </c>
       <c r="AB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="n">
         <v>2563101.037093579</v>
       </c>
     </row>
@@ -1103,6 +1123,9 @@
         <v>0</v>
       </c>
       <c r="AB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="n">
         <v>2640205.177712596</v>
       </c>
     </row>
@@ -1191,6 +1214,9 @@
         <v>0</v>
       </c>
       <c r="AB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="n">
         <v>2718746.232293935</v>
       </c>
     </row>
@@ -1279,6 +1305,9 @@
         <v>0</v>
       </c>
       <c r="AB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="n">
         <v>2841905.285576762</v>
       </c>
     </row>
@@ -1367,6 +1396,9 @@
         <v>0</v>
       </c>
       <c r="AB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="n">
         <v>2969019.659808199</v>
       </c>
     </row>
@@ -1455,6 +1487,9 @@
         <v>0</v>
       </c>
       <c r="AB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="n">
         <v>3100159.668075207</v>
       </c>
     </row>
@@ -1543,6 +1578,9 @@
         <v>0</v>
       </c>
       <c r="AB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC12" t="n">
         <v>3235461.124384797</v>
       </c>
     </row>
@@ -1622,15 +1660,18 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z13" t="n">
         <v>27467.0535698249</v>
       </c>
-      <c r="Z13" t="n">
-        <v>0</v>
-      </c>
       <c r="AA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB13" t="n">
         <v>27467.0535698249</v>
       </c>
-      <c r="AB13" t="n">
+      <c r="AC13" t="n">
         <v>3367317.584043264</v>
       </c>
     </row>
@@ -1710,16 +1751,19 @@
         <v>1922.693749887743</v>
       </c>
       <c r="Y14" t="n">
+        <v>288.4040624831615</v>
+      </c>
+      <c r="Z14" t="n">
         <v>30242.04518868728</v>
       </c>
-      <c r="Z14" t="n">
-        <v>0</v>
-      </c>
       <c r="AA14" t="n">
-        <v>59631.79250839992</v>
+        <v>0</v>
       </c>
       <c r="AB14" t="n">
-        <v>3502297.329508178</v>
+        <v>59343.38844591676</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>3502008.925445695</v>
       </c>
     </row>
     <row r="15">
@@ -1744,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>59631.79250839992</v>
+        <v>59343.38844591676</v>
       </c>
       <c r="H15" t="n">
         <v>66000</v>
@@ -1795,19 +1839,22 @@
         <v>32962.31641337308</v>
       </c>
       <c r="X15" t="n">
-        <v>4174.225475587995</v>
+        <v>4154.037191214174</v>
       </c>
       <c r="Y15" t="n">
+        <v>623.1055786821261</v>
+      </c>
+      <c r="Z15" t="n">
         <v>32962.31641337308</v>
       </c>
-      <c r="Z15" t="n">
-        <v>0</v>
-      </c>
       <c r="AA15" t="n">
-        <v>96768.334397361</v>
+        <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>3640474.705450548</v>
+        <v>95836.6364718219</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>3639543.007525009</v>
       </c>
     </row>
     <row r="16">
@@ -1832,7 +1879,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>96768.334397361</v>
+        <v>95836.6364718219</v>
       </c>
       <c r="H16" t="n">
         <v>66000</v>
@@ -1883,19 +1930,22 @@
         <v>36027.33846054308</v>
       </c>
       <c r="X16" t="n">
-        <v>6773.783407815271</v>
+        <v>6708.564553027533</v>
       </c>
       <c r="Y16" t="n">
+        <v>1006.28468295413</v>
+      </c>
+      <c r="Z16" t="n">
         <v>36027.33846054308</v>
       </c>
-      <c r="Z16" t="n">
-        <v>0</v>
-      </c>
       <c r="AA16" t="n">
-        <v>139569.4562657194</v>
+        <v>0</v>
       </c>
       <c r="AB16" t="n">
-        <v>3781811.797720765</v>
+        <v>137566.2548024384</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>3779808.596257484</v>
       </c>
     </row>
     <row r="17">
@@ -1920,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>139569.4562657194</v>
+        <v>137566.2548024384</v>
       </c>
       <c r="H17" t="n">
         <v>66000</v>
@@ -1971,19 +2021,22 @@
         <v>38920.16778686392</v>
       </c>
       <c r="X17" t="n">
-        <v>9769.861938600357</v>
+        <v>9629.637836170687</v>
       </c>
       <c r="Y17" t="n">
+        <v>1444.445675425603</v>
+      </c>
+      <c r="Z17" t="n">
         <v>38920.16778686392</v>
       </c>
-      <c r="Z17" t="n">
-        <v>0</v>
-      </c>
       <c r="AA17" t="n">
-        <v>188259.4859911837</v>
+        <v>0</v>
       </c>
       <c r="AB17" t="n">
-        <v>3926408.907441749</v>
+        <v>184671.6147500474</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>3922821.036200612</v>
       </c>
     </row>
     <row r="18">
@@ -2008,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>188259.4859911837</v>
+        <v>184671.6147500474</v>
       </c>
       <c r="H18" t="n">
         <v>66000</v>
@@ -2059,19 +2112,22 @@
         <v>42721.74466882303</v>
       </c>
       <c r="X18" t="n">
-        <v>13178.16401938286</v>
+        <v>12927.01303250332</v>
       </c>
       <c r="Y18" t="n">
+        <v>1939.051954875498</v>
+      </c>
+      <c r="Z18" t="n">
         <v>42721.74466882303</v>
       </c>
-      <c r="Z18" t="n">
-        <v>0</v>
-      </c>
       <c r="AA18" t="n">
-        <v>244159.3946793896</v>
+        <v>0</v>
       </c>
       <c r="AB18" t="n">
-        <v>4074063.392838287</v>
+        <v>238381.3204964983</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>4068285.318655395</v>
       </c>
     </row>
     <row r="19">
@@ -2096,7 +2152,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>244159.3946793896</v>
+        <v>238381.3204964983</v>
       </c>
       <c r="H19" t="n">
         <v>66000</v>
@@ -2147,19 +2203,22 @@
         <v>46867.38552167607</v>
       </c>
       <c r="X19" t="n">
-        <v>17091.15762755727</v>
+        <v>16686.69243475488</v>
       </c>
       <c r="Y19" t="n">
+        <v>2503.003865213232</v>
+      </c>
+      <c r="Z19" t="n">
         <v>46867.38552167607</v>
       </c>
-      <c r="Z19" t="n">
-        <v>0</v>
-      </c>
       <c r="AA19" t="n">
-        <v>308117.9378286229</v>
+        <v>0</v>
       </c>
       <c r="AB19" t="n">
-        <v>4224603.178031207</v>
+        <v>299432.394587716</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>4215917.6347903</v>
       </c>
     </row>
     <row r="20">
@@ -2184,7 +2243,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>308117.9378286229</v>
+        <v>299432.394587716</v>
       </c>
       <c r="H20" t="n">
         <v>66000</v>
@@ -2235,19 +2294,22 @@
         <v>51312.60390343351</v>
       </c>
       <c r="X20" t="n">
-        <v>21568.25564800361</v>
+        <v>20960.26762114012</v>
       </c>
       <c r="Y20" t="n">
+        <v>3144.040143171018</v>
+      </c>
+      <c r="Z20" t="n">
         <v>51312.60390343351</v>
       </c>
-      <c r="Z20" t="n">
-        <v>0</v>
-      </c>
       <c r="AA20" t="n">
-        <v>380998.7973800601</v>
+        <v>0</v>
       </c>
       <c r="AB20" t="n">
-        <v>4377752.596466005</v>
+        <v>368561.2259691185</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>4365315.025055063</v>
       </c>
     </row>
     <row r="21">
@@ -2272,7 +2334,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>380998.7973800601</v>
+        <v>368561.2259691185</v>
       </c>
       <c r="H21" t="n">
         <v>66000</v>
@@ -2323,19 +2385,22 @@
         <v>55426.25486266706</v>
       </c>
       <c r="X21" t="n">
-        <v>26669.91581660421</v>
+        <v>25799.2858178383</v>
       </c>
       <c r="Y21" t="n">
+        <v>3869.892872675745</v>
+      </c>
+      <c r="Z21" t="n">
         <v>55426.25486266706</v>
       </c>
-      <c r="Z21" t="n">
-        <v>0</v>
-      </c>
       <c r="AA21" t="n">
-        <v>463094.9680593314</v>
+        <v>0</v>
       </c>
       <c r="AB21" t="n">
-        <v>4533603.296015006</v>
+        <v>445916.8737769482</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>4516425.201732623</v>
       </c>
     </row>
     <row r="22">
@@ -2360,7 +2425,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>463094.9680593314</v>
+        <v>445916.8737769482</v>
       </c>
       <c r="H22" t="n">
         <v>66000</v>
@@ -2411,19 +2476,22 @@
         <v>60812.75919502138</v>
       </c>
       <c r="X22" t="n">
-        <v>32416.6477641532</v>
+        <v>31214.18116438638</v>
       </c>
       <c r="Y22" t="n">
+        <v>4682.127174657956</v>
+      </c>
+      <c r="Z22" t="n">
         <v>60812.75919502138</v>
       </c>
-      <c r="Z22" t="n">
-        <v>0</v>
-      </c>
       <c r="AA22" t="n">
-        <v>556324.375018506</v>
+        <v>0</v>
       </c>
       <c r="AB22" t="n">
-        <v>4691740.808744285</v>
+        <v>533261.686961698</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>4668678.120687477</v>
       </c>
     </row>
     <row r="23">
@@ -2448,7 +2516,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>556324.375018506</v>
+        <v>533261.686961698</v>
       </c>
       <c r="H23" t="n">
         <v>66000</v>
@@ -2499,19 +2567,22 @@
         <v>65739.44619806678</v>
       </c>
       <c r="X23" t="n">
-        <v>38942.70625129542</v>
+        <v>37328.31808731886</v>
       </c>
       <c r="Y23" t="n">
+        <v>5599.247713097829</v>
+      </c>
+      <c r="Z23" t="n">
         <v>65739.44619806678</v>
       </c>
-      <c r="Z23" t="n">
-        <v>0</v>
-      </c>
       <c r="AA23" t="n">
-        <v>661006.5274678682</v>
+        <v>0</v>
       </c>
       <c r="AB23" t="n">
-        <v>4852262.765016273</v>
+        <v>630730.2035339859</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>4821986.44108239</v>
       </c>
     </row>
     <row r="24">
@@ -2536,7 +2607,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>661006.5274678682</v>
+        <v>630730.2035339859</v>
       </c>
       <c r="H24" t="n">
         <v>66000</v>
@@ -2587,19 +2658,22 @@
         <v>72197.10795539722</v>
       </c>
       <c r="X24" t="n">
-        <v>46270.45692275077</v>
+        <v>44151.11424737902</v>
       </c>
       <c r="Y24" t="n">
+        <v>6622.667137106852</v>
+      </c>
+      <c r="Z24" t="n">
         <v>72197.10795539722</v>
       </c>
-      <c r="Z24" t="n">
-        <v>0</v>
-      </c>
       <c r="AA24" t="n">
-        <v>779474.0923460162</v>
+        <v>0</v>
       </c>
       <c r="AB24" t="n">
-        <v>5014638.728573499</v>
+        <v>740455.7585996552</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>4975620.394827139</v>
       </c>
     </row>
     <row r="25">
@@ -2624,7 +2698,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>779474.0923460162</v>
+        <v>740455.7585996552</v>
       </c>
       <c r="H25" t="n">
         <v>66000</v>
@@ -2675,19 +2749,22 @@
         <v>78014.66910814485</v>
       </c>
       <c r="X25" t="n">
-        <v>54563.18646422114</v>
+        <v>51831.90310197587</v>
       </c>
       <c r="Y25" t="n">
+        <v>7774.78546529638</v>
+      </c>
+      <c r="Z25" t="n">
         <v>78014.66910814485</v>
       </c>
-      <c r="Z25" t="n">
-        <v>0</v>
-      </c>
       <c r="AA25" t="n">
-        <v>912051.9479183822</v>
+        <v>0</v>
       </c>
       <c r="AB25" t="n">
-        <v>5178980.318917572</v>
+        <v>862527.5453444796</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>5129455.916343668</v>
       </c>
     </row>
     <row r="26">
@@ -2712,7 +2789,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>912051.9479183822</v>
+        <v>862527.5453444796</v>
       </c>
       <c r="H26" t="n">
         <v>42000</v>
@@ -2763,19 +2840,22 @@
         <v>42521.70137535152</v>
       </c>
       <c r="X26" t="n">
-        <v>63843.63635428676</v>
+        <v>60376.92817411358</v>
       </c>
       <c r="Y26" t="n">
+        <v>9056.539226117036</v>
+      </c>
+      <c r="Z26" t="n">
         <v>42521.70137535152</v>
       </c>
-      <c r="Z26" t="n">
-        <v>0</v>
-      </c>
       <c r="AA26" t="n">
-        <v>1018417.285648021</v>
+        <v>0</v>
       </c>
       <c r="AB26" t="n">
-        <v>5330046.811010059</v>
+        <v>956369.6356678277</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>5267999.161029866</v>
       </c>
     </row>
     <row r="27">
@@ -2800,7 +2880,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1018417.285648021</v>
+        <v>956369.6356678277</v>
       </c>
       <c r="H27" t="n">
         <v>42000</v>
@@ -2851,19 +2931,22 @@
         <v>48198.00948927522</v>
       </c>
       <c r="X27" t="n">
-        <v>71289.20999536145</v>
+        <v>66945.87449674794</v>
       </c>
       <c r="Y27" t="n">
+        <v>10041.88117451219</v>
+      </c>
+      <c r="Z27" t="n">
         <v>48198.00948927522</v>
       </c>
-      <c r="Z27" t="n">
-        <v>0</v>
-      </c>
       <c r="AA27" t="n">
-        <v>1137904.505132657</v>
+        <v>0</v>
       </c>
       <c r="AB27" t="n">
-        <v>5481871.251934911</v>
+        <v>1061471.638479339</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>5405438.385281593</v>
       </c>
     </row>
     <row r="28">
@@ -2888,7 +2971,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1137904.505132657</v>
+        <v>1061471.638479339</v>
       </c>
       <c r="H28" t="n">
         <v>42000</v>
@@ -2939,19 +3022,22 @@
         <v>54312.61058572843</v>
       </c>
       <c r="X28" t="n">
-        <v>79653.31535928602</v>
+        <v>74303.01469355372</v>
       </c>
       <c r="Y28" t="n">
+        <v>11145.45220403306</v>
+      </c>
+      <c r="Z28" t="n">
         <v>54312.61058572843</v>
       </c>
-      <c r="Z28" t="n">
-        <v>0</v>
-      </c>
       <c r="AA28" t="n">
-        <v>1271870.431077672</v>
+        <v>0</v>
       </c>
       <c r="AB28" t="n">
-        <v>5634127.564182252</v>
+        <v>1178941.811554588</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>5541198.944659168</v>
       </c>
     </row>
     <row r="29">
@@ -2976,7 +3062,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1271870.431077672</v>
+        <v>1178941.811554588</v>
       </c>
       <c r="H29" t="n">
         <v>42000</v>
@@ -3027,19 +3113,22 @@
         <v>60874.73702350364</v>
       </c>
       <c r="X29" t="n">
-        <v>89030.93017543702</v>
+        <v>82525.92680882117</v>
       </c>
       <c r="Y29" t="n">
+        <v>12378.88902132318</v>
+      </c>
+      <c r="Z29" t="n">
         <v>60874.73702350364</v>
       </c>
-      <c r="Z29" t="n">
-        <v>0</v>
-      </c>
       <c r="AA29" t="n">
-        <v>1421776.098276612</v>
+        <v>0</v>
       </c>
       <c r="AB29" t="n">
-        <v>5786456.70756625</v>
+        <v>1309963.58636559</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>5674644.195655228</v>
       </c>
     </row>
     <row r="30">
@@ -3064,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1421776.098276612</v>
+        <v>1309963.58636559</v>
       </c>
       <c r="H30" t="n">
         <v>42000</v>
@@ -3115,19 +3204,22 @@
         <v>66108.89980292518</v>
       </c>
       <c r="X30" t="n">
-        <v>99524.32687936287</v>
+        <v>91697.4510455913</v>
       </c>
       <c r="Y30" t="n">
+        <v>13754.61765683869</v>
+      </c>
+      <c r="Z30" t="n">
         <v>66108.89980292518</v>
       </c>
-      <c r="Z30" t="n">
-        <v>0</v>
-      </c>
       <c r="AA30" t="n">
-        <v>1587409.3249589</v>
+        <v>0</v>
       </c>
       <c r="AB30" t="n">
-        <v>5939027.751403218</v>
+        <v>1454015.319557268</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>5805633.746001586</v>
       </c>
     </row>
     <row r="31">
@@ -3152,7 +3244,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1587409.3249589</v>
+        <v>1454015.319557268</v>
       </c>
       <c r="H31" t="n">
         <v>42000</v>
@@ -3203,19 +3295,22 @@
         <v>73491.26832136279</v>
       </c>
       <c r="X31" t="n">
-        <v>111118.652747123</v>
+        <v>101781.0723690087</v>
       </c>
       <c r="Y31" t="n">
+        <v>15267.16085535131</v>
+      </c>
+      <c r="Z31" t="n">
         <v>73491.26832136279</v>
       </c>
-      <c r="Z31" t="n">
-        <v>0</v>
-      </c>
       <c r="AA31" t="n">
-        <v>1772019.246027386</v>
+        <v>0</v>
       </c>
       <c r="AB31" t="n">
-        <v>6090916.200582938</v>
+        <v>1614020.499392288</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>5932917.453947839</v>
       </c>
     </row>
     <row r="32">
@@ -3240,7 +3335,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1772019.246027386</v>
+        <v>1614020.499392288</v>
       </c>
       <c r="H32" t="n">
         <v>42000</v>
@@ -3291,19 +3386,22 @@
         <v>79093.19267301896</v>
       </c>
       <c r="X32" t="n">
-        <v>124041.3472219171</v>
+        <v>112981.4349574602</v>
       </c>
       <c r="Y32" t="n">
+        <v>16947.21524361903</v>
+      </c>
+      <c r="Z32" t="n">
         <v>79093.19267301896</v>
       </c>
-      <c r="Z32" t="n">
-        <v>0</v>
-      </c>
       <c r="AA32" t="n">
-        <v>1975153.785922322</v>
+        <v>0</v>
       </c>
       <c r="AB32" t="n">
-        <v>6242365.580202046</v>
+        <v>1789147.911779148</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>6056359.706058872</v>
       </c>
     </row>
     <row r="33">
@@ -3328,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1975153.785922322</v>
+        <v>1789147.911779148</v>
       </c>
       <c r="H33" t="n">
         <v>42000</v>
@@ -3379,19 +3477,22 @@
         <v>84752.25417270063</v>
       </c>
       <c r="X33" t="n">
-        <v>138260.7650145626</v>
+        <v>125240.3538245404</v>
       </c>
       <c r="Y33" t="n">
+        <v>18786.05307368106</v>
+      </c>
+      <c r="Z33" t="n">
         <v>84752.25417270063</v>
       </c>
-      <c r="Z33" t="n">
-        <v>0</v>
-      </c>
       <c r="AA33" t="n">
-        <v>2198166.805109586</v>
+        <v>0</v>
       </c>
       <c r="AB33" t="n">
-        <v>6393021.529834132</v>
+        <v>1980354.466702709</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>6175209.191427255</v>
       </c>
     </row>
     <row r="34">
@@ -3416,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2198166.805109586</v>
+        <v>1980354.466702709</v>
       </c>
       <c r="H34" t="n">
         <v>42000</v>
@@ -3467,19 +3568,22 @@
         <v>89050.40709933045</v>
       </c>
       <c r="X34" t="n">
-        <v>153871.676357671</v>
+        <v>138624.8126691896</v>
       </c>
       <c r="Y34" t="n">
+        <v>20793.72190037844</v>
+      </c>
+      <c r="Z34" t="n">
         <v>89050.40709933045</v>
       </c>
-      <c r="Z34" t="n">
-        <v>0</v>
-      </c>
       <c r="AA34" t="n">
-        <v>2441088.888566587</v>
+        <v>0</v>
       </c>
       <c r="AB34" t="n">
-        <v>6541170.96951032</v>
+        <v>2187235.96457085</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>6287318.045514583</v>
       </c>
     </row>
     <row r="35">
@@ -3504,7 +3608,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2441088.888566587</v>
+        <v>2187235.96457085</v>
       </c>
       <c r="H35" t="n">
         <v>42000</v>
@@ -3555,19 +3659,22 @@
         <v>93249.80636658572</v>
       </c>
       <c r="X35" t="n">
-        <v>170876.2221996611</v>
+        <v>153106.5175199595</v>
       </c>
       <c r="Y35" t="n">
+        <v>22965.97762799393</v>
+      </c>
+      <c r="Z35" t="n">
         <v>93249.80636658572</v>
       </c>
-      <c r="Z35" t="n">
-        <v>0</v>
-      </c>
       <c r="AA35" t="n">
-        <v>2705214.917132834</v>
+        <v>0</v>
       </c>
       <c r="AB35" t="n">
-        <v>6686354.02285711</v>
+        <v>2410626.310829401</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>6391765.416553678</v>
       </c>
     </row>
     <row r="36">
@@ -3592,7 +3699,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2705214.917132834</v>
+        <v>2410626.310829401</v>
       </c>
       <c r="H36" t="n">
         <v>42000</v>
@@ -3643,19 +3750,22 @@
         <v>94213.41696436721</v>
       </c>
       <c r="X36" t="n">
-        <v>189365.0441992984</v>
+        <v>168743.8417580581</v>
       </c>
       <c r="Y36" t="n">
+        <v>25311.57626370872</v>
+      </c>
+      <c r="Z36" t="n">
         <v>94213.41696436721</v>
       </c>
-      <c r="Z36" t="n">
-        <v>0</v>
-      </c>
       <c r="AA36" t="n">
-        <v>2988793.3782965</v>
+        <v>0</v>
       </c>
       <c r="AB36" t="n">
-        <v>6829544.947134709</v>
+        <v>2648271.993288118</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>6489023.562126327</v>
       </c>
     </row>
     <row r="37">
@@ -3680,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2988793.3782965</v>
+        <v>2648271.993288118</v>
       </c>
       <c r="H37" t="n">
         <v>42000</v>
@@ -3731,19 +3841,22 @@
         <v>94502.63622689032</v>
       </c>
       <c r="X37" t="n">
-        <v>209215.536480755</v>
+        <v>185379.0395301683</v>
       </c>
       <c r="Y37" t="n">
+        <v>27806.85592952525</v>
+      </c>
+      <c r="Z37" t="n">
         <v>94502.63622689032</v>
       </c>
-      <c r="Z37" t="n">
-        <v>0</v>
-      </c>
       <c r="AA37" t="n">
-        <v>3292511.551004145</v>
+        <v>0</v>
       </c>
       <c r="AB37" t="n">
-        <v>6970570.609566849</v>
+        <v>2900346.813115652</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>6578405.871678355</v>
       </c>
     </row>
   </sheetData>
@@ -3757,7 +3870,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB37"/>
+  <dimension ref="A1:AC37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3888,20 +4001,25 @@
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
+          <t>Taxable_Cap_Gains_Tax</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
           <t>Taxable_Contribution</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Taxable_Withdrawal</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Taxable_End</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Total_Assets_End</t>
         </is>
@@ -3992,6 +4110,9 @@
         <v>0</v>
       </c>
       <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="n">
         <v>2299437.642998139</v>
       </c>
     </row>
@@ -4080,6 +4201,9 @@
         <v>0</v>
       </c>
       <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
         <v>2295625.922908251</v>
       </c>
     </row>
@@ -4168,6 +4292,9 @@
         <v>0</v>
       </c>
       <c r="AB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="n">
         <v>2288241.08429404</v>
       </c>
     </row>
@@ -4256,6 +4383,9 @@
         <v>0</v>
       </c>
       <c r="AB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="n">
         <v>2276933.819826613</v>
       </c>
     </row>
@@ -4344,6 +4474,9 @@
         <v>0</v>
       </c>
       <c r="AB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="n">
         <v>2261327.395081736</v>
       </c>
     </row>
@@ -4432,6 +4565,9 @@
         <v>0</v>
       </c>
       <c r="AB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="n">
         <v>2259711.89821805</v>
       </c>
     </row>
@@ -4520,6 +4656,9 @@
         <v>0</v>
       </c>
       <c r="AB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="n">
         <v>2254262.0688211</v>
       </c>
     </row>
@@ -4608,6 +4747,9 @@
         <v>0</v>
       </c>
       <c r="AB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="n">
         <v>2325381.552544143</v>
       </c>
     </row>
@@ -4696,6 +4838,9 @@
         <v>0</v>
       </c>
       <c r="AB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="n">
         <v>2416339.265463296</v>
       </c>
     </row>
@@ -4784,6 +4929,9 @@
         <v>0</v>
       </c>
       <c r="AB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="n">
         <v>2508791.646126161</v>
       </c>
     </row>
@@ -4872,6 +5020,9 @@
         <v>0</v>
       </c>
       <c r="AB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC12" t="n">
         <v>2602697.340899319</v>
       </c>
     </row>
@@ -4960,6 +5111,9 @@
         <v>0</v>
       </c>
       <c r="AB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC13" t="n">
         <v>2698007.532712142</v>
       </c>
     </row>
@@ -5048,6 +5202,9 @@
         <v>0</v>
       </c>
       <c r="AB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC14" t="n">
         <v>2794665.467953473</v>
       </c>
     </row>
@@ -5136,6 +5293,9 @@
         <v>0</v>
       </c>
       <c r="AB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC15" t="n">
         <v>2892605.769563355</v>
       </c>
     </row>
@@ -5224,6 +5384,9 @@
         <v>0</v>
       </c>
       <c r="AB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC16" t="n">
         <v>2991753.692514636</v>
       </c>
     </row>
@@ -5312,6 +5475,9 @@
         <v>0</v>
       </c>
       <c r="AB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC17" t="n">
         <v>3092024.324308075</v>
       </c>
     </row>
@@ -5400,6 +5566,9 @@
         <v>0</v>
       </c>
       <c r="AB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC18" t="n">
         <v>3193321.725189692</v>
       </c>
     </row>
@@ -5488,6 +5657,9 @@
         <v>0</v>
       </c>
       <c r="AB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC19" t="n">
         <v>3295538.003741536</v>
       </c>
     </row>
@@ -5576,6 +5748,9 @@
         <v>0</v>
       </c>
       <c r="AB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC20" t="n">
         <v>3398552.32318878</v>
       </c>
     </row>
@@ -5664,6 +5839,9 @@
         <v>0</v>
       </c>
       <c r="AB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC21" t="n">
         <v>3502229.833436005</v>
       </c>
     </row>
@@ -5752,6 +5930,9 @@
         <v>0</v>
       </c>
       <c r="AB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC22" t="n">
         <v>3606420.523492369</v>
       </c>
     </row>
@@ -5840,6 +6021,9 @@
         <v>0</v>
       </c>
       <c r="AB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC23" t="n">
         <v>3710957.988567268</v>
       </c>
     </row>
@@ -5928,6 +6112,9 @@
         <v>0</v>
       </c>
       <c r="AB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC24" t="n">
         <v>3815658.105713436</v>
       </c>
     </row>
@@ -6016,6 +6203,9 @@
         <v>0</v>
       </c>
       <c r="AB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC25" t="n">
         <v>3920317.611461343</v>
       </c>
     </row>
@@ -6104,6 +6294,9 @@
         <v>0</v>
       </c>
       <c r="AB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC26" t="n">
         <v>3996705.71095477</v>
       </c>
     </row>
@@ -6192,6 +6385,9 @@
         <v>0</v>
       </c>
       <c r="AB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC27" t="n">
         <v>4070416.796580561</v>
       </c>
     </row>
@@ -6280,6 +6476,9 @@
         <v>0</v>
       </c>
       <c r="AB28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC28" t="n">
         <v>4141022.751943018</v>
       </c>
     </row>
@@ -6368,6 +6567,9 @@
         <v>0</v>
       </c>
       <c r="AB29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC29" t="n">
         <v>4208058.270735992</v>
       </c>
     </row>
@@ -6456,6 +6658,9 @@
         <v>0</v>
       </c>
       <c r="AB30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC30" t="n">
         <v>4271018.036796275</v>
       </c>
     </row>
@@ -6544,6 +6749,9 @@
         <v>0</v>
       </c>
       <c r="AB31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC31" t="n">
         <v>4329353.699007031</v>
       </c>
     </row>
@@ -6632,6 +6840,9 @@
         <v>0</v>
       </c>
       <c r="AB32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC32" t="n">
         <v>4382470.631209906</v>
       </c>
     </row>
@@ -6720,6 +6931,9 @@
         <v>0</v>
       </c>
       <c r="AB33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC33" t="n">
         <v>4429724.455513471</v>
       </c>
     </row>
@@ -6808,6 +7022,9 @@
         <v>0</v>
       </c>
       <c r="AB34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC34" t="n">
         <v>4470417.315570167</v>
       </c>
     </row>
@@ -6896,6 +7113,9 @@
         <v>0</v>
       </c>
       <c r="AB35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC35" t="n">
         <v>4503793.881924271</v>
       </c>
     </row>
@@ -6984,6 +7204,9 @@
         <v>0</v>
       </c>
       <c r="AB36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC36" t="n">
         <v>4529037.070199403</v>
       </c>
     </row>
@@ -7072,6 +7295,9 @@
         <v>0</v>
       </c>
       <c r="AB37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC37" t="n">
         <v>4545263.451798324</v>
       </c>
     </row>
@@ -7192,7 +7418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB9"/>
+  <dimension ref="A1:AC9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7323,20 +7549,25 @@
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
+          <t>Taxable_Cap_Gains_Tax</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
           <t>Taxable_Contribution</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Taxable_Withdrawal</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Taxable_End</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Total_Assets_End</t>
         </is>
@@ -7427,6 +7658,9 @@
         <v>0</v>
       </c>
       <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="n">
         <v>2299437.642998139</v>
       </c>
     </row>
@@ -7515,6 +7749,9 @@
         <v>0</v>
       </c>
       <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
         <v>2295625.922908251</v>
       </c>
     </row>
@@ -7603,6 +7840,9 @@
         <v>0</v>
       </c>
       <c r="AB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="n">
         <v>2288241.08429404</v>
       </c>
     </row>
@@ -7691,6 +7931,9 @@
         <v>0</v>
       </c>
       <c r="AB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="n">
         <v>2276933.819826613</v>
       </c>
     </row>
@@ -7779,6 +8022,9 @@
         <v>0</v>
       </c>
       <c r="AB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="n">
         <v>2261327.395081736</v>
       </c>
     </row>
@@ -7867,6 +8113,9 @@
         <v>0</v>
       </c>
       <c r="AB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="n">
         <v>2259711.89821805</v>
       </c>
     </row>
@@ -7955,6 +8204,9 @@
         <v>0</v>
       </c>
       <c r="AB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="n">
         <v>2254262.0688211</v>
       </c>
     </row>
@@ -8043,6 +8295,9 @@
         <v>0</v>
       </c>
       <c r="AB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="n">
         <v>2325381.552544143</v>
       </c>
     </row>

--- a/roth_conversion_analysis.xlsx
+++ b/roth_conversion_analysis.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC37"/>
+  <dimension ref="A1:AD37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,70 +514,75 @@
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
+          <t>IRMAA_Premium</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
           <t>Total_IRA_Distribution</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Trad_IRA_Growth</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Trad_IRA_End</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Roth_Distribution</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Roth_IRA_Growth</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Roth_IRA_End</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Net_Available</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Surplus_Deficit</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Taxable_Growth</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Taxable_Cap_Gains_Tax</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Taxable_Contribution</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Taxable_Withdrawal</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Taxable_End</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Total_Assets_End</t>
         </is>
@@ -632,17 +637,17 @@
         <v>8704.519462912001</v>
       </c>
       <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
         <v>108704.519462912</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
         <v>161000</v>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>2352295.480537088</v>
       </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
@@ -650,11 +655,11 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
         <v>108704.519462912</v>
       </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
@@ -671,6 +676,9 @@
         <v>0</v>
       </c>
       <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
         <v>2352295.480537088</v>
       </c>
     </row>
@@ -723,17 +731,17 @@
         <v>9113.609150463999</v>
       </c>
       <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>112113.609150464</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="R3" t="n">
         <v>164660.6836375962</v>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>2404842.55502422</v>
       </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
@@ -741,11 +749,11 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
         <v>112113.609150464</v>
       </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
@@ -762,6 +770,9 @@
         <v>0</v>
       </c>
       <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
         <v>2404842.55502422</v>
       </c>
     </row>
@@ -814,17 +825,17 @@
         <v>9534.97152864256</v>
       </c>
       <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
         <v>115624.9715286426</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="R4" t="n">
         <v>168338.9788516954</v>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>2457556.562347273</v>
       </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
@@ -832,11 +843,11 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
         <v>115624.9715286426</v>
       </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
@@ -853,6 +864,9 @@
         <v>0</v>
       </c>
       <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
         <v>2457556.562347273</v>
       </c>
     </row>
@@ -905,17 +919,17 @@
         <v>9968.974778166476</v>
       </c>
       <c r="P5" t="n">
+        <v>2640</v>
+      </c>
+      <c r="Q5" t="n">
         <v>119241.6747781665</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="R5" t="n">
         <v>172028.9593643092</v>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>2510343.846933416</v>
       </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
@@ -923,11 +937,11 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
         <v>119241.6747781665</v>
       </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
@@ -944,6 +958,9 @@
         <v>0</v>
       </c>
       <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
         <v>2510343.846933416</v>
       </c>
     </row>
@@ -996,17 +1013,17 @@
         <v>10415.99812517611</v>
       </c>
       <c r="P6" t="n">
+        <v>2640</v>
+      </c>
+      <c r="Q6" t="n">
         <v>122966.8791251761</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="R6" t="n">
         <v>175724.0692853392</v>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>2563101.037093579</v>
       </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
@@ -1014,11 +1031,11 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
         <v>122966.8791251761</v>
       </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
@@ -1035,6 +1052,9 @@
         <v>0</v>
       </c>
       <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
         <v>2563101.037093579</v>
       </c>
     </row>
@@ -1087,17 +1107,17 @@
         <v>10385.52454753364</v>
       </c>
       <c r="P7" t="n">
+        <v>5280</v>
+      </c>
+      <c r="Q7" t="n">
         <v>102312.9319775336</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="R7" t="n">
         <v>179417.0725965506</v>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>2640205.177712596</v>
       </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
@@ -1105,11 +1125,11 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
         <v>126312.9319775336</v>
       </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
@@ -1126,6 +1146,9 @@
         <v>0</v>
       </c>
       <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
         <v>2640205.177712596</v>
       </c>
     </row>
@@ -1178,17 +1201,17 @@
         <v>10868.07820564332</v>
       </c>
       <c r="P8" t="n">
+        <v>5280</v>
+      </c>
+      <c r="Q8" t="n">
         <v>106273.3078585433</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="R8" t="n">
         <v>184814.3624398818</v>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>2718746.232293935</v>
       </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
@@ -1196,11 +1219,11 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
         <v>130273.3078585433</v>
       </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
@@ -1217,6 +1240,9 @@
         <v>0</v>
       </c>
       <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
         <v>2718746.232293935</v>
       </c>
     </row>
@@ -1269,17 +1295,17 @@
         <v>10165.79643526198</v>
       </c>
       <c r="P9" t="n">
+        <v>5280</v>
+      </c>
+      <c r="Q9" t="n">
         <v>67153.18297774901</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="R9" t="n">
         <v>190312.2362605755</v>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>2841905.285576762</v>
       </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
@@ -1287,11 +1313,11 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
         <v>133153.182977749</v>
       </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
@@ -1308,6 +1334,9 @@
         <v>0</v>
       </c>
       <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
         <v>2841905.285576762</v>
       </c>
     </row>
@@ -1360,17 +1389,17 @@
         <v>11141.98762017463</v>
       </c>
       <c r="P10" t="n">
+        <v>5280</v>
+      </c>
+      <c r="Q10" t="n">
         <v>71818.99575893627</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="R10" t="n">
         <v>198933.3699903734</v>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>2969019.659808199</v>
       </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
@@ -1378,11 +1407,11 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
         <v>137818.9957589363</v>
       </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
@@ -1399,6 +1428,9 @@
         <v>0</v>
       </c>
       <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
         <v>2969019.659808199</v>
       </c>
     </row>
@@ -1451,17 +1483,17 @@
         <v>12214.04953664177</v>
       </c>
       <c r="P11" t="n">
+        <v>5280</v>
+      </c>
+      <c r="Q11" t="n">
         <v>76691.36791956626</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="R11" t="n">
         <v>207831.3761865739</v>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>3100159.668075207</v>
       </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
@@ -1469,11 +1501,11 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
         <v>142691.3679195663</v>
       </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
@@ -1490,6 +1522,9 @@
         <v>0</v>
       </c>
       <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
         <v>3100159.668075207</v>
       </c>
     </row>
@@ -1542,17 +1577,17 @@
         <v>13318.08252126195</v>
       </c>
       <c r="P12" t="n">
+        <v>5280</v>
+      </c>
+      <c r="Q12" t="n">
         <v>81709.72045567416</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="R12" t="n">
         <v>217011.1767652645</v>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>3235461.124384797</v>
       </c>
-      <c r="S12" t="n">
-        <v>0</v>
-      </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
@@ -1560,11 +1595,11 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
         <v>147709.7204556742</v>
       </c>
-      <c r="W12" t="n">
-        <v>0</v>
-      </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
@@ -1581,6 +1616,9 @@
         <v>0</v>
       </c>
       <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
         <v>3235461.124384797</v>
       </c>
     </row>
@@ -1633,17 +1671,17 @@
         <v>22202.43197602473</v>
       </c>
       <c r="P13" t="n">
+        <v>5280</v>
+      </c>
+      <c r="Q13" t="n">
         <v>122092.8726182942</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="R13" t="n">
         <v>226482.2787069358</v>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>3339850.530473439</v>
       </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
@@ -1651,27 +1689,30 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
         <v>188092.8726182942</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>27467.0535698249</v>
       </c>
-      <c r="X13" t="n">
-        <v>0</v>
-      </c>
       <c r="Y13" t="n">
         <v>0</v>
       </c>
       <c r="Z13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA13" t="n">
         <v>27467.0535698249</v>
       </c>
-      <c r="AA13" t="n">
-        <v>0</v>
-      </c>
       <c r="AB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC13" t="n">
         <v>27467.0535698249</v>
       </c>
-      <c r="AC13" t="n">
+      <c r="AD13" t="n">
         <v>3367317.584043264</v>
       </c>
     </row>
@@ -1724,17 +1765,17 @@
         <v>24156.39673349634</v>
       </c>
       <c r="P14" t="n">
+        <v>5280</v>
+      </c>
+      <c r="Q14" t="n">
         <v>130974.5306068015</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="R14" t="n">
         <v>233789.5371331408</v>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>3442665.536999778</v>
       </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
@@ -1742,27 +1783,30 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
         <v>196974.5306068015</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>30242.04518868728</v>
       </c>
-      <c r="X14" t="n">
+      <c r="Y14" t="n">
         <v>1922.693749887743</v>
       </c>
-      <c r="Y14" t="n">
+      <c r="Z14" t="n">
         <v>288.4040624831615</v>
       </c>
-      <c r="Z14" t="n">
+      <c r="AA14" t="n">
         <v>30242.04518868728</v>
       </c>
-      <c r="AA14" t="n">
-        <v>0</v>
-      </c>
       <c r="AB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC14" t="n">
         <v>59343.38844591676</v>
       </c>
-      <c r="AC14" t="n">
+      <c r="AD14" t="n">
         <v>3502008.925445695</v>
       </c>
     </row>
@@ -1815,17 +1859,17 @@
         <v>26130.0657780468</v>
       </c>
       <c r="P15" t="n">
+        <v>5280</v>
+      </c>
+      <c r="Q15" t="n">
         <v>139945.7535365763</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="R15" t="n">
         <v>240986.5875899845</v>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>3543706.371053187</v>
       </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
@@ -1833,27 +1877,30 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
         <v>205945.7535365763</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>32962.31641337308</v>
       </c>
-      <c r="X15" t="n">
+      <c r="Y15" t="n">
         <v>4154.037191214174</v>
       </c>
-      <c r="Y15" t="n">
+      <c r="Z15" t="n">
         <v>623.1055786821261</v>
       </c>
-      <c r="Z15" t="n">
+      <c r="AA15" t="n">
         <v>32962.31641337308</v>
       </c>
-      <c r="AA15" t="n">
-        <v>0</v>
-      </c>
       <c r="AB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC15" t="n">
         <v>95836.6364718219</v>
       </c>
-      <c r="AC15" t="n">
+      <c r="AD15" t="n">
         <v>3639543.007525009</v>
       </c>
     </row>
@@ -1906,17 +1953,17 @@
         <v>28237.16462581018</v>
       </c>
       <c r="P16" t="n">
+        <v>5280</v>
+      </c>
+      <c r="Q16" t="n">
         <v>149523.4755718644</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="R16" t="n">
         <v>248059.4459737231</v>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>3642242.341455046</v>
       </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
@@ -1924,27 +1971,30 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
         <v>215523.4755718644</v>
       </c>
-      <c r="W16" t="n">
+      <c r="X16" t="n">
         <v>36027.33846054308</v>
       </c>
-      <c r="X16" t="n">
+      <c r="Y16" t="n">
         <v>6708.564553027533</v>
       </c>
-      <c r="Y16" t="n">
+      <c r="Z16" t="n">
         <v>1006.28468295413</v>
       </c>
-      <c r="Z16" t="n">
+      <c r="AA16" t="n">
         <v>36027.33846054308</v>
       </c>
-      <c r="AA16" t="n">
-        <v>0</v>
-      </c>
       <c r="AB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC16" t="n">
         <v>137566.2548024384</v>
       </c>
-      <c r="AC16" t="n">
+      <c r="AD16" t="n">
         <v>3779808.596257484</v>
       </c>
     </row>
@@ -1997,17 +2047,17 @@
         <v>30332.97445939346</v>
       </c>
       <c r="P17" t="n">
+        <v>5280</v>
+      </c>
+      <c r="Q17" t="n">
         <v>159049.8839063339</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="R17" t="n">
         <v>254956.9639018532</v>
       </c>
-      <c r="R17" t="n">
+      <c r="S17" t="n">
         <v>3738149.421450565</v>
       </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
@@ -2015,27 +2065,30 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
         <v>225049.8839063339</v>
       </c>
-      <c r="W17" t="n">
+      <c r="X17" t="n">
         <v>38920.16778686392</v>
       </c>
-      <c r="X17" t="n">
+      <c r="Y17" t="n">
         <v>9629.637836170687</v>
       </c>
-      <c r="Y17" t="n">
+      <c r="Z17" t="n">
         <v>1444.445675425603</v>
       </c>
-      <c r="Z17" t="n">
+      <c r="AA17" t="n">
         <v>38920.16778686392</v>
       </c>
-      <c r="AA17" t="n">
-        <v>0</v>
-      </c>
       <c r="AB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC17" t="n">
         <v>184671.6147500474</v>
       </c>
-      <c r="AC17" t="n">
+      <c r="AD17" t="n">
         <v>3922821.036200612</v>
       </c>
     </row>
@@ -2088,17 +2141,17 @@
         <v>32723.49421450565</v>
       </c>
       <c r="P18" t="n">
+        <v>5280</v>
+      </c>
+      <c r="Q18" t="n">
         <v>169915.8827932075</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="R18" t="n">
         <v>261670.4595015396</v>
       </c>
-      <c r="R18" t="n">
+      <c r="S18" t="n">
         <v>3829903.998158897</v>
       </c>
-      <c r="S18" t="n">
-        <v>0</v>
-      </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
@@ -2106,27 +2159,30 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
         <v>235915.8827932075</v>
       </c>
-      <c r="W18" t="n">
+      <c r="X18" t="n">
         <v>42721.74466882303</v>
       </c>
-      <c r="X18" t="n">
+      <c r="Y18" t="n">
         <v>12927.01303250332</v>
       </c>
-      <c r="Y18" t="n">
+      <c r="Z18" t="n">
         <v>1939.051954875498</v>
       </c>
-      <c r="Z18" t="n">
+      <c r="AA18" t="n">
         <v>42721.74466882303</v>
       </c>
-      <c r="AA18" t="n">
-        <v>0</v>
-      </c>
       <c r="AB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC18" t="n">
         <v>238381.3204964983</v>
       </c>
-      <c r="AC18" t="n">
+      <c r="AD18" t="n">
         <v>4068285.318655395</v>
       </c>
     </row>
@@ -2179,17 +2235,17 @@
         <v>35359.88907858461</v>
       </c>
       <c r="P19" t="n">
+        <v>5280</v>
+      </c>
+      <c r="Q19" t="n">
         <v>181512.0378274359</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="R19" t="n">
         <v>268093.2798711229</v>
       </c>
-      <c r="R19" t="n">
+      <c r="S19" t="n">
         <v>3916485.240202584</v>
       </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
@@ -2197,27 +2253,30 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
         <v>247512.0378274359</v>
       </c>
-      <c r="W19" t="n">
+      <c r="X19" t="n">
         <v>46867.38552167607</v>
       </c>
-      <c r="X19" t="n">
+      <c r="Y19" t="n">
         <v>16686.69243475488</v>
       </c>
-      <c r="Y19" t="n">
+      <c r="Z19" t="n">
         <v>2503.003865213232</v>
       </c>
-      <c r="Z19" t="n">
+      <c r="AA19" t="n">
         <v>46867.38552167607</v>
       </c>
-      <c r="AA19" t="n">
-        <v>0</v>
-      </c>
       <c r="AB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC19" t="n">
         <v>299432.394587716</v>
       </c>
-      <c r="AC19" t="n">
+      <c r="AD19" t="n">
         <v>4215917.6347903</v>
       </c>
     </row>
@@ -2270,17 +2329,17 @@
         <v>38329.49790339704</v>
       </c>
       <c r="P20" t="n">
+        <v>5280</v>
+      </c>
+      <c r="Q20" t="n">
         <v>193885.407930821</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="R20" t="n">
         <v>274153.966814181</v>
       </c>
-      <c r="R20" t="n">
+      <c r="S20" t="n">
         <v>3996753.799085944</v>
       </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
@@ -2288,27 +2347,30 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
         <v>259885.407930821</v>
       </c>
-      <c r="W20" t="n">
+      <c r="X20" t="n">
         <v>51312.60390343351</v>
       </c>
-      <c r="X20" t="n">
+      <c r="Y20" t="n">
         <v>20960.26762114012</v>
       </c>
-      <c r="Y20" t="n">
+      <c r="Z20" t="n">
         <v>3144.040143171018</v>
       </c>
-      <c r="Z20" t="n">
+      <c r="AA20" t="n">
         <v>51312.60390343351</v>
       </c>
-      <c r="AA20" t="n">
-        <v>0</v>
-      </c>
       <c r="AB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC20" t="n">
         <v>368561.2259691185</v>
       </c>
-      <c r="AC20" t="n">
+      <c r="AD20" t="n">
         <v>4365315.025055063</v>
       </c>
     </row>
@@ -2361,17 +2423,17 @@
         <v>41241.37689590859</v>
       </c>
       <c r="P21" t="n">
+        <v>5280</v>
+      </c>
+      <c r="Q21" t="n">
         <v>206018.2370662858</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="R21" t="n">
         <v>279772.7659360162</v>
       </c>
-      <c r="R21" t="n">
+      <c r="S21" t="n">
         <v>4070508.327955675</v>
       </c>
-      <c r="S21" t="n">
-        <v>0</v>
-      </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
@@ -2379,27 +2441,30 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
         <v>272018.2370662858</v>
       </c>
-      <c r="W21" t="n">
+      <c r="X21" t="n">
         <v>55426.25486266706</v>
       </c>
-      <c r="X21" t="n">
+      <c r="Y21" t="n">
         <v>25799.2858178383</v>
       </c>
-      <c r="Y21" t="n">
+      <c r="Z21" t="n">
         <v>3869.892872675745</v>
       </c>
-      <c r="Z21" t="n">
+      <c r="AA21" t="n">
         <v>55426.25486266706</v>
       </c>
-      <c r="AA21" t="n">
-        <v>0</v>
-      </c>
       <c r="AB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC21" t="n">
         <v>445916.8737769482</v>
       </c>
-      <c r="AC21" t="n">
+      <c r="AD21" t="n">
         <v>4516425.201732623</v>
       </c>
     </row>
@@ -2452,17 +2517,17 @@
         <v>44603.59452483038</v>
       </c>
       <c r="P22" t="n">
+        <v>7365.6</v>
+      </c>
+      <c r="Q22" t="n">
         <v>220027.4771867933</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="R22" t="n">
         <v>284935.5829568973</v>
       </c>
-      <c r="R22" t="n">
+      <c r="S22" t="n">
         <v>4135416.433725779</v>
       </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
@@ -2470,27 +2535,30 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
         <v>286027.4771867932</v>
       </c>
-      <c r="W22" t="n">
+      <c r="X22" t="n">
         <v>60812.75919502138</v>
       </c>
-      <c r="X22" t="n">
+      <c r="Y22" t="n">
         <v>31214.18116438638</v>
       </c>
-      <c r="Y22" t="n">
+      <c r="Z22" t="n">
         <v>4682.127174657956</v>
       </c>
-      <c r="Z22" t="n">
+      <c r="AA22" t="n">
         <v>60812.75919502138</v>
       </c>
-      <c r="AA22" t="n">
-        <v>0</v>
-      </c>
       <c r="AB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC22" t="n">
         <v>533261.686961698</v>
       </c>
-      <c r="AC22" t="n">
+      <c r="AD22" t="n">
         <v>4668678.120687477</v>
       </c>
     </row>
@@ -2543,17 +2611,17 @@
         <v>47870.4431691631</v>
       </c>
       <c r="P23" t="n">
+        <v>7365.6</v>
+      </c>
+      <c r="Q23" t="n">
         <v>233639.3465381796</v>
       </c>
-      <c r="Q23" t="n">
+      <c r="R23" t="n">
         <v>289479.1503608046</v>
       </c>
-      <c r="R23" t="n">
+      <c r="S23" t="n">
         <v>4191256.237548404</v>
       </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
@@ -2561,27 +2629,30 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
         <v>299639.3465381796</v>
       </c>
-      <c r="W23" t="n">
+      <c r="X23" t="n">
         <v>65739.44619806678</v>
       </c>
-      <c r="X23" t="n">
+      <c r="Y23" t="n">
         <v>37328.31808731886</v>
       </c>
-      <c r="Y23" t="n">
+      <c r="Z23" t="n">
         <v>5599.247713097829</v>
       </c>
-      <c r="Z23" t="n">
+      <c r="AA23" t="n">
         <v>65739.44619806678</v>
       </c>
-      <c r="AA23" t="n">
-        <v>0</v>
-      </c>
       <c r="AB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC23" t="n">
         <v>630730.2035339859</v>
       </c>
-      <c r="AC23" t="n">
+      <c r="AD23" t="n">
         <v>4821986.44108239</v>
       </c>
     </row>
@@ -2634,17 +2705,17 @@
         <v>51672.08910783436</v>
       </c>
       <c r="P24" t="n">
+        <v>7365.6</v>
+      </c>
+      <c r="Q24" t="n">
         <v>249479.5379493098</v>
       </c>
-      <c r="Q24" t="n">
+      <c r="R24" t="n">
         <v>293387.9366283884</v>
       </c>
-      <c r="R24" t="n">
+      <c r="S24" t="n">
         <v>4235164.636227483</v>
       </c>
-      <c r="S24" t="n">
-        <v>0</v>
-      </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
@@ -2652,27 +2723,30 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
         <v>315479.5379493098</v>
       </c>
-      <c r="W24" t="n">
+      <c r="X24" t="n">
         <v>72197.10795539722</v>
       </c>
-      <c r="X24" t="n">
+      <c r="Y24" t="n">
         <v>44151.11424737902</v>
       </c>
-      <c r="Y24" t="n">
+      <c r="Z24" t="n">
         <v>6622.667137106852</v>
       </c>
-      <c r="Z24" t="n">
+      <c r="AA24" t="n">
         <v>72197.10795539722</v>
       </c>
-      <c r="AA24" t="n">
-        <v>0</v>
-      </c>
       <c r="AB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC24" t="n">
         <v>740455.7585996552</v>
       </c>
-      <c r="AC24" t="n">
+      <c r="AD24" t="n">
         <v>4975620.394827139</v>
       </c>
     </row>
@@ -2725,17 +2799,17 @@
         <v>55324.46954341224</v>
       </c>
       <c r="P25" t="n">
+        <v>7365.6</v>
+      </c>
+      <c r="Q25" t="n">
         <v>264697.7897642177</v>
       </c>
-      <c r="Q25" t="n">
+      <c r="R25" t="n">
         <v>296461.5245359238</v>
       </c>
-      <c r="R25" t="n">
+      <c r="S25" t="n">
         <v>4266928.370999189</v>
       </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
@@ -2743,27 +2817,30 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
         <v>330697.7897642177</v>
       </c>
-      <c r="W25" t="n">
+      <c r="X25" t="n">
         <v>78014.66910814485</v>
       </c>
-      <c r="X25" t="n">
+      <c r="Y25" t="n">
         <v>51831.90310197587</v>
       </c>
-      <c r="Y25" t="n">
+      <c r="Z25" t="n">
         <v>7774.78546529638</v>
       </c>
-      <c r="Z25" t="n">
+      <c r="AA25" t="n">
         <v>78014.66910814485</v>
       </c>
-      <c r="AA25" t="n">
-        <v>0</v>
-      </c>
       <c r="AB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC25" t="n">
         <v>862527.5453444796</v>
       </c>
-      <c r="AC25" t="n">
+      <c r="AD25" t="n">
         <v>5129455.916343668</v>
       </c>
     </row>
@@ -2816,17 +2893,17 @@
         <v>50182.71958570271</v>
       </c>
       <c r="P26" t="n">
+        <v>5259.6</v>
+      </c>
+      <c r="Q26" t="n">
         <v>253983.8316070946</v>
       </c>
-      <c r="Q26" t="n">
+      <c r="R26" t="n">
         <v>298684.9859699433</v>
       </c>
-      <c r="R26" t="n">
+      <c r="S26" t="n">
         <v>4311629.525362038</v>
       </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
@@ -2834,27 +2911,30 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
         <v>295983.8316070946</v>
       </c>
-      <c r="W26" t="n">
+      <c r="X26" t="n">
         <v>42521.70137535152</v>
       </c>
-      <c r="X26" t="n">
+      <c r="Y26" t="n">
         <v>60376.92817411358</v>
       </c>
-      <c r="Y26" t="n">
+      <c r="Z26" t="n">
         <v>9056.539226117036</v>
       </c>
-      <c r="Z26" t="n">
+      <c r="AA26" t="n">
         <v>42521.70137535152</v>
       </c>
-      <c r="AA26" t="n">
-        <v>0</v>
-      </c>
       <c r="AB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC26" t="n">
         <v>956369.6356678277</v>
       </c>
-      <c r="AC26" t="n">
+      <c r="AD26" t="n">
         <v>5267999.161029866</v>
       </c>
     </row>
@@ -2907,17 +2987,17 @@
         <v>53901.04288043057</v>
       </c>
       <c r="P27" t="n">
+        <v>3682.8</v>
+      </c>
+      <c r="Q27" t="n">
         <v>269476.8453351274</v>
       </c>
-      <c r="Q27" t="n">
+      <c r="R27" t="n">
         <v>301814.0667753427</v>
       </c>
-      <c r="R27" t="n">
+      <c r="S27" t="n">
         <v>4343966.746802254</v>
       </c>
-      <c r="S27" t="n">
-        <v>0</v>
-      </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
@@ -2925,27 +3005,30 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
         <v>311476.8453351274</v>
       </c>
-      <c r="W27" t="n">
+      <c r="X27" t="n">
         <v>48198.00948927522</v>
       </c>
-      <c r="X27" t="n">
+      <c r="Y27" t="n">
         <v>66945.87449674794</v>
       </c>
-      <c r="Y27" t="n">
+      <c r="Z27" t="n">
         <v>10041.88117451219</v>
       </c>
-      <c r="Z27" t="n">
+      <c r="AA27" t="n">
         <v>48198.00948927522</v>
       </c>
-      <c r="AA27" t="n">
-        <v>0</v>
-      </c>
       <c r="AB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC27" t="n">
         <v>1061471.638479339</v>
       </c>
-      <c r="AC27" t="n">
+      <c r="AD27" t="n">
         <v>5405438.385281593</v>
       </c>
     </row>
@@ -2998,17 +3081,17 @@
         <v>57815.54863371979</v>
       </c>
       <c r="P28" t="n">
+        <v>5259.6</v>
+      </c>
+      <c r="Q28" t="n">
         <v>285787.2859738325</v>
       </c>
-      <c r="Q28" t="n">
+      <c r="R28" t="n">
         <v>304077.6722761578</v>
       </c>
-      <c r="R28" t="n">
+      <c r="S28" t="n">
         <v>4362257.13310458</v>
       </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
@@ -3016,27 +3099,30 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
         <v>327787.2859738325</v>
       </c>
-      <c r="W28" t="n">
+      <c r="X28" t="n">
         <v>54312.61058572843</v>
       </c>
-      <c r="X28" t="n">
+      <c r="Y28" t="n">
         <v>74303.01469355372</v>
       </c>
-      <c r="Y28" t="n">
+      <c r="Z28" t="n">
         <v>11145.45220403306</v>
       </c>
-      <c r="Z28" t="n">
+      <c r="AA28" t="n">
         <v>54312.61058572843</v>
       </c>
-      <c r="AA28" t="n">
-        <v>0</v>
-      </c>
       <c r="AB28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC28" t="n">
         <v>1178941.811554588</v>
       </c>
-      <c r="AC28" t="n">
+      <c r="AD28" t="n">
         <v>5541198.944659168</v>
       </c>
     </row>
@@ -3089,17 +3175,17 @@
         <v>61930.88555174299</v>
       </c>
       <c r="P29" t="n">
+        <v>5259.6</v>
+      </c>
+      <c r="Q29" t="n">
         <v>302934.5231322625</v>
       </c>
-      <c r="Q29" t="n">
+      <c r="R29" t="n">
         <v>305357.9993173206</v>
       </c>
-      <c r="R29" t="n">
+      <c r="S29" t="n">
         <v>4364680.609289638</v>
       </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
@@ -3107,27 +3193,30 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
         <v>344934.5231322625</v>
       </c>
-      <c r="W29" t="n">
+      <c r="X29" t="n">
         <v>60874.73702350364</v>
       </c>
-      <c r="X29" t="n">
+      <c r="Y29" t="n">
         <v>82525.92680882117</v>
       </c>
-      <c r="Y29" t="n">
+      <c r="Z29" t="n">
         <v>12378.88902132318</v>
       </c>
-      <c r="Z29" t="n">
+      <c r="AA29" t="n">
         <v>60874.73702350364</v>
       </c>
-      <c r="AA29" t="n">
-        <v>0</v>
-      </c>
       <c r="AB29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC29" t="n">
         <v>1309963.58636559</v>
       </c>
-      <c r="AC29" t="n">
+      <c r="AD29" t="n">
         <v>5674644.195655228</v>
       </c>
     </row>
@@ -3180,17 +3269,17 @@
         <v>65688.15811894256</v>
       </c>
       <c r="P30" t="n">
+        <v>5259.6</v>
+      </c>
+      <c r="Q30" t="n">
         <v>318589.825495594</v>
       </c>
-      <c r="Q30" t="n">
+      <c r="R30" t="n">
         <v>305527.6426502747</v>
       </c>
-      <c r="R30" t="n">
+      <c r="S30" t="n">
         <v>4351618.426444318</v>
       </c>
-      <c r="S30" t="n">
-        <v>0</v>
-      </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
@@ -3198,27 +3287,30 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
         <v>360589.825495594</v>
       </c>
-      <c r="W30" t="n">
+      <c r="X30" t="n">
         <v>66108.89980292518</v>
       </c>
-      <c r="X30" t="n">
+      <c r="Y30" t="n">
         <v>91697.4510455913</v>
       </c>
-      <c r="Y30" t="n">
+      <c r="Z30" t="n">
         <v>13754.61765683869</v>
       </c>
-      <c r="Z30" t="n">
+      <c r="AA30" t="n">
         <v>66108.89980292518</v>
       </c>
-      <c r="AA30" t="n">
-        <v>0</v>
-      </c>
       <c r="AB30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC30" t="n">
         <v>1454015.319557268</v>
       </c>
-      <c r="AC30" t="n">
+      <c r="AD30" t="n">
         <v>5805633.746001586</v>
       </c>
     </row>
@@ -3271,17 +3363,17 @@
         <v>70186.94281756871</v>
       </c>
       <c r="P31" t="n">
+        <v>5259.6</v>
+      </c>
+      <c r="Q31" t="n">
         <v>337334.7617398696</v>
       </c>
-      <c r="Q31" t="n">
+      <c r="R31" t="n">
         <v>304613.2898511023</v>
       </c>
-      <c r="R31" t="n">
+      <c r="S31" t="n">
         <v>4318896.954555552</v>
       </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
@@ -3289,27 +3381,30 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
         <v>379334.7617398696</v>
       </c>
-      <c r="W31" t="n">
+      <c r="X31" t="n">
         <v>73491.26832136279</v>
       </c>
-      <c r="X31" t="n">
+      <c r="Y31" t="n">
         <v>101781.0723690087</v>
       </c>
-      <c r="Y31" t="n">
+      <c r="Z31" t="n">
         <v>15267.16085535131</v>
       </c>
-      <c r="Z31" t="n">
+      <c r="AA31" t="n">
         <v>73491.26832136279</v>
       </c>
-      <c r="AA31" t="n">
-        <v>0</v>
-      </c>
       <c r="AB31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC31" t="n">
         <v>1614020.499392288</v>
       </c>
-      <c r="AC31" t="n">
+      <c r="AD31" t="n">
         <v>5932917.453947839</v>
       </c>
     </row>
@@ -3362,17 +3457,17 @@
         <v>74188.50730273216</v>
       </c>
       <c r="P32" t="n">
+        <v>6837.6</v>
+      </c>
+      <c r="Q32" t="n">
         <v>354007.9470947174</v>
       </c>
-      <c r="Q32" t="n">
+      <c r="R32" t="n">
         <v>302322.7868188886</v>
       </c>
-      <c r="R32" t="n">
+      <c r="S32" t="n">
         <v>4267211.794279723</v>
       </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
@@ -3380,27 +3475,30 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
         <v>396007.9470947174</v>
       </c>
-      <c r="W32" t="n">
+      <c r="X32" t="n">
         <v>79093.19267301896</v>
       </c>
-      <c r="X32" t="n">
+      <c r="Y32" t="n">
         <v>112981.4349574602</v>
       </c>
-      <c r="Y32" t="n">
+      <c r="Z32" t="n">
         <v>16947.21524361903</v>
       </c>
-      <c r="Z32" t="n">
+      <c r="AA32" t="n">
         <v>79093.19267301896</v>
       </c>
-      <c r="AA32" t="n">
-        <v>0</v>
-      </c>
       <c r="AB32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC32" t="n">
         <v>1789147.911779148</v>
       </c>
-      <c r="AC32" t="n">
+      <c r="AD32" t="n">
         <v>6056359.706058872</v>
       </c>
     </row>
@@ -3453,17 +3551,17 @@
         <v>78301.60644952273</v>
       </c>
       <c r="P33" t="n">
+        <v>6837.6</v>
+      </c>
+      <c r="Q33" t="n">
         <v>371061.8951547585</v>
       </c>
-      <c r="Q33" t="n">
+      <c r="R33" t="n">
         <v>298704.8255995807</v>
       </c>
-      <c r="R33" t="n">
+      <c r="S33" t="n">
         <v>4194854.724724546</v>
       </c>
-      <c r="S33" t="n">
-        <v>0</v>
-      </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
@@ -3471,27 +3569,30 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="n">
         <v>413061.8951547585</v>
       </c>
-      <c r="W33" t="n">
+      <c r="X33" t="n">
         <v>84752.25417270063</v>
       </c>
-      <c r="X33" t="n">
+      <c r="Y33" t="n">
         <v>125240.3538245404</v>
       </c>
-      <c r="Y33" t="n">
+      <c r="Z33" t="n">
         <v>18786.05307368106</v>
       </c>
-      <c r="Z33" t="n">
+      <c r="AA33" t="n">
         <v>84752.25417270063</v>
       </c>
-      <c r="AA33" t="n">
-        <v>0</v>
-      </c>
       <c r="AB33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC33" t="n">
         <v>1980354.466702709</v>
       </c>
-      <c r="AC33" t="n">
+      <c r="AD33" t="n">
         <v>6175209.191427255</v>
       </c>
     </row>
@@ -3544,17 +3645,17 @@
         <v>83853.79184369024</v>
       </c>
       <c r="P34" t="n">
+        <v>6837.6</v>
+      </c>
+      <c r="Q34" t="n">
         <v>388412.474511532</v>
       </c>
-      <c r="Q34" t="n">
+      <c r="R34" t="n">
         <v>293639.8307307183</v>
       </c>
-      <c r="R34" t="n">
+      <c r="S34" t="n">
         <v>4100082.080943733</v>
       </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
@@ -3562,27 +3663,30 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
         <v>430412.474511532</v>
       </c>
-      <c r="W34" t="n">
+      <c r="X34" t="n">
         <v>89050.40709933045</v>
       </c>
-      <c r="X34" t="n">
+      <c r="Y34" t="n">
         <v>138624.8126691896</v>
       </c>
-      <c r="Y34" t="n">
+      <c r="Z34" t="n">
         <v>20793.72190037844</v>
       </c>
-      <c r="Z34" t="n">
+      <c r="AA34" t="n">
         <v>89050.40709933045</v>
       </c>
-      <c r="AA34" t="n">
-        <v>0</v>
-      </c>
       <c r="AB34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC34" t="n">
         <v>2187235.96457085</v>
       </c>
-      <c r="AC34" t="n">
+      <c r="AD34" t="n">
         <v>6287318.045514583</v>
       </c>
     </row>
@@ -3635,17 +3739,17 @@
         <v>89465.39068336578</v>
       </c>
       <c r="P35" t="n">
+        <v>8414.4</v>
+      </c>
+      <c r="Q35" t="n">
         <v>405948.7208855181</v>
       </c>
-      <c r="Q35" t="n">
+      <c r="R35" t="n">
         <v>287005.7456660613</v>
       </c>
-      <c r="R35" t="n">
+      <c r="S35" t="n">
         <v>3981139.105724276</v>
       </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
@@ -3653,27 +3757,30 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
         <v>447948.7208855181</v>
       </c>
-      <c r="W35" t="n">
+      <c r="X35" t="n">
         <v>93249.80636658572</v>
       </c>
-      <c r="X35" t="n">
+      <c r="Y35" t="n">
         <v>153106.5175199595</v>
       </c>
-      <c r="Y35" t="n">
+      <c r="Z35" t="n">
         <v>22965.97762799393</v>
       </c>
-      <c r="Z35" t="n">
+      <c r="AA35" t="n">
         <v>93249.80636658572</v>
       </c>
-      <c r="AA35" t="n">
-        <v>0</v>
-      </c>
       <c r="AB35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC35" t="n">
         <v>2410626.310829401</v>
       </c>
-      <c r="AC35" t="n">
+      <c r="AD35" t="n">
         <v>6391765.416553678</v>
       </c>
     </row>
@@ -3726,17 +3833,17 @@
         <v>93663.32777176509</v>
       </c>
       <c r="P36" t="n">
+        <v>8414.4</v>
+      </c>
+      <c r="Q36" t="n">
         <v>419067.2742867659</v>
       </c>
-      <c r="Q36" t="n">
+      <c r="R36" t="n">
         <v>278679.7374006993</v>
       </c>
-      <c r="R36" t="n">
+      <c r="S36" t="n">
         <v>3840751.568838209</v>
       </c>
-      <c r="S36" t="n">
-        <v>0</v>
-      </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
@@ -3744,27 +3851,30 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="n">
         <v>461067.2742867659</v>
       </c>
-      <c r="W36" t="n">
+      <c r="X36" t="n">
         <v>94213.41696436721</v>
       </c>
-      <c r="X36" t="n">
+      <c r="Y36" t="n">
         <v>168743.8417580581</v>
       </c>
-      <c r="Y36" t="n">
+      <c r="Z36" t="n">
         <v>25311.57626370872</v>
       </c>
-      <c r="Z36" t="n">
+      <c r="AA36" t="n">
         <v>94213.41696436721</v>
       </c>
-      <c r="AA36" t="n">
-        <v>0</v>
-      </c>
       <c r="AB36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC36" t="n">
         <v>2648271.993288118</v>
       </c>
-      <c r="AC36" t="n">
+      <c r="AD36" t="n">
         <v>6489023.562126327</v>
       </c>
     </row>
@@ -3817,17 +3927,17 @@
         <v>97656.23843013786</v>
       </c>
       <c r="P37" t="n">
+        <v>8414.4</v>
+      </c>
+      <c r="Q37" t="n">
         <v>431545.1200941808</v>
       </c>
-      <c r="Q37" t="n">
+      <c r="R37" t="n">
         <v>268852.6098186747</v>
       </c>
-      <c r="R37" t="n">
+      <c r="S37" t="n">
         <v>3678059.058562703</v>
       </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
@@ -3835,27 +3945,30 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
         <v>473545.1200941808</v>
       </c>
-      <c r="W37" t="n">
+      <c r="X37" t="n">
         <v>94502.63622689032</v>
       </c>
-      <c r="X37" t="n">
+      <c r="Y37" t="n">
         <v>185379.0395301683</v>
       </c>
-      <c r="Y37" t="n">
+      <c r="Z37" t="n">
         <v>27806.85592952525</v>
       </c>
-      <c r="Z37" t="n">
+      <c r="AA37" t="n">
         <v>94502.63622689032</v>
       </c>
-      <c r="AA37" t="n">
-        <v>0</v>
-      </c>
       <c r="AB37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC37" t="n">
         <v>2900346.813115652</v>
       </c>
-      <c r="AC37" t="n">
+      <c r="AD37" t="n">
         <v>6578405.871678355</v>
       </c>
     </row>
@@ -3870,7 +3983,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC37"/>
+  <dimension ref="A1:AD37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3956,70 +4069,75 @@
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
+          <t>IRMAA_Premium</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
           <t>Total_IRA_Distribution</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Trad_IRA_Growth</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Trad_IRA_End</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Roth_Distribution</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Roth_IRA_Growth</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Roth_IRA_End</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Net_Available</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Surplus_Deficit</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Taxable_Growth</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Taxable_Cap_Gains_Tax</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Taxable_Contribution</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Taxable_Withdrawal</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Taxable_End</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Total_Assets_End</t>
         </is>
@@ -4074,29 +4192,29 @@
         <v>78220.88700186041</v>
       </c>
       <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
         <v>416199.8870018604</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
         <v>161000</v>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>2044800.11299814</v>
       </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
       <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
         <v>16658.53</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>254637.53</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>178220.8870018604</v>
       </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
@@ -4113,6 +4231,9 @@
         <v>0</v>
       </c>
       <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
         <v>2299437.642998139</v>
       </c>
     </row>
@@ -4165,29 +4286,29 @@
         <v>78220.88509975898</v>
       </c>
       <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>416199.885099759</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="R3" t="n">
         <v>143136.0079098698</v>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>1771736.23580825</v>
       </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
       <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
         <v>34273.1571</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>523889.6871</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>181220.885099759</v>
       </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
@@ -4204,6 +4325,9 @@
         <v>0</v>
       </c>
       <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
         <v>2295625.922908251</v>
       </c>
     </row>
@@ -4256,29 +4380,29 @@
         <v>78220.88321778813</v>
       </c>
       <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
         <v>416199.8832177881</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="R4" t="n">
         <v>124021.5365065775</v>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>1479557.88909704</v>
       </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
       <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
         <v>52904.50809700001</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>808683.1951970001</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>184310.8832177881</v>
       </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
@@ -4295,6 +4419,9 @@
         <v>0</v>
       </c>
       <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
         <v>2288241.08429404</v>
       </c>
     </row>
@@ -4347,29 +4474,29 @@
         <v>78220.88136801033</v>
       </c>
       <c r="P5" t="n">
+        <v>8414.4</v>
+      </c>
+      <c r="Q5" t="n">
         <v>416199.8813680103</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="R5" t="n">
         <v>103569.0522367928</v>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>1166927.059965823</v>
       </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
       <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
         <v>72617.26466379</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>1110006.75986079</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>187493.5813680103</v>
       </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
@@ -4386,6 +4513,9 @@
         <v>0</v>
       </c>
       <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
         <v>2276933.819826613</v>
       </c>
     </row>
@@ -4438,29 +4568,29 @@
         <v>78220.87946273922</v>
       </c>
       <c r="P6" t="n">
+        <v>8414.4</v>
+      </c>
+      <c r="Q6" t="n">
         <v>416199.8794627392</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="R6" t="n">
         <v>81684.89419760759</v>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>832412.074700691</v>
       </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
       <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
         <v>93480.44152025531</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>1428915.320381045</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>190771.7604627392</v>
       </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
@@ -4477,6 +4607,9 @@
         <v>0</v>
       </c>
       <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
         <v>2261327.395081736</v>
       </c>
     </row>
@@ -4529,29 +4662,29 @@
         <v>84747.65856930841</v>
       </c>
       <c r="P7" t="n">
+        <v>16828.8</v>
+      </c>
+      <c r="Q7" t="n">
         <v>416198.6585693084</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="R7" t="n">
         <v>58268.84522904838</v>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>474482.261360431</v>
       </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
       <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
         <v>116790.7239065732</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>1785229.636857619</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>200675.0659993084</v>
       </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
@@ -4568,6 +4701,9 @@
         <v>0</v>
       </c>
       <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
         <v>2259711.89821805</v>
       </c>
     </row>
@@ -4620,29 +4756,29 @@
         <v>84747.63654361</v>
       </c>
       <c r="P8" t="n">
+        <v>16828.8</v>
+      </c>
+      <c r="Q8" t="n">
         <v>416198.63654361</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="R8" t="n">
         <v>33213.75829523017</v>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>91497.38311205123</v>
       </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
       <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
         <v>141489.2785043303</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>2162764.685709049</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>204152.86619651</v>
       </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
@@ -4659,6 +4795,9 @@
         <v>0</v>
       </c>
       <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
         <v>2254262.0688211</v>
       </c>
     </row>
@@ -4711,29 +4850,29 @@
         <v>36096.29136979136</v>
       </c>
       <c r="P9" t="n">
+        <v>16828.8</v>
+      </c>
+      <c r="Q9" t="n">
         <v>184581.0610243296</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="R9" t="n">
         <v>6404.816817843587</v>
       </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
       <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
         <v>86678.8610944348</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>157798.344817477</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>2325381.552544143</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>159083.6779122784</v>
       </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
@@ -4750,6 +4889,9 @@
         <v>0</v>
       </c>
       <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
         <v>2325381.552544143</v>
       </c>
     </row>
@@ -4802,29 +4944,29 @@
         <v>11141.98762017463</v>
       </c>
       <c r="P10" t="n">
+        <v>5280</v>
+      </c>
+      <c r="Q10" t="n">
         <v>71818.99575893627</v>
       </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
         <v>71818.99575893627</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>162776.70867809</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>2416339.265463296</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>137818.9957589363</v>
       </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
@@ -4841,6 +4983,9 @@
         <v>0</v>
       </c>
       <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
         <v>2416339.265463296</v>
       </c>
     </row>
@@ -4893,29 +5038,29 @@
         <v>12214.04953664177</v>
       </c>
       <c r="P11" t="n">
+        <v>5280</v>
+      </c>
+      <c r="Q11" t="n">
         <v>76691.36791956626</v>
       </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
       <c r="R11" t="n">
         <v>0</v>
       </c>
       <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
         <v>76691.36791956626</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>169143.7485824308</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>2508791.646126161</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>142691.3679195663</v>
       </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
@@ -4932,6 +5077,9 @@
         <v>0</v>
       </c>
       <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
         <v>2508791.646126161</v>
       </c>
     </row>
@@ -4984,29 +5132,29 @@
         <v>13318.08252126195</v>
       </c>
       <c r="P12" t="n">
+        <v>5280</v>
+      </c>
+      <c r="Q12" t="n">
         <v>81709.72045567416</v>
       </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
       <c r="R12" t="n">
         <v>0</v>
       </c>
       <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
         <v>81709.72045567416</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>175615.4152288313</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>2602697.340899319</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>147709.7204556742</v>
       </c>
-      <c r="W12" t="n">
-        <v>0</v>
-      </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
@@ -5023,6 +5171,9 @@
         <v>0</v>
       </c>
       <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
         <v>2602697.340899319</v>
       </c>
     </row>
@@ -5075,29 +5226,29 @@
         <v>14455.23497768442</v>
       </c>
       <c r="P13" t="n">
+        <v>5280</v>
+      </c>
+      <c r="Q13" t="n">
         <v>86878.62205012902</v>
       </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
       <c r="R13" t="n">
         <v>0</v>
       </c>
       <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
         <v>86878.62205012902</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>182188.8138629523</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>2698007.532712142</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>152878.622050129</v>
       </c>
-      <c r="W13" t="n">
-        <v>0</v>
-      </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
@@ -5114,6 +5265,9 @@
         <v>0</v>
       </c>
       <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
         <v>2698007.532712142</v>
       </c>
     </row>
@@ -5166,29 +5320,29 @@
         <v>15626.50336390147</v>
       </c>
       <c r="P14" t="n">
+        <v>5280</v>
+      </c>
+      <c r="Q14" t="n">
         <v>92202.59204851938</v>
       </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
       <c r="R14" t="n">
         <v>0</v>
       </c>
       <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
         <v>92202.59204851938</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>188860.52728985</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>2794665.467953473</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>158202.5920485194</v>
       </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
@@ -5205,6 +5359,9 @@
         <v>0</v>
       </c>
       <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
         <v>2794665.467953473</v>
       </c>
     </row>
@@ -5257,29 +5414,29 @@
         <v>16832.90980170505</v>
       </c>
       <c r="P15" t="n">
+        <v>5280</v>
+      </c>
+      <c r="Q15" t="n">
         <v>97686.28114686153</v>
       </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
       <c r="R15" t="n">
         <v>0</v>
       </c>
       <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
         <v>97686.28114686153</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>195626.5827567432</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>2892605.769563355</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>163686.2811468615</v>
       </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
@@ -5296,6 +5453,9 @@
         <v>0</v>
       </c>
       <c r="AC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="n">
         <v>2892605.769563355</v>
       </c>
     </row>
@@ -5348,29 +5508,29 @@
         <v>18075.50843264273</v>
       </c>
       <c r="P16" t="n">
+        <v>5280</v>
+      </c>
+      <c r="Q16" t="n">
         <v>103334.4809181539</v>
       </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
       <c r="R16" t="n">
         <v>0</v>
       </c>
       <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
         <v>103334.4809181539</v>
       </c>
-      <c r="T16" t="n">
+      <c r="U16" t="n">
         <v>202482.4038694349</v>
       </c>
-      <c r="U16" t="n">
+      <c r="V16" t="n">
         <v>2991753.692514636</v>
       </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
         <v>169334.4809181539</v>
       </c>
-      <c r="W16" t="n">
-        <v>0</v>
-      </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
@@ -5387,6 +5547,9 @@
         <v>0</v>
       </c>
       <c r="AC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="n">
         <v>2991753.692514636</v>
       </c>
     </row>
@@ -5439,29 +5602,29 @@
         <v>19355.38502250854</v>
       </c>
       <c r="P17" t="n">
+        <v>5280</v>
+      </c>
+      <c r="Q17" t="n">
         <v>109152.126682585</v>
       </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
       <c r="R17" t="n">
         <v>0</v>
       </c>
       <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
         <v>109152.126682585</v>
       </c>
-      <c r="T17" t="n">
+      <c r="U17" t="n">
         <v>209422.7584760246</v>
       </c>
-      <c r="U17" t="n">
+      <c r="V17" t="n">
         <v>3092024.324308075</v>
       </c>
-      <c r="V17" t="n">
+      <c r="W17" t="n">
         <v>175152.126682585</v>
       </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
@@ -5478,6 +5641,9 @@
         <v>0</v>
       </c>
       <c r="AC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="n">
         <v>3092024.324308075</v>
       </c>
     </row>
@@ -5530,29 +5696,29 @@
         <v>20673.65791007033</v>
       </c>
       <c r="P18" t="n">
+        <v>5280</v>
+      </c>
+      <c r="Q18" t="n">
         <v>115144.3018199491</v>
       </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
       <c r="R18" t="n">
         <v>0</v>
       </c>
       <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
         <v>115144.3018199491</v>
       </c>
-      <c r="T18" t="n">
+      <c r="U18" t="n">
         <v>216441.7027015653</v>
       </c>
-      <c r="U18" t="n">
+      <c r="V18" t="n">
         <v>3193321.725189692</v>
       </c>
-      <c r="V18" t="n">
+      <c r="W18" t="n">
         <v>181144.3018199491</v>
       </c>
-      <c r="W18" t="n">
-        <v>0</v>
-      </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
@@ -5569,6 +5735,9 @@
         <v>0</v>
       </c>
       <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
         <v>3193321.725189692</v>
       </c>
     </row>
@@ -5621,29 +5790,29 @@
         <v>22031.47898425897</v>
       </c>
       <c r="P19" t="n">
+        <v>5280</v>
+      </c>
+      <c r="Q19" t="n">
         <v>121316.2422114342</v>
       </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
         <v>121316.2422114342</v>
       </c>
-      <c r="T19" t="n">
+      <c r="U19" t="n">
         <v>223532.5207632784</v>
       </c>
-      <c r="U19" t="n">
+      <c r="V19" t="n">
         <v>3295538.003741536</v>
       </c>
-      <c r="V19" t="n">
+      <c r="W19" t="n">
         <v>187316.2422114342</v>
       </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
@@ -5660,6 +5829,9 @@
         <v>0</v>
       </c>
       <c r="AC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="n">
         <v>3295538.003741536</v>
       </c>
     </row>
@@ -5712,29 +5884,29 @@
         <v>23430.03469067326</v>
       </c>
       <c r="P20" t="n">
+        <v>5280</v>
+      </c>
+      <c r="Q20" t="n">
         <v>127673.3408146637</v>
       </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
       <c r="R20" t="n">
         <v>0</v>
       </c>
       <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
         <v>127673.3408146637</v>
       </c>
-      <c r="T20" t="n">
+      <c r="U20" t="n">
         <v>230687.6602619076</v>
       </c>
-      <c r="U20" t="n">
+      <c r="V20" t="n">
         <v>3398552.32318878</v>
       </c>
-      <c r="V20" t="n">
+      <c r="W20" t="n">
         <v>193673.3408146637</v>
       </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
@@ -5751,6 +5923,9 @@
         <v>0</v>
       </c>
       <c r="AC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="n">
         <v>3398552.32318878</v>
       </c>
     </row>
@@ -5803,29 +5978,29 @@
         <v>24870.54706827999</v>
       </c>
       <c r="P21" t="n">
+        <v>5280</v>
+      </c>
+      <c r="Q21" t="n">
         <v>134221.1523759901</v>
       </c>
-      <c r="Q21" t="n">
-        <v>0</v>
-      </c>
       <c r="R21" t="n">
         <v>0</v>
       </c>
       <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
         <v>134221.1523759901</v>
       </c>
-      <c r="T21" t="n">
+      <c r="U21" t="n">
         <v>237898.6626232147</v>
       </c>
-      <c r="U21" t="n">
+      <c r="V21" t="n">
         <v>3502229.833436005</v>
       </c>
-      <c r="V21" t="n">
+      <c r="W21" t="n">
         <v>200221.1523759901</v>
       </c>
-      <c r="W21" t="n">
-        <v>0</v>
-      </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
@@ -5842,6 +6017,9 @@
         <v>0</v>
       </c>
       <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
         <v>3502229.833436005</v>
       </c>
     </row>
@@ -5894,29 +6072,29 @@
         <v>26354.27481721492</v>
       </c>
       <c r="P22" t="n">
+        <v>5280</v>
+      </c>
+      <c r="Q22" t="n">
         <v>140965.3982841564</v>
       </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
       <c r="R22" t="n">
         <v>0</v>
       </c>
       <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
         <v>140965.3982841564</v>
       </c>
-      <c r="T22" t="n">
+      <c r="U22" t="n">
         <v>245156.0883405204</v>
       </c>
-      <c r="U22" t="n">
+      <c r="V22" t="n">
         <v>3606420.523492369</v>
       </c>
-      <c r="V22" t="n">
+      <c r="W22" t="n">
         <v>206965.3982841564</v>
       </c>
-      <c r="W22" t="n">
-        <v>0</v>
-      </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
@@ -5933,6 +6111,9 @@
         <v>0</v>
       </c>
       <c r="AC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD22" t="n">
         <v>3606420.523492369</v>
       </c>
     </row>
@@ -5985,29 +6166,29 @@
         <v>27882.5143986179</v>
       </c>
       <c r="P23" t="n">
+        <v>5280</v>
+      </c>
+      <c r="Q23" t="n">
         <v>147911.9715695676</v>
       </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
         <v>147911.9715695676</v>
       </c>
-      <c r="T23" t="n">
+      <c r="U23" t="n">
         <v>252449.4366444659</v>
       </c>
-      <c r="U23" t="n">
+      <c r="V23" t="n">
         <v>3710957.988567268</v>
       </c>
-      <c r="V23" t="n">
+      <c r="W23" t="n">
         <v>213911.9715695676</v>
       </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
@@ -6024,6 +6205,9 @@
         <v>0</v>
       </c>
       <c r="AC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="n">
         <v>3710957.988567268</v>
       </c>
     </row>
@@ -6076,29 +6260,29 @@
         <v>29456.60116746297</v>
       </c>
       <c r="P24" t="n">
+        <v>5280</v>
+      </c>
+      <c r="Q24" t="n">
         <v>155066.9420535412</v>
       </c>
-      <c r="Q24" t="n">
-        <v>0</v>
-      </c>
       <c r="R24" t="n">
         <v>0</v>
       </c>
       <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
         <v>155066.9420535412</v>
       </c>
-      <c r="T24" t="n">
+      <c r="U24" t="n">
         <v>259767.0591997088</v>
       </c>
-      <c r="U24" t="n">
+      <c r="V24" t="n">
         <v>3815658.105713436</v>
       </c>
-      <c r="V24" t="n">
+      <c r="W24" t="n">
         <v>221066.9420535412</v>
       </c>
-      <c r="W24" t="n">
-        <v>0</v>
-      </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
@@ -6115,6 +6299,9 @@
         <v>0</v>
       </c>
       <c r="AC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="n">
         <v>3815658.105713436</v>
       </c>
     </row>
@@ -6167,29 +6354,29 @@
         <v>31077.91053937339</v>
       </c>
       <c r="P25" t="n">
+        <v>5280</v>
+      </c>
+      <c r="Q25" t="n">
         <v>162436.561652034</v>
       </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
         <v>162436.561652034</v>
       </c>
-      <c r="T25" t="n">
+      <c r="U25" t="n">
         <v>267096.0673999405</v>
       </c>
-      <c r="U25" t="n">
+      <c r="V25" t="n">
         <v>3920317.611461343</v>
       </c>
-      <c r="V25" t="n">
+      <c r="W25" t="n">
         <v>228436.561652034</v>
       </c>
-      <c r="W25" t="n">
-        <v>0</v>
-      </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
@@ -6206,6 +6393,9 @@
         <v>0</v>
       </c>
       <c r="AC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="n">
         <v>3920317.611461343</v>
       </c>
     </row>
@@ -6258,29 +6448,29 @@
         <v>36754.72266282733</v>
       </c>
       <c r="P26" t="n">
+        <v>2640</v>
+      </c>
+      <c r="Q26" t="n">
         <v>198034.1333088677</v>
       </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
       <c r="R26" t="n">
         <v>0</v>
       </c>
       <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
         <v>198034.1333088677</v>
       </c>
-      <c r="T26" t="n">
+      <c r="U26" t="n">
         <v>274422.232802294</v>
       </c>
-      <c r="U26" t="n">
+      <c r="V26" t="n">
         <v>3996705.71095477</v>
       </c>
-      <c r="V26" t="n">
+      <c r="W26" t="n">
         <v>240034.1333088677</v>
       </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
@@ -6297,6 +6487,9 @@
         <v>0</v>
       </c>
       <c r="AC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD26" t="n">
         <v>3996705.71095477</v>
       </c>
     </row>
@@ -6349,29 +6542,29 @@
         <v>38680.52117562109</v>
       </c>
       <c r="P27" t="n">
+        <v>2640</v>
+      </c>
+      <c r="Q27" t="n">
         <v>206058.3141410427</v>
       </c>
-      <c r="Q27" t="n">
-        <v>0</v>
-      </c>
       <c r="R27" t="n">
         <v>0</v>
       </c>
       <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
         <v>206058.3141410427</v>
       </c>
-      <c r="T27" t="n">
+      <c r="U27" t="n">
         <v>279769.3997668339</v>
       </c>
-      <c r="U27" t="n">
+      <c r="V27" t="n">
         <v>4070416.796580561</v>
       </c>
-      <c r="V27" t="n">
+      <c r="W27" t="n">
         <v>248058.3141410427</v>
       </c>
-      <c r="W27" t="n">
-        <v>0</v>
-      </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
@@ -6388,6 +6581,9 @@
         <v>0</v>
       </c>
       <c r="AC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD27" t="n">
         <v>4070416.796580561</v>
       </c>
     </row>
@@ -6440,29 +6636,29 @@
         <v>40664.09364379869</v>
       </c>
       <c r="P28" t="n">
+        <v>3682.8</v>
+      </c>
+      <c r="Q28" t="n">
         <v>214323.220398183</v>
       </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
       <c r="R28" t="n">
         <v>0</v>
       </c>
       <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
         <v>214323.220398183</v>
       </c>
-      <c r="T28" t="n">
+      <c r="U28" t="n">
         <v>284929.1757606393</v>
       </c>
-      <c r="U28" t="n">
+      <c r="V28" t="n">
         <v>4141022.751943018</v>
       </c>
-      <c r="V28" t="n">
+      <c r="W28" t="n">
         <v>256323.220398183</v>
       </c>
-      <c r="W28" t="n">
-        <v>0</v>
-      </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
@@ -6479,6 +6675,9 @@
         <v>0</v>
       </c>
       <c r="AC28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD28" t="n">
         <v>4141022.751943018</v>
       </c>
     </row>
@@ -6531,29 +6730,29 @@
         <v>42707.1732860216</v>
       </c>
       <c r="P29" t="n">
+        <v>3682.8</v>
+      </c>
+      <c r="Q29" t="n">
         <v>222836.0738430374</v>
       </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
       <c r="R29" t="n">
         <v>0</v>
       </c>
       <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
         <v>222836.0738430374</v>
       </c>
-      <c r="T29" t="n">
+      <c r="U29" t="n">
         <v>289871.5926360113</v>
       </c>
-      <c r="U29" t="n">
+      <c r="V29" t="n">
         <v>4208058.270735992</v>
       </c>
-      <c r="V29" t="n">
+      <c r="W29" t="n">
         <v>264836.0738430374</v>
       </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
@@ -6570,6 +6769,9 @@
         <v>0</v>
       </c>
       <c r="AC29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD29" t="n">
         <v>4208058.270735992</v>
       </c>
     </row>
@@ -6622,29 +6824,29 @@
         <v>44811.54531751118</v>
       </c>
       <c r="P30" t="n">
+        <v>3682.8</v>
+      </c>
+      <c r="Q30" t="n">
         <v>231604.3128912374</v>
       </c>
-      <c r="Q30" t="n">
-        <v>0</v>
-      </c>
       <c r="R30" t="n">
         <v>0</v>
       </c>
       <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
         <v>231604.3128912374</v>
       </c>
-      <c r="T30" t="n">
+      <c r="U30" t="n">
         <v>294564.0789515194</v>
       </c>
-      <c r="U30" t="n">
+      <c r="V30" t="n">
         <v>4271018.036796275</v>
       </c>
-      <c r="V30" t="n">
+      <c r="W30" t="n">
         <v>273604.3128912374</v>
       </c>
-      <c r="W30" t="n">
-        <v>0</v>
-      </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
@@ -6661,6 +6863,9 @@
         <v>0</v>
       </c>
       <c r="AC30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD30" t="n">
         <v>4271018.036796275</v>
       </c>
     </row>
@@ -6713,29 +6918,29 @@
         <v>46979.04976404468</v>
       </c>
       <c r="P31" t="n">
+        <v>3682.8</v>
+      </c>
+      <c r="Q31" t="n">
         <v>240635.6003649828</v>
       </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
       <c r="R31" t="n">
         <v>0</v>
       </c>
       <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
         <v>240635.6003649828</v>
       </c>
-      <c r="T31" t="n">
+      <c r="U31" t="n">
         <v>298971.2625757392</v>
       </c>
-      <c r="U31" t="n">
+      <c r="V31" t="n">
         <v>4329353.699007031</v>
       </c>
-      <c r="V31" t="n">
+      <c r="W31" t="n">
         <v>282635.6003649828</v>
       </c>
-      <c r="W31" t="n">
-        <v>0</v>
-      </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
@@ -6752,6 +6957,9 @@
         <v>0</v>
       </c>
       <c r="AC31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD31" t="n">
         <v>4329353.699007031</v>
       </c>
     </row>
@@ -6804,29 +7012,29 @@
         <v>49211.57960865012</v>
       </c>
       <c r="P32" t="n">
+        <v>3682.8</v>
+      </c>
+      <c r="Q32" t="n">
         <v>249937.8267276164</v>
       </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
       <c r="R32" t="n">
         <v>0</v>
       </c>
       <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
         <v>249937.8267276164</v>
       </c>
-      <c r="T32" t="n">
+      <c r="U32" t="n">
         <v>303054.7589304922</v>
       </c>
-      <c r="U32" t="n">
+      <c r="V32" t="n">
         <v>4382470.631209906</v>
       </c>
-      <c r="V32" t="n">
+      <c r="W32" t="n">
         <v>291937.8267276164</v>
       </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
@@ -6843,6 +7051,9 @@
         <v>0</v>
       </c>
       <c r="AC32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD32" t="n">
         <v>4382470.631209906</v>
       </c>
     </row>
@@ -6895,29 +7106,29 @@
         <v>51511.08534859371</v>
       </c>
       <c r="P33" t="n">
+        <v>3682.8</v>
+      </c>
+      <c r="Q33" t="n">
         <v>259519.1198811289</v>
       </c>
-      <c r="Q33" t="n">
-        <v>0</v>
-      </c>
       <c r="R33" t="n">
         <v>0</v>
       </c>
       <c r="S33" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" t="n">
         <v>259519.1198811289</v>
       </c>
-      <c r="T33" t="n">
+      <c r="U33" t="n">
         <v>306772.9441846934</v>
       </c>
-      <c r="U33" t="n">
+      <c r="V33" t="n">
         <v>4429724.455513471</v>
       </c>
-      <c r="V33" t="n">
+      <c r="W33" t="n">
         <v>301519.1198811289</v>
       </c>
-      <c r="W33" t="n">
-        <v>0</v>
-      </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
@@ -6934,6 +7145,9 @@
         <v>0</v>
       </c>
       <c r="AC33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD33" t="n">
         <v>4429724.455513471</v>
       </c>
     </row>
@@ -6986,29 +7200,29 @@
         <v>53879.57626073564</v>
       </c>
       <c r="P34" t="n">
+        <v>5259.6</v>
+      </c>
+      <c r="Q34" t="n">
         <v>269387.8518292469</v>
       </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
       <c r="R34" t="n">
         <v>0</v>
       </c>
       <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
         <v>269387.8518292469</v>
       </c>
-      <c r="T34" t="n">
+      <c r="U34" t="n">
         <v>310080.711885943</v>
       </c>
-      <c r="U34" t="n">
+      <c r="V34" t="n">
         <v>4470417.315570167</v>
       </c>
-      <c r="V34" t="n">
+      <c r="W34" t="n">
         <v>311387.8518292469</v>
       </c>
-      <c r="W34" t="n">
-        <v>0</v>
-      </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
@@ -7025,6 +7239,9 @@
         <v>0</v>
       </c>
       <c r="AC34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD34" t="n">
         <v>4470417.315570167</v>
       </c>
     </row>
@@ -7077,29 +7294,29 @@
         <v>56319.12190024181</v>
       </c>
       <c r="P35" t="n">
+        <v>5259.6</v>
+      </c>
+      <c r="Q35" t="n">
         <v>279552.6457358084</v>
       </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
       <c r="R35" t="n">
         <v>0</v>
       </c>
       <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
         <v>279552.6457358084</v>
       </c>
-      <c r="T35" t="n">
+      <c r="U35" t="n">
         <v>312929.2120899117</v>
       </c>
-      <c r="U35" t="n">
+      <c r="V35" t="n">
         <v>4503793.881924271</v>
       </c>
-      <c r="V35" t="n">
+      <c r="W35" t="n">
         <v>321552.6457358084</v>
       </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
@@ -7116,6 +7333,9 @@
         <v>0</v>
       </c>
       <c r="AC35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD35" t="n">
         <v>4503793.881924271</v>
       </c>
     </row>
@@ -7168,29 +7388,29 @@
         <v>58831.85390893318</v>
       </c>
       <c r="P36" t="n">
+        <v>5259.6</v>
+      </c>
+      <c r="Q36" t="n">
         <v>290022.3834595668</v>
       </c>
-      <c r="Q36" t="n">
-        <v>0</v>
-      </c>
       <c r="R36" t="n">
         <v>0</v>
       </c>
       <c r="S36" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" t="n">
         <v>290022.3834595668</v>
       </c>
-      <c r="T36" t="n">
+      <c r="U36" t="n">
         <v>315265.571734699</v>
       </c>
-      <c r="U36" t="n">
+      <c r="V36" t="n">
         <v>4529037.070199403</v>
       </c>
-      <c r="V36" t="n">
+      <c r="W36" t="n">
         <v>332022.3834595668</v>
       </c>
-      <c r="W36" t="n">
-        <v>0</v>
-      </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
@@ -7207,6 +7427,9 @@
         <v>0</v>
       </c>
       <c r="AC36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD36" t="n">
         <v>4529037.070199403</v>
       </c>
     </row>
@@ -7259,29 +7482,29 @@
         <v>61419.96787788527</v>
       </c>
       <c r="P37" t="n">
+        <v>5259.6</v>
+      </c>
+      <c r="Q37" t="n">
         <v>300806.2133150379</v>
       </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
       <c r="R37" t="n">
         <v>0</v>
       </c>
       <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
         <v>300806.2133150379</v>
       </c>
-      <c r="T37" t="n">
+      <c r="U37" t="n">
         <v>317032.5949139582</v>
       </c>
-      <c r="U37" t="n">
+      <c r="V37" t="n">
         <v>4545263.451798324</v>
       </c>
-      <c r="V37" t="n">
+      <c r="W37" t="n">
         <v>342806.2133150379</v>
       </c>
-      <c r="W37" t="n">
-        <v>0</v>
-      </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
@@ -7298,6 +7521,9 @@
         <v>0</v>
       </c>
       <c r="AC37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD37" t="n">
         <v>4545263.451798324</v>
       </c>
     </row>
@@ -7312,7 +7538,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7328,30 +7554,50 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Total_Lifetime_Taxes</t>
+          <t>Total_Lifetime_Income_Taxes</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Total_Cap_Gains_Taxes</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Total_IRMAA</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Total_All_Taxes</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Total_Conversions</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Final_Traditional_IRA</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Final_Roth_IRA</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Final_Taxable_Account</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Total_Final_Assets</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Avg_Annual_Surplus</t>
         </is>
@@ -7367,18 +7613,30 @@
         <v>1470849.639991607</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>243752.9965027214</v>
       </c>
       <c r="D2" t="n">
+        <v>189679.2</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1904281.836494328</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>3678059.058562703</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>3678059.058562703</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2900346.813115652</v>
+      </c>
+      <c r="J2" t="n">
+        <v>6578405.871678355</v>
+      </c>
+      <c r="K2" t="n">
         <v>42196.66202593229</v>
       </c>
     </row>
@@ -7392,18 +7650,30 @@
         <v>1505262.974240204</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>200210.4</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1705473.374240204</v>
+      </c>
+      <c r="F3" t="n">
         <v>1726048.165029151</v>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>4545263.451798324</v>
       </c>
-      <c r="F3" t="n">
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
         <v>4545263.451798324</v>
       </c>
-      <c r="G3" t="n">
+      <c r="K3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7418,7 +7688,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC9"/>
+  <dimension ref="A1:AD9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7504,70 +7774,75 @@
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
+          <t>IRMAA_Premium</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
           <t>Total_IRA_Distribution</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Trad_IRA_Growth</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Trad_IRA_End</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Roth_Distribution</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Roth_IRA_Growth</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Roth_IRA_End</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Net_Available</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Surplus_Deficit</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Taxable_Growth</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Taxable_Cap_Gains_Tax</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Taxable_Contribution</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Taxable_Withdrawal</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Taxable_End</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Total_Assets_End</t>
         </is>
@@ -7622,29 +7897,29 @@
         <v>78220.88700186041</v>
       </c>
       <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
         <v>416199.8870018604</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
         <v>161000</v>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>2044800.11299814</v>
       </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
       <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
         <v>16658.53</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>254637.53</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>178220.8870018604</v>
       </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
@@ -7661,6 +7936,9 @@
         <v>0</v>
       </c>
       <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
         <v>2299437.642998139</v>
       </c>
     </row>
@@ -7713,29 +7991,29 @@
         <v>78220.88509975898</v>
       </c>
       <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>416199.885099759</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="R3" t="n">
         <v>143136.0079098698</v>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>1771736.23580825</v>
       </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
       <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
         <v>34273.1571</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>523889.6871</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>181220.885099759</v>
       </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
@@ -7752,6 +8030,9 @@
         <v>0</v>
       </c>
       <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
         <v>2295625.922908251</v>
       </c>
     </row>
@@ -7804,29 +8085,29 @@
         <v>78220.88321778813</v>
       </c>
       <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
         <v>416199.8832177881</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="R4" t="n">
         <v>124021.5365065775</v>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>1479557.88909704</v>
       </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
       <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
         <v>52904.50809700001</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>808683.1951970001</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>184310.8832177881</v>
       </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
@@ -7843,6 +8124,9 @@
         <v>0</v>
       </c>
       <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
         <v>2288241.08429404</v>
       </c>
     </row>
@@ -7895,29 +8179,29 @@
         <v>78220.88136801033</v>
       </c>
       <c r="P5" t="n">
+        <v>8414.4</v>
+      </c>
+      <c r="Q5" t="n">
         <v>416199.8813680103</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="R5" t="n">
         <v>103569.0522367928</v>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>1166927.059965823</v>
       </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
       <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
         <v>72617.26466379</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>1110006.75986079</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>187493.5813680103</v>
       </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
@@ -7934,6 +8218,9 @@
         <v>0</v>
       </c>
       <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
         <v>2276933.819826613</v>
       </c>
     </row>
@@ -7986,29 +8273,29 @@
         <v>78220.87946273922</v>
       </c>
       <c r="P6" t="n">
+        <v>8414.4</v>
+      </c>
+      <c r="Q6" t="n">
         <v>416199.8794627392</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="R6" t="n">
         <v>81684.89419760759</v>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>832412.074700691</v>
       </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
       <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
         <v>93480.44152025531</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>1428915.320381045</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>190771.7604627392</v>
       </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
@@ -8025,6 +8312,9 @@
         <v>0</v>
       </c>
       <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
         <v>2261327.395081736</v>
       </c>
     </row>
@@ -8077,29 +8367,29 @@
         <v>84747.65856930841</v>
       </c>
       <c r="P7" t="n">
+        <v>16828.8</v>
+      </c>
+      <c r="Q7" t="n">
         <v>416198.6585693084</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="R7" t="n">
         <v>58268.84522904838</v>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>474482.261360431</v>
       </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
       <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
         <v>116790.7239065732</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>1785229.636857619</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>200675.0659993084</v>
       </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
@@ -8116,6 +8406,9 @@
         <v>0</v>
       </c>
       <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
         <v>2259711.89821805</v>
       </c>
     </row>
@@ -8168,29 +8461,29 @@
         <v>84747.63654361</v>
       </c>
       <c r="P8" t="n">
+        <v>16828.8</v>
+      </c>
+      <c r="Q8" t="n">
         <v>416198.63654361</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="R8" t="n">
         <v>33213.75829523017</v>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>91497.38311205123</v>
       </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
       <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
         <v>141489.2785043303</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>2162764.685709049</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>204152.86619651</v>
       </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
@@ -8207,6 +8500,9 @@
         <v>0</v>
       </c>
       <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
         <v>2254262.0688211</v>
       </c>
     </row>
@@ -8259,29 +8555,29 @@
         <v>36096.29136979136</v>
       </c>
       <c r="P9" t="n">
+        <v>16828.8</v>
+      </c>
+      <c r="Q9" t="n">
         <v>184581.0610243296</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="R9" t="n">
         <v>6404.816817843587</v>
       </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
       <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
         <v>86678.8610944348</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>157798.344817477</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>2325381.552544143</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>159083.6779122784</v>
       </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
@@ -8298,6 +8594,9 @@
         <v>0</v>
       </c>
       <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
         <v>2325381.552544143</v>
       </c>
     </row>
